--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helen\Desktop\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A5A19D-44ED-4DE8-A60B-D2D34CA7B997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3951A910-F16C-4A60-9ACB-0081A01D54A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="744">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2727,6 +2727,72 @@
   </si>
   <si>
     <t xml:space="preserve">10.3389/fbioe.2023.1179980 </t>
+  </si>
+  <si>
+    <t>Automated Detection of Portal Fields and Central Veins in Whole-Slide Images of Liver Tissue</t>
+  </si>
+  <si>
+    <t>Budelmann D, Laue H, Weis N, Dahmen U, D’Alessandro LA, Biermayer I, Klingmüller U, Ghallab A, Hassan R, Begher-Tibbe B, Hengstler JG, Schwen LO</t>
+  </si>
+  <si>
+    <t>Many physiological processes and pathological phenomena in the liver tissue are spatially heterogeneous. At a local scale, biomarkers can be quantified along the axis of the blood flow, from portal fields (PFs) to central veins (CVs), i.e., in zonated form. This requires detecting PFs and CVs. However, manually annotating these structures in multiple whole-slide images is a tedious task. We describe and evaluate a fully automated method, based on a convolutional neural network, for simultaneously detecting PFs and CVs in a single stained section. Trained on scans of hematoxylin and eosin-stained liver tissue, the detector performed well with an F1 score of 0.81 compared to annotation by a human expert. It does, however, not generalize well to previously unseen scans of steatotic liver tissue with an F1 score of 0.59. Automated PF and CV detection eliminates the bottleneck of manual annotation for subsequent automated analyses, as illustrated by two proof-of-concept applications: We computed lobulus sizes based on the detected PF and CV positions, where results agreed with published lobulus sizes. Moreover, we demonstrate the feasibility of zonated quantification of biomarkers detected in different stainings based on lobuli and zones obtained from the detected PF and CV positions. A negative control (hematoxylin and eosin) showed the expected homogeneity, a positive control (glutamine synthetase) was quantified to be strictly pericentral, and a plausible zonation for a heterogeneous F4/80 staining was obtained. Automated detection of PFs and CVs is one building block for automatically quantifying physiologically relevant heterogeneity of liver tissue biomarkers. Perspectively, a more robust and automated assessment of zonation from whole-slide images will be valuable for parameterizing spatially resolved models of liver metabolism and to provide diagnostic information.</t>
+  </si>
+  <si>
+    <t>Journal of Pathology Informatics 2022 13:100001, doi: 10.1016/j.jpi.2022.100001</t>
+  </si>
+  <si>
+    <t>2/14/2022</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1qmU_QTNS3-U0odNaQclebHO2u52FOHkS</t>
+  </si>
+  <si>
+    <t>(None received QuaLiPerF funding for this work)</t>
+  </si>
+  <si>
+    <t>Zenodo</t>
+  </si>
+  <si>
+    <t>Data, Code</t>
+  </si>
+  <si>
+    <t>Stea-PK Mod</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Datasets for "Automated Detection of Portal Fields and Central Veins in Whole-Slide Images of Liver Tissue"</t>
+  </si>
+  <si>
+    <t>Datasets and results for the manuscript “Automated Detection of Portal Fields and Central Veins in Whole-Slide Images of Liver Tissue” (Journal of Pathology Informatics 13 (2022) 100001, https://doi.org/10.1016/j.jpi.2022.100001)</t>
+  </si>
+  <si>
+    <t>Zenodo 2022, doi: 10.5281/zenodo.5726769</t>
+  </si>
+  <si>
+    <t>Segmentation of Lipid Droplets in Histological Images</t>
+  </si>
+  <si>
+    <t>Budelmann D, Cao Q, Laue H, Albadry M, Dahmen U, Schwen LO</t>
+  </si>
+  <si>
+    <t>Steatosis is a common liver disease characterized by the accumulation of lipid droplets in cells. Precise and reliable fat droplet identification is essential for automatic steatosis quantification in histological images. We trained a nnU-Net to automatically segment lipid vacuoles in whole-slide images using semi-automatically generated reference annotations. We evaluated the performance of the trained model on two out-of-distribution datasets. The trained model’s average F1 scores (0.801 and 0.804) suggest a high potential of the nnU-Net framework for the automatic segmentation of lipid vacuoles.</t>
+  </si>
+  <si>
+    <t>Medical Imaging with Deep Learning MIDL 2023, https://2023.midl.io/</t>
+  </si>
+  <si>
+    <t>Data, code</t>
+  </si>
+  <si>
+    <t>Dataset for "Segmentation of Lipid Droplets in Histological Images"</t>
+  </si>
+  <si>
+    <t>Datasets for the publication "Segmentation of Lipid Droplets in Histological Images" (submitted)</t>
+  </si>
+  <si>
+    <t>Zenodo 2023, doi: 10.5281/zenodo.7802211</t>
   </si>
 </sst>
 </file>
@@ -2898,7 +2964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3037,6 +3103,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10664,8 +10739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -12266,32 +12341,64 @@
       <c r="Z30" s="46"/>
       <c r="AA30" s="46"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
+    <row r="31" spans="1:27" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="54">
+        <v>45265.410578703704</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>723</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>724</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>725</v>
+      </c>
+      <c r="H31" s="46"/>
+      <c r="I31" s="48" t="s">
+        <v>726</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="49" t="s">
+        <v>727</v>
+      </c>
+      <c r="L31" s="46" t="s">
+        <v>728</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="46" t="s">
+        <v>729</v>
+      </c>
+      <c r="O31" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46" t="s">
+        <v>731</v>
+      </c>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="46"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -14857,9 +14964,10 @@
     <hyperlink ref="K29" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
     <hyperlink ref="K30" r:id="rId22" xr:uid="{495057DF-2B1C-4385-ADFB-55D6A8A151DF}"/>
     <hyperlink ref="S30" r:id="rId23" display="https://doi.org/10.3389/fbioe.2023.1179980" xr:uid="{79C24F57-0DBE-48F6-BE5F-139B44D1E7CC}"/>
+    <hyperlink ref="K31" r:id="rId24" xr:uid="{3035AAD5-AD1A-47B4-A065-757BF07E623F}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId24"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -18416,9 +18524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ102"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -18437,7 +18545,7 @@
     <col min="25" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -18497,7 +18605,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>44665.383020370398</v>
       </c>
@@ -18547,33 +18655,64 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53">
+        <v>45265.423993055556</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>736</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>737</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>738</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46" t="s">
+        <v>739</v>
+      </c>
+      <c r="I3" s="55">
+        <v>45081</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46" t="s">
+        <v>728</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>729</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>740</v>
+      </c>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46" t="s">
+        <v>731</v>
+      </c>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -18599,7 +18738,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -18625,7 +18764,7 @@
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -18651,7 +18790,7 @@
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -18677,7 +18816,7 @@
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -18703,7 +18842,7 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -18729,7 +18868,7 @@
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -18755,7 +18894,7 @@
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -18781,7 +18920,7 @@
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -18807,7 +18946,7 @@
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -18833,7 +18972,7 @@
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -18859,7 +18998,7 @@
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -18885,7 +19024,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -21162,9 +21301,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ163"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66:AA66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -23708,7 +23847,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:24" s="45" customFormat="1" ht="337.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" s="45" customFormat="1" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="42" t="s">
         <v>708</v>
       </c>
@@ -23756,59 +23895,109 @@
       <c r="W64" s="43"/>
       <c r="X64" s="43"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="54">
+        <v>45265.412118055552</v>
+      </c>
+      <c r="B65" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" s="46" t="s">
+        <v>732</v>
+      </c>
+      <c r="D65" s="46" t="s">
+        <v>733</v>
+      </c>
+      <c r="E65" s="46" t="s">
+        <v>723</v>
+      </c>
+      <c r="F65" s="46" t="s">
+        <v>734</v>
+      </c>
+      <c r="G65" s="47" t="s">
+        <v>735</v>
+      </c>
+      <c r="H65" s="46"/>
+      <c r="I65" s="55">
+        <v>44420</v>
+      </c>
+      <c r="J65" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K65" s="46"/>
+      <c r="L65" s="47" t="s">
+        <v>728</v>
+      </c>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46" t="s">
+        <v>731</v>
+      </c>
+      <c r="R65" s="46"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="46"/>
+      <c r="X65" s="46"/>
+      <c r="Y65" s="46"/>
+      <c r="Z65" s="46"/>
+      <c r="AA65" s="46"/>
+    </row>
+    <row r="66" spans="1:27" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="53">
+        <v>45265.425995370373</v>
+      </c>
+      <c r="B66" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="46" t="s">
+        <v>732</v>
+      </c>
+      <c r="D66" s="46" t="s">
+        <v>741</v>
+      </c>
+      <c r="E66" s="46" t="s">
+        <v>737</v>
+      </c>
+      <c r="F66" s="46" t="s">
+        <v>742</v>
+      </c>
+      <c r="G66" s="47" t="s">
+        <v>743</v>
+      </c>
+      <c r="H66" s="46"/>
+      <c r="I66" s="55">
+        <v>45050</v>
+      </c>
+      <c r="J66" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K66" s="46"/>
+      <c r="L66" s="47" t="s">
+        <v>728</v>
+      </c>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="46" t="s">
+        <v>731</v>
+      </c>
+      <c r="R66" s="46"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="46"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="46"/>
+      <c r="Y66" s="46"/>
+      <c r="Z66" s="46"/>
+      <c r="AA66" s="46"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -23834,7 +24023,7 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -23860,7 +24049,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -23886,7 +24075,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -23912,7 +24101,7 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -23938,7 +24127,7 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -23964,7 +24153,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -23990,7 +24179,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -24016,7 +24205,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -24042,7 +24231,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -24068,7 +24257,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -24094,7 +24283,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -24120,7 +24309,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -24146,7 +24335,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>

--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helen\Desktop\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3951A910-F16C-4A60-9ACB-0081A01D54A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1F5882-BF61-4A05-AAD5-37635DC20B45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="750">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2793,6 +2793,32 @@
   </si>
   <si>
     <t>Zenodo 2023, doi: 10.5281/zenodo.7802211</t>
+  </si>
+  <si>
+    <t>5/17/2023 14:21:40</t>
+  </si>
+  <si>
+    <t>Keynote presentation</t>
+  </si>
+  <si>
+    <t>Digital twins for liver function and metabolic phenotyping</t>
+  </si>
+  <si>
+    <t>Physiologically-based pharmacokinetic (PBPK) models are powerful tools for studying drug metabolism and its effect on the human body. Here, we present our work on applying PBPK models as digital twins for metabolic phenotyping and liver function evaluation [1-6]. To develop and validate our models, we established the first open pharmacokinetics database, PK-DB, which contains curated data from over 600 clinical studies. Our models can be individualized and stratified, allowing us to simulate the effect of lifestyle factors and co-administration on drug metabolism.
+We have applied our models to various clinical questions, such as simulating individual outcomes after hepatectomy using an indocyanine green model and studying the effect of CYP2D6 gene variants using a model of dextromethorphan coupled with drug-gene interactions. These models are constructed hierarchically, describing metabolism and other biological processes of organs such as liver and kidney coupled to whole-body physiology. All models and data are available for reuse in a reproducible manner encoded in the Systems Biology Markup Language (SBML).
+Here we will give an overview of PBPK models and how SBML can facilitate model development, coupling and reuse.
+- PK-DB: pharmacokinetics database for individualized and stratified computational modeling. Grzegorzewski J, Brandhorst J, Green K, Eleftheriadou D, Duport Y, Barthorscht F, Köller A, Ke DYJ, De Angelis S, König M. Nucleic Acids Res. 2021 Jan 8;49(D1):D1358-D1364. doi:10.1093/nar/gkaa990. pmid:33151297
+- Pharmacokinetics of caffeine: A systematic analysis of reported data for application in metabolic phenotyping and liver function testing. Jan Grzegorzewski, Florian Bartsch, Adrian Köller, and Matthias König. Frontiers in Pharmacology 2022, Vol12. doi:10.3389/fphar.2021.752826. pmid:35280254
+- Prediction of survival after hepatectomy using a physiologically based pharmacokinetic model of indocyanine green liver function tests. Adrian Köller, Jan Grzegorzewski, Michael Tautenhahn, Matthias König. Front. Physiol., 22 November 2021. doi:10.3389/fphys.2021.730418. pmid:34880771
+- Physiologically based modeling of the effect of physiological and anthropometric variability on indocyanine green based liver function tests. Adrian Köller, Jan Grzegorzewski and Matthias König. Front Physiol. 2021 Nov 22;12:757293. doi:10.3389/fphys.2021.757293. pmid:34880776
+- Physiologically based pharmacokinetic (PBPK) modeling of the role of CYP2D6 polymorphism for metabolic phenotyping with dextromethorphan. Grzegorzewski, J., Brandhorst, J., König, M. Front Pharmacol. 2022 Oct 24;13:1029073. doi:10.3389/fphar.2022.1029073. pmid:36353484
+- A physiologically based pharmacokinetic model for CYP2E1 phenotyping via chlorzoxazone. J. Küttner, J. Grzegorzewski, HM. Tautenhahn, M. König. bioRxiv 2023.04.12.536571 (preprint). doi:10.1101/2023.04.12.536571</t>
+  </si>
+  <si>
+    <t>MBM2023 - Workshop on Modelling in Biology and Medicine - https://mbm.systemsbiology.se</t>
+  </si>
+  <si>
+    <t>5/17/2023</t>
   </si>
 </sst>
 </file>
@@ -3503,23 +3529,23 @@
       <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.54296875" style="1"/>
+    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3579,7 +3605,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>44427.932484722201</v>
       </c>
@@ -3629,7 +3655,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
     </row>
-    <row r="3" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>44427.939851157404</v>
       </c>
@@ -3679,7 +3705,7 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>44427.947995254603</v>
       </c>
@@ -3729,7 +3755,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>44427.963724074099</v>
       </c>
@@ -3772,7 +3798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>44427.966733564797</v>
       </c>
@@ -3815,7 +3841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>44427.969025810198</v>
       </c>
@@ -3858,7 +3884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="400" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>44427.971651504602</v>
       </c>
@@ -3901,7 +3927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="375" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="395.25" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>44427.977659027798</v>
       </c>
@@ -3944,7 +3970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="387.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="408" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>44427.979484606498</v>
       </c>
@@ -3987,7 +4013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="162.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>44502.680754861103</v>
       </c>
@@ -4029,7 +4055,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>44503.444289930601</v>
       </c>
@@ -4071,7 +4097,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>44504.433192939803</v>
       </c>
@@ -4113,7 +4139,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>44508.576334143501</v>
       </c>
@@ -4155,7 +4181,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>44510.606990972199</v>
       </c>
@@ -4197,7 +4223,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="337.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="357" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>44510.621671643501</v>
       </c>
@@ -4239,7 +4265,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>44510.635692708303</v>
       </c>
@@ -4281,7 +4307,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>44515.604827430601</v>
       </c>
@@ -4323,7 +4349,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>44515.605781597202</v>
       </c>
@@ -4362,7 +4388,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>44519.393009722196</v>
       </c>
@@ -4404,7 +4430,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>44519.396759837997</v>
       </c>
@@ -4446,7 +4472,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>44521.415261921298</v>
       </c>
@@ -4488,7 +4514,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="300" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>44521.417680324099</v>
       </c>
@@ -4530,7 +4556,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>44531.422715046298</v>
       </c>
@@ -4572,7 +4598,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>44536.689336226897</v>
       </c>
@@ -4614,7 +4640,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>44537.460719444498</v>
       </c>
@@ -4653,7 +4679,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>44545.415467245402</v>
       </c>
@@ -4695,7 +4721,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>44547.4125025463</v>
       </c>
@@ -4737,7 +4763,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>44571.655250347198</v>
       </c>
@@ -4776,7 +4802,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>44583.738363078701</v>
       </c>
@@ -4818,7 +4844,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>44583.740276504599</v>
       </c>
@@ -4860,7 +4886,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="375" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="395.25" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>44645.469280208301</v>
       </c>
@@ -4901,7 +4927,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>44658.465437268504</v>
       </c>
@@ -4942,7 +4968,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>44664.599232754597</v>
       </c>
@@ -4986,7 +5012,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="153" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>44664.614628935196</v>
       </c>
@@ -5021,7 +5047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>44664.623678935197</v>
       </c>
@@ -5062,7 +5088,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="387.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>44664.629289467601</v>
       </c>
@@ -5097,7 +5123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="187.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>44664.634484722199</v>
       </c>
@@ -5129,7 +5155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>44664.764159490704</v>
       </c>
@@ -5166,7 +5192,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>44664.7695739583</v>
       </c>
@@ -5204,7 +5230,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>44665.383020370398</v>
       </c>
@@ -5254,7 +5280,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>44665.612281597198</v>
       </c>
@@ -5298,7 +5324,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>44679.852050810201</v>
       </c>
@@ -5342,7 +5368,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>44684.589149305597</v>
       </c>
@@ -5386,7 +5412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>44687.332683333298</v>
       </c>
@@ -5424,7 +5450,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="300" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="318.75" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>44690.414530786999</v>
       </c>
@@ -5468,7 +5494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>44714.613704513897</v>
       </c>
@@ -5506,7 +5532,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="153" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>44714.631931828699</v>
       </c>
@@ -5550,7 +5576,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="400" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="408" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>44721.479891666699</v>
       </c>
@@ -5597,7 +5623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>44724.908495023199</v>
       </c>
@@ -5635,7 +5661,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>44724.915100462997</v>
       </c>
@@ -5676,7 +5702,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>44724.917635300902</v>
       </c>
@@ -5717,7 +5743,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>44737.343279629597</v>
       </c>
@@ -5755,7 +5781,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="175" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>44743.461584375</v>
       </c>
@@ -5799,7 +5825,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="153" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>44743.470339120402</v>
       </c>
@@ -5843,7 +5869,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>44743.522404282397</v>
       </c>
@@ -5887,7 +5913,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>44747.804503819403</v>
       </c>
@@ -5928,7 +5954,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>44748.500684375002</v>
       </c>
@@ -5969,7 +5995,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>44748.502863773203</v>
       </c>
@@ -6010,7 +6036,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>44748.505962499999</v>
       </c>
@@ -6051,7 +6077,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
         <v>44748.507295949101</v>
       </c>
@@ -6092,7 +6118,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>44748.508126967601</v>
       </c>
@@ -6130,7 +6156,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>44763.373567361101</v>
       </c>
@@ -6174,7 +6200,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
         <v>44763.382295023199</v>
       </c>
@@ -6215,7 +6241,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>44769.6992456019</v>
       </c>
@@ -6256,7 +6282,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
         <v>44769.701641435197</v>
       </c>
@@ -6297,7 +6323,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
         <v>44774.632290162001</v>
       </c>
@@ -6338,7 +6364,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
         <v>44774.633085995403</v>
       </c>
@@ -6379,7 +6405,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
         <v>44774.633985648099</v>
       </c>
@@ -6420,7 +6446,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A70" s="16">
         <v>44799.3730923611</v>
       </c>
@@ -6467,7 +6493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
         <v>44831.785569097199</v>
       </c>
@@ -6511,7 +6537,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A72" s="16">
         <v>44831.788137962998</v>
       </c>
@@ -6555,7 +6581,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A73" s="16">
         <v>44831.969735532402</v>
       </c>
@@ -6599,7 +6625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
         <v>44837.462938194403</v>
       </c>
@@ -6637,7 +6663,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A75" s="16">
         <v>44838.598316782402</v>
       </c>
@@ -6681,7 +6707,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A76" s="16">
         <v>44838.604422453704</v>
       </c>
@@ -6725,7 +6751,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="350" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A77" s="16">
         <v>44838.767622685198</v>
       </c>
@@ -6769,7 +6795,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A78" s="16">
         <v>44844.515792939797</v>
       </c>
@@ -6810,7 +6836,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A79" s="16">
         <v>44845.4522701389</v>
       </c>
@@ -6851,7 +6877,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
         <v>44858.360405555599</v>
       </c>
@@ -6895,7 +6921,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A81" s="16">
         <v>44858.786968055603</v>
       </c>
@@ -6933,7 +6959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A82" s="16">
         <v>44875.428184837998</v>
       </c>
@@ -6968,7 +6994,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>44875.434203009303</v>
       </c>
@@ -7000,7 +7026,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="362.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="369.75" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>44875.441085763901</v>
       </c>
@@ -7032,7 +7058,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
         <v>44875.443288541697</v>
       </c>
@@ -7064,7 +7090,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
         <v>44875.453703819403</v>
       </c>
@@ -7099,7 +7125,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
         <v>44875.454279166697</v>
       </c>
@@ -7134,7 +7160,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A88" s="16">
         <v>44907.440478009303</v>
       </c>
@@ -7181,7 +7207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
         <v>44912.925343634299</v>
       </c>
@@ -7228,7 +7254,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A90" s="16">
         <v>44914.371327893503</v>
       </c>
@@ -7272,7 +7298,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="375" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="395.25" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
         <v>44929.354307870402</v>
       </c>
@@ -7313,7 +7339,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
         <v>44943.356896874997</v>
       </c>
@@ -7354,7 +7380,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A93" s="16">
         <v>44960.467609143503</v>
       </c>
@@ -7401,7 +7427,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A94" s="16">
         <v>44962.636147222198</v>
       </c>
@@ -7439,7 +7465,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A95" s="16">
         <v>44969.706999305599</v>
       </c>
@@ -7474,7 +7500,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="350" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A96" s="16">
         <v>44972.571888425897</v>
       </c>
@@ -7521,7 +7547,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A97" s="16">
         <v>44984.705640509303</v>
       </c>
@@ -7559,7 +7585,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A98" s="16">
         <v>44984.707487500003</v>
       </c>
@@ -7597,7 +7623,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A99" s="16">
         <v>44984.709653124999</v>
       </c>
@@ -7635,7 +7661,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="375" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A100" s="16">
         <v>44984.711797338001</v>
       </c>
@@ -7673,7 +7699,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A101" s="16">
         <v>44984.713593634297</v>
       </c>
@@ -7711,7 +7737,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A102" s="16">
         <v>44984.918457754597</v>
       </c>
@@ -7743,7 +7769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A103" s="16">
         <v>44984.920112500004</v>
       </c>
@@ -7775,7 +7801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="50" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="16">
         <v>44987.654823495403</v>
       </c>
@@ -7810,7 +7836,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="50" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="16">
         <v>44987.656404050897</v>
       </c>
@@ -7845,7 +7871,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="50" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="16">
         <v>44987.657589930597</v>
       </c>
@@ -7880,7 +7906,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A107" s="16">
         <v>44992.747801851903</v>
       </c>
@@ -7919,7 +7945,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A108" s="16">
         <v>44998.039198495397</v>
       </c>
@@ -7966,7 +7992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="250" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
         <v>45012.448258796299</v>
       </c>
@@ -8013,7 +8039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A110" s="16">
         <v>45016.456743865703</v>
       </c>
@@ -8057,7 +8083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -8083,7 +8109,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -8109,7 +8135,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -8135,7 +8161,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -8161,7 +8187,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -8187,7 +8213,7 @@
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -8213,7 +8239,7 @@
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -8239,7 +8265,7 @@
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -8265,7 +8291,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -8291,7 +8317,7 @@
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -8317,7 +8343,7 @@
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -8343,7 +8369,7 @@
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -8369,7 +8395,7 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -8395,7 +8421,7 @@
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -8421,7 +8447,7 @@
       <c r="W124" s="9"/>
       <c r="X124" s="9"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -8447,7 +8473,7 @@
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -8473,7 +8499,7 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -8499,7 +8525,7 @@
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -8525,7 +8551,7 @@
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -8551,7 +8577,7 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -8577,7 +8603,7 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -8603,7 +8629,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -8629,7 +8655,7 @@
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -8655,7 +8681,7 @@
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -8681,7 +8707,7 @@
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -8707,7 +8733,7 @@
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -8733,7 +8759,7 @@
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -8759,7 +8785,7 @@
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -8785,7 +8811,7 @@
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -8811,7 +8837,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -8837,7 +8863,7 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -8863,7 +8889,7 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -8889,7 +8915,7 @@
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -8915,7 +8941,7 @@
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -8941,7 +8967,7 @@
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -8967,7 +8993,7 @@
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -8993,7 +9019,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -9019,7 +9045,7 @@
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -9045,7 +9071,7 @@
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -9071,7 +9097,7 @@
       <c r="W149" s="9"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -9097,7 +9123,7 @@
       <c r="W150" s="9"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -9123,7 +9149,7 @@
       <c r="W151" s="9"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -9149,7 +9175,7 @@
       <c r="W152" s="9"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -9175,7 +9201,7 @@
       <c r="W153" s="9"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -9201,7 +9227,7 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -9227,7 +9253,7 @@
       <c r="W155" s="9"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -9253,7 +9279,7 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -9279,7 +9305,7 @@
       <c r="W157" s="9"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -9305,7 +9331,7 @@
       <c r="W158" s="9"/>
       <c r="X158" s="9"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -9331,7 +9357,7 @@
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -9357,7 +9383,7 @@
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -9383,7 +9409,7 @@
       <c r="W161" s="9"/>
       <c r="X161" s="9"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -9409,7 +9435,7 @@
       <c r="W162" s="9"/>
       <c r="X162" s="9"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -9435,7 +9461,7 @@
       <c r="W163" s="9"/>
       <c r="X163" s="9"/>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -9461,7 +9487,7 @@
       <c r="W164" s="9"/>
       <c r="X164" s="9"/>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -9487,7 +9513,7 @@
       <c r="W165" s="9"/>
       <c r="X165" s="9"/>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -9513,7 +9539,7 @@
       <c r="W166" s="9"/>
       <c r="X166" s="9"/>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -9539,7 +9565,7 @@
       <c r="W167" s="9"/>
       <c r="X167" s="9"/>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -9565,7 +9591,7 @@
       <c r="W168" s="9"/>
       <c r="X168" s="9"/>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -9591,7 +9617,7 @@
       <c r="W169" s="9"/>
       <c r="X169" s="9"/>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -9617,7 +9643,7 @@
       <c r="W170" s="9"/>
       <c r="X170" s="9"/>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -9643,7 +9669,7 @@
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -9669,7 +9695,7 @@
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -9695,7 +9721,7 @@
       <c r="W173" s="9"/>
       <c r="X173" s="9"/>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -9721,7 +9747,7 @@
       <c r="W174" s="9"/>
       <c r="X174" s="9"/>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -9747,7 +9773,7 @@
       <c r="W175" s="9"/>
       <c r="X175" s="9"/>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -9773,7 +9799,7 @@
       <c r="W176" s="9"/>
       <c r="X176" s="9"/>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -9799,7 +9825,7 @@
       <c r="W177" s="9"/>
       <c r="X177" s="9"/>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -9825,7 +9851,7 @@
       <c r="W178" s="9"/>
       <c r="X178" s="9"/>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -9851,7 +9877,7 @@
       <c r="W179" s="9"/>
       <c r="X179" s="9"/>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -9877,7 +9903,7 @@
       <c r="W180" s="9"/>
       <c r="X180" s="9"/>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -9903,7 +9929,7 @@
       <c r="W181" s="9"/>
       <c r="X181" s="9"/>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -9929,7 +9955,7 @@
       <c r="W182" s="9"/>
       <c r="X182" s="9"/>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -9955,7 +9981,7 @@
       <c r="W183" s="9"/>
       <c r="X183" s="9"/>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -9981,7 +10007,7 @@
       <c r="W184" s="9"/>
       <c r="X184" s="9"/>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -10007,7 +10033,7 @@
       <c r="W185" s="9"/>
       <c r="X185" s="9"/>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -10033,7 +10059,7 @@
       <c r="W186" s="9"/>
       <c r="X186" s="9"/>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -10059,7 +10085,7 @@
       <c r="W187" s="9"/>
       <c r="X187" s="9"/>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -10085,7 +10111,7 @@
       <c r="W188" s="9"/>
       <c r="X188" s="9"/>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -10111,7 +10137,7 @@
       <c r="W189" s="9"/>
       <c r="X189" s="9"/>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -10137,7 +10163,7 @@
       <c r="W190" s="9"/>
       <c r="X190" s="9"/>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -10163,7 +10189,7 @@
       <c r="W191" s="9"/>
       <c r="X191" s="9"/>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -10189,7 +10215,7 @@
       <c r="W192" s="9"/>
       <c r="X192" s="9"/>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -10215,7 +10241,7 @@
       <c r="W193" s="9"/>
       <c r="X193" s="9"/>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -10241,7 +10267,7 @@
       <c r="W194" s="9"/>
       <c r="X194" s="9"/>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -10267,7 +10293,7 @@
       <c r="W195" s="9"/>
       <c r="X195" s="9"/>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -10293,7 +10319,7 @@
       <c r="W196" s="9"/>
       <c r="X196" s="9"/>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -10319,7 +10345,7 @@
       <c r="W197" s="9"/>
       <c r="X197" s="9"/>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -10345,7 +10371,7 @@
       <c r="W198" s="9"/>
       <c r="X198" s="9"/>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -10371,7 +10397,7 @@
       <c r="W199" s="9"/>
       <c r="X199" s="9"/>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -10397,7 +10423,7 @@
       <c r="W200" s="9"/>
       <c r="X200" s="9"/>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -10423,7 +10449,7 @@
       <c r="W201" s="9"/>
       <c r="X201" s="9"/>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -10449,7 +10475,7 @@
       <c r="W202" s="9"/>
       <c r="X202" s="9"/>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -10475,7 +10501,7 @@
       <c r="W203" s="9"/>
       <c r="X203" s="9"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -10501,7 +10527,7 @@
       <c r="W204" s="9"/>
       <c r="X204" s="9"/>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -10527,7 +10553,7 @@
       <c r="W205" s="9"/>
       <c r="X205" s="9"/>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -10553,7 +10579,7 @@
       <c r="W206" s="9"/>
       <c r="X206" s="9"/>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -10579,7 +10605,7 @@
       <c r="W207" s="9"/>
       <c r="X207" s="9"/>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -10605,7 +10631,7 @@
       <c r="W208" s="9"/>
       <c r="X208" s="9"/>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -10631,7 +10657,7 @@
       <c r="W209" s="9"/>
       <c r="X209" s="9"/>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -10743,26 +10769,26 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="33" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
-    <col min="12" max="17" width="18.81640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.81640625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="28.08984375" style="20" customWidth="1"/>
-    <col min="20" max="25" width="18.81640625" style="1" customWidth="1"/>
-    <col min="26" max="1024" width="12.54296875" style="1"/>
+    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="17" width="18.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" style="20" customWidth="1"/>
+    <col min="19" max="19" width="28.140625" style="20" customWidth="1"/>
+    <col min="20" max="25" width="18.85546875" style="1" customWidth="1"/>
+    <col min="26" max="1024" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10829,7 +10855,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
     </row>
-    <row r="2" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>44510.606990972199</v>
       </c>
@@ -10880,7 +10906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>44510.621671643501</v>
       </c>
@@ -10931,7 +10957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>44519.393009722196</v>
       </c>
@@ -10982,7 +11008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>44536.689336226897</v>
       </c>
@@ -11033,7 +11059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>44545.415467245402</v>
       </c>
@@ -11084,7 +11110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>44547.4125025463</v>
       </c>
@@ -11135,7 +11161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>44571.655250347198</v>
       </c>
@@ -11184,7 +11210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>44664.599232754597</v>
       </c>
@@ -11237,7 +11263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="34.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>44664.614628935196</v>
       </c>
@@ -11282,7 +11308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>44664.764159490704</v>
       </c>
@@ -11329,7 +11355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>44665.612281597198</v>
       </c>
@@ -11382,7 +11408,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="34.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>44679.852050810201</v>
       </c>
@@ -11435,7 +11461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>44690.414530786999</v>
       </c>
@@ -11489,7 +11515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>44724.908495023199</v>
       </c>
@@ -11537,7 +11563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>44724.915100462997</v>
       </c>
@@ -11588,7 +11614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>44724.917635300902</v>
       </c>
@@ -11644,7 +11670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>44748.500684375002</v>
       </c>
@@ -11695,7 +11721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>44769.6992456019</v>
       </c>
@@ -11746,7 +11772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>44837.462938194403</v>
       </c>
@@ -11797,7 +11823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>44907.440478009303</v>
       </c>
@@ -11853,7 +11879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>44912.925343634299</v>
       </c>
@@ -11909,7 +11935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>44929.354307870402</v>
       </c>
@@ -11960,7 +11986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="36.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>44943.356896874997</v>
       </c>
@@ -12011,7 +12037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>44972.571888425897</v>
       </c>
@@ -12067,7 +12093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>44992.747801851903</v>
       </c>
@@ -12116,7 +12142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>45016.456743865703</v>
       </c>
@@ -12169,7 +12195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>44427.963724074099</v>
       </c>
@@ -12226,7 +12252,7 @@
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
     </row>
-    <row r="29" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44427.966733564797</v>
       </c>
@@ -12278,7 +12304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="36.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50">
         <v>45235.627743055556</v>
       </c>
@@ -12341,7 +12367,7 @@
       <c r="Z30" s="46"/>
       <c r="AA30" s="46"/>
     </row>
-    <row r="31" spans="1:27" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
         <v>45265.410578703704</v>
       </c>
@@ -12400,7 +12426,7 @@
       <c r="Z31" s="46"/>
       <c r="AA31" s="46"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -12427,7 +12453,7 @@
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -12454,7 +12480,7 @@
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -12481,7 +12507,7 @@
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -12508,7 +12534,7 @@
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -12535,7 +12561,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -12562,7 +12588,7 @@
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -12589,7 +12615,7 @@
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -12616,7 +12642,7 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -12643,7 +12669,7 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -12670,7 +12696,7 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -12697,7 +12723,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -12724,7 +12750,7 @@
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -12751,7 +12777,7 @@
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -12778,7 +12804,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -12805,7 +12831,7 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -12832,7 +12858,7 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -12859,7 +12885,7 @@
       <c r="X48" s="9"/>
       <c r="Y48" s="9"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -12886,7 +12912,7 @@
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -12913,7 +12939,7 @@
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -12940,7 +12966,7 @@
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -12967,7 +12993,7 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -12994,7 +13020,7 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -13021,7 +13047,7 @@
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -13048,7 +13074,7 @@
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -13075,7 +13101,7 @@
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -13102,7 +13128,7 @@
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -13129,7 +13155,7 @@
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -13156,7 +13182,7 @@
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -13183,7 +13209,7 @@
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -13210,7 +13236,7 @@
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -13237,7 +13263,7 @@
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -13264,7 +13290,7 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -13291,7 +13317,7 @@
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -13318,7 +13344,7 @@
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -13345,7 +13371,7 @@
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -13372,7 +13398,7 @@
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -13399,7 +13425,7 @@
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -13426,7 +13452,7 @@
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -13453,7 +13479,7 @@
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -13480,7 +13506,7 @@
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -13507,7 +13533,7 @@
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -13534,7 +13560,7 @@
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -13561,7 +13587,7 @@
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -13588,7 +13614,7 @@
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -13615,7 +13641,7 @@
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -13642,7 +13668,7 @@
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -13669,7 +13695,7 @@
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -13696,7 +13722,7 @@
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -13723,7 +13749,7 @@
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -13750,7 +13776,7 @@
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -13777,7 +13803,7 @@
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -13804,7 +13830,7 @@
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -13831,7 +13857,7 @@
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -13858,7 +13884,7 @@
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -13885,7 +13911,7 @@
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -13912,7 +13938,7 @@
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -13939,7 +13965,7 @@
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -13966,7 +13992,7 @@
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -13993,7 +14019,7 @@
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -14020,7 +14046,7 @@
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -14047,7 +14073,7 @@
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -14074,7 +14100,7 @@
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -14101,7 +14127,7 @@
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -14128,7 +14154,7 @@
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -14155,7 +14181,7 @@
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -14182,7 +14208,7 @@
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -14209,7 +14235,7 @@
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -14236,7 +14262,7 @@
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -14263,7 +14289,7 @@
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -14290,7 +14316,7 @@
       <c r="X101" s="9"/>
       <c r="Y101" s="9"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -14317,7 +14343,7 @@
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -14344,7 +14370,7 @@
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -14371,7 +14397,7 @@
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -14398,7 +14424,7 @@
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -14425,7 +14451,7 @@
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -14452,7 +14478,7 @@
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -14479,7 +14505,7 @@
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -14506,7 +14532,7 @@
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -14533,7 +14559,7 @@
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -14560,7 +14586,7 @@
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -14587,7 +14613,7 @@
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -14614,7 +14640,7 @@
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -14641,7 +14667,7 @@
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -14668,7 +14694,7 @@
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -14695,7 +14721,7 @@
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -14722,7 +14748,7 @@
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -14749,7 +14775,7 @@
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -14776,7 +14802,7 @@
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -14803,7 +14829,7 @@
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -14830,7 +14856,7 @@
       <c r="X121" s="9"/>
       <c r="Y121" s="9"/>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -14857,7 +14883,7 @@
       <c r="X122" s="9"/>
       <c r="Y122" s="9"/>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -14884,7 +14910,7 @@
       <c r="X123" s="9"/>
       <c r="Y123" s="9"/>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -14911,7 +14937,7 @@
       <c r="X124" s="9"/>
       <c r="Y124" s="9"/>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -14979,27 +15005,27 @@
       <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
-    <col min="12" max="18" width="18.81640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.81640625" style="20" customWidth="1"/>
-    <col min="20" max="20" width="37.26953125" style="20" customWidth="1"/>
-    <col min="21" max="21" width="18.81640625" style="20" customWidth="1"/>
-    <col min="22" max="24" width="18.81640625" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.54296875" style="1"/>
+    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="18" width="18.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="37.28515625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" style="20" customWidth="1"/>
+    <col min="22" max="24" width="18.85546875" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -15067,7 +15093,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>44427.932484722201</v>
       </c>
@@ -15125,7 +15151,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
     </row>
-    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>44427.939851157404</v>
       </c>
@@ -15183,7 +15209,7 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>44427.947995254603</v>
       </c>
@@ -15241,7 +15267,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>44427.969025810198</v>
       </c>
@@ -15296,7 +15322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>44427.971651504602</v>
       </c>
@@ -15351,7 +15377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>44427.977659027798</v>
       </c>
@@ -15406,7 +15432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>44427.979484606498</v>
       </c>
@@ -15461,7 +15487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>44664.623678935197</v>
       </c>
@@ -15515,7 +15541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>44664.629289467601</v>
       </c>
@@ -15563,7 +15589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="36.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>44721.479891666699</v>
       </c>
@@ -15622,7 +15648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>44799.3730923611</v>
       </c>
@@ -15681,7 +15707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>44960.467609143503</v>
       </c>
@@ -15740,7 +15766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>44998.039198495397</v>
       </c>
@@ -15799,7 +15825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>45012.448258796299</v>
       </c>
@@ -15858,7 +15884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
         <v>696</v>
       </c>
@@ -15920,7 +15946,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -15946,7 +15972,7 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -15972,7 +15998,7 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -15998,7 +16024,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -16024,7 +16050,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -16050,7 +16076,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -16076,7 +16102,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -16102,7 +16128,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -16128,7 +16154,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -16154,7 +16180,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -16180,7 +16206,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -16206,7 +16232,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -16232,7 +16258,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -16258,7 +16284,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -16284,7 +16310,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -16310,7 +16336,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -16336,7 +16362,7 @@
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -16362,7 +16388,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -16388,7 +16414,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -16414,7 +16440,7 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -16440,7 +16466,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -16466,7 +16492,7 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -16492,7 +16518,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -16518,7 +16544,7 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -16544,7 +16570,7 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -16570,7 +16596,7 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -16596,7 +16622,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -16622,7 +16648,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -16648,7 +16674,7 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -16674,7 +16700,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -16700,7 +16726,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -16726,7 +16752,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -16752,7 +16778,7 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -16778,7 +16804,7 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -16804,7 +16830,7 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -16830,7 +16856,7 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -16856,7 +16882,7 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -16882,7 +16908,7 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -16908,7 +16934,7 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -16934,7 +16960,7 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -16960,7 +16986,7 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -16986,7 +17012,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -17012,7 +17038,7 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -17038,7 +17064,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -17064,7 +17090,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -17090,7 +17116,7 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -17116,7 +17142,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -17142,7 +17168,7 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -17168,7 +17194,7 @@
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -17194,7 +17220,7 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -17220,7 +17246,7 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -17246,7 +17272,7 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -17272,7 +17298,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -17298,7 +17324,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -17324,7 +17350,7 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -17350,7 +17376,7 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -17376,7 +17402,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -17402,7 +17428,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -17428,7 +17454,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -17454,7 +17480,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -17480,7 +17506,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -17506,7 +17532,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -17532,7 +17558,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -17558,7 +17584,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -17584,7 +17610,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -17610,7 +17636,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -17636,7 +17662,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -17662,7 +17688,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -17688,7 +17714,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -17714,7 +17740,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -17740,7 +17766,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -17766,7 +17792,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -17792,7 +17818,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -17818,7 +17844,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -17844,7 +17870,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -17870,7 +17896,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -17896,7 +17922,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -17922,7 +17948,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -17948,7 +17974,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -17974,7 +18000,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -18000,7 +18026,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -18026,7 +18052,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -18052,7 +18078,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -18078,7 +18104,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -18104,7 +18130,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -18130,7 +18156,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -18156,7 +18182,7 @@
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -18182,7 +18208,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -18208,7 +18234,7 @@
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -18234,7 +18260,7 @@
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -18260,7 +18286,7 @@
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -18286,7 +18312,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -18312,7 +18338,7 @@
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -18338,7 +18364,7 @@
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -18364,7 +18390,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -18390,7 +18416,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -18416,7 +18442,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -18442,7 +18468,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -18468,7 +18494,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -18529,23 +18555,23 @@
       <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="77.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.54296875" style="1"/>
+    <col min="5" max="5" width="77.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -18605,7 +18631,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>44665.383020370398</v>
       </c>
@@ -18655,7 +18681,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53">
         <v>45265.423993055556</v>
       </c>
@@ -18712,7 +18738,7 @@
       <c r="Z3" s="46"/>
       <c r="AA3" s="46"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -18738,7 +18764,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -18764,7 +18790,7 @@
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -18790,7 +18816,7 @@
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -18816,7 +18842,7 @@
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -18842,7 +18868,7 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -18868,7 +18894,7 @@
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -18894,7 +18920,7 @@
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -18920,7 +18946,7 @@
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -18946,7 +18972,7 @@
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -18972,7 +18998,7 @@
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -18998,7 +19024,7 @@
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -19024,7 +19050,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -19050,7 +19076,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -19076,7 +19102,7 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -19102,7 +19128,7 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -19128,7 +19154,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -19154,7 +19180,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -19180,7 +19206,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -19206,7 +19232,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -19232,7 +19258,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -19258,7 +19284,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -19284,7 +19310,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -19310,7 +19336,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -19336,7 +19362,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -19362,7 +19388,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -19388,7 +19414,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -19414,7 +19440,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -19440,7 +19466,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -19466,7 +19492,7 @@
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -19492,7 +19518,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -19518,7 +19544,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -19544,7 +19570,7 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -19570,7 +19596,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -19596,7 +19622,7 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -19622,7 +19648,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -19648,7 +19674,7 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -19674,7 +19700,7 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -19700,7 +19726,7 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -19726,7 +19752,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -19752,7 +19778,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -19778,7 +19804,7 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -19804,7 +19830,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -19830,7 +19856,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -19856,7 +19882,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -19882,7 +19908,7 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -19908,7 +19934,7 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -19934,7 +19960,7 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -19960,7 +19986,7 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -19986,7 +20012,7 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -20012,7 +20038,7 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -20038,7 +20064,7 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -20064,7 +20090,7 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -20090,7 +20116,7 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -20116,7 +20142,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -20142,7 +20168,7 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -20168,7 +20194,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -20194,7 +20220,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -20220,7 +20246,7 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -20246,7 +20272,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -20272,7 +20298,7 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -20298,7 +20324,7 @@
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -20324,7 +20350,7 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -20350,7 +20376,7 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -20376,7 +20402,7 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -20402,7 +20428,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -20428,7 +20454,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -20454,7 +20480,7 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -20480,7 +20506,7 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -20506,7 +20532,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -20532,7 +20558,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -20558,7 +20584,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -20584,7 +20610,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -20610,7 +20636,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -20636,7 +20662,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -20662,7 +20688,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -20688,7 +20714,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -20714,7 +20740,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -20740,7 +20766,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -20766,7 +20792,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -20792,7 +20818,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -20818,7 +20844,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -20844,7 +20870,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -20870,7 +20896,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -20896,7 +20922,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -20922,7 +20948,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -20948,7 +20974,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -20974,7 +21000,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -21000,7 +21026,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -21026,7 +21052,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -21052,7 +21078,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -21078,7 +21104,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -21104,7 +21130,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -21130,7 +21156,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -21156,7 +21182,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -21182,7 +21208,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -21208,7 +21234,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -21234,7 +21260,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -21260,7 +21286,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -21303,26 +21329,26 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66:AA66"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67:AA67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.54296875" style="1"/>
+    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -21382,7 +21408,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>44503.444289930601</v>
       </c>
@@ -21424,7 +21450,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>44504.433192939803</v>
       </c>
@@ -21466,7 +21492,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>44508.576334143501</v>
       </c>
@@ -21508,7 +21534,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>44510.635692708303</v>
       </c>
@@ -21550,7 +21576,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>44515.604827430601</v>
       </c>
@@ -21592,7 +21618,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>44515.605781597202</v>
       </c>
@@ -21631,7 +21657,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>44519.396759837997</v>
       </c>
@@ -21673,7 +21699,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>44521.415261921298</v>
       </c>
@@ -21715,7 +21741,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>44521.417680324099</v>
       </c>
@@ -21757,7 +21783,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>44531.422715046298</v>
       </c>
@@ -21799,7 +21825,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>44537.460719444498</v>
       </c>
@@ -21838,7 +21864,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>44583.738363078701</v>
       </c>
@@ -21880,7 +21906,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>44583.740276504599</v>
       </c>
@@ -21922,7 +21948,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>44645.469280208301</v>
       </c>
@@ -21963,7 +21989,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>44664.7695739583</v>
       </c>
@@ -22001,7 +22027,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>44684.589149305597</v>
       </c>
@@ -22045,7 +22071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>44687.332683333298</v>
       </c>
@@ -22083,7 +22109,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>44714.613704513897</v>
       </c>
@@ -22121,7 +22147,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>44714.631931828699</v>
       </c>
@@ -22165,7 +22191,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>44737.343279629597</v>
       </c>
@@ -22203,7 +22229,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>44743.461584375</v>
       </c>
@@ -22247,7 +22273,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>44743.470339120402</v>
       </c>
@@ -22291,7 +22317,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>44743.522404282397</v>
       </c>
@@ -22335,7 +22361,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>44747.804503819403</v>
       </c>
@@ -22376,7 +22402,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>44748.502863773203</v>
       </c>
@@ -22417,7 +22443,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>44748.505962499999</v>
       </c>
@@ -22458,7 +22484,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>44748.507295949101</v>
       </c>
@@ -22499,7 +22525,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>44748.508126967601</v>
       </c>
@@ -22537,7 +22563,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>44763.373567361101</v>
       </c>
@@ -22581,7 +22607,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>44763.382295023199</v>
       </c>
@@ -22622,7 +22648,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>44769.701641435197</v>
       </c>
@@ -22663,7 +22689,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>44774.632290162001</v>
       </c>
@@ -22704,7 +22730,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>44774.633085995403</v>
       </c>
@@ -22745,7 +22771,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>44774.633985648099</v>
       </c>
@@ -22786,7 +22812,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>44831.785569097199</v>
       </c>
@@ -22830,7 +22856,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>44831.788137962998</v>
       </c>
@@ -22874,7 +22900,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>44831.969735532402</v>
       </c>
@@ -22918,7 +22944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>44838.598316782402</v>
       </c>
@@ -22962,7 +22988,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>44838.604422453704</v>
       </c>
@@ -23006,7 +23032,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>44838.767622685198</v>
       </c>
@@ -23050,7 +23076,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>44844.515792939797</v>
       </c>
@@ -23091,7 +23117,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>44845.4522701389</v>
       </c>
@@ -23132,7 +23158,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>44858.360405555599</v>
       </c>
@@ -23176,7 +23202,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>44858.786968055603</v>
       </c>
@@ -23214,7 +23240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>44875.428184837998</v>
       </c>
@@ -23249,7 +23275,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>44875.434203009303</v>
       </c>
@@ -23281,7 +23307,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>44875.441085763901</v>
       </c>
@@ -23313,7 +23339,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>44875.443288541697</v>
       </c>
@@ -23345,7 +23371,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>44875.453703819403</v>
       </c>
@@ -23380,7 +23406,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>44875.454279166697</v>
       </c>
@@ -23415,7 +23441,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>44962.636147222198</v>
       </c>
@@ -23453,7 +23479,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>44969.706999305599</v>
       </c>
@@ -23488,7 +23514,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>44984.705640509303</v>
       </c>
@@ -23526,7 +23552,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>44984.707487500003</v>
       </c>
@@ -23564,7 +23590,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>44984.709653124999</v>
       </c>
@@ -23602,7 +23628,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>44984.711797338001</v>
       </c>
@@ -23640,7 +23666,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>44984.713593634297</v>
       </c>
@@ -23678,7 +23704,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>44984.918457754597</v>
       </c>
@@ -23710,7 +23736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>44984.920112500004</v>
       </c>
@@ -23742,7 +23768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
         <v>44987.654823495403</v>
       </c>
@@ -23777,7 +23803,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>44987.656404050897</v>
       </c>
@@ -23812,7 +23838,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>44987.657589930597</v>
       </c>
@@ -23847,7 +23873,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:24" s="45" customFormat="1" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" s="45" customFormat="1" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="42" t="s">
         <v>708</v>
       </c>
@@ -23895,7 +23921,7 @@
       <c r="W64" s="43"/>
       <c r="X64" s="43"/>
     </row>
-    <row r="65" spans="1:27" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="54">
         <v>45265.412118055552</v>
       </c>
@@ -23946,7 +23972,7 @@
       <c r="Z65" s="46"/>
       <c r="AA65" s="46"/>
     </row>
-    <row r="66" spans="1:27" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="53">
         <v>45265.425995370373</v>
       </c>
@@ -23997,33 +24023,58 @@
       <c r="Z66" s="46"/>
       <c r="AA66" s="46"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="48" t="s">
+        <v>744</v>
+      </c>
+      <c r="B67" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="46" t="s">
+        <v>745</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>746</v>
+      </c>
+      <c r="E67" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="47" t="s">
+        <v>747</v>
+      </c>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46" t="s">
+        <v>748</v>
+      </c>
+      <c r="I67" s="48" t="s">
+        <v>749</v>
+      </c>
+      <c r="J67" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="R67" s="46"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="46"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="46"/>
+      <c r="X67" s="46"/>
+      <c r="Y67" s="46"/>
+      <c r="Z67" s="46"/>
+      <c r="AA67" s="46"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -24049,7 +24100,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -24075,7 +24126,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -24101,7 +24152,7 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -24127,7 +24178,7 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -24153,7 +24204,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -24179,7 +24230,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -24205,7 +24256,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -24231,7 +24282,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -24257,7 +24308,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -24283,7 +24334,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -24309,7 +24360,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -24335,7 +24386,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -24361,7 +24412,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -24387,7 +24438,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -24413,7 +24464,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -24439,7 +24490,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -24465,7 +24516,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -24491,7 +24542,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -24517,7 +24568,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -24543,7 +24594,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -24569,7 +24620,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -24595,7 +24646,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -24621,7 +24672,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -24647,7 +24698,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -24673,7 +24724,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -24699,7 +24750,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -24725,7 +24776,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -24751,7 +24802,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -24777,7 +24828,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -24803,7 +24854,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -24829,7 +24880,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -24855,7 +24906,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -24881,7 +24932,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -24907,7 +24958,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -24933,7 +24984,7 @@
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -24959,7 +25010,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -24985,7 +25036,7 @@
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -25011,7 +25062,7 @@
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -25037,7 +25088,7 @@
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -25063,7 +25114,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -25089,7 +25140,7 @@
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -25115,7 +25166,7 @@
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -25141,7 +25192,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -25167,7 +25218,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -25193,7 +25244,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -25219,7 +25270,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -25245,7 +25296,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -25271,7 +25322,7 @@
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -25297,7 +25348,7 @@
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -25323,7 +25374,7 @@
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -25349,7 +25400,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -25375,7 +25426,7 @@
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -25401,7 +25452,7 @@
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -25427,7 +25478,7 @@
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -25453,7 +25504,7 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -25479,7 +25530,7 @@
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -25505,7 +25556,7 @@
       <c r="W124" s="9"/>
       <c r="X124" s="9"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -25531,7 +25582,7 @@
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -25557,7 +25608,7 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -25583,7 +25634,7 @@
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -25609,7 +25660,7 @@
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -25635,7 +25686,7 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -25661,7 +25712,7 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -25687,7 +25738,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -25713,7 +25764,7 @@
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -25739,7 +25790,7 @@
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -25765,7 +25816,7 @@
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -25791,7 +25842,7 @@
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -25817,7 +25868,7 @@
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -25843,7 +25894,7 @@
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -25869,7 +25920,7 @@
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -25895,7 +25946,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -25921,7 +25972,7 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -25947,7 +25998,7 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -25973,7 +26024,7 @@
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -25999,7 +26050,7 @@
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -26025,7 +26076,7 @@
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -26051,7 +26102,7 @@
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -26077,7 +26128,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -26103,7 +26154,7 @@
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -26129,7 +26180,7 @@
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -26155,7 +26206,7 @@
       <c r="W149" s="9"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -26181,7 +26232,7 @@
       <c r="W150" s="9"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -26207,7 +26258,7 @@
       <c r="W151" s="9"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -26233,7 +26284,7 @@
       <c r="W152" s="9"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -26259,7 +26310,7 @@
       <c r="W153" s="9"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -26285,7 +26336,7 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -26311,7 +26362,7 @@
       <c r="W155" s="9"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -26337,7 +26388,7 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -26363,7 +26414,7 @@
       <c r="W157" s="9"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -26389,7 +26440,7 @@
       <c r="W158" s="9"/>
       <c r="X158" s="9"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -26415,7 +26466,7 @@
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -26441,7 +26492,7 @@
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -26467,7 +26518,7 @@
       <c r="W161" s="9"/>
       <c r="X161" s="9"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -26493,7 +26544,7 @@
       <c r="W162" s="9"/>
       <c r="X162" s="9"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -26560,7 +26611,7 @@
     <hyperlink ref="K64" r:id="rId36" xr:uid="{00000000-0004-0000-0400-000023000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId37"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId37"/>
+  <legacyDrawing r:id="rId38"/>
 </worksheet>
 </file>
--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helen\Desktop\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1F5882-BF61-4A05-AAD5-37635DC20B45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF3E515-7B6E-475B-A78B-5A60FBBDBA03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="760">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2820,6 +2820,36 @@
   <si>
     <t>5/17/2023</t>
   </si>
+  <si>
+    <t>konigmatt@gpoglemail.com</t>
+  </si>
+  <si>
+    <t>Eleven Strategies for Making Reproducible Research and Open Science Training the Norm at Research Institutions</t>
+  </si>
+  <si>
+    <t>Friederike E. Kohrs, Susann Auer, Alexandra Bannach-Brown, Susann Fiedler, Tamarinde Haven, Verena Heise, Constance Holman, Flavio Azevedo, René Bernard, Arnim Bleier, Nicole Bössel, Brian Cahill, Leyla Jael Castro, Adrian Ehrenhofer, Kristina Eichel, Maximilian Frank, Claudia Frick, Malte Friese, Anne Gärtner, Kerstin Gierend, David Joachim Grüning, Lena Hahn, Maren Hülsemann, Malika Ihle, Sabrina Illius, Laura König, Matthias König, Louisa Kulke, Anton Kutlin, Fritjof Lammers, David M.A. Mehler, Christoph Miehl, Anett Müller-Alcazar, Claudia Neuendorf, Helen Niemeyer, Florian Pargent, Aaron Peikert, Christina U. Pfeuffer, Robert Reinecke, Jan Philipp Röer, Jessica L. Rohmann, Alfredo Sánchez-Tójar, Stefan Scherbaum, Elena Sixtus, Lisa Spitzer, Vera Maren Straßburger, Marcel Weber, Clarissa Whitmire, Josephine Zerna, Dilara Zorbek, Philipp Zumstein, Tracey L. Weissgerber</t>
+  </si>
+  <si>
+    <t>Across disciplines, researchers increasingly recognize that open science and reproducible research practices may accelerate scientific progress by allowing others to reuse research outputs and by promoting rigorous research that is more likely to yield trustworthy results. While initiatives, training programs, and funder policies encourage researchers to adopt reproducible research and open science practices, these practices are uncommon in many fields. Researchers need training to integrate these practices into their daily work. We organized a virtual brainstorming event, in collaboration with the German Reproducibility Network, to discuss strategies for making reproducible research and open science training the norm at research institutions. Here, we outline eleven strategies, concentrated in three areas: (1) offering training, (2) adapting research assessment criteria and program requirements, and (3) building communities. We provide a brief overview of each strategy, offer tips for implementation, and provide links to resources. Our goal is to encourage members of the research community to think creatively about the many ways they can contribute and collaborate to build communities, and make reproducible research and open science training the norm. Researchers may act in their roles as scientists, supervisors, mentors, instructors, and members of curriculum, hiring or evaluation committees. Institutional leadership and research administration and support staff can accelerate progress by implementing change across their institutions.</t>
+  </si>
+  <si>
+    <t>osfpreprints 2023.04.12.536571 doi: 10.31219/osf.io/kcvra</t>
+  </si>
+  <si>
+    <t>5/28/2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1MbqwOsYoZMN_Su7XJ8K91ExkEa5DSE49</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=18LqY6GANauPnW7iuIGvxi29I7veGCX3H</t>
+  </si>
+  <si>
+    <t>We present 11 strategies for making #OpenScience &amp; #ReproducibleResearch the norm at research institutions, with tips for implementation &amp; resources. Let's join hands to make these practices standard in the scientific community!</t>
+  </si>
+  <si>
+    <t>10.31219/osf.io/kcvra</t>
+  </si>
 </sst>
 </file>
 
@@ -2830,7 +2860,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2917,6 +2947,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0563C1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2990,7 +3027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3139,6 +3176,7 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -3927,7 +3965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="408" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>44427.977659027798</v>
       </c>
@@ -3970,7 +4008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="408" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>44427.979484606498</v>
       </c>
@@ -5012,7 +5050,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>44664.614628935196</v>
       </c>
@@ -5532,7 +5570,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>44714.631931828699</v>
       </c>
@@ -5576,7 +5614,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="408" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>44721.479891666699</v>
       </c>
@@ -5623,7 +5661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="331.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>44724.908495023199</v>
       </c>
@@ -6241,7 +6279,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>44769.6992456019</v>
       </c>
@@ -6877,7 +6915,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="153" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
         <v>44858.360405555599</v>
       </c>
@@ -7026,7 +7064,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>44875.441085763901</v>
       </c>
@@ -7090,7 +7128,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
         <v>44875.453703819403</v>
       </c>
@@ -7298,7 +7336,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
         <v>44929.354307870402</v>
       </c>
@@ -7339,7 +7377,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
         <v>44943.356896874997</v>
       </c>
@@ -7992,7 +8030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
         <v>45012.448258796299</v>
       </c>
@@ -15001,7 +15039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ115"/>
   <sheetViews>
-    <sheetView topLeftCell="K10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
@@ -15884,7 +15922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>696</v>
       </c>
@@ -15946,33 +15984,72 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53">
+        <v>44932.986134259256</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>750</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>751</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>752</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>753</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>754</v>
+      </c>
+      <c r="H17" s="46"/>
+      <c r="I17" s="48" t="s">
+        <v>755</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="49" t="s">
+        <v>756</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q17" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="49" t="s">
+        <v>757</v>
+      </c>
+      <c r="S17" s="47" t="s">
+        <v>758</v>
+      </c>
+      <c r="T17" s="56" t="s">
+        <v>759</v>
+      </c>
+      <c r="U17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -15998,7 +16075,7 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -16024,7 +16101,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -16050,7 +16127,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -16076,7 +16153,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -16102,7 +16179,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -16128,7 +16205,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -16154,7 +16231,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -16180,7 +16257,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -16206,7 +16283,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -16232,7 +16309,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -16258,7 +16335,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -16284,7 +16361,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -16310,7 +16387,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -16336,7 +16413,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -18539,10 +18616,13 @@
     <hyperlink ref="N15" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
     <hyperlink ref="K16" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
     <hyperlink ref="N16" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="K17" r:id="rId17" xr:uid="{8F85CFB2-8AF8-43AD-80AA-6D05D27CD317}"/>
+    <hyperlink ref="R17" r:id="rId18" xr:uid="{104788FC-B8AA-4373-96DD-8DD3715744EE}"/>
+    <hyperlink ref="T17" r:id="rId19" display="https://doi.org/10.31219/osf.io/kcvra" xr:uid="{067DE39F-9AF7-4EAA-AA0C-B4AD14093824}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId17"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
+  <legacyDrawing r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -21327,9 +21407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67:AA67"/>
+      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helen\Desktop\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF3E515-7B6E-475B-A78B-5A60FBBDBA03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0984B4D-4766-4218-89B3-CE6011FE30F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="769">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2849,6 +2849,40 @@
   </si>
   <si>
     <t>10.31219/osf.io/kcvra</t>
+  </si>
+  <si>
+    <t>sebastian.hoepfl@isa.uni-stuttgart.de</t>
+  </si>
+  <si>
+    <t>Reproducibility is one of the critical requirements for sound scientific research. Only reproducible work can be validated or falsified. Further, reproducibility is necessary for reuse and therefore promotes scientific progress. The Systems Biology community is at the forefront of developing and using standards for improved reusability, especially in modeling. Starting in the early 2000s with the introduction of the Systems Biology Markup Language (SBML) and CellML, the movement emerged in 2016 in the Findability, Accessibility, Interoperability, and Reusability (FAIR) data principles (Wilkinson et al. 2016). These FAIR data principles have, in the meantime, also been adapted to mathematical models and modeling software. Here, we investigated whether reproducible models get more citations than non-reproducible ones (Höpfl et al. 2023). In particular, around 2013, when reproducibility received widespread attention in the Systems Biology community, we investigated if there was a measurable change (Figure 1 A.).</t>
+  </si>
+  <si>
+    <t>ISMB/ECCB 2023 Conference on Intelligent Systems for Molecular Biology (ISMB) and European Conference on Computational Biology (ECCB)</t>
+  </si>
+  <si>
+    <t>7/24/2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1rOccC69hSRQ-4K7IRoiWr8HS3EGH9UAr</t>
+  </si>
+  <si>
+    <t>Simulation Supported Liver Assessment for Donor Organs (SimLivA) - Continuum-Biomechanical Modeling for Staging of Ischemia Reperfusion Injury During Liver Transplantation</t>
+  </si>
+  <si>
+    <t>Mandl L., Gerhäusser S., Lambers L., König M., Tautenhahn H.-M., Dahmen U., Ricken, T.</t>
+  </si>
+  <si>
+    <t>Liver transplantation is the only curative treatment option for acute and chronic end-stage
+liver disease. Demographic change and western lifestyle result in an increasing number of elderly multi-morbid potential recipients and donors. Liver grafts from such donors, so-called marginal liver grafts, are often affected by hepatic steatosis compromising the quality of the donor organ substantially. One reason for this is the alteration of the tissue structure, resulting in an impaired perfusion, which in turn affects hepatic metabolism and organ function. In the case of a marginal graft, the surgeon is faced with the clinical decision to either accept or reject the organ, significantly increasing the postoperative risk for the recipient or increasing the risk of death on the waiting list, respectively. Two major challenges for marginal grafts are the storage between procurement of the organ and transplantation (cold ischemia time) and damage after reperfusion, the so-called ischemia reperfusion injury (IRI). 
+For this purpose, we describe the functional liver units, the liver lobules, as a homogenized
+porous medium and model this with the theory of porous media (TPM, cf. [1]). Considering an anisotropic blood flow and by coupling the metabolic processes at the cellular level, a poroelastic multiphase and multiscale function-perfusion model is thereby obtained (cf. [2]).
+This approach combines partial differential equations (PDE) on the lobular scale with ordinary differential equations (ODE) on the cellular scale resulting in a PDE-ODE coupling. At the lobular scale, we consider healthy liver tissue, necrotic tissue, and fat as solid phases, while blood is represented as a fluid phase. In addition, all phases may also contain solutes that are involved in cellular processes such as metabolism. Based on this, the energy balance and cell death or functionality of each cell can be modeled on the cellular scale using systems biology models. Thus, the ischemic damage under nutrient depletion can be described, which in turn affects the perfusion at the lobular scale. Animal and human data will be used to parameterize and validate the model. In addition, a proof-of-concept study for clinical applicability will be performed. Such a model, which takes into account the interplay between the mechanical properties of the graft, the hepatic perfusion, and the affected metabolism, could facilitate clinical decision making and is urgently needed cf. 3.
+[1] Ehlers,W. Foundations of multiphasic and porous materials(2002)
+[2] Ricken,T., et al. BMMB(2015) 14:515-536
+[3] Christ,B.,[...],Lambers,L.,[...]Ricken,T.,et al. Frontiers in Physiology(2021)12</t>
+  </si>
+  <si>
+    <t>93. Jahrestagung der Gesellschaft für angewandte Mathematik und Mechanik; https://jahrestagung.gamm-ev.de/</t>
   </si>
 </sst>
 </file>
@@ -10803,8 +10837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ125"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15039,7 +15073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="H10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
@@ -21407,9 +21441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ163"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69:AA69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24154,57 +24188,109 @@
       <c r="Z67" s="46"/>
       <c r="AA67" s="46"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
+    <row r="68" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="53">
+        <v>45052.562893518516</v>
+      </c>
+      <c r="B68" s="46" t="s">
+        <v>760</v>
+      </c>
+      <c r="C68" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D68" s="46" t="s">
+        <v>580</v>
+      </c>
+      <c r="E68" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="F68" s="47" t="s">
+        <v>761</v>
+      </c>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46" t="s">
+        <v>762</v>
+      </c>
+      <c r="I68" s="48" t="s">
+        <v>763</v>
+      </c>
+      <c r="J68" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="49" t="s">
+        <v>764</v>
+      </c>
+      <c r="L68" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="R68" s="46"/>
+      <c r="S68" s="46"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="46"/>
+      <c r="V68" s="46"/>
+      <c r="W68" s="46"/>
+      <c r="X68" s="46"/>
+      <c r="Y68" s="46"/>
+      <c r="Z68" s="46"/>
+      <c r="AA68" s="46"/>
+    </row>
+    <row r="69" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="53">
+        <v>45052.673854166664</v>
+      </c>
+      <c r="B69" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="C69" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D69" s="46" t="s">
+        <v>765</v>
+      </c>
+      <c r="E69" s="46" t="s">
+        <v>766</v>
+      </c>
+      <c r="F69" s="47" t="s">
+        <v>767</v>
+      </c>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46" t="s">
+        <v>768</v>
+      </c>
+      <c r="I69" s="55">
+        <v>44963</v>
+      </c>
+      <c r="J69" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="46"/>
+      <c r="L69" s="47" t="s">
+        <v>766</v>
+      </c>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="46"/>
+      <c r="Q69" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="R69" s="46"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="46"/>
+      <c r="W69" s="46"/>
+      <c r="X69" s="46"/>
+      <c r="Y69" s="46"/>
+      <c r="Z69" s="46"/>
+      <c r="AA69" s="46"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
@@ -26689,9 +26775,10 @@
     <hyperlink ref="K57" r:id="rId34" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
     <hyperlink ref="K58" r:id="rId35" xr:uid="{00000000-0004-0000-0400-000022000000}"/>
     <hyperlink ref="K64" r:id="rId36" xr:uid="{00000000-0004-0000-0400-000023000000}"/>
+    <hyperlink ref="K68" r:id="rId37" xr:uid="{1EE4AB64-2688-44A9-8FE2-0DC1279B7409}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId37"/>
-  <legacyDrawing r:id="rId38"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
+  <legacyDrawing r:id="rId39"/>
 </worksheet>
 </file>
--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helen\Desktop\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0984B4D-4766-4218-89B3-CE6011FE30F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0777C1-46A5-46EF-8F43-39DE610D6484}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="782">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2883,6 +2883,45 @@
   </si>
   <si>
     <t>93. Jahrestagung der Gesellschaft für angewandte Mathematik und Mechanik; https://jahrestagung.gamm-ev.de/</t>
+  </si>
+  <si>
+    <t>6/14/2023 15:41:39</t>
+  </si>
+  <si>
+    <t>PhD thesis</t>
+  </si>
+  <si>
+    <t>Multiscale and multiphase modeling and numerical simulation of function-perfusion processes in the liver</t>
+  </si>
+  <si>
+    <t>Lambers, Lena</t>
+  </si>
+  <si>
+    <t>Publikationsreihe des Instituts für Statik und Dynamik der Luft- und Raumfahrtkonstruktionen (ISD);3, http://dx.doi.org/10.18419/opus-13042</t>
+  </si>
+  <si>
+    <t>3/21/2023</t>
+  </si>
+  <si>
+    <t>6/14/2023 15:43:35</t>
+  </si>
+  <si>
+    <t>Multiscale and Multiphase Simulation of Function- Perfusion Processes in the Liver on Whole Body, Organ, Lobule, and Cell Scale</t>
+  </si>
+  <si>
+    <t>L. Lambers, S. Gerhäusser, L. Mandl, T. Ricken</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>93. Jahrestagung der Gesellschaft für angewandte Mathematik und Mechanik (GAMM), Dresden</t>
+  </si>
+  <si>
+    <t>5/30/2023</t>
+  </si>
+  <si>
+    <t>P7 - Ricken, SimLivA, ATLAS</t>
   </si>
 </sst>
 </file>
@@ -3601,23 +3640,23 @@
       <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3677,7 +3716,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44427.932484722201</v>
       </c>
@@ -3727,7 +3766,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
     </row>
-    <row r="3" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44427.939851157404</v>
       </c>
@@ -3777,7 +3816,7 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44427.947995254603</v>
       </c>
@@ -3827,7 +3866,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44427.963724074099</v>
       </c>
@@ -3870,7 +3909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44427.966733564797</v>
       </c>
@@ -3913,7 +3952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44427.969025810198</v>
       </c>
@@ -3956,7 +3995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="400" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44427.971651504602</v>
       </c>
@@ -3999,7 +4038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="408" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="375" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44427.977659027798</v>
       </c>
@@ -4042,7 +4081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="387.5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44427.979484606498</v>
       </c>
@@ -4085,7 +4124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="162.5" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>44502.680754861103</v>
       </c>
@@ -4127,7 +4166,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>44503.444289930601</v>
       </c>
@@ -4169,7 +4208,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>44504.433192939803</v>
       </c>
@@ -4211,7 +4250,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>44508.576334143501</v>
       </c>
@@ -4253,7 +4292,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>44510.606990972199</v>
       </c>
@@ -4295,7 +4334,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="357" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="337.5" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>44510.621671643501</v>
       </c>
@@ -4337,7 +4376,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>44510.635692708303</v>
       </c>
@@ -4379,7 +4418,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>44515.604827430601</v>
       </c>
@@ -4421,7 +4460,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>44515.605781597202</v>
       </c>
@@ -4460,7 +4499,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>44519.393009722196</v>
       </c>
@@ -4502,7 +4541,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>44519.396759837997</v>
       </c>
@@ -4544,7 +4583,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>44521.415261921298</v>
       </c>
@@ -4586,7 +4625,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="331.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="300" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>44521.417680324099</v>
       </c>
@@ -4628,7 +4667,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>44531.422715046298</v>
       </c>
@@ -4670,7 +4709,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>44536.689336226897</v>
       </c>
@@ -4712,7 +4751,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>44537.460719444498</v>
       </c>
@@ -4751,7 +4790,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>44545.415467245402</v>
       </c>
@@ -4793,7 +4832,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="100" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>44547.4125025463</v>
       </c>
@@ -4835,7 +4874,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>44571.655250347198</v>
       </c>
@@ -4874,7 +4913,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>44583.738363078701</v>
       </c>
@@ -4916,7 +4955,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>44583.740276504599</v>
       </c>
@@ -4958,7 +4997,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="375" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>44645.469280208301</v>
       </c>
@@ -4999,7 +5038,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="50" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>44658.465437268504</v>
       </c>
@@ -5040,7 +5079,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>44664.599232754597</v>
       </c>
@@ -5084,7 +5123,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>44664.614628935196</v>
       </c>
@@ -5119,7 +5158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>44664.623678935197</v>
       </c>
@@ -5160,7 +5199,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="387.5" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>44664.629289467601</v>
       </c>
@@ -5195,7 +5234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>44664.634484722199</v>
       </c>
@@ -5227,7 +5266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>44664.764159490704</v>
       </c>
@@ -5264,7 +5303,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>44664.7695739583</v>
       </c>
@@ -5302,7 +5341,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>44665.383020370398</v>
       </c>
@@ -5352,7 +5391,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>44665.612281597198</v>
       </c>
@@ -5396,7 +5435,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>44679.852050810201</v>
       </c>
@@ -5440,7 +5479,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>44684.589149305597</v>
       </c>
@@ -5484,7 +5523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>44687.332683333298</v>
       </c>
@@ -5522,7 +5561,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="300" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>44690.414530786999</v>
       </c>
@@ -5566,7 +5605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>44714.613704513897</v>
       </c>
@@ -5604,7 +5643,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>44714.631931828699</v>
       </c>
@@ -5648,7 +5687,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="400" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>44721.479891666699</v>
       </c>
@@ -5695,7 +5734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>44724.908495023199</v>
       </c>
@@ -5733,7 +5772,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>44724.915100462997</v>
       </c>
@@ -5774,7 +5813,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>44724.917635300902</v>
       </c>
@@ -5815,7 +5854,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>44737.343279629597</v>
       </c>
@@ -5853,7 +5892,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="175" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>44743.461584375</v>
       </c>
@@ -5897,7 +5936,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>44743.470339120402</v>
       </c>
@@ -5941,7 +5980,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>44743.522404282397</v>
       </c>
@@ -5985,7 +6024,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>44747.804503819403</v>
       </c>
@@ -6026,7 +6065,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>44748.500684375002</v>
       </c>
@@ -6067,7 +6106,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>44748.502863773203</v>
       </c>
@@ -6108,7 +6147,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>44748.505962499999</v>
       </c>
@@ -6149,7 +6188,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>44748.507295949101</v>
       </c>
@@ -6190,7 +6229,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>44748.508126967601</v>
       </c>
@@ -6228,7 +6267,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>44763.373567361101</v>
       </c>
@@ -6272,7 +6311,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>44763.382295023199</v>
       </c>
@@ -6313,7 +6352,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>44769.6992456019</v>
       </c>
@@ -6354,7 +6393,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>44769.701641435197</v>
       </c>
@@ -6395,7 +6434,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>44774.632290162001</v>
       </c>
@@ -6436,7 +6475,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>44774.633085995403</v>
       </c>
@@ -6477,7 +6516,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>44774.633985648099</v>
       </c>
@@ -6518,7 +6557,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>44799.3730923611</v>
       </c>
@@ -6565,7 +6604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="50" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <v>44831.785569097199</v>
       </c>
@@ -6609,7 +6648,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
         <v>44831.788137962998</v>
       </c>
@@ -6653,7 +6692,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <v>44831.969735532402</v>
       </c>
@@ -6697,7 +6736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <v>44837.462938194403</v>
       </c>
@@ -6735,7 +6774,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="100" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
         <v>44838.598316782402</v>
       </c>
@@ -6779,7 +6818,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>44838.604422453704</v>
       </c>
@@ -6823,7 +6862,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="350" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>44838.767622685198</v>
       </c>
@@ -6867,7 +6906,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>44844.515792939797</v>
       </c>
@@ -6908,7 +6947,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A79" s="16">
         <v>44845.4522701389</v>
       </c>
@@ -6949,7 +6988,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>44858.360405555599</v>
       </c>
@@ -6993,7 +7032,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>44858.786968055603</v>
       </c>
@@ -7031,7 +7070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>44875.428184837998</v>
       </c>
@@ -7066,7 +7105,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <v>44875.434203009303</v>
       </c>
@@ -7098,7 +7137,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="362.5" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>44875.441085763901</v>
       </c>
@@ -7130,7 +7169,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>44875.443288541697</v>
       </c>
@@ -7162,7 +7201,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>44875.453703819403</v>
       </c>
@@ -7197,7 +7236,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A87" s="16">
         <v>44875.454279166697</v>
       </c>
@@ -7232,7 +7271,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>44907.440478009303</v>
       </c>
@@ -7279,7 +7318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89" s="16">
         <v>44912.925343634299</v>
       </c>
@@ -7326,7 +7365,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>44914.371327893503</v>
       </c>
@@ -7370,7 +7409,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="375" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <v>44929.354307870402</v>
       </c>
@@ -7411,7 +7450,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="225" x14ac:dyDescent="0.25">
       <c r="A92" s="16">
         <v>44943.356896874997</v>
       </c>
@@ -7452,7 +7491,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A93" s="16">
         <v>44960.467609143503</v>
       </c>
@@ -7499,7 +7538,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A94" s="16">
         <v>44962.636147222198</v>
       </c>
@@ -7537,7 +7576,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <v>44969.706999305599</v>
       </c>
@@ -7572,7 +7611,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="350" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>44972.571888425897</v>
       </c>
@@ -7619,7 +7658,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A97" s="16">
         <v>44984.705640509303</v>
       </c>
@@ -7657,7 +7696,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A98" s="16">
         <v>44984.707487500003</v>
       </c>
@@ -7695,7 +7734,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A99" s="16">
         <v>44984.709653124999</v>
       </c>
@@ -7733,7 +7772,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" ht="375" x14ac:dyDescent="0.25">
       <c r="A100" s="16">
         <v>44984.711797338001</v>
       </c>
@@ -7771,7 +7810,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A101" s="16">
         <v>44984.713593634297</v>
       </c>
@@ -7809,7 +7848,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A102" s="16">
         <v>44984.918457754597</v>
       </c>
@@ -7841,7 +7880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A103" s="16">
         <v>44984.920112500004</v>
       </c>
@@ -7873,7 +7912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" ht="50" x14ac:dyDescent="0.25">
       <c r="A104" s="16">
         <v>44987.654823495403</v>
       </c>
@@ -7908,7 +7947,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" ht="50" x14ac:dyDescent="0.25">
       <c r="A105" s="16">
         <v>44987.656404050897</v>
       </c>
@@ -7943,7 +7982,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" ht="50" x14ac:dyDescent="0.25">
       <c r="A106" s="16">
         <v>44987.657589930597</v>
       </c>
@@ -7978,7 +8017,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107" s="16">
         <v>44992.747801851903</v>
       </c>
@@ -8017,7 +8056,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A108" s="16">
         <v>44998.039198495397</v>
       </c>
@@ -8064,7 +8103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" ht="250" x14ac:dyDescent="0.25">
       <c r="A109" s="16">
         <v>45012.448258796299</v>
       </c>
@@ -8111,7 +8150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="16">
         <v>45016.456743865703</v>
       </c>
@@ -8155,7 +8194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -8181,7 +8220,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -8207,7 +8246,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -8233,7 +8272,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -8259,7 +8298,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -8285,7 +8324,7 @@
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -8311,7 +8350,7 @@
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -8337,7 +8376,7 @@
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -8363,7 +8402,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -8389,7 +8428,7 @@
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -8415,7 +8454,7 @@
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -8441,7 +8480,7 @@
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -8467,7 +8506,7 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -8493,7 +8532,7 @@
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -8519,7 +8558,7 @@
       <c r="W124" s="9"/>
       <c r="X124" s="9"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -8545,7 +8584,7 @@
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -8571,7 +8610,7 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -8597,7 +8636,7 @@
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -8623,7 +8662,7 @@
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -8649,7 +8688,7 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -8675,7 +8714,7 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -8701,7 +8740,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -8727,7 +8766,7 @@
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -8753,7 +8792,7 @@
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -8779,7 +8818,7 @@
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -8805,7 +8844,7 @@
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -8831,7 +8870,7 @@
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -8857,7 +8896,7 @@
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -8883,7 +8922,7 @@
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -8909,7 +8948,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -8935,7 +8974,7 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -8961,7 +9000,7 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -8987,7 +9026,7 @@
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -9013,7 +9052,7 @@
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -9039,7 +9078,7 @@
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -9065,7 +9104,7 @@
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -9091,7 +9130,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -9117,7 +9156,7 @@
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -9143,7 +9182,7 @@
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -9169,7 +9208,7 @@
       <c r="W149" s="9"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -9195,7 +9234,7 @@
       <c r="W150" s="9"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -9221,7 +9260,7 @@
       <c r="W151" s="9"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -9247,7 +9286,7 @@
       <c r="W152" s="9"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -9273,7 +9312,7 @@
       <c r="W153" s="9"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -9299,7 +9338,7 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -9325,7 +9364,7 @@
       <c r="W155" s="9"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -9351,7 +9390,7 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -9377,7 +9416,7 @@
       <c r="W157" s="9"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -9403,7 +9442,7 @@
       <c r="W158" s="9"/>
       <c r="X158" s="9"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -9429,7 +9468,7 @@
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -9455,7 +9494,7 @@
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -9481,7 +9520,7 @@
       <c r="W161" s="9"/>
       <c r="X161" s="9"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -9507,7 +9546,7 @@
       <c r="W162" s="9"/>
       <c r="X162" s="9"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -9533,7 +9572,7 @@
       <c r="W163" s="9"/>
       <c r="X163" s="9"/>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -9559,7 +9598,7 @@
       <c r="W164" s="9"/>
       <c r="X164" s="9"/>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -9585,7 +9624,7 @@
       <c r="W165" s="9"/>
       <c r="X165" s="9"/>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -9611,7 +9650,7 @@
       <c r="W166" s="9"/>
       <c r="X166" s="9"/>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -9637,7 +9676,7 @@
       <c r="W167" s="9"/>
       <c r="X167" s="9"/>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -9663,7 +9702,7 @@
       <c r="W168" s="9"/>
       <c r="X168" s="9"/>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -9689,7 +9728,7 @@
       <c r="W169" s="9"/>
       <c r="X169" s="9"/>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -9715,7 +9754,7 @@
       <c r="W170" s="9"/>
       <c r="X170" s="9"/>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -9741,7 +9780,7 @@
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -9767,7 +9806,7 @@
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -9793,7 +9832,7 @@
       <c r="W173" s="9"/>
       <c r="X173" s="9"/>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -9819,7 +9858,7 @@
       <c r="W174" s="9"/>
       <c r="X174" s="9"/>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -9845,7 +9884,7 @@
       <c r="W175" s="9"/>
       <c r="X175" s="9"/>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -9871,7 +9910,7 @@
       <c r="W176" s="9"/>
       <c r="X176" s="9"/>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -9897,7 +9936,7 @@
       <c r="W177" s="9"/>
       <c r="X177" s="9"/>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -9923,7 +9962,7 @@
       <c r="W178" s="9"/>
       <c r="X178" s="9"/>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -9949,7 +9988,7 @@
       <c r="W179" s="9"/>
       <c r="X179" s="9"/>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -9975,7 +10014,7 @@
       <c r="W180" s="9"/>
       <c r="X180" s="9"/>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -10001,7 +10040,7 @@
       <c r="W181" s="9"/>
       <c r="X181" s="9"/>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -10027,7 +10066,7 @@
       <c r="W182" s="9"/>
       <c r="X182" s="9"/>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -10053,7 +10092,7 @@
       <c r="W183" s="9"/>
       <c r="X183" s="9"/>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -10079,7 +10118,7 @@
       <c r="W184" s="9"/>
       <c r="X184" s="9"/>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -10105,7 +10144,7 @@
       <c r="W185" s="9"/>
       <c r="X185" s="9"/>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -10131,7 +10170,7 @@
       <c r="W186" s="9"/>
       <c r="X186" s="9"/>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -10157,7 +10196,7 @@
       <c r="W187" s="9"/>
       <c r="X187" s="9"/>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -10183,7 +10222,7 @@
       <c r="W188" s="9"/>
       <c r="X188" s="9"/>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -10209,7 +10248,7 @@
       <c r="W189" s="9"/>
       <c r="X189" s="9"/>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -10235,7 +10274,7 @@
       <c r="W190" s="9"/>
       <c r="X190" s="9"/>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -10261,7 +10300,7 @@
       <c r="W191" s="9"/>
       <c r="X191" s="9"/>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -10287,7 +10326,7 @@
       <c r="W192" s="9"/>
       <c r="X192" s="9"/>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -10313,7 +10352,7 @@
       <c r="W193" s="9"/>
       <c r="X193" s="9"/>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -10339,7 +10378,7 @@
       <c r="W194" s="9"/>
       <c r="X194" s="9"/>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -10365,7 +10404,7 @@
       <c r="W195" s="9"/>
       <c r="X195" s="9"/>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -10391,7 +10430,7 @@
       <c r="W196" s="9"/>
       <c r="X196" s="9"/>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -10417,7 +10456,7 @@
       <c r="W197" s="9"/>
       <c r="X197" s="9"/>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -10443,7 +10482,7 @@
       <c r="W198" s="9"/>
       <c r="X198" s="9"/>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -10469,7 +10508,7 @@
       <c r="W199" s="9"/>
       <c r="X199" s="9"/>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -10495,7 +10534,7 @@
       <c r="W200" s="9"/>
       <c r="X200" s="9"/>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -10521,7 +10560,7 @@
       <c r="W201" s="9"/>
       <c r="X201" s="9"/>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -10547,7 +10586,7 @@
       <c r="W202" s="9"/>
       <c r="X202" s="9"/>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -10573,7 +10612,7 @@
       <c r="W203" s="9"/>
       <c r="X203" s="9"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -10599,7 +10638,7 @@
       <c r="W204" s="9"/>
       <c r="X204" s="9"/>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -10625,7 +10664,7 @@
       <c r="W205" s="9"/>
       <c r="X205" s="9"/>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -10651,7 +10690,7 @@
       <c r="W206" s="9"/>
       <c r="X206" s="9"/>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -10677,7 +10716,7 @@
       <c r="W207" s="9"/>
       <c r="X207" s="9"/>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -10703,7 +10742,7 @@
       <c r="W208" s="9"/>
       <c r="X208" s="9"/>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -10729,7 +10768,7 @@
       <c r="W209" s="9"/>
       <c r="X209" s="9"/>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -10841,26 +10880,26 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
     <col min="7" max="7" width="33" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="17" width="18.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" style="20" customWidth="1"/>
-    <col min="19" max="19" width="28.140625" style="20" customWidth="1"/>
-    <col min="20" max="25" width="18.85546875" style="1" customWidth="1"/>
-    <col min="26" max="1024" width="12.5703125" style="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="17" width="18.81640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.81640625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="28.1796875" style="20" customWidth="1"/>
+    <col min="20" max="25" width="18.81640625" style="1" customWidth="1"/>
+    <col min="26" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10927,7 +10966,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
     </row>
-    <row r="2" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>44510.606990972199</v>
       </c>
@@ -10978,7 +11017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>44510.621671643501</v>
       </c>
@@ -11029,7 +11068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>44519.393009722196</v>
       </c>
@@ -11080,7 +11119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>44536.689336226897</v>
       </c>
@@ -11131,7 +11170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>44545.415467245402</v>
       </c>
@@ -11182,7 +11221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>44547.4125025463</v>
       </c>
@@ -11233,7 +11272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>44571.655250347198</v>
       </c>
@@ -11282,7 +11321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>44664.599232754597</v>
       </c>
@@ -11335,7 +11374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="34.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>44664.614628935196</v>
       </c>
@@ -11380,7 +11419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>44664.764159490704</v>
       </c>
@@ -11427,7 +11466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>44665.612281597198</v>
       </c>
@@ -11480,7 +11519,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="34.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>44679.852050810201</v>
       </c>
@@ -11533,7 +11572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>44690.414530786999</v>
       </c>
@@ -11587,7 +11626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>44724.908495023199</v>
       </c>
@@ -11635,7 +11674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>44724.915100462997</v>
       </c>
@@ -11686,7 +11725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>44724.917635300902</v>
       </c>
@@ -11742,7 +11781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>44748.500684375002</v>
       </c>
@@ -11793,7 +11832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>44769.6992456019</v>
       </c>
@@ -11844,7 +11883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>44837.462938194403</v>
       </c>
@@ -11895,7 +11934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>44907.440478009303</v>
       </c>
@@ -11951,7 +11990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>44912.925343634299</v>
       </c>
@@ -12007,7 +12046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>44929.354307870402</v>
       </c>
@@ -12058,7 +12097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="36.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>44943.356896874997</v>
       </c>
@@ -12109,7 +12148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>44972.571888425897</v>
       </c>
@@ -12165,7 +12204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>44992.747801851903</v>
       </c>
@@ -12214,7 +12253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>45016.456743865703</v>
       </c>
@@ -12267,7 +12306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>44427.963724074099</v>
       </c>
@@ -12324,7 +12363,7 @@
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
     </row>
-    <row r="29" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>44427.966733564797</v>
       </c>
@@ -12376,7 +12415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="36.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="50">
         <v>45235.627743055556</v>
       </c>
@@ -12439,7 +12478,7 @@
       <c r="Z30" s="46"/>
       <c r="AA30" s="46"/>
     </row>
-    <row r="31" spans="1:27" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="54">
         <v>45265.410578703704</v>
       </c>
@@ -12498,7 +12537,7 @@
       <c r="Z31" s="46"/>
       <c r="AA31" s="46"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -12525,7 +12564,7 @@
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -12552,7 +12591,7 @@
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -12579,7 +12618,7 @@
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -12606,7 +12645,7 @@
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -12633,7 +12672,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -12660,7 +12699,7 @@
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -12687,7 +12726,7 @@
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -12714,7 +12753,7 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -12741,7 +12780,7 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -12768,7 +12807,7 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -12795,7 +12834,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -12822,7 +12861,7 @@
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -12849,7 +12888,7 @@
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -12876,7 +12915,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -12903,7 +12942,7 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -12930,7 +12969,7 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -12957,7 +12996,7 @@
       <c r="X48" s="9"/>
       <c r="Y48" s="9"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -12984,7 +13023,7 @@
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -13011,7 +13050,7 @@
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -13038,7 +13077,7 @@
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -13065,7 +13104,7 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -13092,7 +13131,7 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -13119,7 +13158,7 @@
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -13146,7 +13185,7 @@
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -13173,7 +13212,7 @@
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -13200,7 +13239,7 @@
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -13227,7 +13266,7 @@
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -13254,7 +13293,7 @@
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -13281,7 +13320,7 @@
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -13308,7 +13347,7 @@
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -13335,7 +13374,7 @@
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -13362,7 +13401,7 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -13389,7 +13428,7 @@
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -13416,7 +13455,7 @@
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -13443,7 +13482,7 @@
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -13470,7 +13509,7 @@
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -13497,7 +13536,7 @@
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -13524,7 +13563,7 @@
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -13551,7 +13590,7 @@
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -13578,7 +13617,7 @@
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -13605,7 +13644,7 @@
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -13632,7 +13671,7 @@
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -13659,7 +13698,7 @@
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -13686,7 +13725,7 @@
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -13713,7 +13752,7 @@
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -13740,7 +13779,7 @@
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -13767,7 +13806,7 @@
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -13794,7 +13833,7 @@
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -13821,7 +13860,7 @@
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -13848,7 +13887,7 @@
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -13875,7 +13914,7 @@
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -13902,7 +13941,7 @@
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -13929,7 +13968,7 @@
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -13956,7 +13995,7 @@
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -13983,7 +14022,7 @@
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -14010,7 +14049,7 @@
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -14037,7 +14076,7 @@
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -14064,7 +14103,7 @@
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -14091,7 +14130,7 @@
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -14118,7 +14157,7 @@
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -14145,7 +14184,7 @@
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -14172,7 +14211,7 @@
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -14199,7 +14238,7 @@
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -14226,7 +14265,7 @@
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -14253,7 +14292,7 @@
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -14280,7 +14319,7 @@
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -14307,7 +14346,7 @@
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -14334,7 +14373,7 @@
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -14361,7 +14400,7 @@
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -14388,7 +14427,7 @@
       <c r="X101" s="9"/>
       <c r="Y101" s="9"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -14415,7 +14454,7 @@
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -14442,7 +14481,7 @@
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -14469,7 +14508,7 @@
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -14496,7 +14535,7 @@
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -14523,7 +14562,7 @@
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -14550,7 +14589,7 @@
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -14577,7 +14616,7 @@
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -14604,7 +14643,7 @@
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -14631,7 +14670,7 @@
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -14658,7 +14697,7 @@
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -14685,7 +14724,7 @@
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -14712,7 +14751,7 @@
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -14739,7 +14778,7 @@
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -14766,7 +14805,7 @@
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -14793,7 +14832,7 @@
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -14820,7 +14859,7 @@
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -14847,7 +14886,7 @@
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -14874,7 +14913,7 @@
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -14901,7 +14940,7 @@
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -14928,7 +14967,7 @@
       <c r="X121" s="9"/>
       <c r="Y121" s="9"/>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -14955,7 +14994,7 @@
       <c r="X122" s="9"/>
       <c r="Y122" s="9"/>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -14982,7 +15021,7 @@
       <c r="X123" s="9"/>
       <c r="Y123" s="9"/>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -15009,7 +15048,7 @@
       <c r="X124" s="9"/>
       <c r="Y124" s="9"/>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -15077,27 +15116,27 @@
       <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="18" width="18.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="37.28515625" style="20" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" style="20" customWidth="1"/>
-    <col min="22" max="24" width="18.85546875" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="18" width="18.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.81640625" style="20" customWidth="1"/>
+    <col min="20" max="20" width="37.26953125" style="20" customWidth="1"/>
+    <col min="21" max="21" width="18.81640625" style="20" customWidth="1"/>
+    <col min="22" max="24" width="18.81640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -15165,7 +15204,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44427.932484722201</v>
       </c>
@@ -15223,7 +15262,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
     </row>
-    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44427.939851157404</v>
       </c>
@@ -15281,7 +15320,7 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44427.947995254603</v>
       </c>
@@ -15339,7 +15378,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>44427.969025810198</v>
       </c>
@@ -15394,7 +15433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44427.971651504602</v>
       </c>
@@ -15449,7 +15488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>44427.977659027798</v>
       </c>
@@ -15504,7 +15543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>44427.979484606498</v>
       </c>
@@ -15559,7 +15598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>44664.623678935197</v>
       </c>
@@ -15613,7 +15652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>44664.629289467601</v>
       </c>
@@ -15661,7 +15700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="36.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>44721.479891666699</v>
       </c>
@@ -15720,7 +15759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>44799.3730923611</v>
       </c>
@@ -15779,7 +15818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>44960.467609143503</v>
       </c>
@@ -15838,7 +15877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>44998.039198495397</v>
       </c>
@@ -15897,7 +15936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>45012.448258796299</v>
       </c>
@@ -15956,7 +15995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>696</v>
       </c>
@@ -16018,7 +16057,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="53">
         <v>44932.986134259256</v>
       </c>
@@ -16083,7 +16122,7 @@
       <c r="Z17" s="46"/>
       <c r="AA17" s="46"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -16109,7 +16148,7 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -16135,7 +16174,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -16161,7 +16200,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -16187,7 +16226,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -16213,7 +16252,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -16239,7 +16278,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -16265,7 +16304,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -16291,7 +16330,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -16317,7 +16356,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -16343,7 +16382,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -16369,7 +16408,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -16395,7 +16434,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -16421,7 +16460,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -16447,7 +16486,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -16473,7 +16512,7 @@
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -16499,7 +16538,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -16525,7 +16564,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -16551,7 +16590,7 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -16577,7 +16616,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -16603,7 +16642,7 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -16629,7 +16668,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -16655,7 +16694,7 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -16681,7 +16720,7 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -16707,7 +16746,7 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -16733,7 +16772,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -16759,7 +16798,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -16785,7 +16824,7 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -16811,7 +16850,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -16837,7 +16876,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -16863,7 +16902,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -16889,7 +16928,7 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -16915,7 +16954,7 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -16941,7 +16980,7 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -16967,7 +17006,7 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -16993,7 +17032,7 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -17019,7 +17058,7 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -17045,7 +17084,7 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -17071,7 +17110,7 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -17097,7 +17136,7 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -17123,7 +17162,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -17149,7 +17188,7 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -17175,7 +17214,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -17201,7 +17240,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -17227,7 +17266,7 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -17253,7 +17292,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -17279,7 +17318,7 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -17305,7 +17344,7 @@
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -17331,7 +17370,7 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -17357,7 +17396,7 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -17383,7 +17422,7 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -17409,7 +17448,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -17435,7 +17474,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -17461,7 +17500,7 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -17487,7 +17526,7 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -17513,7 +17552,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -17539,7 +17578,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -17565,7 +17604,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -17591,7 +17630,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -17617,7 +17656,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -17643,7 +17682,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -17669,7 +17708,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -17695,7 +17734,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -17721,7 +17760,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -17747,7 +17786,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -17773,7 +17812,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -17799,7 +17838,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -17825,7 +17864,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -17851,7 +17890,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -17877,7 +17916,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -17903,7 +17942,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -17929,7 +17968,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -17955,7 +17994,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -17981,7 +18020,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -18007,7 +18046,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -18033,7 +18072,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -18059,7 +18098,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -18085,7 +18124,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -18111,7 +18150,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -18137,7 +18176,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -18163,7 +18202,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -18189,7 +18228,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -18215,7 +18254,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -18241,7 +18280,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -18267,7 +18306,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -18293,7 +18332,7 @@
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -18319,7 +18358,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -18345,7 +18384,7 @@
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -18371,7 +18410,7 @@
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -18397,7 +18436,7 @@
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -18423,7 +18462,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -18449,7 +18488,7 @@
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -18475,7 +18514,7 @@
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -18501,7 +18540,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -18527,7 +18566,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -18553,7 +18592,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -18579,7 +18618,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -18605,7 +18644,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -18669,23 +18708,23 @@
       <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="77.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="77.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -18745,7 +18784,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>44665.383020370398</v>
       </c>
@@ -18795,7 +18834,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53">
         <v>45265.423993055556</v>
       </c>
@@ -18852,7 +18891,7 @@
       <c r="Z3" s="46"/>
       <c r="AA3" s="46"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -18878,7 +18917,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -18904,7 +18943,7 @@
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -18930,7 +18969,7 @@
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -18956,7 +18995,7 @@
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -18982,7 +19021,7 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -19008,7 +19047,7 @@
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -19034,7 +19073,7 @@
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -19060,7 +19099,7 @@
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -19086,7 +19125,7 @@
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -19112,7 +19151,7 @@
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -19138,7 +19177,7 @@
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -19164,7 +19203,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -19190,7 +19229,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -19216,7 +19255,7 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -19242,7 +19281,7 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -19268,7 +19307,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -19294,7 +19333,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -19320,7 +19359,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -19346,7 +19385,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -19372,7 +19411,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -19398,7 +19437,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -19424,7 +19463,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -19450,7 +19489,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -19476,7 +19515,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -19502,7 +19541,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -19528,7 +19567,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -19554,7 +19593,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -19580,7 +19619,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -19606,7 +19645,7 @@
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -19632,7 +19671,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -19658,7 +19697,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -19684,7 +19723,7 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -19710,7 +19749,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -19736,7 +19775,7 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -19762,7 +19801,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -19788,7 +19827,7 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -19814,7 +19853,7 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -19840,7 +19879,7 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -19866,7 +19905,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -19892,7 +19931,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -19918,7 +19957,7 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -19944,7 +19983,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -19970,7 +20009,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -19996,7 +20035,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -20022,7 +20061,7 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -20048,7 +20087,7 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -20074,7 +20113,7 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -20100,7 +20139,7 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -20126,7 +20165,7 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -20152,7 +20191,7 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -20178,7 +20217,7 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -20204,7 +20243,7 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -20230,7 +20269,7 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -20256,7 +20295,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -20282,7 +20321,7 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -20308,7 +20347,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -20334,7 +20373,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -20360,7 +20399,7 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -20386,7 +20425,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -20412,7 +20451,7 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -20438,7 +20477,7 @@
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -20464,7 +20503,7 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -20490,7 +20529,7 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -20516,7 +20555,7 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -20542,7 +20581,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -20568,7 +20607,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -20594,7 +20633,7 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -20620,7 +20659,7 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -20646,7 +20685,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -20672,7 +20711,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -20698,7 +20737,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -20724,7 +20763,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -20750,7 +20789,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -20776,7 +20815,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -20802,7 +20841,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -20828,7 +20867,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -20854,7 +20893,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -20880,7 +20919,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -20906,7 +20945,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -20932,7 +20971,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -20958,7 +20997,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -20984,7 +21023,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -21010,7 +21049,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -21036,7 +21075,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -21062,7 +21101,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -21088,7 +21127,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -21114,7 +21153,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -21140,7 +21179,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -21166,7 +21205,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -21192,7 +21231,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -21218,7 +21257,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -21244,7 +21283,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -21270,7 +21309,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -21296,7 +21335,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -21322,7 +21361,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -21348,7 +21387,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -21374,7 +21413,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -21400,7 +21439,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -21443,26 +21482,26 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69:AA69"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -21522,7 +21561,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>44503.444289930601</v>
       </c>
@@ -21564,7 +21603,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>44504.433192939803</v>
       </c>
@@ -21606,7 +21645,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>44508.576334143501</v>
       </c>
@@ -21648,7 +21687,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>44510.635692708303</v>
       </c>
@@ -21690,7 +21729,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>44515.604827430601</v>
       </c>
@@ -21732,7 +21771,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>44515.605781597202</v>
       </c>
@@ -21771,7 +21810,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>44519.396759837997</v>
       </c>
@@ -21813,7 +21852,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>44521.415261921298</v>
       </c>
@@ -21855,7 +21894,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>44521.417680324099</v>
       </c>
@@ -21897,7 +21936,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>44531.422715046298</v>
       </c>
@@ -21939,7 +21978,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>44537.460719444498</v>
       </c>
@@ -21978,7 +22017,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>44583.738363078701</v>
       </c>
@@ -22020,7 +22059,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>44583.740276504599</v>
       </c>
@@ -22062,7 +22101,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>44645.469280208301</v>
       </c>
@@ -22103,7 +22142,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>44664.7695739583</v>
       </c>
@@ -22141,7 +22180,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>44684.589149305597</v>
       </c>
@@ -22185,7 +22224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>44687.332683333298</v>
       </c>
@@ -22223,7 +22262,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>44714.613704513897</v>
       </c>
@@ -22261,7 +22300,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>44714.631931828699</v>
       </c>
@@ -22305,7 +22344,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>44737.343279629597</v>
       </c>
@@ -22343,7 +22382,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>44743.461584375</v>
       </c>
@@ -22387,7 +22426,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>44743.470339120402</v>
       </c>
@@ -22431,7 +22470,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>44743.522404282397</v>
       </c>
@@ -22475,7 +22514,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>44747.804503819403</v>
       </c>
@@ -22516,7 +22555,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>44748.502863773203</v>
       </c>
@@ -22557,7 +22596,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>44748.505962499999</v>
       </c>
@@ -22598,7 +22637,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>44748.507295949101</v>
       </c>
@@ -22639,7 +22678,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>44748.508126967601</v>
       </c>
@@ -22677,7 +22716,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>44763.373567361101</v>
       </c>
@@ -22721,7 +22760,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>44763.382295023199</v>
       </c>
@@ -22762,7 +22801,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>44769.701641435197</v>
       </c>
@@ -22803,7 +22842,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>44774.632290162001</v>
       </c>
@@ -22844,7 +22883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>44774.633085995403</v>
       </c>
@@ -22885,7 +22924,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>44774.633985648099</v>
       </c>
@@ -22926,7 +22965,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>44831.785569097199</v>
       </c>
@@ -22970,7 +23009,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>44831.788137962998</v>
       </c>
@@ -23014,7 +23053,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>44831.969735532402</v>
       </c>
@@ -23058,7 +23097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>44838.598316782402</v>
       </c>
@@ -23102,7 +23141,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>44838.604422453704</v>
       </c>
@@ -23146,7 +23185,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>44838.767622685198</v>
       </c>
@@ -23190,7 +23229,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>44844.515792939797</v>
       </c>
@@ -23231,7 +23270,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>44845.4522701389</v>
       </c>
@@ -23272,7 +23311,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>44858.360405555599</v>
       </c>
@@ -23316,7 +23355,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>44858.786968055603</v>
       </c>
@@ -23354,7 +23393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>44875.428184837998</v>
       </c>
@@ -23389,7 +23428,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>44875.434203009303</v>
       </c>
@@ -23421,7 +23460,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>44875.441085763901</v>
       </c>
@@ -23453,7 +23492,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>44875.443288541697</v>
       </c>
@@ -23485,7 +23524,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>44875.453703819403</v>
       </c>
@@ -23520,7 +23559,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>44875.454279166697</v>
       </c>
@@ -23555,7 +23594,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>44962.636147222198</v>
       </c>
@@ -23593,7 +23632,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>44969.706999305599</v>
       </c>
@@ -23628,7 +23667,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>44984.705640509303</v>
       </c>
@@ -23666,7 +23705,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>44984.707487500003</v>
       </c>
@@ -23704,7 +23743,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>44984.709653124999</v>
       </c>
@@ -23742,7 +23781,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>44984.711797338001</v>
       </c>
@@ -23780,7 +23819,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>44984.713593634297</v>
       </c>
@@ -23818,7 +23857,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>44984.918457754597</v>
       </c>
@@ -23850,7 +23889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>44984.920112500004</v>
       </c>
@@ -23882,7 +23921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>44987.654823495403</v>
       </c>
@@ -23917,7 +23956,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>44987.656404050897</v>
       </c>
@@ -23952,7 +23991,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>44987.657589930597</v>
       </c>
@@ -23987,7 +24026,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:24" s="45" customFormat="1" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" s="45" customFormat="1" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="42" t="s">
         <v>708</v>
       </c>
@@ -24035,7 +24074,7 @@
       <c r="W64" s="43"/>
       <c r="X64" s="43"/>
     </row>
-    <row r="65" spans="1:27" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="54">
         <v>45265.412118055552</v>
       </c>
@@ -24086,7 +24125,7 @@
       <c r="Z65" s="46"/>
       <c r="AA65" s="46"/>
     </row>
-    <row r="66" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="53">
         <v>45265.425995370373</v>
       </c>
@@ -24137,7 +24176,7 @@
       <c r="Z66" s="46"/>
       <c r="AA66" s="46"/>
     </row>
-    <row r="67" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="48" t="s">
         <v>744</v>
       </c>
@@ -24188,7 +24227,7 @@
       <c r="Z67" s="46"/>
       <c r="AA67" s="46"/>
     </row>
-    <row r="68" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="53">
         <v>45052.562893518516</v>
       </c>
@@ -24241,7 +24280,7 @@
       <c r="Z68" s="46"/>
       <c r="AA68" s="46"/>
     </row>
-    <row r="69" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="53">
         <v>45052.673854166664</v>
       </c>
@@ -24292,59 +24331,109 @@
       <c r="Z69" s="46"/>
       <c r="AA69" s="46"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="48" t="s">
+        <v>769</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="46" t="s">
+        <v>770</v>
+      </c>
+      <c r="D70" s="46" t="s">
+        <v>771</v>
+      </c>
+      <c r="E70" s="46" t="s">
+        <v>772</v>
+      </c>
+      <c r="F70" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="G70" s="47" t="s">
+        <v>773</v>
+      </c>
+      <c r="H70" s="46"/>
+      <c r="I70" s="48" t="s">
+        <v>774</v>
+      </c>
+      <c r="J70" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46" t="s">
+        <v>772</v>
+      </c>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
+      <c r="P70" s="46"/>
+      <c r="Q70" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="R70" s="46"/>
+      <c r="S70" s="46"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="46"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="46"/>
+      <c r="X70" s="46"/>
+      <c r="Y70" s="46"/>
+      <c r="Z70" s="46"/>
+      <c r="AA70" s="46"/>
+    </row>
+    <row r="71" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="48" t="s">
+        <v>775</v>
+      </c>
+      <c r="B71" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D71" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="E71" s="46" t="s">
+        <v>777</v>
+      </c>
+      <c r="F71" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46" t="s">
+        <v>779</v>
+      </c>
+      <c r="I71" s="48" t="s">
+        <v>780</v>
+      </c>
+      <c r="J71" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" s="46"/>
+      <c r="L71" s="47" t="s">
+        <v>777</v>
+      </c>
+      <c r="M71" s="46"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="46"/>
+      <c r="P71" s="46"/>
+      <c r="Q71" s="47" t="s">
+        <v>781</v>
+      </c>
+      <c r="R71" s="46"/>
+      <c r="S71" s="46"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="46"/>
+      <c r="V71" s="46"/>
+      <c r="W71" s="46"/>
+      <c r="X71" s="46"/>
+      <c r="Y71" s="46"/>
+      <c r="Z71" s="46"/>
+      <c r="AA71" s="46"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -24370,7 +24459,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -24396,7 +24485,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -24422,7 +24511,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -24448,7 +24537,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -24474,7 +24563,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -24500,7 +24589,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -24526,7 +24615,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -24552,7 +24641,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -24578,7 +24667,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -24604,7 +24693,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -24630,7 +24719,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -24656,7 +24745,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -24682,7 +24771,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -24708,7 +24797,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -24734,7 +24823,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -24760,7 +24849,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -24786,7 +24875,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -24812,7 +24901,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -24838,7 +24927,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -24864,7 +24953,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -24890,7 +24979,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -24916,7 +25005,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -24942,7 +25031,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -24968,7 +25057,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -24994,7 +25083,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -25020,7 +25109,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -25046,7 +25135,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -25072,7 +25161,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -25098,7 +25187,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -25124,7 +25213,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -25150,7 +25239,7 @@
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -25176,7 +25265,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -25202,7 +25291,7 @@
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -25228,7 +25317,7 @@
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -25254,7 +25343,7 @@
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -25280,7 +25369,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -25306,7 +25395,7 @@
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -25332,7 +25421,7 @@
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -25358,7 +25447,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -25384,7 +25473,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -25410,7 +25499,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -25436,7 +25525,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -25462,7 +25551,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -25488,7 +25577,7 @@
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -25514,7 +25603,7 @@
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -25540,7 +25629,7 @@
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -25566,7 +25655,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -25592,7 +25681,7 @@
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -25618,7 +25707,7 @@
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -25644,7 +25733,7 @@
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -25670,7 +25759,7 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -25696,7 +25785,7 @@
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -25722,7 +25811,7 @@
       <c r="W124" s="9"/>
       <c r="X124" s="9"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -25748,7 +25837,7 @@
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -25774,7 +25863,7 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -25800,7 +25889,7 @@
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -25826,7 +25915,7 @@
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -25852,7 +25941,7 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -25878,7 +25967,7 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -25904,7 +25993,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -25930,7 +26019,7 @@
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -25956,7 +26045,7 @@
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -25982,7 +26071,7 @@
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -26008,7 +26097,7 @@
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -26034,7 +26123,7 @@
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -26060,7 +26149,7 @@
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -26086,7 +26175,7 @@
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -26112,7 +26201,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -26138,7 +26227,7 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -26164,7 +26253,7 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -26190,7 +26279,7 @@
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -26216,7 +26305,7 @@
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -26242,7 +26331,7 @@
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -26268,7 +26357,7 @@
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -26294,7 +26383,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -26320,7 +26409,7 @@
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -26346,7 +26435,7 @@
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -26372,7 +26461,7 @@
       <c r="W149" s="9"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -26398,7 +26487,7 @@
       <c r="W150" s="9"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -26424,7 +26513,7 @@
       <c r="W151" s="9"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -26450,7 +26539,7 @@
       <c r="W152" s="9"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -26476,7 +26565,7 @@
       <c r="W153" s="9"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -26502,7 +26591,7 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -26528,7 +26617,7 @@
       <c r="W155" s="9"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -26554,7 +26643,7 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -26580,7 +26669,7 @@
       <c r="W157" s="9"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -26606,7 +26695,7 @@
       <c r="W158" s="9"/>
       <c r="X158" s="9"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -26632,7 +26721,7 @@
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -26658,7 +26747,7 @@
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -26684,7 +26773,7 @@
       <c r="W161" s="9"/>
       <c r="X161" s="9"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -26710,7 +26799,7 @@
       <c r="W162" s="9"/>
       <c r="X162" s="9"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>

--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0777C1-46A5-46EF-8F43-39DE610D6484}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF159D80-FAF3-4A53-B34C-E44925FFED37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="791">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2922,6 +2922,37 @@
   </si>
   <si>
     <t>P7 - Ricken, SimLivA, ATLAS</t>
+  </si>
+  <si>
+    <t>6/19/2023 10:39:20</t>
+  </si>
+  <si>
+    <t>Advancing Liver Function Assessment: Personalized and Stratified Approaches with Standardized Computational Models and Data</t>
+  </si>
+  <si>
+    <t>Essential prerequisites for the practical application and translation of computational models include: i) reproducibility of results; ii) reusability and extensibility of models; iii) data availability; and iv) strategies for model stratification and individualization. In this study, we present a modeling workflow tailored to these critical aspects, with a focus on liver function tests.
+Evaluating liver function is a crucial task in hepatology, yet accurately quantifying hepatic function has persisted as a clinical challenge. Dynamic liver function tests offer a promising method for non-invasive in vivo assessment of liver function and metabolic phenotyping. These clinical tests determine liver function through the elimination of a specific test substance, thus revealing information about the liver's metabolic capacity.
+We employed whole-body physiologically-based pharmacokinetic (PBPK) models to simulate these tests, which encompass absorption, distribution, metabolism, and elimination processes. PBPK models serve as powerful instruments for investigating drug metabolism and its impact on the human body. In this research, we showcase our efforts in utilizing PBPK models as digital twins for metabolic phenotyping and liver function evaluation [1-6]. To develop and validate our models, we created the first open pharmacokinetics database, PK-DB, containing curated data from over 600 clinical studies. Our models are individualizable and stratifiable, enabling simulation of lifestyle factors and co-administration effects on drug metabolism.
+We have applied our models to various clinical inquiries, such as simulating individual outcomes post-hepatectomy using an indocyanine green model and examining the influence of CYP2D6 gene variants through a dextromethorphan model integrated with drug-gene interactions. These models are constructed hierarchically, describing metabolic and other biological processes in organs like the liver and kidneys, connected to whole-body physiology. All models and data are accessible for reuse in a reproducible manner, encoded in the Systems Biology Markup Language (SBML).
+In this study, we provide an overview of PBPK models and demonstrate how SBML [7-8], COMBINE standards [9], and FAIR principles [10] can facilitate model development, coupling, and reuse.</t>
+  </si>
+  <si>
+    <t>Workshop on Computational Models in Biology and Medicine 2023</t>
+  </si>
+  <si>
+    <t>6/16/2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1oY8pSWcDs4qEGvqsAxmda2zl5F6HsDqg</t>
+  </si>
+  <si>
+    <t>P3 - König, SimLivA, ATLAS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1h-d2LO4hKQkEgpkJhpiqmSQ-E_XjCpyh</t>
+  </si>
+  <si>
+    <t>Keynote about liver function assessment by Matthias König at the Workshop on Computational Models in Biology and Medicine 2023 in Stuttgart.</t>
   </si>
 </sst>
 </file>
@@ -3640,23 +3671,23 @@
       <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.54296875" style="1"/>
+    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3716,7 +3747,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>44427.932484722201</v>
       </c>
@@ -3766,7 +3797,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
     </row>
-    <row r="3" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>44427.939851157404</v>
       </c>
@@ -3816,7 +3847,7 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>44427.947995254603</v>
       </c>
@@ -3866,7 +3897,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>44427.963724074099</v>
       </c>
@@ -3909,7 +3940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>44427.966733564797</v>
       </c>
@@ -3952,7 +3983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>44427.969025810198</v>
       </c>
@@ -3995,7 +4026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="400" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>44427.971651504602</v>
       </c>
@@ -4038,7 +4069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="375" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="408" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>44427.977659027798</v>
       </c>
@@ -4081,7 +4112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="387.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>44427.979484606498</v>
       </c>
@@ -4124,7 +4155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="162.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>44502.680754861103</v>
       </c>
@@ -4166,7 +4197,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>44503.444289930601</v>
       </c>
@@ -4208,7 +4239,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>44504.433192939803</v>
       </c>
@@ -4250,7 +4281,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>44508.576334143501</v>
       </c>
@@ -4292,7 +4323,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>44510.606990972199</v>
       </c>
@@ -4334,7 +4365,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="337.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="357" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>44510.621671643501</v>
       </c>
@@ -4376,7 +4407,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>44510.635692708303</v>
       </c>
@@ -4418,7 +4449,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>44515.604827430601</v>
       </c>
@@ -4460,7 +4491,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>44515.605781597202</v>
       </c>
@@ -4499,7 +4530,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>44519.393009722196</v>
       </c>
@@ -4541,7 +4572,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>44519.396759837997</v>
       </c>
@@ -4583,7 +4614,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>44521.415261921298</v>
       </c>
@@ -4625,7 +4656,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="300" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>44521.417680324099</v>
       </c>
@@ -4667,7 +4698,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>44531.422715046298</v>
       </c>
@@ -4709,7 +4740,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>44536.689336226897</v>
       </c>
@@ -4751,7 +4782,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>44537.460719444498</v>
       </c>
@@ -4790,7 +4821,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>44545.415467245402</v>
       </c>
@@ -4832,7 +4863,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>44547.4125025463</v>
       </c>
@@ -4874,7 +4905,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>44571.655250347198</v>
       </c>
@@ -4913,7 +4944,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>44583.738363078701</v>
       </c>
@@ -4955,7 +4986,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>44583.740276504599</v>
       </c>
@@ -4997,7 +5028,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="375" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="395.25" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>44645.469280208301</v>
       </c>
@@ -5038,7 +5069,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>44658.465437268504</v>
       </c>
@@ -5079,7 +5110,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>44664.599232754597</v>
       </c>
@@ -5123,7 +5154,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>44664.614628935196</v>
       </c>
@@ -5158,7 +5189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>44664.623678935197</v>
       </c>
@@ -5199,7 +5230,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="387.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>44664.629289467601</v>
       </c>
@@ -5234,7 +5265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="187.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>44664.634484722199</v>
       </c>
@@ -5266,7 +5297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>44664.764159490704</v>
       </c>
@@ -5303,7 +5334,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>44664.7695739583</v>
       </c>
@@ -5341,7 +5372,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>44665.383020370398</v>
       </c>
@@ -5391,7 +5422,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>44665.612281597198</v>
       </c>
@@ -5435,7 +5466,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>44679.852050810201</v>
       </c>
@@ -5479,7 +5510,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>44684.589149305597</v>
       </c>
@@ -5523,7 +5554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>44687.332683333298</v>
       </c>
@@ -5561,7 +5592,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="300" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="318.75" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>44690.414530786999</v>
       </c>
@@ -5605,7 +5636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>44714.613704513897</v>
       </c>
@@ -5643,7 +5674,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>44714.631931828699</v>
       </c>
@@ -5687,7 +5718,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="400" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>44721.479891666699</v>
       </c>
@@ -5734,7 +5765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>44724.908495023199</v>
       </c>
@@ -5772,7 +5803,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>44724.915100462997</v>
       </c>
@@ -5813,7 +5844,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>44724.917635300902</v>
       </c>
@@ -5854,7 +5885,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>44737.343279629597</v>
       </c>
@@ -5892,7 +5923,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="175" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>44743.461584375</v>
       </c>
@@ -5936,7 +5967,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="153" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>44743.470339120402</v>
       </c>
@@ -5980,7 +6011,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>44743.522404282397</v>
       </c>
@@ -6024,7 +6055,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>44747.804503819403</v>
       </c>
@@ -6065,7 +6096,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>44748.500684375002</v>
       </c>
@@ -6106,7 +6137,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>44748.502863773203</v>
       </c>
@@ -6147,7 +6178,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>44748.505962499999</v>
       </c>
@@ -6188,7 +6219,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
         <v>44748.507295949101</v>
       </c>
@@ -6229,7 +6260,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>44748.508126967601</v>
       </c>
@@ -6267,7 +6298,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>44763.373567361101</v>
       </c>
@@ -6311,7 +6342,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
         <v>44763.382295023199</v>
       </c>
@@ -6352,7 +6383,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>44769.6992456019</v>
       </c>
@@ -6393,7 +6424,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
         <v>44769.701641435197</v>
       </c>
@@ -6434,7 +6465,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
         <v>44774.632290162001</v>
       </c>
@@ -6475,7 +6506,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
         <v>44774.633085995403</v>
       </c>
@@ -6516,7 +6547,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
         <v>44774.633985648099</v>
       </c>
@@ -6557,7 +6588,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A70" s="16">
         <v>44799.3730923611</v>
       </c>
@@ -6604,7 +6635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
         <v>44831.785569097199</v>
       </c>
@@ -6648,7 +6679,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A72" s="16">
         <v>44831.788137962998</v>
       </c>
@@ -6692,7 +6723,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A73" s="16">
         <v>44831.969735532402</v>
       </c>
@@ -6736,7 +6767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
         <v>44837.462938194403</v>
       </c>
@@ -6774,7 +6805,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A75" s="16">
         <v>44838.598316782402</v>
       </c>
@@ -6818,7 +6849,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A76" s="16">
         <v>44838.604422453704</v>
       </c>
@@ -6862,7 +6893,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="350" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A77" s="16">
         <v>44838.767622685198</v>
       </c>
@@ -6906,7 +6937,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A78" s="16">
         <v>44844.515792939797</v>
       </c>
@@ -6947,7 +6978,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A79" s="16">
         <v>44845.4522701389</v>
       </c>
@@ -6988,7 +7019,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="153" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
         <v>44858.360405555599</v>
       </c>
@@ -7032,7 +7063,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A81" s="16">
         <v>44858.786968055603</v>
       </c>
@@ -7070,7 +7101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A82" s="16">
         <v>44875.428184837998</v>
       </c>
@@ -7105,7 +7136,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>44875.434203009303</v>
       </c>
@@ -7137,7 +7168,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="362.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>44875.441085763901</v>
       </c>
@@ -7169,7 +7200,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
         <v>44875.443288541697</v>
       </c>
@@ -7201,7 +7232,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
         <v>44875.453703819403</v>
       </c>
@@ -7236,7 +7267,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
         <v>44875.454279166697</v>
       </c>
@@ -7271,7 +7302,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A88" s="16">
         <v>44907.440478009303</v>
       </c>
@@ -7318,7 +7349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
         <v>44912.925343634299</v>
       </c>
@@ -7365,7 +7396,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A90" s="16">
         <v>44914.371327893503</v>
       </c>
@@ -7409,7 +7440,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="375" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
         <v>44929.354307870402</v>
       </c>
@@ -7450,7 +7481,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
         <v>44943.356896874997</v>
       </c>
@@ -7491,7 +7522,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A93" s="16">
         <v>44960.467609143503</v>
       </c>
@@ -7538,7 +7569,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A94" s="16">
         <v>44962.636147222198</v>
       </c>
@@ -7576,7 +7607,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A95" s="16">
         <v>44969.706999305599</v>
       </c>
@@ -7611,7 +7642,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="350" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A96" s="16">
         <v>44972.571888425897</v>
       </c>
@@ -7658,7 +7689,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A97" s="16">
         <v>44984.705640509303</v>
       </c>
@@ -7696,7 +7727,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A98" s="16">
         <v>44984.707487500003</v>
       </c>
@@ -7734,7 +7765,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A99" s="16">
         <v>44984.709653124999</v>
       </c>
@@ -7772,7 +7803,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="375" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A100" s="16">
         <v>44984.711797338001</v>
       </c>
@@ -7810,7 +7841,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A101" s="16">
         <v>44984.713593634297</v>
       </c>
@@ -7848,7 +7879,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A102" s="16">
         <v>44984.918457754597</v>
       </c>
@@ -7880,7 +7911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A103" s="16">
         <v>44984.920112500004</v>
       </c>
@@ -7912,7 +7943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="50" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="16">
         <v>44987.654823495403</v>
       </c>
@@ -7947,7 +7978,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="50" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="16">
         <v>44987.656404050897</v>
       </c>
@@ -7982,7 +8013,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="50" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="16">
         <v>44987.657589930597</v>
       </c>
@@ -8017,7 +8048,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A107" s="16">
         <v>44992.747801851903</v>
       </c>
@@ -8056,7 +8087,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A108" s="16">
         <v>44998.039198495397</v>
       </c>
@@ -8103,7 +8134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="250" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
         <v>45012.448258796299</v>
       </c>
@@ -8150,7 +8181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A110" s="16">
         <v>45016.456743865703</v>
       </c>
@@ -8194,7 +8225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -8220,7 +8251,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -8246,7 +8277,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -8272,7 +8303,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -8298,7 +8329,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -8324,7 +8355,7 @@
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -8350,7 +8381,7 @@
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -8376,7 +8407,7 @@
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -8402,7 +8433,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -8428,7 +8459,7 @@
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -8454,7 +8485,7 @@
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -8480,7 +8511,7 @@
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -8506,7 +8537,7 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -8532,7 +8563,7 @@
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -8558,7 +8589,7 @@
       <c r="W124" s="9"/>
       <c r="X124" s="9"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -8584,7 +8615,7 @@
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -8610,7 +8641,7 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -8636,7 +8667,7 @@
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -8662,7 +8693,7 @@
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -8688,7 +8719,7 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -8714,7 +8745,7 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -8740,7 +8771,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -8766,7 +8797,7 @@
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -8792,7 +8823,7 @@
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -8818,7 +8849,7 @@
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -8844,7 +8875,7 @@
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -8870,7 +8901,7 @@
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -8896,7 +8927,7 @@
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -8922,7 +8953,7 @@
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -8948,7 +8979,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -8974,7 +9005,7 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -9000,7 +9031,7 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -9026,7 +9057,7 @@
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -9052,7 +9083,7 @@
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -9078,7 +9109,7 @@
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -9104,7 +9135,7 @@
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -9130,7 +9161,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -9156,7 +9187,7 @@
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -9182,7 +9213,7 @@
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -9208,7 +9239,7 @@
       <c r="W149" s="9"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -9234,7 +9265,7 @@
       <c r="W150" s="9"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -9260,7 +9291,7 @@
       <c r="W151" s="9"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -9286,7 +9317,7 @@
       <c r="W152" s="9"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -9312,7 +9343,7 @@
       <c r="W153" s="9"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -9338,7 +9369,7 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -9364,7 +9395,7 @@
       <c r="W155" s="9"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -9390,7 +9421,7 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -9416,7 +9447,7 @@
       <c r="W157" s="9"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -9442,7 +9473,7 @@
       <c r="W158" s="9"/>
       <c r="X158" s="9"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -9468,7 +9499,7 @@
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -9494,7 +9525,7 @@
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -9520,7 +9551,7 @@
       <c r="W161" s="9"/>
       <c r="X161" s="9"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -9546,7 +9577,7 @@
       <c r="W162" s="9"/>
       <c r="X162" s="9"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -9572,7 +9603,7 @@
       <c r="W163" s="9"/>
       <c r="X163" s="9"/>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -9598,7 +9629,7 @@
       <c r="W164" s="9"/>
       <c r="X164" s="9"/>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -9624,7 +9655,7 @@
       <c r="W165" s="9"/>
       <c r="X165" s="9"/>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -9650,7 +9681,7 @@
       <c r="W166" s="9"/>
       <c r="X166" s="9"/>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -9676,7 +9707,7 @@
       <c r="W167" s="9"/>
       <c r="X167" s="9"/>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -9702,7 +9733,7 @@
       <c r="W168" s="9"/>
       <c r="X168" s="9"/>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -9728,7 +9759,7 @@
       <c r="W169" s="9"/>
       <c r="X169" s="9"/>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -9754,7 +9785,7 @@
       <c r="W170" s="9"/>
       <c r="X170" s="9"/>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -9780,7 +9811,7 @@
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -9806,7 +9837,7 @@
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -9832,7 +9863,7 @@
       <c r="W173" s="9"/>
       <c r="X173" s="9"/>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -9858,7 +9889,7 @@
       <c r="W174" s="9"/>
       <c r="X174" s="9"/>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -9884,7 +9915,7 @@
       <c r="W175" s="9"/>
       <c r="X175" s="9"/>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -9910,7 +9941,7 @@
       <c r="W176" s="9"/>
       <c r="X176" s="9"/>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -9936,7 +9967,7 @@
       <c r="W177" s="9"/>
       <c r="X177" s="9"/>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -9962,7 +9993,7 @@
       <c r="W178" s="9"/>
       <c r="X178" s="9"/>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -9988,7 +10019,7 @@
       <c r="W179" s="9"/>
       <c r="X179" s="9"/>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -10014,7 +10045,7 @@
       <c r="W180" s="9"/>
       <c r="X180" s="9"/>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -10040,7 +10071,7 @@
       <c r="W181" s="9"/>
       <c r="X181" s="9"/>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -10066,7 +10097,7 @@
       <c r="W182" s="9"/>
       <c r="X182" s="9"/>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -10092,7 +10123,7 @@
       <c r="W183" s="9"/>
       <c r="X183" s="9"/>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -10118,7 +10149,7 @@
       <c r="W184" s="9"/>
       <c r="X184" s="9"/>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -10144,7 +10175,7 @@
       <c r="W185" s="9"/>
       <c r="X185" s="9"/>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -10170,7 +10201,7 @@
       <c r="W186" s="9"/>
       <c r="X186" s="9"/>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -10196,7 +10227,7 @@
       <c r="W187" s="9"/>
       <c r="X187" s="9"/>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -10222,7 +10253,7 @@
       <c r="W188" s="9"/>
       <c r="X188" s="9"/>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -10248,7 +10279,7 @@
       <c r="W189" s="9"/>
       <c r="X189" s="9"/>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -10274,7 +10305,7 @@
       <c r="W190" s="9"/>
       <c r="X190" s="9"/>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -10300,7 +10331,7 @@
       <c r="W191" s="9"/>
       <c r="X191" s="9"/>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -10326,7 +10357,7 @@
       <c r="W192" s="9"/>
       <c r="X192" s="9"/>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -10352,7 +10383,7 @@
       <c r="W193" s="9"/>
       <c r="X193" s="9"/>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -10378,7 +10409,7 @@
       <c r="W194" s="9"/>
       <c r="X194" s="9"/>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -10404,7 +10435,7 @@
       <c r="W195" s="9"/>
       <c r="X195" s="9"/>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -10430,7 +10461,7 @@
       <c r="W196" s="9"/>
       <c r="X196" s="9"/>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -10456,7 +10487,7 @@
       <c r="W197" s="9"/>
       <c r="X197" s="9"/>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -10482,7 +10513,7 @@
       <c r="W198" s="9"/>
       <c r="X198" s="9"/>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -10508,7 +10539,7 @@
       <c r="W199" s="9"/>
       <c r="X199" s="9"/>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -10534,7 +10565,7 @@
       <c r="W200" s="9"/>
       <c r="X200" s="9"/>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -10560,7 +10591,7 @@
       <c r="W201" s="9"/>
       <c r="X201" s="9"/>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -10586,7 +10617,7 @@
       <c r="W202" s="9"/>
       <c r="X202" s="9"/>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -10612,7 +10643,7 @@
       <c r="W203" s="9"/>
       <c r="X203" s="9"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -10638,7 +10669,7 @@
       <c r="W204" s="9"/>
       <c r="X204" s="9"/>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -10664,7 +10695,7 @@
       <c r="W205" s="9"/>
       <c r="X205" s="9"/>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -10690,7 +10721,7 @@
       <c r="W206" s="9"/>
       <c r="X206" s="9"/>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -10716,7 +10747,7 @@
       <c r="W207" s="9"/>
       <c r="X207" s="9"/>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -10742,7 +10773,7 @@
       <c r="W208" s="9"/>
       <c r="X208" s="9"/>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -10768,7 +10799,7 @@
       <c r="W209" s="9"/>
       <c r="X209" s="9"/>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -10880,26 +10911,26 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="33" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
-    <col min="12" max="17" width="18.81640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.81640625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="28.1796875" style="20" customWidth="1"/>
-    <col min="20" max="25" width="18.81640625" style="1" customWidth="1"/>
-    <col min="26" max="1024" width="12.54296875" style="1"/>
+    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="17" width="18.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" style="20" customWidth="1"/>
+    <col min="19" max="19" width="28.140625" style="20" customWidth="1"/>
+    <col min="20" max="25" width="18.85546875" style="1" customWidth="1"/>
+    <col min="26" max="1024" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10966,7 +10997,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
     </row>
-    <row r="2" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>44510.606990972199</v>
       </c>
@@ -11017,7 +11048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>44510.621671643501</v>
       </c>
@@ -11068,7 +11099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>44519.393009722196</v>
       </c>
@@ -11119,7 +11150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>44536.689336226897</v>
       </c>
@@ -11170,7 +11201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>44545.415467245402</v>
       </c>
@@ -11221,7 +11252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>44547.4125025463</v>
       </c>
@@ -11272,7 +11303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>44571.655250347198</v>
       </c>
@@ -11321,7 +11352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>44664.599232754597</v>
       </c>
@@ -11374,7 +11405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="34.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>44664.614628935196</v>
       </c>
@@ -11419,7 +11450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>44664.764159490704</v>
       </c>
@@ -11466,7 +11497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>44665.612281597198</v>
       </c>
@@ -11519,7 +11550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="34.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>44679.852050810201</v>
       </c>
@@ -11572,7 +11603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>44690.414530786999</v>
       </c>
@@ -11626,7 +11657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>44724.908495023199</v>
       </c>
@@ -11674,7 +11705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>44724.915100462997</v>
       </c>
@@ -11725,7 +11756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>44724.917635300902</v>
       </c>
@@ -11781,7 +11812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>44748.500684375002</v>
       </c>
@@ -11832,7 +11863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>44769.6992456019</v>
       </c>
@@ -11883,7 +11914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>44837.462938194403</v>
       </c>
@@ -11934,7 +11965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>44907.440478009303</v>
       </c>
@@ -11990,7 +12021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>44912.925343634299</v>
       </c>
@@ -12046,7 +12077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>44929.354307870402</v>
       </c>
@@ -12097,7 +12128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="36.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>44943.356896874997</v>
       </c>
@@ -12148,7 +12179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>44972.571888425897</v>
       </c>
@@ -12204,7 +12235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>44992.747801851903</v>
       </c>
@@ -12253,7 +12284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>45016.456743865703</v>
       </c>
@@ -12306,7 +12337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>44427.963724074099</v>
       </c>
@@ -12363,7 +12394,7 @@
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
     </row>
-    <row r="29" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44427.966733564797</v>
       </c>
@@ -12415,7 +12446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="36.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50">
         <v>45235.627743055556</v>
       </c>
@@ -12478,7 +12509,7 @@
       <c r="Z30" s="46"/>
       <c r="AA30" s="46"/>
     </row>
-    <row r="31" spans="1:27" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
         <v>45265.410578703704</v>
       </c>
@@ -12537,7 +12568,7 @@
       <c r="Z31" s="46"/>
       <c r="AA31" s="46"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -12564,7 +12595,7 @@
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -12591,7 +12622,7 @@
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -12618,7 +12649,7 @@
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -12645,7 +12676,7 @@
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -12672,7 +12703,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -12699,7 +12730,7 @@
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -12726,7 +12757,7 @@
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -12753,7 +12784,7 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -12780,7 +12811,7 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -12807,7 +12838,7 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -12834,7 +12865,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -12861,7 +12892,7 @@
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -12888,7 +12919,7 @@
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -12915,7 +12946,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -12942,7 +12973,7 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -12969,7 +13000,7 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -12996,7 +13027,7 @@
       <c r="X48" s="9"/>
       <c r="Y48" s="9"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -13023,7 +13054,7 @@
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -13050,7 +13081,7 @@
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -13077,7 +13108,7 @@
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -13104,7 +13135,7 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -13131,7 +13162,7 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -13158,7 +13189,7 @@
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -13185,7 +13216,7 @@
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -13212,7 +13243,7 @@
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -13239,7 +13270,7 @@
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -13266,7 +13297,7 @@
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -13293,7 +13324,7 @@
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -13320,7 +13351,7 @@
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -13347,7 +13378,7 @@
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -13374,7 +13405,7 @@
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -13401,7 +13432,7 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -13428,7 +13459,7 @@
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -13455,7 +13486,7 @@
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -13482,7 +13513,7 @@
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -13509,7 +13540,7 @@
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -13536,7 +13567,7 @@
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -13563,7 +13594,7 @@
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -13590,7 +13621,7 @@
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -13617,7 +13648,7 @@
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -13644,7 +13675,7 @@
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -13671,7 +13702,7 @@
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -13698,7 +13729,7 @@
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -13725,7 +13756,7 @@
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -13752,7 +13783,7 @@
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -13779,7 +13810,7 @@
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -13806,7 +13837,7 @@
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -13833,7 +13864,7 @@
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -13860,7 +13891,7 @@
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -13887,7 +13918,7 @@
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -13914,7 +13945,7 @@
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -13941,7 +13972,7 @@
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -13968,7 +13999,7 @@
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -13995,7 +14026,7 @@
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -14022,7 +14053,7 @@
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -14049,7 +14080,7 @@
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -14076,7 +14107,7 @@
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -14103,7 +14134,7 @@
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -14130,7 +14161,7 @@
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -14157,7 +14188,7 @@
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -14184,7 +14215,7 @@
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -14211,7 +14242,7 @@
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -14238,7 +14269,7 @@
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -14265,7 +14296,7 @@
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -14292,7 +14323,7 @@
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -14319,7 +14350,7 @@
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -14346,7 +14377,7 @@
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -14373,7 +14404,7 @@
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -14400,7 +14431,7 @@
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -14427,7 +14458,7 @@
       <c r="X101" s="9"/>
       <c r="Y101" s="9"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -14454,7 +14485,7 @@
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -14481,7 +14512,7 @@
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -14508,7 +14539,7 @@
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -14535,7 +14566,7 @@
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -14562,7 +14593,7 @@
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -14589,7 +14620,7 @@
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -14616,7 +14647,7 @@
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -14643,7 +14674,7 @@
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -14670,7 +14701,7 @@
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -14697,7 +14728,7 @@
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -14724,7 +14755,7 @@
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -14751,7 +14782,7 @@
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -14778,7 +14809,7 @@
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -14805,7 +14836,7 @@
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -14832,7 +14863,7 @@
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -14859,7 +14890,7 @@
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -14886,7 +14917,7 @@
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -14913,7 +14944,7 @@
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -14940,7 +14971,7 @@
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -14967,7 +14998,7 @@
       <c r="X121" s="9"/>
       <c r="Y121" s="9"/>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -14994,7 +15025,7 @@
       <c r="X122" s="9"/>
       <c r="Y122" s="9"/>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -15021,7 +15052,7 @@
       <c r="X123" s="9"/>
       <c r="Y123" s="9"/>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -15048,7 +15079,7 @@
       <c r="X124" s="9"/>
       <c r="Y124" s="9"/>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -15116,27 +15147,27 @@
       <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
-    <col min="12" max="18" width="18.81640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.81640625" style="20" customWidth="1"/>
-    <col min="20" max="20" width="37.26953125" style="20" customWidth="1"/>
-    <col min="21" max="21" width="18.81640625" style="20" customWidth="1"/>
-    <col min="22" max="24" width="18.81640625" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.54296875" style="1"/>
+    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="18" width="18.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="37.28515625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" style="20" customWidth="1"/>
+    <col min="22" max="24" width="18.85546875" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -15204,7 +15235,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>44427.932484722201</v>
       </c>
@@ -15262,7 +15293,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
     </row>
-    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>44427.939851157404</v>
       </c>
@@ -15320,7 +15351,7 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>44427.947995254603</v>
       </c>
@@ -15378,7 +15409,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>44427.969025810198</v>
       </c>
@@ -15433,7 +15464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>44427.971651504602</v>
       </c>
@@ -15488,7 +15519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>44427.977659027798</v>
       </c>
@@ -15543,7 +15574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>44427.979484606498</v>
       </c>
@@ -15598,7 +15629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>44664.623678935197</v>
       </c>
@@ -15652,7 +15683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>44664.629289467601</v>
       </c>
@@ -15700,7 +15731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="36.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>44721.479891666699</v>
       </c>
@@ -15759,7 +15790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>44799.3730923611</v>
       </c>
@@ -15818,7 +15849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>44960.467609143503</v>
       </c>
@@ -15877,7 +15908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>44998.039198495397</v>
       </c>
@@ -15936,7 +15967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>45012.448258796299</v>
       </c>
@@ -15995,7 +16026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>696</v>
       </c>
@@ -16057,7 +16088,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
         <v>44932.986134259256</v>
       </c>
@@ -16122,7 +16153,7 @@
       <c r="Z17" s="46"/>
       <c r="AA17" s="46"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -16148,7 +16179,7 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -16174,7 +16205,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -16200,7 +16231,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -16226,7 +16257,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -16252,7 +16283,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -16278,7 +16309,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -16304,7 +16335,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -16330,7 +16361,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -16356,7 +16387,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -16382,7 +16413,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -16408,7 +16439,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -16434,7 +16465,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -16460,7 +16491,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -16486,7 +16517,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -16512,7 +16543,7 @@
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -16538,7 +16569,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -16564,7 +16595,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -16590,7 +16621,7 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -16616,7 +16647,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -16642,7 +16673,7 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -16668,7 +16699,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -16694,7 +16725,7 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -16720,7 +16751,7 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -16746,7 +16777,7 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -16772,7 +16803,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -16798,7 +16829,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -16824,7 +16855,7 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -16850,7 +16881,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -16876,7 +16907,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -16902,7 +16933,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -16928,7 +16959,7 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -16954,7 +16985,7 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -16980,7 +17011,7 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -17006,7 +17037,7 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -17032,7 +17063,7 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -17058,7 +17089,7 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -17084,7 +17115,7 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -17110,7 +17141,7 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -17136,7 +17167,7 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -17162,7 +17193,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -17188,7 +17219,7 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -17214,7 +17245,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -17240,7 +17271,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -17266,7 +17297,7 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -17292,7 +17323,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -17318,7 +17349,7 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -17344,7 +17375,7 @@
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -17370,7 +17401,7 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -17396,7 +17427,7 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -17422,7 +17453,7 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -17448,7 +17479,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -17474,7 +17505,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -17500,7 +17531,7 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -17526,7 +17557,7 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -17552,7 +17583,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -17578,7 +17609,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -17604,7 +17635,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -17630,7 +17661,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -17656,7 +17687,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -17682,7 +17713,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -17708,7 +17739,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -17734,7 +17765,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -17760,7 +17791,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -17786,7 +17817,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -17812,7 +17843,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -17838,7 +17869,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -17864,7 +17895,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -17890,7 +17921,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -17916,7 +17947,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -17942,7 +17973,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -17968,7 +17999,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -17994,7 +18025,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -18020,7 +18051,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -18046,7 +18077,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -18072,7 +18103,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -18098,7 +18129,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -18124,7 +18155,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -18150,7 +18181,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -18176,7 +18207,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -18202,7 +18233,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -18228,7 +18259,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -18254,7 +18285,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -18280,7 +18311,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -18306,7 +18337,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -18332,7 +18363,7 @@
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -18358,7 +18389,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -18384,7 +18415,7 @@
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -18410,7 +18441,7 @@
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -18436,7 +18467,7 @@
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -18462,7 +18493,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -18488,7 +18519,7 @@
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -18514,7 +18545,7 @@
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -18540,7 +18571,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -18566,7 +18597,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -18592,7 +18623,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -18618,7 +18649,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -18644,7 +18675,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -18708,23 +18739,23 @@
       <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="77.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.54296875" style="1"/>
+    <col min="5" max="5" width="77.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -18784,7 +18815,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>44665.383020370398</v>
       </c>
@@ -18834,7 +18865,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53">
         <v>45265.423993055556</v>
       </c>
@@ -18891,7 +18922,7 @@
       <c r="Z3" s="46"/>
       <c r="AA3" s="46"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -18917,7 +18948,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -18943,7 +18974,7 @@
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -18969,7 +19000,7 @@
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -18995,7 +19026,7 @@
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -19021,7 +19052,7 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -19047,7 +19078,7 @@
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -19073,7 +19104,7 @@
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -19099,7 +19130,7 @@
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -19125,7 +19156,7 @@
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -19151,7 +19182,7 @@
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -19177,7 +19208,7 @@
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -19203,7 +19234,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -19229,7 +19260,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -19255,7 +19286,7 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -19281,7 +19312,7 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -19307,7 +19338,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -19333,7 +19364,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -19359,7 +19390,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -19385,7 +19416,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -19411,7 +19442,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -19437,7 +19468,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -19463,7 +19494,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -19489,7 +19520,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -19515,7 +19546,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -19541,7 +19572,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -19567,7 +19598,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -19593,7 +19624,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -19619,7 +19650,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -19645,7 +19676,7 @@
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -19671,7 +19702,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -19697,7 +19728,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -19723,7 +19754,7 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -19749,7 +19780,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -19775,7 +19806,7 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -19801,7 +19832,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -19827,7 +19858,7 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -19853,7 +19884,7 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -19879,7 +19910,7 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -19905,7 +19936,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -19931,7 +19962,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -19957,7 +19988,7 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -19983,7 +20014,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -20009,7 +20040,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -20035,7 +20066,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -20061,7 +20092,7 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -20087,7 +20118,7 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -20113,7 +20144,7 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -20139,7 +20170,7 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -20165,7 +20196,7 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -20191,7 +20222,7 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -20217,7 +20248,7 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -20243,7 +20274,7 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -20269,7 +20300,7 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -20295,7 +20326,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -20321,7 +20352,7 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -20347,7 +20378,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -20373,7 +20404,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -20399,7 +20430,7 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -20425,7 +20456,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -20451,7 +20482,7 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -20477,7 +20508,7 @@
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -20503,7 +20534,7 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -20529,7 +20560,7 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -20555,7 +20586,7 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -20581,7 +20612,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -20607,7 +20638,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -20633,7 +20664,7 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -20659,7 +20690,7 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -20685,7 +20716,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -20711,7 +20742,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -20737,7 +20768,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -20763,7 +20794,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -20789,7 +20820,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -20815,7 +20846,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -20841,7 +20872,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -20867,7 +20898,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -20893,7 +20924,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -20919,7 +20950,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -20945,7 +20976,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -20971,7 +21002,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -20997,7 +21028,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -21023,7 +21054,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -21049,7 +21080,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -21075,7 +21106,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -21101,7 +21132,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -21127,7 +21158,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -21153,7 +21184,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -21179,7 +21210,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -21205,7 +21236,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -21231,7 +21262,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -21257,7 +21288,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -21283,7 +21314,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -21309,7 +21340,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -21335,7 +21366,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -21361,7 +21392,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -21387,7 +21418,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -21413,7 +21444,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -21439,7 +21470,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -21482,26 +21513,26 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72:AA72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.54296875" style="1"/>
+    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -21561,7 +21592,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>44503.444289930601</v>
       </c>
@@ -21603,7 +21634,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>44504.433192939803</v>
       </c>
@@ -21645,7 +21676,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>44508.576334143501</v>
       </c>
@@ -21687,7 +21718,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>44510.635692708303</v>
       </c>
@@ -21729,7 +21760,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>44515.604827430601</v>
       </c>
@@ -21771,7 +21802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>44515.605781597202</v>
       </c>
@@ -21810,7 +21841,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>44519.396759837997</v>
       </c>
@@ -21852,7 +21883,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>44521.415261921298</v>
       </c>
@@ -21894,7 +21925,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>44521.417680324099</v>
       </c>
@@ -21936,7 +21967,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>44531.422715046298</v>
       </c>
@@ -21978,7 +22009,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>44537.460719444498</v>
       </c>
@@ -22017,7 +22048,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>44583.738363078701</v>
       </c>
@@ -22059,7 +22090,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>44583.740276504599</v>
       </c>
@@ -22101,7 +22132,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>44645.469280208301</v>
       </c>
@@ -22142,7 +22173,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>44664.7695739583</v>
       </c>
@@ -22180,7 +22211,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>44684.589149305597</v>
       </c>
@@ -22224,7 +22255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>44687.332683333298</v>
       </c>
@@ -22262,7 +22293,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>44714.613704513897</v>
       </c>
@@ -22300,7 +22331,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>44714.631931828699</v>
       </c>
@@ -22344,7 +22375,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>44737.343279629597</v>
       </c>
@@ -22382,7 +22413,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>44743.461584375</v>
       </c>
@@ -22426,7 +22457,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>44743.470339120402</v>
       </c>
@@ -22470,7 +22501,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>44743.522404282397</v>
       </c>
@@ -22514,7 +22545,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>44747.804503819403</v>
       </c>
@@ -22555,7 +22586,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>44748.502863773203</v>
       </c>
@@ -22596,7 +22627,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>44748.505962499999</v>
       </c>
@@ -22637,7 +22668,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>44748.507295949101</v>
       </c>
@@ -22678,7 +22709,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>44748.508126967601</v>
       </c>
@@ -22716,7 +22747,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>44763.373567361101</v>
       </c>
@@ -22760,7 +22791,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>44763.382295023199</v>
       </c>
@@ -22801,7 +22832,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>44769.701641435197</v>
       </c>
@@ -22842,7 +22873,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>44774.632290162001</v>
       </c>
@@ -22883,7 +22914,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>44774.633085995403</v>
       </c>
@@ -22924,7 +22955,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>44774.633985648099</v>
       </c>
@@ -22965,7 +22996,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>44831.785569097199</v>
       </c>
@@ -23009,7 +23040,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>44831.788137962998</v>
       </c>
@@ -23053,7 +23084,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>44831.969735532402</v>
       </c>
@@ -23097,7 +23128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>44838.598316782402</v>
       </c>
@@ -23141,7 +23172,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>44838.604422453704</v>
       </c>
@@ -23185,7 +23216,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>44838.767622685198</v>
       </c>
@@ -23229,7 +23260,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>44844.515792939797</v>
       </c>
@@ -23270,7 +23301,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>44845.4522701389</v>
       </c>
@@ -23311,7 +23342,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>44858.360405555599</v>
       </c>
@@ -23355,7 +23386,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>44858.786968055603</v>
       </c>
@@ -23393,7 +23424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>44875.428184837998</v>
       </c>
@@ -23428,7 +23459,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>44875.434203009303</v>
       </c>
@@ -23460,7 +23491,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>44875.441085763901</v>
       </c>
@@ -23492,7 +23523,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>44875.443288541697</v>
       </c>
@@ -23524,7 +23555,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>44875.453703819403</v>
       </c>
@@ -23559,7 +23590,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>44875.454279166697</v>
       </c>
@@ -23594,7 +23625,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>44962.636147222198</v>
       </c>
@@ -23632,7 +23663,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>44969.706999305599</v>
       </c>
@@ -23667,7 +23698,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>44984.705640509303</v>
       </c>
@@ -23705,7 +23736,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>44984.707487500003</v>
       </c>
@@ -23743,7 +23774,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>44984.709653124999</v>
       </c>
@@ -23781,7 +23812,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>44984.711797338001</v>
       </c>
@@ -23819,7 +23850,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>44984.713593634297</v>
       </c>
@@ -23857,7 +23888,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>44984.918457754597</v>
       </c>
@@ -23889,7 +23920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>44984.920112500004</v>
       </c>
@@ -23921,7 +23952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
         <v>44987.654823495403</v>
       </c>
@@ -23956,7 +23987,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>44987.656404050897</v>
       </c>
@@ -23991,7 +24022,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>44987.657589930597</v>
       </c>
@@ -24026,7 +24057,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:24" s="45" customFormat="1" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" s="45" customFormat="1" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="42" t="s">
         <v>708</v>
       </c>
@@ -24074,7 +24105,7 @@
       <c r="W64" s="43"/>
       <c r="X64" s="43"/>
     </row>
-    <row r="65" spans="1:27" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="54">
         <v>45265.412118055552</v>
       </c>
@@ -24125,7 +24156,7 @@
       <c r="Z65" s="46"/>
       <c r="AA65" s="46"/>
     </row>
-    <row r="66" spans="1:27" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="53">
         <v>45265.425995370373</v>
       </c>
@@ -24176,7 +24207,7 @@
       <c r="Z66" s="46"/>
       <c r="AA66" s="46"/>
     </row>
-    <row r="67" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>744</v>
       </c>
@@ -24227,7 +24258,7 @@
       <c r="Z67" s="46"/>
       <c r="AA67" s="46"/>
     </row>
-    <row r="68" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="53">
         <v>45052.562893518516</v>
       </c>
@@ -24280,7 +24311,7 @@
       <c r="Z68" s="46"/>
       <c r="AA68" s="46"/>
     </row>
-    <row r="69" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="53">
         <v>45052.673854166664</v>
       </c>
@@ -24331,7 +24362,7 @@
       <c r="Z69" s="46"/>
       <c r="AA69" s="46"/>
     </row>
-    <row r="70" spans="1:27" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>769</v>
       </c>
@@ -24382,7 +24413,7 @@
       <c r="Z70" s="46"/>
       <c r="AA70" s="46"/>
     </row>
-    <row r="71" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
         <v>775</v>
       </c>
@@ -24433,33 +24464,64 @@
       <c r="Z71" s="46"/>
       <c r="AA71" s="46"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="B72" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D72" s="46" t="s">
+        <v>783</v>
+      </c>
+      <c r="E72" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="47" t="s">
+        <v>784</v>
+      </c>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46" t="s">
+        <v>785</v>
+      </c>
+      <c r="I72" s="48" t="s">
+        <v>786</v>
+      </c>
+      <c r="J72" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" s="49" t="s">
+        <v>787</v>
+      </c>
+      <c r="L72" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="46"/>
+      <c r="P72" s="46"/>
+      <c r="Q72" s="46" t="s">
+        <v>788</v>
+      </c>
+      <c r="R72" s="49" t="s">
+        <v>789</v>
+      </c>
+      <c r="S72" s="47" t="s">
+        <v>790</v>
+      </c>
+      <c r="T72" s="46"/>
+      <c r="U72" s="46"/>
+      <c r="V72" s="46"/>
+      <c r="W72" s="46"/>
+      <c r="X72" s="46"/>
+      <c r="Y72" s="46"/>
+      <c r="Z72" s="46"/>
+      <c r="AA72" s="46"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -24485,7 +24547,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -24511,7 +24573,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -24537,7 +24599,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -24563,7 +24625,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -24589,7 +24651,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -24615,7 +24677,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -24641,7 +24703,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -24667,7 +24729,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -24693,7 +24755,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -24719,7 +24781,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -24745,7 +24807,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -24771,7 +24833,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -24797,7 +24859,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -24823,7 +24885,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -24849,7 +24911,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -24875,7 +24937,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -24901,7 +24963,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -24927,7 +24989,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -24953,7 +25015,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -24979,7 +25041,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -25005,7 +25067,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -25031,7 +25093,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -25057,7 +25119,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -25083,7 +25145,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -25109,7 +25171,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -25135,7 +25197,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -25161,7 +25223,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -25187,7 +25249,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -25213,7 +25275,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -25239,7 +25301,7 @@
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -25265,7 +25327,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -25291,7 +25353,7 @@
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -25317,7 +25379,7 @@
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -25343,7 +25405,7 @@
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -25369,7 +25431,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -25395,7 +25457,7 @@
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -25421,7 +25483,7 @@
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -25447,7 +25509,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -25473,7 +25535,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -25499,7 +25561,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -25525,7 +25587,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -25551,7 +25613,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -25577,7 +25639,7 @@
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -25603,7 +25665,7 @@
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -25629,7 +25691,7 @@
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -25655,7 +25717,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -25681,7 +25743,7 @@
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -25707,7 +25769,7 @@
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -25733,7 +25795,7 @@
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -25759,7 +25821,7 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -25785,7 +25847,7 @@
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -25811,7 +25873,7 @@
       <c r="W124" s="9"/>
       <c r="X124" s="9"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -25837,7 +25899,7 @@
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -25863,7 +25925,7 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -25889,7 +25951,7 @@
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -25915,7 +25977,7 @@
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -25941,7 +26003,7 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -25967,7 +26029,7 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -25993,7 +26055,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -26019,7 +26081,7 @@
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -26045,7 +26107,7 @@
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -26071,7 +26133,7 @@
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -26097,7 +26159,7 @@
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -26123,7 +26185,7 @@
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -26149,7 +26211,7 @@
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -26175,7 +26237,7 @@
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -26201,7 +26263,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -26227,7 +26289,7 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -26253,7 +26315,7 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -26279,7 +26341,7 @@
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -26305,7 +26367,7 @@
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -26331,7 +26393,7 @@
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -26357,7 +26419,7 @@
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -26383,7 +26445,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -26409,7 +26471,7 @@
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -26435,7 +26497,7 @@
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -26461,7 +26523,7 @@
       <c r="W149" s="9"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -26487,7 +26549,7 @@
       <c r="W150" s="9"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -26513,7 +26575,7 @@
       <c r="W151" s="9"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -26539,7 +26601,7 @@
       <c r="W152" s="9"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -26565,7 +26627,7 @@
       <c r="W153" s="9"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -26591,7 +26653,7 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -26617,7 +26679,7 @@
       <c r="W155" s="9"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -26643,7 +26705,7 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -26669,7 +26731,7 @@
       <c r="W157" s="9"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -26695,7 +26757,7 @@
       <c r="W158" s="9"/>
       <c r="X158" s="9"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -26721,7 +26783,7 @@
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -26747,7 +26809,7 @@
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -26773,7 +26835,7 @@
       <c r="W161" s="9"/>
       <c r="X161" s="9"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -26799,7 +26861,7 @@
       <c r="W162" s="9"/>
       <c r="X162" s="9"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -26865,9 +26927,11 @@
     <hyperlink ref="K58" r:id="rId35" xr:uid="{00000000-0004-0000-0400-000022000000}"/>
     <hyperlink ref="K64" r:id="rId36" xr:uid="{00000000-0004-0000-0400-000023000000}"/>
     <hyperlink ref="K68" r:id="rId37" xr:uid="{1EE4AB64-2688-44A9-8FE2-0DC1279B7409}"/>
+    <hyperlink ref="K72" r:id="rId38" xr:uid="{E99CE995-67FE-4E83-A47A-ECB6DA84F0D8}"/>
+    <hyperlink ref="R72" r:id="rId39" xr:uid="{BE77A5A7-22A1-4438-AA52-A616D0D2F735}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
-  <legacyDrawing r:id="rId39"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
+  <legacyDrawing r:id="rId41"/>
 </worksheet>
 </file>
--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF159D80-FAF3-4A53-B34C-E44925FFED37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484F6BE7-F327-46CE-8850-39292C62A776}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="800">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2953,6 +2953,43 @@
   </si>
   <si>
     <t>Keynote about liver function assessment by Matthias König at the Workshop on Computational Models in Biology and Medicine 2023 in Stuttgart.</t>
+  </si>
+  <si>
+    <t>6/24/2023 13:41:26</t>
+  </si>
+  <si>
+    <t>Perfusion and T2 Relaxation Time as Predictors of Severity and Outcome in Sepsis-Associated Acute Kidney Injury: A Preclinical MRI Study</t>
+  </si>
+  <si>
+    <t>Zhao, W.-T, Herrmann, K.-H., Sibgatulin R., Nahardani A., Krämer M., Heitplatz B., Van Marck V. , Reuter S., Reichenbach J.R., Hoerr V.</t>
+  </si>
+  <si>
+    <t>Background: Preventing sepsis-associated acute kidney injury (S-AKI) can be challenging because it develops rapidly and is often asymptomatic. Probability assessment of disease progression for therapeutic follow-up and outcome are important to intervene and prevent further damage.
+Purpose: To establish a noninvasive multiparametric MRI (mpMRI) tool, including T1 , T2 , and perfusion mapping, for probability assessment of the outcome of S-AKI.
+Study type: Preclinical randomized prospective study.
+Animal model: One hundred and forty adult female SD rats (65 control and 75 sepsis).
+Field strength/sequence: 9.4T; T1 and perfusion map (FAIR-EPI) and T2 map (multiecho RARE).
+Assessment: Experiment 1: To identify renal injury in relation to sepsis severity, serum creatinine levels were determined (31 control and 35 sepsis). Experiment 2: Animals underwent mpMRI (T1 , T2 , perfusion) 18 hours postsepsis. A subgroup of animals was immediately sacrificed for histology examination (nine control and seven sepsis). Result of mpMRI in follow-up subgroup (25 control and 33 sepsis) was used to predict survival outcomes at 96 hours.
+Statistical tests: Mann-Whitney U test, Spearman/Pearson correlation (r), P &lt; 0.05 was considered statistically significant.
+Results: Severely ill septic animals exhibited significantly increased serum creatinine levels compared to controls (70 ± 30 vs. 34 ± 9 μmol/L, P &lt; 0.0001). Cortical perfusion (480 ± 80 vs. 330 ± 140 mL/100 g tissue/min, P &lt; 0.005), and cortical and medullary T2 relaxation time constants were significantly reduced compared to controls (41 ± 4 vs. 37 ± 5 msec in cortex, P &lt; 0.05, 52 ± 7 vs. 45 ± 6 msec in medulla, P &lt; 0.05). The combination of cortical T2 relaxation time constants and perfusion results at 18 hours could predict survival outcomes at 96 hours with high sensitivity (80%) and specificity (73%) (area under curve of ROC = 0.8, Jmax = 0.52).
+Data conclusion: This preclinical study suggests combined T2 relaxation time and perfusion mapping as first line diagnostic tool for treatment planning.
+Level of evidence: 2 TECHNICAL EFFICACY STAGE: 2.
+Keywords: S-AKI; T1 and T2 relaxation time; multiparametric MRI; perfusion; sepsis.</t>
+  </si>
+  <si>
+    <t>J Magn Reson Imaging 2023 Apr 7. doi: 10.1002/jmri.28698</t>
+  </si>
+  <si>
+    <t>Zhao, W.-T, Herrmann, K.-H., Reichenbach J.R.</t>
+  </si>
+  <si>
+    <t>It's a kidney data not liver</t>
+  </si>
+  <si>
+    <t>10.1016/j.jpi.2022.100001</t>
+  </si>
+  <si>
+    <t>10.1002/jmri.28698</t>
   </si>
 </sst>
 </file>
@@ -3059,7 +3096,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3102,6 +3139,12 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3131,7 +3174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3281,6 +3324,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -10907,8 +10956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ125"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12557,9 +12606,15 @@
       <c r="Q31" s="46" t="s">
         <v>731</v>
       </c>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
+      <c r="R31" s="51">
+        <v>35242441</v>
+      </c>
+      <c r="S31" s="58" t="s">
+        <v>798</v>
+      </c>
+      <c r="T31" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="U31" s="46"/>
       <c r="V31" s="46"/>
       <c r="W31" s="46"/>
@@ -12568,32 +12623,66 @@
       <c r="Z31" s="46"/>
       <c r="AA31" s="46"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
+    <row r="32" spans="1:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>792</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>793</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>794</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>795</v>
+      </c>
+      <c r="H32" s="46"/>
+      <c r="I32" s="55">
+        <v>45111</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="57"/>
+      <c r="L32" s="46" t="s">
+        <v>796</v>
+      </c>
+      <c r="M32" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q32" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="R32" s="51">
+        <v>37026419</v>
+      </c>
+      <c r="S32" s="58" t="s">
+        <v>799</v>
+      </c>
+      <c r="T32" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
@@ -21511,9 +21600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72:AA72"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484F6BE7-F327-46CE-8850-39292C62A776}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B88186-E3C0-4A5A-B335-28B56A44D51B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="818">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2990,6 +2990,82 @@
   </si>
   <si>
     <t>10.1002/jmri.28698</t>
+  </si>
+  <si>
+    <t>laura.buetow@uni-jena.de</t>
+  </si>
+  <si>
+    <t>The influence of marginal organs on the drug metabolism in liver transplantation</t>
+  </si>
+  <si>
+    <t>Bütow L.B., Tautenhahn H.-M. T., Schröter D.S., Schlattmann P.S., Settmacher U.S., Dahmen U.D.,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background and Aims: 
+Metabolic zonation is a liver phenomenon, described as different distribution of functions among lobules. One liver function is the degradation of drugs, which is realized by cytochrome P450 enzymes. The alteration of CYP expression and activity will be studied in marginal donor livers for a better characterization of these high-risk organs to improve the graft selection process.
+Method: 
+The first step of the study is to investigate the influence of marginal organs on drug metabolism, by comparing the steatosis severity, the donor age, and the CIT to the CYP expression and activity. The measurements will be correlated to the change in reperfusion and ischemia-reperfusion-injured grafts. Second, to assess the LiMAx test, as a CYP 1A2 point- of care diagnostic, the in vivo and in vitro CYP measurements are correlated. The experimental results are related to the patient outcome, especially the prevalence of delayed graft function, as well as validated clinical chemistry parameters.
+40 patients undergoing a liver transplantation in 2022/23 at university hospital in Jena, who are giving their informed consent, will be examined. For an exploratory approach, with 10 subjects each independent variable, are needed.
+With the tissue samples we perform an H.E. staining for the morphological analysis of the donor organs. Indirect immunohistochemistry for CYP expression, precisely CYP 1A2, CYP 3A4, CYP 2C19 and a fluorescent assay measuring the CYP 1A2 activity in vitro, as well as a breath test (LiMAx) to measure the CYP activity in vivo. 
+Results: 
+The CYP enzymes are expressed pericentral in the lobules. Steatosis, age, and CIT are three interrelated factors, that we predict, will influence the CYP expression pattern. We assume that the CYP activity is altered by the reperfusion and the IRI. 
+Conclusion: 
+Potentially, the LiMAx could be used to assess recovery after transplantation, reflecting the IRI.
+</t>
+  </si>
+  <si>
+    <t>Journal of Hepatology 2023 vol. 78(S1)</t>
+  </si>
+  <si>
+    <t>EASL European Association for the Study of the Liver, https://www.easlcongress.eu,</t>
+  </si>
+  <si>
+    <t>6/24/2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1TWLwOLSOiOVMJbJDWcqiWeXDcStcu0Ql</t>
+  </si>
+  <si>
+    <t>Bütow L.B., Tautenhahn H.-M. T., Schröter D.S., Dahmen U.D.,</t>
+  </si>
+  <si>
+    <t>P2 - Dahmen, P9 - Tautenhahn, SimLivA</t>
+  </si>
+  <si>
+    <t>Laura.buetow@uni-jena.de</t>
+  </si>
+  <si>
+    <t>Influence of marginal organs on the drug metabolism in liver transplantation. Outline for a prospective clinical study</t>
+  </si>
+  <si>
+    <t>Bütow L.B., Schröter D.S., Tautenhahn H.-M. T., Dahmen U.D., Nickel S. N.,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background:
+Due to the lack of donor organs there is an increasing use of non-optimal organs. These are organs from aged donors, with steatosis or organs subjected to prolonged cold ischemia. 
+Those factors might influence the recovery of function after transplantation and thereby affect outcome. 
+One of the key functions of the liver is the drug metabolism. Ex-vivo assessment of drug metabolism includes the visualization of the key drug metabolizing CYP enzymes and the determination of the enzyme activity. In-vivo assessment of CYP 1A2 metabolism is performed using a breath test (LiMAx) after injecting a test drug (Methacetin) and is accepted as a correlate of hepatic function.
+Hypothesis:
+We hypothesize that the three factors Steatosis, age, and CIT may influence drug metabolism in liver grafts after transplantation. 
+Objective and Methods:
+We want to investigate the impact of age, steatosis and cold ischemia time on expression and activity of CYP enzymes in tissue samples obtained from liver grafts at the end of cold ischemia and 1 hour after reperfusion. First, Severity of steatosis will be determined based on HE-staining of the liver samples. Second, CYP expression will be visualized using IHC. Third, CYP activity will be assessed using a fluorescent assay. As a fourth and thus clinical part, the CYP 1A2 activity in vivo is investigated with the LiMAx.
+Wetlab results will be compared to the postoperative course of the patient with special attention to the recovery of hepatic function as determined using the LiMAx assay on POD 1 and POD 7. 
+Based on statistical the considerations of Peduzzi et al., 10 patients per individual variable should be included for an explorative approach to assess factors influencing liver function.
+Results:
+Over the time period from January 2022 until March of 2023, 40 patients were included in the study. Donor age ranged from 23 to 88 years with a mean of 59.5 years. The mean CIT was 6.13 hours. The Limax test, as illustrated by a single case so far, demonstrated the posttransplant reduced hepatic function as well as the almost complete recovery within the first postoperative week. The patient was an 59 old male with ethyl toxic liver cirrhosis who gets an 65 year old organ with a CIT time of 8 h 51. 
+</t>
+  </si>
+  <si>
+    <t>33., Wilseder Workshop von Biotest- Individulaisierte Therapie von Lebererkrnakungen, https://www.biotest-wilsede.de,</t>
+  </si>
+  <si>
+    <t>6/28/2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15cC4u3YZviFf4gxS6wxKJUDcqgC3ZRZR</t>
+  </si>
+  <si>
+    <t>Bütow L.B., Schröter D.S., Tautenhahn H.-M. T., Dahmen U.D.,</t>
   </si>
 </sst>
 </file>
@@ -4118,7 +4194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="408" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="395.25" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>44427.977659027798</v>
       </c>
@@ -4161,7 +4237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="408" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>44427.979484606498</v>
       </c>
@@ -5203,7 +5279,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="153" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>44664.614628935196</v>
       </c>
@@ -5723,7 +5799,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="153" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>44714.631931828699</v>
       </c>
@@ -5767,7 +5843,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="408" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>44721.479891666699</v>
       </c>
@@ -5814,7 +5890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>44724.908495023199</v>
       </c>
@@ -6432,7 +6508,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>44769.6992456019</v>
       </c>
@@ -7068,7 +7144,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
         <v>44858.360405555599</v>
       </c>
@@ -7217,7 +7293,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="369.75" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>44875.441085763901</v>
       </c>
@@ -7281,7 +7357,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
         <v>44875.453703819403</v>
       </c>
@@ -7489,7 +7565,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="395.25" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
         <v>44929.354307870402</v>
       </c>
@@ -7530,7 +7606,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
         <v>44943.356896874997</v>
       </c>
@@ -8183,7 +8259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
         <v>45012.448258796299</v>
       </c>
@@ -10956,7 +11032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
@@ -21600,9 +21676,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ163"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24610,57 +24686,113 @@
       <c r="Z72" s="46"/>
       <c r="AA72" s="46"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
+    <row r="73" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="53">
+        <v>45084.756689814814</v>
+      </c>
+      <c r="B73" s="46" t="s">
+        <v>800</v>
+      </c>
+      <c r="C73" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="46" t="s">
+        <v>801</v>
+      </c>
+      <c r="E73" s="46" t="s">
+        <v>802</v>
+      </c>
+      <c r="F73" s="46" t="s">
+        <v>803</v>
+      </c>
+      <c r="G73" s="46" t="s">
+        <v>804</v>
+      </c>
+      <c r="H73" s="46" t="s">
+        <v>805</v>
+      </c>
+      <c r="I73" s="48" t="s">
+        <v>806</v>
+      </c>
+      <c r="J73" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" s="49" t="s">
+        <v>807</v>
+      </c>
+      <c r="L73" s="47" t="s">
+        <v>808</v>
+      </c>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="46"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="47" t="s">
+        <v>809</v>
+      </c>
+      <c r="R73" s="46"/>
+      <c r="S73" s="46"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="46"/>
+      <c r="V73" s="46"/>
+      <c r="W73" s="46"/>
+      <c r="X73" s="46"/>
+      <c r="Y73" s="46"/>
+      <c r="Z73" s="46"/>
+      <c r="AA73" s="46"/>
+    </row>
+    <row r="74" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="53">
+        <v>45084.761666666665</v>
+      </c>
+      <c r="B74" s="46" t="s">
+        <v>810</v>
+      </c>
+      <c r="C74" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" s="46" t="s">
+        <v>811</v>
+      </c>
+      <c r="E74" s="46" t="s">
+        <v>812</v>
+      </c>
+      <c r="F74" s="47" t="s">
+        <v>813</v>
+      </c>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46" t="s">
+        <v>814</v>
+      </c>
+      <c r="I74" s="48" t="s">
+        <v>815</v>
+      </c>
+      <c r="J74" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" s="49" t="s">
+        <v>816</v>
+      </c>
+      <c r="L74" s="47" t="s">
+        <v>817</v>
+      </c>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
+      <c r="P74" s="46"/>
+      <c r="Q74" s="47" t="s">
+        <v>809</v>
+      </c>
+      <c r="R74" s="46"/>
+      <c r="S74" s="46"/>
+      <c r="T74" s="46"/>
+      <c r="U74" s="46"/>
+      <c r="V74" s="46"/>
+      <c r="W74" s="46"/>
+      <c r="X74" s="46"/>
+      <c r="Y74" s="46"/>
+      <c r="Z74" s="46"/>
+      <c r="AA74" s="46"/>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
@@ -27018,9 +27150,11 @@
     <hyperlink ref="K68" r:id="rId37" xr:uid="{1EE4AB64-2688-44A9-8FE2-0DC1279B7409}"/>
     <hyperlink ref="K72" r:id="rId38" xr:uid="{E99CE995-67FE-4E83-A47A-ECB6DA84F0D8}"/>
     <hyperlink ref="R72" r:id="rId39" xr:uid="{BE77A5A7-22A1-4438-AA52-A616D0D2F735}"/>
+    <hyperlink ref="K73" r:id="rId40" xr:uid="{28063AC0-2663-4695-9D66-4C7B825735EE}"/>
+    <hyperlink ref="K74" r:id="rId41" xr:uid="{EA44B343-679D-469F-A6FF-8811CC28240C}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
-  <legacyDrawing r:id="rId41"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
+  <legacyDrawing r:id="rId43"/>
 </worksheet>
 </file>
--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B88186-E3C0-4A5A-B335-28B56A44D51B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C45614C-56E3-4D96-8C69-D0A7F6586ACD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="825">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3066,6 +3066,42 @@
   </si>
   <si>
     <t>Bütow L.B., Schröter D.S., Tautenhahn H.-M. T., Dahmen U.D.,</t>
+  </si>
+  <si>
+    <t>Time-series of transcriptome data reveal non-coding RNAs can be incorporated into modelling approaches</t>
+  </si>
+  <si>
+    <t>Meyer D., Barth E., Christ B., König M., Marz M.</t>
+  </si>
+  <si>
+    <t>Time-series of transcriptome data reveal non-coding RNAs that can be incorporated into modelling approaches
+Daria Meyer1, Bruno Christ2, Matthias König3, Manja Marz1 
+1Friedrich-Schiller-Universität Jena, Germany; 2Universitätsklinikum Leipzig, Germany; 3Humboldt-Universität zu Berlin, Germany
+Non-coding RNAs (ncRNAs) are a special class of RNA that are transcribed from the DNA, but not translated into protein. Beside about 4,000 ncRNA classes in Rfam, an RNA families database (Griffiths-Jones et al.), the number of long ncRNAs is estimated to be more than 50,000 (Iyer et al.). Often ncRNAs have regulatory functions; but for most ncRNAs no function is yet known.
+Here, we propose a method to determine:
+(i) differentially expressed ncRNAs suggesting a potential function in a given experimental setup
+(ii) possible targets in the transcriptional 'behaviour' as the ncRNAs themself
+(iii) a proof-of-principle for integrating regulation via ncRNAs into pathway-based modelling approaches
+We show a clear functional relationship of ncRNAs using portal vein ligation (PVL), a surgical procedure that reduces perfusion in part of the liver. Specifically, we compare sham surgery to PVL, at 2 and 5 days, in both ligated and non-ligated liver lobes.
+Furthermore, we predict targets for selected ncRNAs by correlating transcriptome patterns with ncRNA expression.
+Finally, we propose to integrate ncRNAs into existing modelling approaches, such as pathway models of liver regeneration after partial hepatectomy (Köller et al.) or gene regulatory networks (Gebert et al.).
+References:
+Gebert, Jutta, Nicole Radde, and G-W. Weber. "Modeling gene regulatory networks with piecewise linear differential equations." European Journal of Operational Research 181.3 (2007): 1148-1165.
+Griffiths-Jones, Sam, et al. "Rfam: an RNA family database." Nucleic acids research 31.1 (2003): 439-441.
+Iyer, Matthew K., et al. "The landscape of long noncoding RNAs in the human transcriptome." Nature genetics 47.3 (2015): 199-208.
+Köller, Adrian, et al. "Prediction of survival after partial hepatectomy using a physiologically based pharmacokinetic model of indocyanine green liver function tests." Frontiers in physiology (2021): 1975.</t>
+  </si>
+  <si>
+    <t>6/15/2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1s1kUX466dQsfDA74LIWW4OZmZuI8ujvN</t>
+  </si>
+  <si>
+    <t>Meyer D., Christ B., König M., Marz M.</t>
+  </si>
+  <si>
+    <t>P1 - Christ, P3 - König, P4 - Marz</t>
   </si>
 </sst>
 </file>
@@ -4194,7 +4230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="408" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>44427.977659027798</v>
       </c>
@@ -4237,7 +4273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="408" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>44427.979484606498</v>
       </c>
@@ -5279,7 +5315,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>44664.614628935196</v>
       </c>
@@ -5799,7 +5835,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>44714.631931828699</v>
       </c>
@@ -5843,7 +5879,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="408" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>44721.479891666699</v>
       </c>
@@ -5890,7 +5926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="331.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>44724.908495023199</v>
       </c>
@@ -6508,7 +6544,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>44769.6992456019</v>
       </c>
@@ -7144,7 +7180,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="153" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
         <v>44858.360405555599</v>
       </c>
@@ -7293,7 +7329,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>44875.441085763901</v>
       </c>
@@ -7357,7 +7393,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
         <v>44875.453703819403</v>
       </c>
@@ -7565,7 +7601,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
         <v>44929.354307870402</v>
       </c>
@@ -7606,7 +7642,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
         <v>44943.356896874997</v>
       </c>
@@ -8259,7 +8295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
         <v>45012.448258796299</v>
       </c>
@@ -21678,7 +21714,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24794,31 +24830,58 @@
       <c r="Z74" s="46"/>
       <c r="AA74" s="46"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="9"/>
+    <row r="75" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="53">
+        <v>45237.442407407405</v>
+      </c>
+      <c r="B75" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="46" t="s">
+        <v>818</v>
+      </c>
+      <c r="E75" s="46" t="s">
+        <v>819</v>
+      </c>
+      <c r="F75" s="47" t="s">
+        <v>820</v>
+      </c>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46" t="s">
+        <v>785</v>
+      </c>
+      <c r="I75" s="48" t="s">
+        <v>821</v>
+      </c>
+      <c r="J75" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K75" s="49" t="s">
+        <v>822</v>
+      </c>
+      <c r="L75" s="47" t="s">
+        <v>823</v>
+      </c>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="46"/>
+      <c r="Q75" s="47" t="s">
+        <v>824</v>
+      </c>
+      <c r="R75" s="46"/>
+      <c r="S75" s="46"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="46"/>
+      <c r="V75" s="46"/>
+      <c r="W75" s="46"/>
+      <c r="X75" s="46"/>
+      <c r="Y75" s="46"/>
+      <c r="Z75" s="46"/>
+      <c r="AA75" s="46"/>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
@@ -27152,9 +27215,10 @@
     <hyperlink ref="R72" r:id="rId39" xr:uid="{BE77A5A7-22A1-4438-AA52-A616D0D2F735}"/>
     <hyperlink ref="K73" r:id="rId40" xr:uid="{28063AC0-2663-4695-9D66-4C7B825735EE}"/>
     <hyperlink ref="K74" r:id="rId41" xr:uid="{EA44B343-679D-469F-A6FF-8811CC28240C}"/>
+    <hyperlink ref="K75" r:id="rId42" xr:uid="{5CBB793B-2BE1-49B3-AE01-363D052C4900}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
-  <legacyDrawing r:id="rId43"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId43"/>
+  <legacyDrawing r:id="rId44"/>
 </worksheet>
 </file>
--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C45614C-56E3-4D96-8C69-D0A7F6586ACD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEC6D0E-3E84-419B-A4F8-AE224AC6F5CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="840">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3102,6 +3102,52 @@
   </si>
   <si>
     <t>P1 - Christ, P3 - König, P4 - Marz</t>
+  </si>
+  <si>
+    <t>A pathway model of glucose-stimulated insulin secretion in the pancreatic β-cell</t>
+  </si>
+  <si>
+    <t>Maheshvare MD., Raha S., König M.*, and Pal D.* (* equal contribution)</t>
+  </si>
+  <si>
+    <t>The pancreas plays a critical role in maintaining glucose homeostasis through the secretion of hormones from the islets of Langerhans. Glucose-stimulated insulin secretion (GSIS) by the pancreatic β-cell is the main mechanism for reducing elevated plasma glucose. Here we present a systematic modeling workflow for the development of kinetic pathway models using the Systems Biology Markup Language (SBML). Steps include retrieval of information from databases, curation of experimental and clinical data for model calibration and validation, integration of heterogeneous data including absolute and relative measurements, unit normalization, data normalization, and model annotation. An important factor was the reproducibility and exchangeability of the model, which allowed the use of various existing tools. The workflow was applied to construct a novel data-driven kinetic model of GSIS in the pancreatic β-cell based on experimental and clinical data from 39 studies spanning 50 years of pancreatic, islet, and β-cell research in humans, rats, mice, and cell lines. The model consists of detailed glycolysis and phenomenological equations for insulin secretion coupled to cellular energy state, ATP dynamics and (ATP/ADP ratio). Key findings of our work are that in GSIS there is a glucose-dependent increase in almost all intermediates of glycolysis. This increase in glycolytic metabolites is accompanied by an increase in energy metabolites, especially ATP and NADH. One of the few decreasing metabolites is ADP, which, in combination with the increase in ATP, results in a large increase in ATP/ADP ratios in the β-cell with increasing glucose. Insulin secretion is dependent on ATP/ADP, resulting in glucose-stimulated insulin secretion. The observed glucose-dependent increase in glycolytic intermediates and the resulting change in ATP/ADP ratios and insulin secretion is a robust phenomenon observed across data sets, experimental systems and species. Model predictions of the glucose-dependent response of glycolytic intermediates and biphasic insulin secretion are in good agreement with experimental measurements. Our model predicts that factors affecting ATP consumption, ATP formation, hexokinase, phosphofructokinase, and ATP/ADP-dependent insulin secretion have a major effect on GSIS. In conclusion, we have developed and applied a systematic modeling workflow for pathway models that allowed us to gain insight into key mechanisms in GSIS in the pancreatic β-cell.</t>
+  </si>
+  <si>
+    <t>Front. Endocrinol. 14:1185656, doi: 10.3389/fendo.2023.1185656</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Hunr87XhYvdBH5WDX-J2Pihm132nXPF_</t>
+  </si>
+  <si>
+    <t>model, metabolomics</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1mwEq1s9fOOkUWxnAp5XyiOsmUkX3pgeN</t>
+  </si>
+  <si>
+    <t>7/17/2023 18:31:47</t>
+  </si>
+  <si>
+    <t>A physiologically based pharmacokinetic (PBPK) model of the probe drug talinolol for the characterization of intestinal P-glycoprotein</t>
+  </si>
+  <si>
+    <t>Beatrice Stemmer Mallol, Matthias König (supervisor)</t>
+  </si>
+  <si>
+    <t>Talinolol is a cardioselective beta-blocker used for the treatment of various cardiovascular diseases and tachyarrhythmia. The gastrointestinal absorption of talinolol is determined via its uptake in the intestine via the organic anion transporting polypeptide 2B1 (OATP2B1) and its efflux via the P-glycoprotein (P-gp). After intestinal absorption talinolol can be transported into the liver via OATP1B1 talinolol where it undergoes enterohepatic circulation. Talinolol is excreted unchanged in the urine and feces. In addition to its clinical application, talinolol is widely used as a probe drug for the intestinal efflux transporter P-glycoprotein. P-gp plays a crucial role in the human body as it is expressed in various tissues to protect against potentially toxic substances, facilitating the elimination of xenobiotics. The application of talinolol for P-gp phenotyping enables evaluation of factors influencing P-gp-mediated transport in vivo such as genetic polymorphisms of P-gp as well as the distribution of P-gp along the intestine.
+Within this thesis, an extensive dataset of talinolol pharmacokinetics was established and used to develop a physiologically based pharmacokinetic (PBPK) model for talinolol. The model was applied to investigate the influence of various factors on the pharmacokinetics of talinolol, including: (i) genetic variants of P-gp; (ii) enzymatic activity of the transporters OATP2B1 and OATP1B1; (iii) site-specific distribution of P-gp and OATP2B1 proteins in the intestine, and (iv) the impact of diseases such as liver cirrhosis and renal dysfunction. The model enables precise predictions of the concentration-time profile of talinolol in various tissues following oral or intravenous administration. Furthermore, the model accurately describes the effect of genetic variants of P-gp on the pharmacokinetics of talinolol. The detailed description of the limiting intestinal absorption of intestinal provided by the model, along with the precise prediction of talinolol`s pharmacokinetics in different renal functions, holds significant clinical relevance.</t>
+  </si>
+  <si>
+    <t>Bachelor Thesis, July 2023</t>
+  </si>
+  <si>
+    <t>7/17/2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1RXSpGkW71bBnFSlIlrG2g6B2fW-lK2sv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1fpNXd53SkVDyOOJxE2Cizejld2w2u-vO</t>
   </si>
 </sst>
 </file>
@@ -3832,23 +3878,23 @@
       <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3908,7 +3954,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44427.932484722201</v>
       </c>
@@ -3958,7 +4004,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
     </row>
-    <row r="3" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44427.939851157404</v>
       </c>
@@ -4008,7 +4054,7 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44427.947995254603</v>
       </c>
@@ -4058,7 +4104,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44427.963724074099</v>
       </c>
@@ -4101,7 +4147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44427.966733564797</v>
       </c>
@@ -4144,7 +4190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44427.969025810198</v>
       </c>
@@ -4187,7 +4233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="400" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44427.971651504602</v>
       </c>
@@ -4230,7 +4276,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="408" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="375" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44427.977659027798</v>
       </c>
@@ -4273,7 +4319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="387.5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44427.979484606498</v>
       </c>
@@ -4316,7 +4362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="162.5" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>44502.680754861103</v>
       </c>
@@ -4358,7 +4404,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>44503.444289930601</v>
       </c>
@@ -4400,7 +4446,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>44504.433192939803</v>
       </c>
@@ -4442,7 +4488,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>44508.576334143501</v>
       </c>
@@ -4484,7 +4530,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>44510.606990972199</v>
       </c>
@@ -4526,7 +4572,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="357" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="337.5" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>44510.621671643501</v>
       </c>
@@ -4568,7 +4614,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>44510.635692708303</v>
       </c>
@@ -4610,7 +4656,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>44515.604827430601</v>
       </c>
@@ -4652,7 +4698,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>44515.605781597202</v>
       </c>
@@ -4691,7 +4737,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>44519.393009722196</v>
       </c>
@@ -4733,7 +4779,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>44519.396759837997</v>
       </c>
@@ -4775,7 +4821,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>44521.415261921298</v>
       </c>
@@ -4817,7 +4863,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="331.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="300" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>44521.417680324099</v>
       </c>
@@ -4859,7 +4905,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>44531.422715046298</v>
       </c>
@@ -4901,7 +4947,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>44536.689336226897</v>
       </c>
@@ -4943,7 +4989,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>44537.460719444498</v>
       </c>
@@ -4982,7 +5028,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>44545.415467245402</v>
       </c>
@@ -5024,7 +5070,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="100" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>44547.4125025463</v>
       </c>
@@ -5066,7 +5112,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>44571.655250347198</v>
       </c>
@@ -5105,7 +5151,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>44583.738363078701</v>
       </c>
@@ -5147,7 +5193,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>44583.740276504599</v>
       </c>
@@ -5189,7 +5235,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="375" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>44645.469280208301</v>
       </c>
@@ -5230,7 +5276,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="50" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>44658.465437268504</v>
       </c>
@@ -5271,7 +5317,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>44664.599232754597</v>
       </c>
@@ -5315,7 +5361,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>44664.614628935196</v>
       </c>
@@ -5350,7 +5396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>44664.623678935197</v>
       </c>
@@ -5391,7 +5437,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="387.5" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>44664.629289467601</v>
       </c>
@@ -5426,7 +5472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>44664.634484722199</v>
       </c>
@@ -5458,7 +5504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>44664.764159490704</v>
       </c>
@@ -5495,7 +5541,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>44664.7695739583</v>
       </c>
@@ -5533,7 +5579,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>44665.383020370398</v>
       </c>
@@ -5583,7 +5629,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>44665.612281597198</v>
       </c>
@@ -5627,7 +5673,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>44679.852050810201</v>
       </c>
@@ -5671,7 +5717,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>44684.589149305597</v>
       </c>
@@ -5715,7 +5761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>44687.332683333298</v>
       </c>
@@ -5753,7 +5799,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="300" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>44690.414530786999</v>
       </c>
@@ -5797,7 +5843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>44714.613704513897</v>
       </c>
@@ -5835,7 +5881,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>44714.631931828699</v>
       </c>
@@ -5879,7 +5925,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="400" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>44721.479891666699</v>
       </c>
@@ -5926,7 +5972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>44724.908495023199</v>
       </c>
@@ -5964,7 +6010,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>44724.915100462997</v>
       </c>
@@ -6005,7 +6051,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>44724.917635300902</v>
       </c>
@@ -6046,7 +6092,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>44737.343279629597</v>
       </c>
@@ -6084,7 +6130,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="175" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>44743.461584375</v>
       </c>
@@ -6128,7 +6174,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>44743.470339120402</v>
       </c>
@@ -6172,7 +6218,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>44743.522404282397</v>
       </c>
@@ -6216,7 +6262,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>44747.804503819403</v>
       </c>
@@ -6257,7 +6303,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>44748.500684375002</v>
       </c>
@@ -6298,7 +6344,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>44748.502863773203</v>
       </c>
@@ -6339,7 +6385,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>44748.505962499999</v>
       </c>
@@ -6380,7 +6426,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>44748.507295949101</v>
       </c>
@@ -6421,7 +6467,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>44748.508126967601</v>
       </c>
@@ -6459,7 +6505,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>44763.373567361101</v>
       </c>
@@ -6503,7 +6549,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>44763.382295023199</v>
       </c>
@@ -6544,7 +6590,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>44769.6992456019</v>
       </c>
@@ -6585,7 +6631,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>44769.701641435197</v>
       </c>
@@ -6626,7 +6672,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>44774.632290162001</v>
       </c>
@@ -6667,7 +6713,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>44774.633085995403</v>
       </c>
@@ -6708,7 +6754,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>44774.633985648099</v>
       </c>
@@ -6749,7 +6795,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>44799.3730923611</v>
       </c>
@@ -6796,7 +6842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="50" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <v>44831.785569097199</v>
       </c>
@@ -6840,7 +6886,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
         <v>44831.788137962998</v>
       </c>
@@ -6884,7 +6930,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <v>44831.969735532402</v>
       </c>
@@ -6928,7 +6974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <v>44837.462938194403</v>
       </c>
@@ -6966,7 +7012,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="100" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
         <v>44838.598316782402</v>
       </c>
@@ -7010,7 +7056,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>44838.604422453704</v>
       </c>
@@ -7054,7 +7100,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="350" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>44838.767622685198</v>
       </c>
@@ -7098,7 +7144,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>44844.515792939797</v>
       </c>
@@ -7139,7 +7185,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A79" s="16">
         <v>44845.4522701389</v>
       </c>
@@ -7180,7 +7226,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>44858.360405555599</v>
       </c>
@@ -7224,7 +7270,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>44858.786968055603</v>
       </c>
@@ -7262,7 +7308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>44875.428184837998</v>
       </c>
@@ -7297,7 +7343,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <v>44875.434203009303</v>
       </c>
@@ -7329,7 +7375,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="362.5" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>44875.441085763901</v>
       </c>
@@ -7361,7 +7407,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>44875.443288541697</v>
       </c>
@@ -7393,7 +7439,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>44875.453703819403</v>
       </c>
@@ -7428,7 +7474,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A87" s="16">
         <v>44875.454279166697</v>
       </c>
@@ -7463,7 +7509,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>44907.440478009303</v>
       </c>
@@ -7510,7 +7556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89" s="16">
         <v>44912.925343634299</v>
       </c>
@@ -7557,7 +7603,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>44914.371327893503</v>
       </c>
@@ -7601,7 +7647,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="375" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <v>44929.354307870402</v>
       </c>
@@ -7642,7 +7688,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="225" x14ac:dyDescent="0.25">
       <c r="A92" s="16">
         <v>44943.356896874997</v>
       </c>
@@ -7683,7 +7729,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A93" s="16">
         <v>44960.467609143503</v>
       </c>
@@ -7730,7 +7776,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A94" s="16">
         <v>44962.636147222198</v>
       </c>
@@ -7768,7 +7814,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <v>44969.706999305599</v>
       </c>
@@ -7803,7 +7849,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="350" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>44972.571888425897</v>
       </c>
@@ -7850,7 +7896,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A97" s="16">
         <v>44984.705640509303</v>
       </c>
@@ -7888,7 +7934,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A98" s="16">
         <v>44984.707487500003</v>
       </c>
@@ -7926,7 +7972,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A99" s="16">
         <v>44984.709653124999</v>
       </c>
@@ -7964,7 +8010,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" ht="375" x14ac:dyDescent="0.25">
       <c r="A100" s="16">
         <v>44984.711797338001</v>
       </c>
@@ -8002,7 +8048,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A101" s="16">
         <v>44984.713593634297</v>
       </c>
@@ -8040,7 +8086,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A102" s="16">
         <v>44984.918457754597</v>
       </c>
@@ -8072,7 +8118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A103" s="16">
         <v>44984.920112500004</v>
       </c>
@@ -8104,7 +8150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" ht="50" x14ac:dyDescent="0.25">
       <c r="A104" s="16">
         <v>44987.654823495403</v>
       </c>
@@ -8139,7 +8185,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" ht="50" x14ac:dyDescent="0.25">
       <c r="A105" s="16">
         <v>44987.656404050897</v>
       </c>
@@ -8174,7 +8220,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" ht="50" x14ac:dyDescent="0.25">
       <c r="A106" s="16">
         <v>44987.657589930597</v>
       </c>
@@ -8209,7 +8255,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107" s="16">
         <v>44992.747801851903</v>
       </c>
@@ -8248,7 +8294,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A108" s="16">
         <v>44998.039198495397</v>
       </c>
@@ -8295,7 +8341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" ht="250" x14ac:dyDescent="0.25">
       <c r="A109" s="16">
         <v>45012.448258796299</v>
       </c>
@@ -8342,7 +8388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="16">
         <v>45016.456743865703</v>
       </c>
@@ -8386,7 +8432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -8412,7 +8458,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -8438,7 +8484,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -8464,7 +8510,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -8490,7 +8536,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -8516,7 +8562,7 @@
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -8542,7 +8588,7 @@
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -8568,7 +8614,7 @@
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -8594,7 +8640,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -8620,7 +8666,7 @@
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -8646,7 +8692,7 @@
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -8672,7 +8718,7 @@
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -8698,7 +8744,7 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -8724,7 +8770,7 @@
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -8750,7 +8796,7 @@
       <c r="W124" s="9"/>
       <c r="X124" s="9"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -8776,7 +8822,7 @@
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -8802,7 +8848,7 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -8828,7 +8874,7 @@
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -8854,7 +8900,7 @@
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -8880,7 +8926,7 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -8906,7 +8952,7 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -8932,7 +8978,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -8958,7 +9004,7 @@
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -8984,7 +9030,7 @@
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -9010,7 +9056,7 @@
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -9036,7 +9082,7 @@
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -9062,7 +9108,7 @@
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -9088,7 +9134,7 @@
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -9114,7 +9160,7 @@
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -9140,7 +9186,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -9166,7 +9212,7 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -9192,7 +9238,7 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -9218,7 +9264,7 @@
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -9244,7 +9290,7 @@
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -9270,7 +9316,7 @@
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -9296,7 +9342,7 @@
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -9322,7 +9368,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -9348,7 +9394,7 @@
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -9374,7 +9420,7 @@
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -9400,7 +9446,7 @@
       <c r="W149" s="9"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -9426,7 +9472,7 @@
       <c r="W150" s="9"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -9452,7 +9498,7 @@
       <c r="W151" s="9"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -9478,7 +9524,7 @@
       <c r="W152" s="9"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -9504,7 +9550,7 @@
       <c r="W153" s="9"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -9530,7 +9576,7 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -9556,7 +9602,7 @@
       <c r="W155" s="9"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -9582,7 +9628,7 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -9608,7 +9654,7 @@
       <c r="W157" s="9"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -9634,7 +9680,7 @@
       <c r="W158" s="9"/>
       <c r="X158" s="9"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -9660,7 +9706,7 @@
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -9686,7 +9732,7 @@
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -9712,7 +9758,7 @@
       <c r="W161" s="9"/>
       <c r="X161" s="9"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -9738,7 +9784,7 @@
       <c r="W162" s="9"/>
       <c r="X162" s="9"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -9764,7 +9810,7 @@
       <c r="W163" s="9"/>
       <c r="X163" s="9"/>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -9790,7 +9836,7 @@
       <c r="W164" s="9"/>
       <c r="X164" s="9"/>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -9816,7 +9862,7 @@
       <c r="W165" s="9"/>
       <c r="X165" s="9"/>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -9842,7 +9888,7 @@
       <c r="W166" s="9"/>
       <c r="X166" s="9"/>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -9868,7 +9914,7 @@
       <c r="W167" s="9"/>
       <c r="X167" s="9"/>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -9894,7 +9940,7 @@
       <c r="W168" s="9"/>
       <c r="X168" s="9"/>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -9920,7 +9966,7 @@
       <c r="W169" s="9"/>
       <c r="X169" s="9"/>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -9946,7 +9992,7 @@
       <c r="W170" s="9"/>
       <c r="X170" s="9"/>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -9972,7 +10018,7 @@
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -9998,7 +10044,7 @@
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -10024,7 +10070,7 @@
       <c r="W173" s="9"/>
       <c r="X173" s="9"/>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -10050,7 +10096,7 @@
       <c r="W174" s="9"/>
       <c r="X174" s="9"/>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -10076,7 +10122,7 @@
       <c r="W175" s="9"/>
       <c r="X175" s="9"/>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -10102,7 +10148,7 @@
       <c r="W176" s="9"/>
       <c r="X176" s="9"/>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -10128,7 +10174,7 @@
       <c r="W177" s="9"/>
       <c r="X177" s="9"/>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -10154,7 +10200,7 @@
       <c r="W178" s="9"/>
       <c r="X178" s="9"/>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -10180,7 +10226,7 @@
       <c r="W179" s="9"/>
       <c r="X179" s="9"/>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -10206,7 +10252,7 @@
       <c r="W180" s="9"/>
       <c r="X180" s="9"/>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -10232,7 +10278,7 @@
       <c r="W181" s="9"/>
       <c r="X181" s="9"/>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -10258,7 +10304,7 @@
       <c r="W182" s="9"/>
       <c r="X182" s="9"/>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -10284,7 +10330,7 @@
       <c r="W183" s="9"/>
       <c r="X183" s="9"/>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -10310,7 +10356,7 @@
       <c r="W184" s="9"/>
       <c r="X184" s="9"/>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -10336,7 +10382,7 @@
       <c r="W185" s="9"/>
       <c r="X185" s="9"/>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -10362,7 +10408,7 @@
       <c r="W186" s="9"/>
       <c r="X186" s="9"/>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -10388,7 +10434,7 @@
       <c r="W187" s="9"/>
       <c r="X187" s="9"/>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -10414,7 +10460,7 @@
       <c r="W188" s="9"/>
       <c r="X188" s="9"/>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -10440,7 +10486,7 @@
       <c r="W189" s="9"/>
       <c r="X189" s="9"/>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -10466,7 +10512,7 @@
       <c r="W190" s="9"/>
       <c r="X190" s="9"/>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -10492,7 +10538,7 @@
       <c r="W191" s="9"/>
       <c r="X191" s="9"/>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -10518,7 +10564,7 @@
       <c r="W192" s="9"/>
       <c r="X192" s="9"/>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -10544,7 +10590,7 @@
       <c r="W193" s="9"/>
       <c r="X193" s="9"/>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -10570,7 +10616,7 @@
       <c r="W194" s="9"/>
       <c r="X194" s="9"/>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -10596,7 +10642,7 @@
       <c r="W195" s="9"/>
       <c r="X195" s="9"/>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -10622,7 +10668,7 @@
       <c r="W196" s="9"/>
       <c r="X196" s="9"/>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -10648,7 +10694,7 @@
       <c r="W197" s="9"/>
       <c r="X197" s="9"/>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -10674,7 +10720,7 @@
       <c r="W198" s="9"/>
       <c r="X198" s="9"/>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -10700,7 +10746,7 @@
       <c r="W199" s="9"/>
       <c r="X199" s="9"/>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -10726,7 +10772,7 @@
       <c r="W200" s="9"/>
       <c r="X200" s="9"/>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -10752,7 +10798,7 @@
       <c r="W201" s="9"/>
       <c r="X201" s="9"/>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -10778,7 +10824,7 @@
       <c r="W202" s="9"/>
       <c r="X202" s="9"/>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -10804,7 +10850,7 @@
       <c r="W203" s="9"/>
       <c r="X203" s="9"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -10830,7 +10876,7 @@
       <c r="W204" s="9"/>
       <c r="X204" s="9"/>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -10856,7 +10902,7 @@
       <c r="W205" s="9"/>
       <c r="X205" s="9"/>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -10882,7 +10928,7 @@
       <c r="W206" s="9"/>
       <c r="X206" s="9"/>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -10908,7 +10954,7 @@
       <c r="W207" s="9"/>
       <c r="X207" s="9"/>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -10934,7 +10980,7 @@
       <c r="W208" s="9"/>
       <c r="X208" s="9"/>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -10960,7 +11006,7 @@
       <c r="W209" s="9"/>
       <c r="X209" s="9"/>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -11068,30 +11114,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ125"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView topLeftCell="A26" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
     <col min="7" max="7" width="33" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="17" width="18.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" style="20" customWidth="1"/>
-    <col min="19" max="19" width="28.140625" style="20" customWidth="1"/>
-    <col min="20" max="25" width="18.85546875" style="1" customWidth="1"/>
-    <col min="26" max="1024" width="12.5703125" style="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="17" width="18.81640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.81640625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="28.1796875" style="20" customWidth="1"/>
+    <col min="20" max="25" width="18.81640625" style="1" customWidth="1"/>
+    <col min="26" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11158,7 +11204,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
     </row>
-    <row r="2" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>44510.606990972199</v>
       </c>
@@ -11209,7 +11255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>44510.621671643501</v>
       </c>
@@ -11260,7 +11306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>44519.393009722196</v>
       </c>
@@ -11311,7 +11357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>44536.689336226897</v>
       </c>
@@ -11362,7 +11408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>44545.415467245402</v>
       </c>
@@ -11413,7 +11459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>44547.4125025463</v>
       </c>
@@ -11464,7 +11510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>44571.655250347198</v>
       </c>
@@ -11513,7 +11559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>44664.599232754597</v>
       </c>
@@ -11566,7 +11612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="34.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>44664.614628935196</v>
       </c>
@@ -11611,7 +11657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>44664.764159490704</v>
       </c>
@@ -11658,7 +11704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>44665.612281597198</v>
       </c>
@@ -11711,7 +11757,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="34.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>44679.852050810201</v>
       </c>
@@ -11764,7 +11810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>44690.414530786999</v>
       </c>
@@ -11818,7 +11864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>44724.908495023199</v>
       </c>
@@ -11866,7 +11912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>44724.915100462997</v>
       </c>
@@ -11917,7 +11963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>44724.917635300902</v>
       </c>
@@ -11973,7 +12019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>44748.500684375002</v>
       </c>
@@ -12024,7 +12070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>44769.6992456019</v>
       </c>
@@ -12075,7 +12121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>44837.462938194403</v>
       </c>
@@ -12126,7 +12172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>44907.440478009303</v>
       </c>
@@ -12182,7 +12228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>44912.925343634299</v>
       </c>
@@ -12238,7 +12284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>44929.354307870402</v>
       </c>
@@ -12289,7 +12335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="36.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>44943.356896874997</v>
       </c>
@@ -12340,7 +12386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>44972.571888425897</v>
       </c>
@@ -12396,7 +12442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>44992.747801851903</v>
       </c>
@@ -12445,7 +12491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>45016.456743865703</v>
       </c>
@@ -12498,7 +12544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>44427.963724074099</v>
       </c>
@@ -12555,7 +12601,7 @@
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
     </row>
-    <row r="29" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>44427.966733564797</v>
       </c>
@@ -12607,7 +12653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="36.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="50">
         <v>45235.627743055556</v>
       </c>
@@ -12670,7 +12716,7 @@
       <c r="Z30" s="46"/>
       <c r="AA30" s="46"/>
     </row>
-    <row r="31" spans="1:27" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
         <v>45265.410578703704</v>
       </c>
@@ -12735,7 +12781,7 @@
       <c r="Z31" s="46"/>
       <c r="AA31" s="46"/>
     </row>
-    <row r="32" spans="1:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="48" t="s">
         <v>791</v>
       </c>
@@ -12796,34 +12842,68 @@
       <c r="Z32" s="46"/>
       <c r="AA32" s="46"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="53">
+        <v>44993.321979166663</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>825</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>826</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>827</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>828</v>
+      </c>
+      <c r="H33" s="46"/>
+      <c r="I33" s="55">
+        <v>44965</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="49" t="s">
+        <v>829</v>
+      </c>
+      <c r="L33" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="M33" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="49" t="s">
+        <v>610</v>
+      </c>
+      <c r="O33" s="46" t="s">
+        <v>830</v>
+      </c>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" s="49" t="s">
+        <v>831</v>
+      </c>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -12850,7 +12930,7 @@
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -12877,7 +12957,7 @@
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -12904,7 +12984,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -12931,7 +13011,7 @@
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -12958,7 +13038,7 @@
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -12985,7 +13065,7 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -13012,7 +13092,7 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -13039,7 +13119,7 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -13066,7 +13146,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -13093,7 +13173,7 @@
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -13120,7 +13200,7 @@
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -13147,7 +13227,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -13174,7 +13254,7 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -13201,7 +13281,7 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -13228,7 +13308,7 @@
       <c r="X48" s="9"/>
       <c r="Y48" s="9"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -13255,7 +13335,7 @@
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -13282,7 +13362,7 @@
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -13309,7 +13389,7 @@
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -13336,7 +13416,7 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -13363,7 +13443,7 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -13390,7 +13470,7 @@
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -13417,7 +13497,7 @@
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -13444,7 +13524,7 @@
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -13471,7 +13551,7 @@
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -13498,7 +13578,7 @@
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -13525,7 +13605,7 @@
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -13552,7 +13632,7 @@
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -13579,7 +13659,7 @@
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -13606,7 +13686,7 @@
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -13633,7 +13713,7 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -13660,7 +13740,7 @@
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -13687,7 +13767,7 @@
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -13714,7 +13794,7 @@
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -13741,7 +13821,7 @@
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -13768,7 +13848,7 @@
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -13795,7 +13875,7 @@
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -13822,7 +13902,7 @@
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -13849,7 +13929,7 @@
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -13876,7 +13956,7 @@
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -13903,7 +13983,7 @@
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -13930,7 +14010,7 @@
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -13957,7 +14037,7 @@
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -13984,7 +14064,7 @@
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -14011,7 +14091,7 @@
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -14038,7 +14118,7 @@
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -14065,7 +14145,7 @@
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -14092,7 +14172,7 @@
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -14119,7 +14199,7 @@
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -14146,7 +14226,7 @@
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -14173,7 +14253,7 @@
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -14200,7 +14280,7 @@
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -14227,7 +14307,7 @@
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -14254,7 +14334,7 @@
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -14281,7 +14361,7 @@
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -14308,7 +14388,7 @@
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -14335,7 +14415,7 @@
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -14362,7 +14442,7 @@
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -14389,7 +14469,7 @@
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -14416,7 +14496,7 @@
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -14443,7 +14523,7 @@
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -14470,7 +14550,7 @@
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -14497,7 +14577,7 @@
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -14524,7 +14604,7 @@
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -14551,7 +14631,7 @@
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -14578,7 +14658,7 @@
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -14605,7 +14685,7 @@
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -14632,7 +14712,7 @@
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -14659,7 +14739,7 @@
       <c r="X101" s="9"/>
       <c r="Y101" s="9"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -14686,7 +14766,7 @@
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -14713,7 +14793,7 @@
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -14740,7 +14820,7 @@
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -14767,7 +14847,7 @@
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -14794,7 +14874,7 @@
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -14821,7 +14901,7 @@
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -14848,7 +14928,7 @@
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -14875,7 +14955,7 @@
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -14902,7 +14982,7 @@
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -14929,7 +15009,7 @@
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -14956,7 +15036,7 @@
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -14983,7 +15063,7 @@
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -15010,7 +15090,7 @@
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -15037,7 +15117,7 @@
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -15064,7 +15144,7 @@
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -15091,7 +15171,7 @@
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -15118,7 +15198,7 @@
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -15145,7 +15225,7 @@
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -15172,7 +15252,7 @@
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -15199,7 +15279,7 @@
       <c r="X121" s="9"/>
       <c r="Y121" s="9"/>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -15226,7 +15306,7 @@
       <c r="X122" s="9"/>
       <c r="Y122" s="9"/>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -15253,7 +15333,7 @@
       <c r="X123" s="9"/>
       <c r="Y123" s="9"/>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -15280,7 +15360,7 @@
       <c r="X124" s="9"/>
       <c r="Y124" s="9"/>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -15334,9 +15414,12 @@
     <hyperlink ref="K30" r:id="rId22" xr:uid="{495057DF-2B1C-4385-ADFB-55D6A8A151DF}"/>
     <hyperlink ref="S30" r:id="rId23" display="https://doi.org/10.3389/fbioe.2023.1179980" xr:uid="{79C24F57-0DBE-48F6-BE5F-139B44D1E7CC}"/>
     <hyperlink ref="K31" r:id="rId24" xr:uid="{3035AAD5-AD1A-47B4-A065-757BF07E623F}"/>
+    <hyperlink ref="K33" r:id="rId25" xr:uid="{A5CB2010-9C69-44E0-9E27-A8F5F1D228D2}"/>
+    <hyperlink ref="N33" r:id="rId26" xr:uid="{315C73EA-5D9F-402D-B0CB-C3FB74CDEA78}"/>
+    <hyperlink ref="R33" r:id="rId27" xr:uid="{C2FFB821-E000-45AB-8696-27F183404084}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId25"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -15348,27 +15431,27 @@
       <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="18" width="18.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="37.28515625" style="20" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" style="20" customWidth="1"/>
-    <col min="22" max="24" width="18.85546875" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="18" width="18.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.81640625" style="20" customWidth="1"/>
+    <col min="20" max="20" width="37.26953125" style="20" customWidth="1"/>
+    <col min="21" max="21" width="18.81640625" style="20" customWidth="1"/>
+    <col min="22" max="24" width="18.81640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -15436,7 +15519,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44427.932484722201</v>
       </c>
@@ -15494,7 +15577,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
     </row>
-    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44427.939851157404</v>
       </c>
@@ -15552,7 +15635,7 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44427.947995254603</v>
       </c>
@@ -15610,7 +15693,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>44427.969025810198</v>
       </c>
@@ -15665,7 +15748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44427.971651504602</v>
       </c>
@@ -15720,7 +15803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>44427.977659027798</v>
       </c>
@@ -15775,7 +15858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>44427.979484606498</v>
       </c>
@@ -15830,7 +15913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>44664.623678935197</v>
       </c>
@@ -15884,7 +15967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>44664.629289467601</v>
       </c>
@@ -15932,7 +16015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="36.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>44721.479891666699</v>
       </c>
@@ -15991,7 +16074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>44799.3730923611</v>
       </c>
@@ -16050,7 +16133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>44960.467609143503</v>
       </c>
@@ -16109,7 +16192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>44998.039198495397</v>
       </c>
@@ -16168,7 +16251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>45012.448258796299</v>
       </c>
@@ -16227,7 +16310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>696</v>
       </c>
@@ -16289,7 +16372,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="53">
         <v>44932.986134259256</v>
       </c>
@@ -16354,7 +16437,7 @@
       <c r="Z17" s="46"/>
       <c r="AA17" s="46"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -16380,7 +16463,7 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -16406,7 +16489,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -16432,7 +16515,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -16458,7 +16541,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -16484,7 +16567,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -16510,7 +16593,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -16536,7 +16619,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -16562,7 +16645,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -16588,7 +16671,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -16614,7 +16697,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -16640,7 +16723,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -16666,7 +16749,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -16692,7 +16775,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -16718,7 +16801,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -16744,7 +16827,7 @@
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -16770,7 +16853,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -16796,7 +16879,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -16822,7 +16905,7 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -16848,7 +16931,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -16874,7 +16957,7 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -16900,7 +16983,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -16926,7 +17009,7 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -16952,7 +17035,7 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -16978,7 +17061,7 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -17004,7 +17087,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -17030,7 +17113,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -17056,7 +17139,7 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -17082,7 +17165,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -17108,7 +17191,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -17134,7 +17217,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -17160,7 +17243,7 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -17186,7 +17269,7 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -17212,7 +17295,7 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -17238,7 +17321,7 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -17264,7 +17347,7 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -17290,7 +17373,7 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -17316,7 +17399,7 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -17342,7 +17425,7 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -17368,7 +17451,7 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -17394,7 +17477,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -17420,7 +17503,7 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -17446,7 +17529,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -17472,7 +17555,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -17498,7 +17581,7 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -17524,7 +17607,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -17550,7 +17633,7 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -17576,7 +17659,7 @@
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -17602,7 +17685,7 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -17628,7 +17711,7 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -17654,7 +17737,7 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -17680,7 +17763,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -17706,7 +17789,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -17732,7 +17815,7 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -17758,7 +17841,7 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -17784,7 +17867,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -17810,7 +17893,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -17836,7 +17919,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -17862,7 +17945,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -17888,7 +17971,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -17914,7 +17997,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -17940,7 +18023,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -17966,7 +18049,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -17992,7 +18075,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -18018,7 +18101,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -18044,7 +18127,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -18070,7 +18153,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -18096,7 +18179,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -18122,7 +18205,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -18148,7 +18231,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -18174,7 +18257,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -18200,7 +18283,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -18226,7 +18309,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -18252,7 +18335,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -18278,7 +18361,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -18304,7 +18387,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -18330,7 +18413,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -18356,7 +18439,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -18382,7 +18465,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -18408,7 +18491,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -18434,7 +18517,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -18460,7 +18543,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -18486,7 +18569,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -18512,7 +18595,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -18538,7 +18621,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -18564,7 +18647,7 @@
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -18590,7 +18673,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -18616,7 +18699,7 @@
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -18642,7 +18725,7 @@
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -18668,7 +18751,7 @@
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -18694,7 +18777,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -18720,7 +18803,7 @@
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -18746,7 +18829,7 @@
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -18772,7 +18855,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -18798,7 +18881,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -18824,7 +18907,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -18850,7 +18933,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -18876,7 +18959,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -18940,23 +19023,23 @@
       <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="77.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="77.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -19016,7 +19099,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>44665.383020370398</v>
       </c>
@@ -19066,7 +19149,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53">
         <v>45265.423993055556</v>
       </c>
@@ -19123,7 +19206,7 @@
       <c r="Z3" s="46"/>
       <c r="AA3" s="46"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -19149,7 +19232,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -19175,7 +19258,7 @@
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -19201,7 +19284,7 @@
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -19227,7 +19310,7 @@
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -19253,7 +19336,7 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -19279,7 +19362,7 @@
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -19305,7 +19388,7 @@
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -19331,7 +19414,7 @@
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -19357,7 +19440,7 @@
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -19383,7 +19466,7 @@
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -19409,7 +19492,7 @@
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -19435,7 +19518,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -19461,7 +19544,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -19487,7 +19570,7 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -19513,7 +19596,7 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -19539,7 +19622,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -19565,7 +19648,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -19591,7 +19674,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -19617,7 +19700,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -19643,7 +19726,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -19669,7 +19752,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -19695,7 +19778,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -19721,7 +19804,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -19747,7 +19830,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -19773,7 +19856,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -19799,7 +19882,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -19825,7 +19908,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -19851,7 +19934,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -19877,7 +19960,7 @@
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -19903,7 +19986,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -19929,7 +20012,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -19955,7 +20038,7 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -19981,7 +20064,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -20007,7 +20090,7 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -20033,7 +20116,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -20059,7 +20142,7 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -20085,7 +20168,7 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -20111,7 +20194,7 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -20137,7 +20220,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -20163,7 +20246,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -20189,7 +20272,7 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -20215,7 +20298,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -20241,7 +20324,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -20267,7 +20350,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -20293,7 +20376,7 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -20319,7 +20402,7 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -20345,7 +20428,7 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -20371,7 +20454,7 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -20397,7 +20480,7 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -20423,7 +20506,7 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -20449,7 +20532,7 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -20475,7 +20558,7 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -20501,7 +20584,7 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -20527,7 +20610,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -20553,7 +20636,7 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -20579,7 +20662,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -20605,7 +20688,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -20631,7 +20714,7 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -20657,7 +20740,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -20683,7 +20766,7 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -20709,7 +20792,7 @@
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -20735,7 +20818,7 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -20761,7 +20844,7 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -20787,7 +20870,7 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -20813,7 +20896,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -20839,7 +20922,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -20865,7 +20948,7 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -20891,7 +20974,7 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -20917,7 +21000,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -20943,7 +21026,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -20969,7 +21052,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -20995,7 +21078,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -21021,7 +21104,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -21047,7 +21130,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -21073,7 +21156,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -21099,7 +21182,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -21125,7 +21208,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -21151,7 +21234,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -21177,7 +21260,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -21203,7 +21286,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -21229,7 +21312,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -21255,7 +21338,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -21281,7 +21364,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -21307,7 +21390,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -21333,7 +21416,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -21359,7 +21442,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -21385,7 +21468,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -21411,7 +21494,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -21437,7 +21520,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -21463,7 +21546,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -21489,7 +21572,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -21515,7 +21598,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -21541,7 +21624,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -21567,7 +21650,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -21593,7 +21676,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -21619,7 +21702,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -21645,7 +21728,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -21671,7 +21754,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -21712,28 +21795,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -21793,7 +21876,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>44503.444289930601</v>
       </c>
@@ -21835,7 +21918,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>44504.433192939803</v>
       </c>
@@ -21877,7 +21960,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>44508.576334143501</v>
       </c>
@@ -21919,7 +22002,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>44510.635692708303</v>
       </c>
@@ -21961,7 +22044,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>44515.604827430601</v>
       </c>
@@ -22003,7 +22086,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>44515.605781597202</v>
       </c>
@@ -22042,7 +22125,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>44519.396759837997</v>
       </c>
@@ -22084,7 +22167,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>44521.415261921298</v>
       </c>
@@ -22126,7 +22209,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>44521.417680324099</v>
       </c>
@@ -22168,7 +22251,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>44531.422715046298</v>
       </c>
@@ -22210,7 +22293,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>44537.460719444498</v>
       </c>
@@ -22249,7 +22332,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>44583.738363078701</v>
       </c>
@@ -22291,7 +22374,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>44583.740276504599</v>
       </c>
@@ -22333,7 +22416,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>44645.469280208301</v>
       </c>
@@ -22374,7 +22457,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>44664.7695739583</v>
       </c>
@@ -22412,7 +22495,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>44684.589149305597</v>
       </c>
@@ -22456,7 +22539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>44687.332683333298</v>
       </c>
@@ -22494,7 +22577,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>44714.613704513897</v>
       </c>
@@ -22532,7 +22615,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>44714.631931828699</v>
       </c>
@@ -22576,7 +22659,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>44737.343279629597</v>
       </c>
@@ -22614,7 +22697,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>44743.461584375</v>
       </c>
@@ -22658,7 +22741,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>44743.470339120402</v>
       </c>
@@ -22702,7 +22785,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>44743.522404282397</v>
       </c>
@@ -22746,7 +22829,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>44747.804503819403</v>
       </c>
@@ -22787,7 +22870,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>44748.502863773203</v>
       </c>
@@ -22828,7 +22911,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>44748.505962499999</v>
       </c>
@@ -22869,7 +22952,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>44748.507295949101</v>
       </c>
@@ -22910,7 +22993,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>44748.508126967601</v>
       </c>
@@ -22948,7 +23031,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>44763.373567361101</v>
       </c>
@@ -22992,7 +23075,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>44763.382295023199</v>
       </c>
@@ -23033,7 +23116,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>44769.701641435197</v>
       </c>
@@ -23074,7 +23157,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>44774.632290162001</v>
       </c>
@@ -23115,7 +23198,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>44774.633085995403</v>
       </c>
@@ -23156,7 +23239,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>44774.633985648099</v>
       </c>
@@ -23197,7 +23280,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>44831.785569097199</v>
       </c>
@@ -23241,7 +23324,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>44831.788137962998</v>
       </c>
@@ -23285,7 +23368,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>44831.969735532402</v>
       </c>
@@ -23329,7 +23412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>44838.598316782402</v>
       </c>
@@ -23373,7 +23456,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>44838.604422453704</v>
       </c>
@@ -23417,7 +23500,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>44838.767622685198</v>
       </c>
@@ -23461,7 +23544,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>44844.515792939797</v>
       </c>
@@ -23502,7 +23585,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>44845.4522701389</v>
       </c>
@@ -23543,7 +23626,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>44858.360405555599</v>
       </c>
@@ -23587,7 +23670,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>44858.786968055603</v>
       </c>
@@ -23625,7 +23708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>44875.428184837998</v>
       </c>
@@ -23660,7 +23743,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>44875.434203009303</v>
       </c>
@@ -23692,7 +23775,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>44875.441085763901</v>
       </c>
@@ -23724,7 +23807,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>44875.443288541697</v>
       </c>
@@ -23756,7 +23839,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>44875.453703819403</v>
       </c>
@@ -23791,7 +23874,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>44875.454279166697</v>
       </c>
@@ -23826,7 +23909,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>44962.636147222198</v>
       </c>
@@ -23864,7 +23947,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>44969.706999305599</v>
       </c>
@@ -23899,7 +23982,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>44984.705640509303</v>
       </c>
@@ -23937,7 +24020,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>44984.707487500003</v>
       </c>
@@ -23975,7 +24058,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>44984.709653124999</v>
       </c>
@@ -24013,7 +24096,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>44984.711797338001</v>
       </c>
@@ -24051,7 +24134,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>44984.713593634297</v>
       </c>
@@ -24089,7 +24172,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>44984.918457754597</v>
       </c>
@@ -24121,7 +24204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>44984.920112500004</v>
       </c>
@@ -24153,7 +24236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>44987.654823495403</v>
       </c>
@@ -24188,7 +24271,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>44987.656404050897</v>
       </c>
@@ -24223,7 +24306,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>44987.657589930597</v>
       </c>
@@ -24258,7 +24341,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:24" s="45" customFormat="1" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" s="45" customFormat="1" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="42" t="s">
         <v>708</v>
       </c>
@@ -24306,7 +24389,7 @@
       <c r="W64" s="43"/>
       <c r="X64" s="43"/>
     </row>
-    <row r="65" spans="1:27" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="54">
         <v>45265.412118055552</v>
       </c>
@@ -24357,7 +24440,7 @@
       <c r="Z65" s="46"/>
       <c r="AA65" s="46"/>
     </row>
-    <row r="66" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="53">
         <v>45265.425995370373</v>
       </c>
@@ -24408,7 +24491,7 @@
       <c r="Z66" s="46"/>
       <c r="AA66" s="46"/>
     </row>
-    <row r="67" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="48" t="s">
         <v>744</v>
       </c>
@@ -24459,7 +24542,7 @@
       <c r="Z67" s="46"/>
       <c r="AA67" s="46"/>
     </row>
-    <row r="68" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="53">
         <v>45052.562893518516</v>
       </c>
@@ -24512,7 +24595,7 @@
       <c r="Z68" s="46"/>
       <c r="AA68" s="46"/>
     </row>
-    <row r="69" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="53">
         <v>45052.673854166664</v>
       </c>
@@ -24563,7 +24646,7 @@
       <c r="Z69" s="46"/>
       <c r="AA69" s="46"/>
     </row>
-    <row r="70" spans="1:27" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>769</v>
       </c>
@@ -24614,7 +24697,7 @@
       <c r="Z70" s="46"/>
       <c r="AA70" s="46"/>
     </row>
-    <row r="71" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="48" t="s">
         <v>775</v>
       </c>
@@ -24665,7 +24748,7 @@
       <c r="Z71" s="46"/>
       <c r="AA71" s="46"/>
     </row>
-    <row r="72" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
         <v>782</v>
       </c>
@@ -24722,7 +24805,7 @@
       <c r="Z72" s="46"/>
       <c r="AA72" s="46"/>
     </row>
-    <row r="73" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="53">
         <v>45084.756689814814</v>
       </c>
@@ -24777,7 +24860,7 @@
       <c r="Z73" s="46"/>
       <c r="AA73" s="46"/>
     </row>
-    <row r="74" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="53">
         <v>45084.761666666665</v>
       </c>
@@ -24830,7 +24913,7 @@
       <c r="Z74" s="46"/>
       <c r="AA74" s="46"/>
     </row>
-    <row r="75" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="53">
         <v>45237.442407407405</v>
       </c>
@@ -24883,33 +24966,62 @@
       <c r="Z75" s="46"/>
       <c r="AA75" s="46"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="48" t="s">
+        <v>832</v>
+      </c>
+      <c r="B76" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="D76" s="46" t="s">
+        <v>833</v>
+      </c>
+      <c r="E76" s="46" t="s">
+        <v>834</v>
+      </c>
+      <c r="F76" s="46" t="s">
+        <v>835</v>
+      </c>
+      <c r="G76" s="47" t="s">
+        <v>836</v>
+      </c>
+      <c r="H76" s="46"/>
+      <c r="I76" s="48" t="s">
+        <v>837</v>
+      </c>
+      <c r="J76" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K76" s="49" t="s">
+        <v>838</v>
+      </c>
+      <c r="L76" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
+      <c r="O76" s="46"/>
+      <c r="P76" s="46"/>
+      <c r="Q76" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="R76" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="S76" s="46"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="46"/>
+      <c r="V76" s="46"/>
+      <c r="W76" s="46"/>
+      <c r="X76" s="46"/>
+      <c r="Y76" s="46"/>
+      <c r="Z76" s="46"/>
+      <c r="AA76" s="46"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -24935,7 +25047,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -24961,7 +25073,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -24987,7 +25099,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -25013,7 +25125,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -25039,7 +25151,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -25065,7 +25177,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -25091,7 +25203,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -25117,7 +25229,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -25143,7 +25255,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -25169,7 +25281,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -25195,7 +25307,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -25221,7 +25333,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -25247,7 +25359,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -25273,7 +25385,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -25299,7 +25411,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -25325,7 +25437,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -25351,7 +25463,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -25377,7 +25489,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -25403,7 +25515,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -25429,7 +25541,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -25455,7 +25567,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -25481,7 +25593,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -25507,7 +25619,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -25533,7 +25645,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -25559,7 +25671,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -25585,7 +25697,7 @@
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -25611,7 +25723,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -25637,7 +25749,7 @@
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -25663,7 +25775,7 @@
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -25689,7 +25801,7 @@
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -25715,7 +25827,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -25741,7 +25853,7 @@
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -25767,7 +25879,7 @@
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -25793,7 +25905,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -25819,7 +25931,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -25845,7 +25957,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -25871,7 +25983,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -25897,7 +26009,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -25923,7 +26035,7 @@
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -25949,7 +26061,7 @@
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -25975,7 +26087,7 @@
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -26001,7 +26113,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -26027,7 +26139,7 @@
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -26053,7 +26165,7 @@
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -26079,7 +26191,7 @@
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -26105,7 +26217,7 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -26131,7 +26243,7 @@
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -26157,7 +26269,7 @@
       <c r="W124" s="9"/>
       <c r="X124" s="9"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -26183,7 +26295,7 @@
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -26209,7 +26321,7 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -26235,7 +26347,7 @@
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -26261,7 +26373,7 @@
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -26287,7 +26399,7 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -26313,7 +26425,7 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -26339,7 +26451,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -26365,7 +26477,7 @@
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -26391,7 +26503,7 @@
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -26417,7 +26529,7 @@
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -26443,7 +26555,7 @@
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -26469,7 +26581,7 @@
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -26495,7 +26607,7 @@
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -26521,7 +26633,7 @@
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -26547,7 +26659,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -26573,7 +26685,7 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -26599,7 +26711,7 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -26625,7 +26737,7 @@
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -26651,7 +26763,7 @@
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -26677,7 +26789,7 @@
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -26703,7 +26815,7 @@
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -26729,7 +26841,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -26755,7 +26867,7 @@
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -26781,7 +26893,7 @@
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -26807,7 +26919,7 @@
       <c r="W149" s="9"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -26833,7 +26945,7 @@
       <c r="W150" s="9"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -26859,7 +26971,7 @@
       <c r="W151" s="9"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -26885,7 +26997,7 @@
       <c r="W152" s="9"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -26911,7 +27023,7 @@
       <c r="W153" s="9"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -26937,7 +27049,7 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -26963,7 +27075,7 @@
       <c r="W155" s="9"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -26989,7 +27101,7 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -27015,7 +27127,7 @@
       <c r="W157" s="9"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -27041,7 +27153,7 @@
       <c r="W158" s="9"/>
       <c r="X158" s="9"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -27067,7 +27179,7 @@
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -27093,7 +27205,7 @@
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -27119,7 +27231,7 @@
       <c r="W161" s="9"/>
       <c r="X161" s="9"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -27145,7 +27257,7 @@
       <c r="W162" s="9"/>
       <c r="X162" s="9"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -27216,9 +27328,11 @@
     <hyperlink ref="K73" r:id="rId40" xr:uid="{28063AC0-2663-4695-9D66-4C7B825735EE}"/>
     <hyperlink ref="K74" r:id="rId41" xr:uid="{EA44B343-679D-469F-A6FF-8811CC28240C}"/>
     <hyperlink ref="K75" r:id="rId42" xr:uid="{5CBB793B-2BE1-49B3-AE01-363D052C4900}"/>
+    <hyperlink ref="K76" r:id="rId43" xr:uid="{04AA61FD-0D02-409A-B702-F00484A255AC}"/>
+    <hyperlink ref="R76" r:id="rId44" xr:uid="{658CC5B2-5636-4BBB-8239-8162A5794450}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId43"/>
-  <legacyDrawing r:id="rId44"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId45"/>
+  <legacyDrawing r:id="rId46"/>
 </worksheet>
 </file>
--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEC6D0E-3E84-419B-A4F8-AE224AC6F5CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F1B2C0-C282-4F7C-B175-35001159BC22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="872">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3148,6 +3148,115 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1fpNXd53SkVDyOOJxE2Cizejld2w2u-vO</t>
+  </si>
+  <si>
+    <t>9/25/2023 13:39:29</t>
+  </si>
+  <si>
+    <t>Affine transformations accelerate the training of physics-informed neural networks of a one-dimensional consolidation problem</t>
+  </si>
+  <si>
+    <t>Luis Mandl, André Mielke, Seyed Morteza Seyedpour, Tim Ricken</t>
+  </si>
+  <si>
+    <t>Physics-informed neural networks (PINNs) leverage data and knowledge about a problem. They provide a nonnumerical pathway to solving partial differential equations by expressing the field solution as an artificial neural network. This approach has been applied successfully to various types of differential equations. A major area of research on PINNs is the application to coupled partial differential equations in particular, and a general breakthrough is still lacking. In coupled equations, the optimization operates in a critical conflict between boundary conditions and the underlying equations, which often requires either many iterations or complex schemes to avoid trivial solutions and to achieve convergence. We provide empirical evidence for the mitigation of bad initial conditioning in PINNs for solving one-dimensional consolidation problems of porous media through the introduction of affine transformations after the classical output layer of artificial neural network architectures, effectively accelerating the training process. These affine physics-informed neural networks (AfPINNs) then produce nontrivial and accurate field solutions even in parameter spaces with diverging orders of magnitude. On average, AfPINNs show the ability to improve the L2 relative error by 64.84% after 25,000 epochs for a one-dimensional consolidation problem based on Biot’s theory, and an average improvement by 58.80% with a transfer approach to the theory of porous media.</t>
+  </si>
+  <si>
+    <t>Mandl, L., Mielke, A., Seyedpour, S.M. et al. Affine transformations accelerate the training of physics-informed neural networks of a one-dimensional consolidation problem. Sci Rep 13, 15566 (2023). https://doi.org/10.1038/s41598-023-42141-x</t>
+  </si>
+  <si>
+    <t>9/20/2023</t>
+  </si>
+  <si>
+    <t>Luis Mandl, Tim Ricken</t>
+  </si>
+  <si>
+    <t>keine Daten zur Verfügung</t>
+  </si>
+  <si>
+    <t>9/25/2023 13:44:49</t>
+  </si>
+  <si>
+    <t>Simulation Supported Liver Assessment for Donor Organs (SimLivA) - Con-
+tinuum-Biomechanical Modeling for Staging of Ischemia Reperfusion Injury
+During Liver Transplantation</t>
+  </si>
+  <si>
+    <t>Liver transplantation is the only curative treatment option for acute and chronic end-stage
+liver disease. Demographic change and western lifestyle result in an increasing number of elderly multi-morbid potential recipients and donors. Liver grafts from such donors, so-called marginal liver grafts, are often affected by hepatic steatosis compromising the quality of the donor organ substantially. One reason for this is the alteration of the tissue structure, resulting in an impaired perfusion, which in turn affects hepatic metabolism and organ function. In the case of a marginal graft, the surgeon is faced with the clinical decision to either accept or reject the organ, significantly increasing the postoperative risk for the recipient or increasing the risk of death on the waiting list, respectively. Two major challenges for marginal grafts are the storage between procurement of the organ and transplantation (cold ischemia time) and damage after reperfusion, the so-called ischemia reperfusion injury (IRI). For this purpose, we describe the functional liver units, the liver lobules, as a homogenized porous medium and model this with the theory of porous media (TPM, cf. [1]). Considering an anisotropic blood flow and by coupling the metabolic processes at the cellular level, a poroelastic multiphase and multiscale function-perfusion model is thereby obtained (cf. [2]). This approach combines partial differential equations (PDE) on the lobular scale with ordinary differential equations (ODE) on the cellular scale resulting in a PDE-ODE coupling. At the lobular scale, we consider healthy liver tissue, necrotic tissue, and fat as solid phases, while blood is represented as a fluid phase. In addition, all phases may also contain solutes that are involved in cellular processes such as metabolism. Based on this, the energy balance and cell death or functionality of each cell can be modeled on the cellular scale using systems biology models. Thus, the ischemic damage under nutrient depletion can be described, which in turn affects the perfusion at the lobular scale. Animal and human data will be used to parameterize and validate the model. In addition, a proof-of-concept study for clinical applicability will be performed. Such a model, which takes into account the interplay between the mechanical properties of the graft, the hepatic perfusion, and the affected metabolism, could facilitate clinical decision making and is urgently needed cf. 3.
+[1] Ehlers,W. Foundations of multiphasic and porous materials(2002)
+[2] Ricken,T., et al. BMMB(2015) 14:515-536
+[3] Christ,B.,[...],Lambers,L.,[...]Ricken,T.,et al. Frontiers in Physiology(2021)12</t>
+  </si>
+  <si>
+    <t>93rd Annual Meeting of the International Association of Applied Mathematics and Mechanics, https://jahrestagung.gamm.org/annual-meeting-2023</t>
+  </si>
+  <si>
+    <t>P2 - Dahmen, P3 - König, P7 - Ricken, P9 - Tautenhahn, SimLivA</t>
+  </si>
+  <si>
+    <t>9/25/2023 13:45:32</t>
+  </si>
+  <si>
+    <t>Quantifying Fat Zonation in Liver Lobules: An Integrated Multiscale In-silico Model Combining Disturbed Microperfusion and Fat Metabolism via a Continuum-Biomechanical Bi-scale, Tri-phasic Approach</t>
+  </si>
+  <si>
+    <t>Lena Lambers, Navina Waschinsky, Jana Schleicher, Matthias König, Hans-Michael Tautenhahn, Mohamed Albadry, Uta Dahmen and Tim Ricken</t>
+  </si>
+  <si>
+    <t>see preprint</t>
+  </si>
+  <si>
+    <t>Research Square</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1qcAOrybNaQhk07g838oGMOttlT-WS_pJ</t>
+  </si>
+  <si>
+    <t>Lena Lambers, Matthias König, Hans-Michael Tautenhahn, Mohamed Albadry, Uta Dahmen, Tim Ricken</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>9/25/2023 13:51:08</t>
+  </si>
+  <si>
+    <t>SIMulation Supported LIVer Assessment for Donor Organs (SimLivA) - Continuum-Biomechanical Modeling for Staging of Ischemia Reperfusion Injury during Liver Transplantation</t>
+  </si>
+  <si>
+    <t>Mandl L., Bütow L., König M., Dahmen U., Chen X., Tautenhahn H.-M., Ricken T.</t>
+  </si>
+  <si>
+    <t>SPP2311 - Annual Workshop Magdeburg</t>
+  </si>
+  <si>
+    <t>Mandl L., Bütow L., König M., Dahmen U., Tautenhahn H.-M., Ricken T.</t>
+  </si>
+  <si>
+    <t>9/25/2023 13:53:44</t>
+  </si>
+  <si>
+    <t>Staging of ischemia reperfusion injury during liver transplantation using continuum-biomechanical modeling</t>
+  </si>
+  <si>
+    <t>Mandl L., Gerhäusser S., Lambers L., König M., Tautenhahn H.-M., Dahmen U., Ricken T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver transplantation is the only curative treatment option for acute and chronic end-stage liver disease. As a result of demographic change and a more western way of life, the number of elderly multi-morbid prospective recipients and donors grows. Liver grafts from such donors, so-called marginal liver grafts, are often affected by hepatic steatosis compromising the quality of the donor organ. One reason for this is the alteration of the tissue structure, resulting in an impaired perfusion, in turn affecting hepatic metabolism and organ function. In case of a marginal graft, the surgeon is faced with the clinical decision to accept or reject the organ, increasing either the recipient’s postoperative risk or the risk of death on the waiting list significantly. Two major challenges for marginal grafts are the storage between procurement of the organ and transplantation (cold ischemia time) alongside damage after reperfusion, the so-called ischemia reperfusion injury (IRI).
+For this purpose, we use computational multiphase and multiscale continuum-biomechanical modeling of biological tissue to simulate the hepatic deformation-perfusion-function relationship (cf. [1, 2]). Based on the theory of porous media (TPM, cf. [3]), we describe the functional liver units, the liver lobules, as a homogenized porous medium. A poroelastic multiphase and multiscale function-perfusion model is obtained by considering the porous liver tissue saturated with an anisotropic blood flow and coupling the metabolic processes at the cellular level within a bi-scale approach (cf. [4]). This approach combines partial differential equations (PDE) on the lobular scale with ordinary differential equations (ODE) on the cellular scale resulting in a PDE-ODE coupling. At the lobular scale, we consider healthy liver, necrotic, and fat tissue as solid phases, while blood is given as a fluid phase. Based on this, systems biology models can be used to model the energy balance, cell death, and functionality of each hepatocyte at the cellular level. Thus, it is possible to describe the ischemic damage caused by nutrient depletion, in turn influencing the perfusion at the lobular scale.
+To make patient-specific predictions, we enhance the model through the integration of experimental and clinical data for validation and parameterization. This involves using machine-learning-based image analysis to read the geometry of liver lobules and zonation patterns of steatosis from histopathological images, in addition to laboratory data to provide initial and boundary values for solutes and the ODE models as well as information on the transplantation process, e.g., cold ischemia time. The simulation yields spatial evolutions of the considered phases and solutes within the liver lobules over time based on the given data. Such an in-silico model, which connects structure, perfusion, and function of the liver via the interaction between mechanical properties of the graft, hepatic perfusion, and the affected metabolism could facilitate clinical decision-making cf. [2].
+[1] B. Christ et al. Frontiers in Physiology 8:00906 (2017)
+[2] B. Christ et al. Frontiers in Physiology 12:733868 (2021)
+[3] W. Ehlers. „Foundations of multiphasic and porous materials” in Porous Media: Theory, Experiments and Numerical Applications (2002).
+[4] T. Ricken et al. BMMB 14:515-536 (2015)
+</t>
+  </si>
+  <si>
+    <t>X International Conference on Computational Bioengineering, Wien, 20.-22.09.2023, https://iccb2023.conf.tuwien.ac.at/</t>
+  </si>
+  <si>
+    <t>9/22/2023</t>
   </si>
 </sst>
 </file>
@@ -11115,7 +11224,7 @@
   <dimension ref="A1:AMJ125"/>
   <sheetViews>
     <sheetView topLeftCell="A26" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="A34" sqref="A34:AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -12903,32 +13012,60 @@
       <c r="Z33" s="46"/>
       <c r="AA33" s="46"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
+    <row r="34" spans="1:27" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="48" t="s">
+        <v>840</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>841</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>842</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>843</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>844</v>
+      </c>
+      <c r="H34" s="46"/>
+      <c r="I34" s="48" t="s">
+        <v>845</v>
+      </c>
+      <c r="J34" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46" t="s">
+        <v>846</v>
+      </c>
+      <c r="M34" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q34" s="47" t="s">
+        <v>781</v>
+      </c>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="46"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
@@ -15427,8 +15564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ115"/>
   <sheetViews>
-    <sheetView topLeftCell="H10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -16437,31 +16574,62 @@
       <c r="Z17" s="46"/>
       <c r="AA17" s="46"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
+    <row r="18" spans="1:27" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="48" t="s">
+        <v>853</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>854</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>855</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>856</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>857</v>
+      </c>
+      <c r="H18" s="46"/>
+      <c r="I18" s="55">
+        <v>45269</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="49" t="s">
+        <v>858</v>
+      </c>
+      <c r="L18" s="46" t="s">
+        <v>859</v>
+      </c>
+      <c r="M18" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q18" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -19007,10 +19175,11 @@
     <hyperlink ref="K17" r:id="rId17" xr:uid="{8F85CFB2-8AF8-43AD-80AA-6D05D27CD317}"/>
     <hyperlink ref="R17" r:id="rId18" xr:uid="{104788FC-B8AA-4373-96DD-8DD3715744EE}"/>
     <hyperlink ref="T17" r:id="rId19" display="https://doi.org/10.31219/osf.io/kcvra" xr:uid="{067DE39F-9AF7-4EAA-AA0C-B4AD14093824}"/>
+    <hyperlink ref="K18" r:id="rId20" xr:uid="{7FD552D9-7D26-42F9-8665-D32140D43F9F}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
-  <legacyDrawing r:id="rId21"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
+  <legacyDrawing r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -21797,7 +21966,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79:AA79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -25021,83 +25190,158 @@
       <c r="Z76" s="46"/>
       <c r="AA76" s="46"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
-      <c r="U78" s="9"/>
-      <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
-      <c r="X78" s="9"/>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="9"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="9"/>
+    <row r="77" spans="1:27" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="48" t="s">
+        <v>848</v>
+      </c>
+      <c r="B77" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="C77" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D77" s="46" t="s">
+        <v>849</v>
+      </c>
+      <c r="E77" s="46" t="s">
+        <v>766</v>
+      </c>
+      <c r="F77" s="47" t="s">
+        <v>850</v>
+      </c>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46" t="s">
+        <v>851</v>
+      </c>
+      <c r="I77" s="55">
+        <v>44963</v>
+      </c>
+      <c r="J77" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K77" s="46"/>
+      <c r="L77" s="47" t="s">
+        <v>766</v>
+      </c>
+      <c r="M77" s="46"/>
+      <c r="N77" s="46"/>
+      <c r="O77" s="46"/>
+      <c r="P77" s="46"/>
+      <c r="Q77" s="47" t="s">
+        <v>852</v>
+      </c>
+      <c r="R77" s="46"/>
+      <c r="S77" s="46"/>
+      <c r="T77" s="46"/>
+      <c r="U77" s="46"/>
+      <c r="V77" s="46"/>
+      <c r="W77" s="46"/>
+      <c r="X77" s="46"/>
+      <c r="Y77" s="46"/>
+      <c r="Z77" s="46"/>
+      <c r="AA77" s="46"/>
+    </row>
+    <row r="78" spans="1:27" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="48" t="s">
+        <v>861</v>
+      </c>
+      <c r="B78" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="C78" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D78" s="46" t="s">
+        <v>862</v>
+      </c>
+      <c r="E78" s="46" t="s">
+        <v>863</v>
+      </c>
+      <c r="F78" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46" t="s">
+        <v>864</v>
+      </c>
+      <c r="I78" s="55">
+        <v>45269</v>
+      </c>
+      <c r="J78" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K78" s="46"/>
+      <c r="L78" s="47" t="s">
+        <v>865</v>
+      </c>
+      <c r="M78" s="46"/>
+      <c r="N78" s="46"/>
+      <c r="O78" s="46"/>
+      <c r="P78" s="46"/>
+      <c r="Q78" s="47" t="s">
+        <v>852</v>
+      </c>
+      <c r="R78" s="46"/>
+      <c r="S78" s="46"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="46"/>
+      <c r="V78" s="46"/>
+      <c r="W78" s="46"/>
+      <c r="X78" s="46"/>
+      <c r="Y78" s="46"/>
+      <c r="Z78" s="46"/>
+      <c r="AA78" s="46"/>
+    </row>
+    <row r="79" spans="1:27" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="48" t="s">
+        <v>866</v>
+      </c>
+      <c r="B79" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="C79" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D79" s="46" t="s">
+        <v>867</v>
+      </c>
+      <c r="E79" s="46" t="s">
+        <v>868</v>
+      </c>
+      <c r="F79" s="47" t="s">
+        <v>869</v>
+      </c>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46" t="s">
+        <v>870</v>
+      </c>
+      <c r="I79" s="48" t="s">
+        <v>871</v>
+      </c>
+      <c r="J79" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K79" s="46"/>
+      <c r="L79" s="47" t="s">
+        <v>868</v>
+      </c>
+      <c r="M79" s="46"/>
+      <c r="N79" s="46"/>
+      <c r="O79" s="46"/>
+      <c r="P79" s="46"/>
+      <c r="Q79" s="47" t="s">
+        <v>852</v>
+      </c>
+      <c r="R79" s="46"/>
+      <c r="S79" s="46"/>
+      <c r="T79" s="46"/>
+      <c r="U79" s="46"/>
+      <c r="V79" s="46"/>
+      <c r="W79" s="46"/>
+      <c r="X79" s="46"/>
+      <c r="Y79" s="46"/>
+      <c r="Z79" s="46"/>
+      <c r="AA79" s="46"/>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>

--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F1B2C0-C282-4F7C-B175-35001159BC22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E50D77-552F-4C7C-8E07-DD60EC33917D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="874">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3116,13 +3116,7 @@
     <t>Front. Endocrinol. 14:1185656, doi: 10.3389/fendo.2023.1185656</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1Hunr87XhYvdBH5WDX-J2Pihm132nXPF_</t>
-  </si>
-  <si>
     <t>model, metabolomics</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1mwEq1s9fOOkUWxnAp5XyiOsmUkX3pgeN</t>
   </si>
   <si>
     <t>7/17/2023 18:31:47</t>
@@ -3257,6 +3251,18 @@
   </si>
   <si>
     <t>9/22/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-023-42141-x </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Hunr87XhYvdBH5WDX-J2Pihm132nXPF_ ; https://drive.google.com/open?id=1mwEq1s9fOOkUWxnAp5XyiOsmUkX3pgeN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fendo.2023.1185656 </t>
+  </si>
+  <si>
+    <t>10.21203/rs.3.rs-3348101/v1</t>
   </si>
 </sst>
 </file>
@@ -3441,7 +3447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3597,6 +3603,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -3987,23 +3994,23 @@
       <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.54296875" style="1"/>
+    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4063,7 +4070,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>44427.932484722201</v>
       </c>
@@ -4113,7 +4120,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
     </row>
-    <row r="3" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>44427.939851157404</v>
       </c>
@@ -4163,7 +4170,7 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>44427.947995254603</v>
       </c>
@@ -4213,7 +4220,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>44427.963724074099</v>
       </c>
@@ -4256,7 +4263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>44427.966733564797</v>
       </c>
@@ -4299,7 +4306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>44427.969025810198</v>
       </c>
@@ -4342,7 +4349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="400" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>44427.971651504602</v>
       </c>
@@ -4385,7 +4392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="375" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="408" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>44427.977659027798</v>
       </c>
@@ -4428,7 +4435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="387.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>44427.979484606498</v>
       </c>
@@ -4471,7 +4478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="162.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>44502.680754861103</v>
       </c>
@@ -4513,7 +4520,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>44503.444289930601</v>
       </c>
@@ -4555,7 +4562,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>44504.433192939803</v>
       </c>
@@ -4597,7 +4604,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>44508.576334143501</v>
       </c>
@@ -4639,7 +4646,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>44510.606990972199</v>
       </c>
@@ -4681,7 +4688,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="337.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="357" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>44510.621671643501</v>
       </c>
@@ -4723,7 +4730,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>44510.635692708303</v>
       </c>
@@ -4765,7 +4772,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>44515.604827430601</v>
       </c>
@@ -4807,7 +4814,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>44515.605781597202</v>
       </c>
@@ -4846,7 +4853,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>44519.393009722196</v>
       </c>
@@ -4888,7 +4895,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>44519.396759837997</v>
       </c>
@@ -4930,7 +4937,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>44521.415261921298</v>
       </c>
@@ -4972,7 +4979,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="300" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>44521.417680324099</v>
       </c>
@@ -5014,7 +5021,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>44531.422715046298</v>
       </c>
@@ -5056,7 +5063,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>44536.689336226897</v>
       </c>
@@ -5098,7 +5105,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>44537.460719444498</v>
       </c>
@@ -5137,7 +5144,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>44545.415467245402</v>
       </c>
@@ -5179,7 +5186,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>44547.4125025463</v>
       </c>
@@ -5221,7 +5228,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>44571.655250347198</v>
       </c>
@@ -5260,7 +5267,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>44583.738363078701</v>
       </c>
@@ -5302,7 +5309,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>44583.740276504599</v>
       </c>
@@ -5344,7 +5351,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="375" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="395.25" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>44645.469280208301</v>
       </c>
@@ -5385,7 +5392,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>44658.465437268504</v>
       </c>
@@ -5426,7 +5433,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>44664.599232754597</v>
       </c>
@@ -5470,7 +5477,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>44664.614628935196</v>
       </c>
@@ -5505,7 +5512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>44664.623678935197</v>
       </c>
@@ -5546,7 +5553,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="387.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>44664.629289467601</v>
       </c>
@@ -5581,7 +5588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="187.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>44664.634484722199</v>
       </c>
@@ -5613,7 +5620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>44664.764159490704</v>
       </c>
@@ -5650,7 +5657,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>44664.7695739583</v>
       </c>
@@ -5688,7 +5695,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>44665.383020370398</v>
       </c>
@@ -5738,7 +5745,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>44665.612281597198</v>
       </c>
@@ -5782,7 +5789,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>44679.852050810201</v>
       </c>
@@ -5826,7 +5833,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>44684.589149305597</v>
       </c>
@@ -5870,7 +5877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>44687.332683333298</v>
       </c>
@@ -5908,7 +5915,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="300" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="318.75" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>44690.414530786999</v>
       </c>
@@ -5952,7 +5959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>44714.613704513897</v>
       </c>
@@ -5990,7 +5997,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>44714.631931828699</v>
       </c>
@@ -6034,7 +6041,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="400" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>44721.479891666699</v>
       </c>
@@ -6081,7 +6088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>44724.908495023199</v>
       </c>
@@ -6119,7 +6126,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>44724.915100462997</v>
       </c>
@@ -6160,7 +6167,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>44724.917635300902</v>
       </c>
@@ -6201,7 +6208,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>44737.343279629597</v>
       </c>
@@ -6239,7 +6246,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="175" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>44743.461584375</v>
       </c>
@@ -6283,7 +6290,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="153" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>44743.470339120402</v>
       </c>
@@ -6327,7 +6334,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>44743.522404282397</v>
       </c>
@@ -6371,7 +6378,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>44747.804503819403</v>
       </c>
@@ -6412,7 +6419,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>44748.500684375002</v>
       </c>
@@ -6453,7 +6460,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>44748.502863773203</v>
       </c>
@@ -6494,7 +6501,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>44748.505962499999</v>
       </c>
@@ -6535,7 +6542,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
         <v>44748.507295949101</v>
       </c>
@@ -6576,7 +6583,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>44748.508126967601</v>
       </c>
@@ -6614,7 +6621,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>44763.373567361101</v>
       </c>
@@ -6658,7 +6665,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
         <v>44763.382295023199</v>
       </c>
@@ -6699,7 +6706,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>44769.6992456019</v>
       </c>
@@ -6740,7 +6747,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
         <v>44769.701641435197</v>
       </c>
@@ -6781,7 +6788,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
         <v>44774.632290162001</v>
       </c>
@@ -6822,7 +6829,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
         <v>44774.633085995403</v>
       </c>
@@ -6863,7 +6870,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
         <v>44774.633985648099</v>
       </c>
@@ -6904,7 +6911,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A70" s="16">
         <v>44799.3730923611</v>
       </c>
@@ -6951,7 +6958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
         <v>44831.785569097199</v>
       </c>
@@ -6995,7 +7002,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A72" s="16">
         <v>44831.788137962998</v>
       </c>
@@ -7039,7 +7046,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A73" s="16">
         <v>44831.969735532402</v>
       </c>
@@ -7083,7 +7090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
         <v>44837.462938194403</v>
       </c>
@@ -7121,7 +7128,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A75" s="16">
         <v>44838.598316782402</v>
       </c>
@@ -7165,7 +7172,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A76" s="16">
         <v>44838.604422453704</v>
       </c>
@@ -7209,7 +7216,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="350" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A77" s="16">
         <v>44838.767622685198</v>
       </c>
@@ -7253,7 +7260,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A78" s="16">
         <v>44844.515792939797</v>
       </c>
@@ -7294,7 +7301,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A79" s="16">
         <v>44845.4522701389</v>
       </c>
@@ -7335,7 +7342,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="153" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
         <v>44858.360405555599</v>
       </c>
@@ -7379,7 +7386,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A81" s="16">
         <v>44858.786968055603</v>
       </c>
@@ -7417,7 +7424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A82" s="16">
         <v>44875.428184837998</v>
       </c>
@@ -7452,7 +7459,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>44875.434203009303</v>
       </c>
@@ -7484,7 +7491,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="362.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>44875.441085763901</v>
       </c>
@@ -7516,7 +7523,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
         <v>44875.443288541697</v>
       </c>
@@ -7548,7 +7555,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
         <v>44875.453703819403</v>
       </c>
@@ -7583,7 +7590,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
         <v>44875.454279166697</v>
       </c>
@@ -7618,7 +7625,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A88" s="16">
         <v>44907.440478009303</v>
       </c>
@@ -7665,7 +7672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
         <v>44912.925343634299</v>
       </c>
@@ -7712,7 +7719,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A90" s="16">
         <v>44914.371327893503</v>
       </c>
@@ -7756,7 +7763,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="375" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
         <v>44929.354307870402</v>
       </c>
@@ -7797,7 +7804,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
         <v>44943.356896874997</v>
       </c>
@@ -7838,7 +7845,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A93" s="16">
         <v>44960.467609143503</v>
       </c>
@@ -7885,7 +7892,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A94" s="16">
         <v>44962.636147222198</v>
       </c>
@@ -7923,7 +7930,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A95" s="16">
         <v>44969.706999305599</v>
       </c>
@@ -7958,7 +7965,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="350" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A96" s="16">
         <v>44972.571888425897</v>
       </c>
@@ -8005,7 +8012,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A97" s="16">
         <v>44984.705640509303</v>
       </c>
@@ -8043,7 +8050,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A98" s="16">
         <v>44984.707487500003</v>
       </c>
@@ -8081,7 +8088,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A99" s="16">
         <v>44984.709653124999</v>
       </c>
@@ -8119,7 +8126,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="375" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A100" s="16">
         <v>44984.711797338001</v>
       </c>
@@ -8157,7 +8164,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A101" s="16">
         <v>44984.713593634297</v>
       </c>
@@ -8195,7 +8202,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A102" s="16">
         <v>44984.918457754597</v>
       </c>
@@ -8227,7 +8234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A103" s="16">
         <v>44984.920112500004</v>
       </c>
@@ -8259,7 +8266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="50" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="16">
         <v>44987.654823495403</v>
       </c>
@@ -8294,7 +8301,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="50" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="16">
         <v>44987.656404050897</v>
       </c>
@@ -8329,7 +8336,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="50" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="16">
         <v>44987.657589930597</v>
       </c>
@@ -8364,7 +8371,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A107" s="16">
         <v>44992.747801851903</v>
       </c>
@@ -8403,7 +8410,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A108" s="16">
         <v>44998.039198495397</v>
       </c>
@@ -8450,7 +8457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="250" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
         <v>45012.448258796299</v>
       </c>
@@ -8497,7 +8504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A110" s="16">
         <v>45016.456743865703</v>
       </c>
@@ -8541,7 +8548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -8567,7 +8574,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -8593,7 +8600,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -8619,7 +8626,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -8645,7 +8652,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -8671,7 +8678,7 @@
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -8697,7 +8704,7 @@
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -8723,7 +8730,7 @@
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -8749,7 +8756,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -8775,7 +8782,7 @@
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -8801,7 +8808,7 @@
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -8827,7 +8834,7 @@
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -8853,7 +8860,7 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -8879,7 +8886,7 @@
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -8905,7 +8912,7 @@
       <c r="W124" s="9"/>
       <c r="X124" s="9"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -8931,7 +8938,7 @@
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -8957,7 +8964,7 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -8983,7 +8990,7 @@
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -9009,7 +9016,7 @@
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -9035,7 +9042,7 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -9061,7 +9068,7 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -9087,7 +9094,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -9113,7 +9120,7 @@
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -9139,7 +9146,7 @@
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -9165,7 +9172,7 @@
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -9191,7 +9198,7 @@
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -9217,7 +9224,7 @@
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -9243,7 +9250,7 @@
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -9269,7 +9276,7 @@
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -9295,7 +9302,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -9321,7 +9328,7 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -9347,7 +9354,7 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -9373,7 +9380,7 @@
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -9399,7 +9406,7 @@
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -9425,7 +9432,7 @@
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -9451,7 +9458,7 @@
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -9477,7 +9484,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -9503,7 +9510,7 @@
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -9529,7 +9536,7 @@
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -9555,7 +9562,7 @@
       <c r="W149" s="9"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -9581,7 +9588,7 @@
       <c r="W150" s="9"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -9607,7 +9614,7 @@
       <c r="W151" s="9"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -9633,7 +9640,7 @@
       <c r="W152" s="9"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -9659,7 +9666,7 @@
       <c r="W153" s="9"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -9685,7 +9692,7 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -9711,7 +9718,7 @@
       <c r="W155" s="9"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -9737,7 +9744,7 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -9763,7 +9770,7 @@
       <c r="W157" s="9"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -9789,7 +9796,7 @@
       <c r="W158" s="9"/>
       <c r="X158" s="9"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -9815,7 +9822,7 @@
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -9841,7 +9848,7 @@
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -9867,7 +9874,7 @@
       <c r="W161" s="9"/>
       <c r="X161" s="9"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -9893,7 +9900,7 @@
       <c r="W162" s="9"/>
       <c r="X162" s="9"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -9919,7 +9926,7 @@
       <c r="W163" s="9"/>
       <c r="X163" s="9"/>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -9945,7 +9952,7 @@
       <c r="W164" s="9"/>
       <c r="X164" s="9"/>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -9971,7 +9978,7 @@
       <c r="W165" s="9"/>
       <c r="X165" s="9"/>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -9997,7 +10004,7 @@
       <c r="W166" s="9"/>
       <c r="X166" s="9"/>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -10023,7 +10030,7 @@
       <c r="W167" s="9"/>
       <c r="X167" s="9"/>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -10049,7 +10056,7 @@
       <c r="W168" s="9"/>
       <c r="X168" s="9"/>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -10075,7 +10082,7 @@
       <c r="W169" s="9"/>
       <c r="X169" s="9"/>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -10101,7 +10108,7 @@
       <c r="W170" s="9"/>
       <c r="X170" s="9"/>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -10127,7 +10134,7 @@
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -10153,7 +10160,7 @@
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -10179,7 +10186,7 @@
       <c r="W173" s="9"/>
       <c r="X173" s="9"/>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -10205,7 +10212,7 @@
       <c r="W174" s="9"/>
       <c r="X174" s="9"/>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -10231,7 +10238,7 @@
       <c r="W175" s="9"/>
       <c r="X175" s="9"/>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -10257,7 +10264,7 @@
       <c r="W176" s="9"/>
       <c r="X176" s="9"/>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -10283,7 +10290,7 @@
       <c r="W177" s="9"/>
       <c r="X177" s="9"/>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -10309,7 +10316,7 @@
       <c r="W178" s="9"/>
       <c r="X178" s="9"/>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -10335,7 +10342,7 @@
       <c r="W179" s="9"/>
       <c r="X179" s="9"/>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -10361,7 +10368,7 @@
       <c r="W180" s="9"/>
       <c r="X180" s="9"/>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -10387,7 +10394,7 @@
       <c r="W181" s="9"/>
       <c r="X181" s="9"/>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -10413,7 +10420,7 @@
       <c r="W182" s="9"/>
       <c r="X182" s="9"/>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -10439,7 +10446,7 @@
       <c r="W183" s="9"/>
       <c r="X183" s="9"/>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -10465,7 +10472,7 @@
       <c r="W184" s="9"/>
       <c r="X184" s="9"/>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -10491,7 +10498,7 @@
       <c r="W185" s="9"/>
       <c r="X185" s="9"/>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -10517,7 +10524,7 @@
       <c r="W186" s="9"/>
       <c r="X186" s="9"/>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -10543,7 +10550,7 @@
       <c r="W187" s="9"/>
       <c r="X187" s="9"/>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -10569,7 +10576,7 @@
       <c r="W188" s="9"/>
       <c r="X188" s="9"/>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -10595,7 +10602,7 @@
       <c r="W189" s="9"/>
       <c r="X189" s="9"/>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -10621,7 +10628,7 @@
       <c r="W190" s="9"/>
       <c r="X190" s="9"/>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -10647,7 +10654,7 @@
       <c r="W191" s="9"/>
       <c r="X191" s="9"/>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -10673,7 +10680,7 @@
       <c r="W192" s="9"/>
       <c r="X192" s="9"/>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -10699,7 +10706,7 @@
       <c r="W193" s="9"/>
       <c r="X193" s="9"/>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -10725,7 +10732,7 @@
       <c r="W194" s="9"/>
       <c r="X194" s="9"/>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -10751,7 +10758,7 @@
       <c r="W195" s="9"/>
       <c r="X195" s="9"/>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -10777,7 +10784,7 @@
       <c r="W196" s="9"/>
       <c r="X196" s="9"/>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -10803,7 +10810,7 @@
       <c r="W197" s="9"/>
       <c r="X197" s="9"/>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -10829,7 +10836,7 @@
       <c r="W198" s="9"/>
       <c r="X198" s="9"/>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -10855,7 +10862,7 @@
       <c r="W199" s="9"/>
       <c r="X199" s="9"/>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -10881,7 +10888,7 @@
       <c r="W200" s="9"/>
       <c r="X200" s="9"/>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -10907,7 +10914,7 @@
       <c r="W201" s="9"/>
       <c r="X201" s="9"/>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -10933,7 +10940,7 @@
       <c r="W202" s="9"/>
       <c r="X202" s="9"/>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -10959,7 +10966,7 @@
       <c r="W203" s="9"/>
       <c r="X203" s="9"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -10985,7 +10992,7 @@
       <c r="W204" s="9"/>
       <c r="X204" s="9"/>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -11011,7 +11018,7 @@
       <c r="W205" s="9"/>
       <c r="X205" s="9"/>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -11037,7 +11044,7 @@
       <c r="W206" s="9"/>
       <c r="X206" s="9"/>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -11063,7 +11070,7 @@
       <c r="W207" s="9"/>
       <c r="X207" s="9"/>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -11089,7 +11096,7 @@
       <c r="W208" s="9"/>
       <c r="X208" s="9"/>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -11115,7 +11122,7 @@
       <c r="W209" s="9"/>
       <c r="X209" s="9"/>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -11223,30 +11230,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ125"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:AA34"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33:T34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="33" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
-    <col min="12" max="17" width="18.81640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.81640625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="28.1796875" style="20" customWidth="1"/>
-    <col min="20" max="25" width="18.81640625" style="1" customWidth="1"/>
-    <col min="26" max="1024" width="12.54296875" style="1"/>
+    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="17" width="18.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" style="20" customWidth="1"/>
+    <col min="19" max="19" width="28.140625" style="20" customWidth="1"/>
+    <col min="20" max="25" width="18.85546875" style="1" customWidth="1"/>
+    <col min="26" max="1024" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11313,7 +11320,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
     </row>
-    <row r="2" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>44510.606990972199</v>
       </c>
@@ -11364,7 +11371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>44510.621671643501</v>
       </c>
@@ -11415,7 +11422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>44519.393009722196</v>
       </c>
@@ -11466,7 +11473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>44536.689336226897</v>
       </c>
@@ -11517,7 +11524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>44545.415467245402</v>
       </c>
@@ -11568,7 +11575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>44547.4125025463</v>
       </c>
@@ -11619,7 +11626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>44571.655250347198</v>
       </c>
@@ -11668,7 +11675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>44664.599232754597</v>
       </c>
@@ -11721,7 +11728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="34.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>44664.614628935196</v>
       </c>
@@ -11766,7 +11773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>44664.764159490704</v>
       </c>
@@ -11813,7 +11820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>44665.612281597198</v>
       </c>
@@ -11866,7 +11873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="34.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>44679.852050810201</v>
       </c>
@@ -11919,7 +11926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>44690.414530786999</v>
       </c>
@@ -11973,7 +11980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>44724.908495023199</v>
       </c>
@@ -12021,7 +12028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>44724.915100462997</v>
       </c>
@@ -12072,7 +12079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>44724.917635300902</v>
       </c>
@@ -12128,7 +12135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>44748.500684375002</v>
       </c>
@@ -12179,7 +12186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>44769.6992456019</v>
       </c>
@@ -12230,7 +12237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>44837.462938194403</v>
       </c>
@@ -12281,7 +12288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>44907.440478009303</v>
       </c>
@@ -12337,7 +12344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>44912.925343634299</v>
       </c>
@@ -12393,7 +12400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>44929.354307870402</v>
       </c>
@@ -12444,7 +12451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="36.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>44943.356896874997</v>
       </c>
@@ -12495,7 +12502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>44972.571888425897</v>
       </c>
@@ -12551,7 +12558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>44992.747801851903</v>
       </c>
@@ -12600,7 +12607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>45016.456743865703</v>
       </c>
@@ -12653,7 +12660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>44427.963724074099</v>
       </c>
@@ -12710,7 +12717,7 @@
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
     </row>
-    <row r="29" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44427.966733564797</v>
       </c>
@@ -12762,7 +12769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="36.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50">
         <v>45235.627743055556</v>
       </c>
@@ -12825,7 +12832,7 @@
       <c r="Z30" s="46"/>
       <c r="AA30" s="46"/>
     </row>
-    <row r="31" spans="1:27" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
         <v>45265.410578703704</v>
       </c>
@@ -12890,7 +12897,7 @@
       <c r="Z31" s="46"/>
       <c r="AA31" s="46"/>
     </row>
-    <row r="32" spans="1:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>791</v>
       </c>
@@ -12951,7 +12958,7 @@
       <c r="Z32" s="46"/>
       <c r="AA32" s="46"/>
     </row>
-    <row r="33" spans="1:27" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53">
         <v>44993.321979166663</v>
       </c>
@@ -12980,8 +12987,8 @@
       <c r="J33" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="49" t="s">
-        <v>829</v>
+      <c r="K33" s="59" t="s">
+        <v>871</v>
       </c>
       <c r="L33" s="46" t="s">
         <v>300</v>
@@ -12993,17 +13000,21 @@
         <v>610</v>
       </c>
       <c r="O33" s="46" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="P33" s="46"/>
       <c r="Q33" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="R33" s="49" t="s">
-        <v>831</v>
-      </c>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
+      <c r="R33" s="51">
+        <v>37600713</v>
+      </c>
+      <c r="S33" s="52" t="s">
+        <v>872</v>
+      </c>
+      <c r="T33" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="U33" s="46"/>
       <c r="V33" s="46"/>
       <c r="W33" s="46"/>
@@ -13012,9 +13023,9 @@
       <c r="Z33" s="46"/>
       <c r="AA33" s="46"/>
     </row>
-    <row r="34" spans="1:27" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" ht="50.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B34" s="46" t="s">
         <v>357</v>
@@ -13023,27 +13034,27 @@
         <v>105</v>
       </c>
       <c r="D34" s="46" t="s">
+        <v>839</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>840</v>
+      </c>
+      <c r="F34" s="46" t="s">
         <v>841</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="G34" s="47" t="s">
         <v>842</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>843</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>844</v>
       </c>
       <c r="H34" s="46"/>
       <c r="I34" s="48" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J34" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K34" s="46"/>
       <c r="L34" s="46" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="M34" s="46" t="s">
         <v>44</v>
@@ -13051,14 +13062,20 @@
       <c r="N34" s="46"/>
       <c r="O34" s="46"/>
       <c r="P34" s="46" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="Q34" s="47" t="s">
         <v>781</v>
       </c>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
+      <c r="R34" s="34">
+        <v>37730743</v>
+      </c>
+      <c r="S34" s="52" t="s">
+        <v>870</v>
+      </c>
+      <c r="T34" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="U34" s="46"/>
       <c r="V34" s="46"/>
       <c r="W34" s="46"/>
@@ -13067,7 +13084,7 @@
       <c r="Z34" s="46"/>
       <c r="AA34" s="46"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -13094,7 +13111,7 @@
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -13121,7 +13138,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -13148,7 +13165,7 @@
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -13175,7 +13192,7 @@
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -13202,7 +13219,7 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -13229,7 +13246,7 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -13256,7 +13273,7 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -13283,7 +13300,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -13310,7 +13327,7 @@
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -13337,7 +13354,7 @@
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -13364,7 +13381,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -13391,7 +13408,7 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -13418,7 +13435,7 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -13445,7 +13462,7 @@
       <c r="X48" s="9"/>
       <c r="Y48" s="9"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -13472,7 +13489,7 @@
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -13499,7 +13516,7 @@
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -13526,7 +13543,7 @@
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -13553,7 +13570,7 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -13580,7 +13597,7 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -13607,7 +13624,7 @@
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -13634,7 +13651,7 @@
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -13661,7 +13678,7 @@
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -13688,7 +13705,7 @@
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -13715,7 +13732,7 @@
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -13742,7 +13759,7 @@
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -13769,7 +13786,7 @@
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -13796,7 +13813,7 @@
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -13823,7 +13840,7 @@
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -13850,7 +13867,7 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -13877,7 +13894,7 @@
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -13904,7 +13921,7 @@
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -13931,7 +13948,7 @@
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -13958,7 +13975,7 @@
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -13985,7 +14002,7 @@
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -14012,7 +14029,7 @@
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -14039,7 +14056,7 @@
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -14066,7 +14083,7 @@
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -14093,7 +14110,7 @@
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -14120,7 +14137,7 @@
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -14147,7 +14164,7 @@
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -14174,7 +14191,7 @@
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -14201,7 +14218,7 @@
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -14228,7 +14245,7 @@
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -14255,7 +14272,7 @@
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -14282,7 +14299,7 @@
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -14309,7 +14326,7 @@
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -14336,7 +14353,7 @@
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -14363,7 +14380,7 @@
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -14390,7 +14407,7 @@
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -14417,7 +14434,7 @@
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -14444,7 +14461,7 @@
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -14471,7 +14488,7 @@
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -14498,7 +14515,7 @@
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -14525,7 +14542,7 @@
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -14552,7 +14569,7 @@
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -14579,7 +14596,7 @@
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -14606,7 +14623,7 @@
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -14633,7 +14650,7 @@
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -14660,7 +14677,7 @@
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -14687,7 +14704,7 @@
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -14714,7 +14731,7 @@
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -14741,7 +14758,7 @@
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -14768,7 +14785,7 @@
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -14795,7 +14812,7 @@
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -14822,7 +14839,7 @@
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -14849,7 +14866,7 @@
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -14876,7 +14893,7 @@
       <c r="X101" s="9"/>
       <c r="Y101" s="9"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -14903,7 +14920,7 @@
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -14930,7 +14947,7 @@
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -14957,7 +14974,7 @@
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -14984,7 +15001,7 @@
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -15011,7 +15028,7 @@
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -15038,7 +15055,7 @@
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -15065,7 +15082,7 @@
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -15092,7 +15109,7 @@
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -15119,7 +15136,7 @@
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -15146,7 +15163,7 @@
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -15173,7 +15190,7 @@
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -15200,7 +15217,7 @@
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -15227,7 +15244,7 @@
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -15254,7 +15271,7 @@
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -15281,7 +15298,7 @@
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -15308,7 +15325,7 @@
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -15335,7 +15352,7 @@
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -15362,7 +15379,7 @@
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -15389,7 +15406,7 @@
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -15416,7 +15433,7 @@
       <c r="X121" s="9"/>
       <c r="Y121" s="9"/>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -15443,7 +15460,7 @@
       <c r="X122" s="9"/>
       <c r="Y122" s="9"/>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -15470,7 +15487,7 @@
       <c r="X123" s="9"/>
       <c r="Y123" s="9"/>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -15497,7 +15514,7 @@
       <c r="X124" s="9"/>
       <c r="Y124" s="9"/>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -15551,12 +15568,13 @@
     <hyperlink ref="K30" r:id="rId22" xr:uid="{495057DF-2B1C-4385-ADFB-55D6A8A151DF}"/>
     <hyperlink ref="S30" r:id="rId23" display="https://doi.org/10.3389/fbioe.2023.1179980" xr:uid="{79C24F57-0DBE-48F6-BE5F-139B44D1E7CC}"/>
     <hyperlink ref="K31" r:id="rId24" xr:uid="{3035AAD5-AD1A-47B4-A065-757BF07E623F}"/>
-    <hyperlink ref="K33" r:id="rId25" xr:uid="{A5CB2010-9C69-44E0-9E27-A8F5F1D228D2}"/>
+    <hyperlink ref="K33" r:id="rId25" display="https://drive.google.com/open?id=1Hunr87XhYvdBH5WDX-J2Pihm132nXPF_" xr:uid="{A5CB2010-9C69-44E0-9E27-A8F5F1D228D2}"/>
     <hyperlink ref="N33" r:id="rId26" xr:uid="{315C73EA-5D9F-402D-B0CB-C3FB74CDEA78}"/>
-    <hyperlink ref="R33" r:id="rId27" xr:uid="{C2FFB821-E000-45AB-8696-27F183404084}"/>
+    <hyperlink ref="S34" r:id="rId27" display="https://doi.org/10.1038/s41598-023-42141-x" xr:uid="{FA8ED69B-30B5-43EF-992E-6A57DA843FD9}"/>
+    <hyperlink ref="S33" r:id="rId28" display="https://doi.org/10.3389/fendo.2023.1185656" xr:uid="{B6669FE7-4041-478A-8481-D504C923D35D}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -15564,31 +15582,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ115"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:AA18"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
-    <col min="12" max="18" width="18.81640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.81640625" style="20" customWidth="1"/>
-    <col min="20" max="20" width="37.26953125" style="20" customWidth="1"/>
-    <col min="21" max="21" width="18.81640625" style="20" customWidth="1"/>
-    <col min="22" max="24" width="18.81640625" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.54296875" style="1"/>
+    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="18" width="18.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="37.28515625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" style="20" customWidth="1"/>
+    <col min="22" max="24" width="18.85546875" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -15656,7 +15674,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>44427.932484722201</v>
       </c>
@@ -15714,7 +15732,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
     </row>
-    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>44427.939851157404</v>
       </c>
@@ -15772,7 +15790,7 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>44427.947995254603</v>
       </c>
@@ -15830,7 +15848,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>44427.969025810198</v>
       </c>
@@ -15885,7 +15903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>44427.971651504602</v>
       </c>
@@ -15940,7 +15958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>44427.977659027798</v>
       </c>
@@ -15995,7 +16013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>44427.979484606498</v>
       </c>
@@ -16050,7 +16068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>44664.623678935197</v>
       </c>
@@ -16104,7 +16122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>44664.629289467601</v>
       </c>
@@ -16152,7 +16170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="36.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>44721.479891666699</v>
       </c>
@@ -16211,7 +16229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>44799.3730923611</v>
       </c>
@@ -16270,7 +16288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>44960.467609143503</v>
       </c>
@@ -16329,7 +16347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>44998.039198495397</v>
       </c>
@@ -16388,7 +16406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>45012.448258796299</v>
       </c>
@@ -16447,7 +16465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>696</v>
       </c>
@@ -16509,7 +16527,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
         <v>44932.986134259256</v>
       </c>
@@ -16574,9 +16592,9 @@
       <c r="Z17" s="46"/>
       <c r="AA17" s="46"/>
     </row>
-    <row r="18" spans="1:27" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B18" s="46" t="s">
         <v>139</v>
@@ -16585,29 +16603,29 @@
         <v>18</v>
       </c>
       <c r="D18" s="46" t="s">
+        <v>852</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>853</v>
+      </c>
+      <c r="F18" s="46" t="s">
         <v>854</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="G18" s="46" t="s">
         <v>855</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>856</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>857</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="55">
         <v>45269</v>
       </c>
-      <c r="J18" s="46" t="s">
+      <c r="J18" s="24" t="s">
         <v>23</v>
       </c>
       <c r="K18" s="49" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="L18" s="46" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="M18" s="46" t="s">
         <v>44</v>
@@ -16615,15 +16633,19 @@
       <c r="N18" s="46"/>
       <c r="O18" s="46"/>
       <c r="P18" s="46" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="Q18" s="47" t="s">
         <v>489</v>
       </c>
       <c r="R18" s="46"/>
       <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
+      <c r="T18" t="s">
+        <v>873</v>
+      </c>
+      <c r="U18" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="V18" s="46"/>
       <c r="W18" s="46"/>
       <c r="X18" s="46"/>
@@ -16631,7 +16653,7 @@
       <c r="Z18" s="46"/>
       <c r="AA18" s="46"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -16657,7 +16679,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -16683,7 +16705,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -16709,7 +16731,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -16735,7 +16757,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -16761,7 +16783,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -16787,7 +16809,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -16813,7 +16835,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -16839,7 +16861,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -16865,7 +16887,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -16891,7 +16913,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -16917,7 +16939,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -16943,7 +16965,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -16969,7 +16991,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -16995,7 +17017,7 @@
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -17021,7 +17043,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -17047,7 +17069,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -17073,7 +17095,7 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -17099,7 +17121,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -17125,7 +17147,7 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -17151,7 +17173,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -17177,7 +17199,7 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -17203,7 +17225,7 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -17229,7 +17251,7 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -17255,7 +17277,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -17281,7 +17303,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -17307,7 +17329,7 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -17333,7 +17355,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -17359,7 +17381,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -17385,7 +17407,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -17411,7 +17433,7 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -17437,7 +17459,7 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -17463,7 +17485,7 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -17489,7 +17511,7 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -17515,7 +17537,7 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -17541,7 +17563,7 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -17567,7 +17589,7 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -17593,7 +17615,7 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -17619,7 +17641,7 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -17645,7 +17667,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -17671,7 +17693,7 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -17697,7 +17719,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -17723,7 +17745,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -17749,7 +17771,7 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -17775,7 +17797,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -17801,7 +17823,7 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -17827,7 +17849,7 @@
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -17853,7 +17875,7 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -17879,7 +17901,7 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -17905,7 +17927,7 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -17931,7 +17953,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -17957,7 +17979,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -17983,7 +18005,7 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -18009,7 +18031,7 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -18035,7 +18057,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -18061,7 +18083,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -18087,7 +18109,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -18113,7 +18135,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -18139,7 +18161,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -18165,7 +18187,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -18191,7 +18213,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -18217,7 +18239,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -18243,7 +18265,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -18269,7 +18291,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -18295,7 +18317,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -18321,7 +18343,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -18347,7 +18369,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -18373,7 +18395,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -18399,7 +18421,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -18425,7 +18447,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -18451,7 +18473,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -18477,7 +18499,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -18503,7 +18525,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -18529,7 +18551,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -18555,7 +18577,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -18581,7 +18603,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -18607,7 +18629,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -18633,7 +18655,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -18659,7 +18681,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -18685,7 +18707,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -18711,7 +18733,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -18737,7 +18759,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -18763,7 +18785,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -18789,7 +18811,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -18815,7 +18837,7 @@
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -18841,7 +18863,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -18867,7 +18889,7 @@
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -18893,7 +18915,7 @@
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -18919,7 +18941,7 @@
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -18945,7 +18967,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -18971,7 +18993,7 @@
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -18997,7 +19019,7 @@
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -19023,7 +19045,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -19049,7 +19071,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -19075,7 +19097,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -19101,7 +19123,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -19127,7 +19149,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -19192,23 +19214,23 @@
       <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="77.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.54296875" style="1"/>
+    <col min="5" max="5" width="77.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -19268,7 +19290,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>44665.383020370398</v>
       </c>
@@ -19318,7 +19340,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53">
         <v>45265.423993055556</v>
       </c>
@@ -19375,7 +19397,7 @@
       <c r="Z3" s="46"/>
       <c r="AA3" s="46"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -19401,7 +19423,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -19427,7 +19449,7 @@
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -19453,7 +19475,7 @@
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -19479,7 +19501,7 @@
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -19505,7 +19527,7 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -19531,7 +19553,7 @@
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -19557,7 +19579,7 @@
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -19583,7 +19605,7 @@
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -19609,7 +19631,7 @@
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -19635,7 +19657,7 @@
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -19661,7 +19683,7 @@
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -19687,7 +19709,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -19713,7 +19735,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -19739,7 +19761,7 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -19765,7 +19787,7 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -19791,7 +19813,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -19817,7 +19839,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -19843,7 +19865,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -19869,7 +19891,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -19895,7 +19917,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -19921,7 +19943,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -19947,7 +19969,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -19973,7 +19995,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -19999,7 +20021,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -20025,7 +20047,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -20051,7 +20073,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -20077,7 +20099,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -20103,7 +20125,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -20129,7 +20151,7 @@
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -20155,7 +20177,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -20181,7 +20203,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -20207,7 +20229,7 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -20233,7 +20255,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -20259,7 +20281,7 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -20285,7 +20307,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -20311,7 +20333,7 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -20337,7 +20359,7 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -20363,7 +20385,7 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -20389,7 +20411,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -20415,7 +20437,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -20441,7 +20463,7 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -20467,7 +20489,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -20493,7 +20515,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -20519,7 +20541,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -20545,7 +20567,7 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -20571,7 +20593,7 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -20597,7 +20619,7 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -20623,7 +20645,7 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -20649,7 +20671,7 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -20675,7 +20697,7 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -20701,7 +20723,7 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -20727,7 +20749,7 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -20753,7 +20775,7 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -20779,7 +20801,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -20805,7 +20827,7 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -20831,7 +20853,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -20857,7 +20879,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -20883,7 +20905,7 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -20909,7 +20931,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -20935,7 +20957,7 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -20961,7 +20983,7 @@
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -20987,7 +21009,7 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -21013,7 +21035,7 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -21039,7 +21061,7 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -21065,7 +21087,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -21091,7 +21113,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -21117,7 +21139,7 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -21143,7 +21165,7 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -21169,7 +21191,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -21195,7 +21217,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -21221,7 +21243,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -21247,7 +21269,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -21273,7 +21295,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -21299,7 +21321,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -21325,7 +21347,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -21351,7 +21373,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -21377,7 +21399,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -21403,7 +21425,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -21429,7 +21451,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -21455,7 +21477,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -21481,7 +21503,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -21507,7 +21529,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -21533,7 +21555,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -21559,7 +21581,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -21585,7 +21607,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -21611,7 +21633,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -21637,7 +21659,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -21663,7 +21685,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -21689,7 +21711,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -21715,7 +21737,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -21741,7 +21763,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -21767,7 +21789,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -21793,7 +21815,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -21819,7 +21841,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -21845,7 +21867,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -21871,7 +21893,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -21897,7 +21919,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -21923,7 +21945,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -21964,28 +21986,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79:AA79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.54296875" style="1"/>
+    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -22045,7 +22067,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>44503.444289930601</v>
       </c>
@@ -22087,7 +22109,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>44504.433192939803</v>
       </c>
@@ -22129,7 +22151,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>44508.576334143501</v>
       </c>
@@ -22171,7 +22193,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>44510.635692708303</v>
       </c>
@@ -22213,7 +22235,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>44515.604827430601</v>
       </c>
@@ -22255,7 +22277,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>44515.605781597202</v>
       </c>
@@ -22294,7 +22316,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>44519.396759837997</v>
       </c>
@@ -22336,7 +22358,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>44521.415261921298</v>
       </c>
@@ -22378,7 +22400,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>44521.417680324099</v>
       </c>
@@ -22420,7 +22442,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>44531.422715046298</v>
       </c>
@@ -22462,7 +22484,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>44537.460719444498</v>
       </c>
@@ -22501,7 +22523,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>44583.738363078701</v>
       </c>
@@ -22543,7 +22565,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>44583.740276504599</v>
       </c>
@@ -22585,7 +22607,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>44645.469280208301</v>
       </c>
@@ -22626,7 +22648,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>44664.7695739583</v>
       </c>
@@ -22664,7 +22686,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>44684.589149305597</v>
       </c>
@@ -22708,7 +22730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>44687.332683333298</v>
       </c>
@@ -22746,7 +22768,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>44714.613704513897</v>
       </c>
@@ -22784,7 +22806,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>44714.631931828699</v>
       </c>
@@ -22828,7 +22850,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>44737.343279629597</v>
       </c>
@@ -22866,7 +22888,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>44743.461584375</v>
       </c>
@@ -22910,7 +22932,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>44743.470339120402</v>
       </c>
@@ -22954,7 +22976,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>44743.522404282397</v>
       </c>
@@ -22998,7 +23020,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>44747.804503819403</v>
       </c>
@@ -23039,7 +23061,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>44748.502863773203</v>
       </c>
@@ -23080,7 +23102,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>44748.505962499999</v>
       </c>
@@ -23121,7 +23143,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>44748.507295949101</v>
       </c>
@@ -23162,7 +23184,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>44748.508126967601</v>
       </c>
@@ -23200,7 +23222,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>44763.373567361101</v>
       </c>
@@ -23244,7 +23266,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>44763.382295023199</v>
       </c>
@@ -23285,7 +23307,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>44769.701641435197</v>
       </c>
@@ -23326,7 +23348,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>44774.632290162001</v>
       </c>
@@ -23367,7 +23389,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>44774.633085995403</v>
       </c>
@@ -23408,7 +23430,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>44774.633985648099</v>
       </c>
@@ -23449,7 +23471,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>44831.785569097199</v>
       </c>
@@ -23493,7 +23515,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>44831.788137962998</v>
       </c>
@@ -23537,7 +23559,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>44831.969735532402</v>
       </c>
@@ -23581,7 +23603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>44838.598316782402</v>
       </c>
@@ -23625,7 +23647,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>44838.604422453704</v>
       </c>
@@ -23669,7 +23691,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>44838.767622685198</v>
       </c>
@@ -23713,7 +23735,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>44844.515792939797</v>
       </c>
@@ -23754,7 +23776,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>44845.4522701389</v>
       </c>
@@ -23795,7 +23817,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>44858.360405555599</v>
       </c>
@@ -23839,7 +23861,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>44858.786968055603</v>
       </c>
@@ -23877,7 +23899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>44875.428184837998</v>
       </c>
@@ -23912,7 +23934,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>44875.434203009303</v>
       </c>
@@ -23944,7 +23966,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>44875.441085763901</v>
       </c>
@@ -23976,7 +23998,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>44875.443288541697</v>
       </c>
@@ -24008,7 +24030,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>44875.453703819403</v>
       </c>
@@ -24043,7 +24065,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>44875.454279166697</v>
       </c>
@@ -24078,7 +24100,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>44962.636147222198</v>
       </c>
@@ -24116,7 +24138,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>44969.706999305599</v>
       </c>
@@ -24151,7 +24173,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>44984.705640509303</v>
       </c>
@@ -24189,7 +24211,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>44984.707487500003</v>
       </c>
@@ -24227,7 +24249,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>44984.709653124999</v>
       </c>
@@ -24265,7 +24287,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>44984.711797338001</v>
       </c>
@@ -24303,7 +24325,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>44984.713593634297</v>
       </c>
@@ -24341,7 +24363,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>44984.918457754597</v>
       </c>
@@ -24373,7 +24395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>44984.920112500004</v>
       </c>
@@ -24405,7 +24427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
         <v>44987.654823495403</v>
       </c>
@@ -24440,7 +24462,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>44987.656404050897</v>
       </c>
@@ -24475,7 +24497,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>44987.657589930597</v>
       </c>
@@ -24510,7 +24532,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:24" s="45" customFormat="1" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" s="45" customFormat="1" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="42" t="s">
         <v>708</v>
       </c>
@@ -24558,7 +24580,7 @@
       <c r="W64" s="43"/>
       <c r="X64" s="43"/>
     </row>
-    <row r="65" spans="1:27" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="54">
         <v>45265.412118055552</v>
       </c>
@@ -24609,7 +24631,7 @@
       <c r="Z65" s="46"/>
       <c r="AA65" s="46"/>
     </row>
-    <row r="66" spans="1:27" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="53">
         <v>45265.425995370373</v>
       </c>
@@ -24660,7 +24682,7 @@
       <c r="Z66" s="46"/>
       <c r="AA66" s="46"/>
     </row>
-    <row r="67" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>744</v>
       </c>
@@ -24711,7 +24733,7 @@
       <c r="Z67" s="46"/>
       <c r="AA67" s="46"/>
     </row>
-    <row r="68" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="53">
         <v>45052.562893518516</v>
       </c>
@@ -24764,7 +24786,7 @@
       <c r="Z68" s="46"/>
       <c r="AA68" s="46"/>
     </row>
-    <row r="69" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="53">
         <v>45052.673854166664</v>
       </c>
@@ -24815,7 +24837,7 @@
       <c r="Z69" s="46"/>
       <c r="AA69" s="46"/>
     </row>
-    <row r="70" spans="1:27" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>769</v>
       </c>
@@ -24866,7 +24888,7 @@
       <c r="Z70" s="46"/>
       <c r="AA70" s="46"/>
     </row>
-    <row r="71" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
         <v>775</v>
       </c>
@@ -24917,7 +24939,7 @@
       <c r="Z71" s="46"/>
       <c r="AA71" s="46"/>
     </row>
-    <row r="72" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>782</v>
       </c>
@@ -24974,7 +24996,7 @@
       <c r="Z72" s="46"/>
       <c r="AA72" s="46"/>
     </row>
-    <row r="73" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="53">
         <v>45084.756689814814</v>
       </c>
@@ -25029,7 +25051,7 @@
       <c r="Z73" s="46"/>
       <c r="AA73" s="46"/>
     </row>
-    <row r="74" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="53">
         <v>45084.761666666665</v>
       </c>
@@ -25082,7 +25104,7 @@
       <c r="Z74" s="46"/>
       <c r="AA74" s="46"/>
     </row>
-    <row r="75" spans="1:27" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="53">
         <v>45237.442407407405</v>
       </c>
@@ -25135,9 +25157,9 @@
       <c r="Z75" s="46"/>
       <c r="AA75" s="46"/>
     </row>
-    <row r="76" spans="1:27" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B76" s="46" t="s">
         <v>17</v>
@@ -25146,26 +25168,26 @@
         <v>283</v>
       </c>
       <c r="D76" s="46" t="s">
+        <v>831</v>
+      </c>
+      <c r="E76" s="46" t="s">
+        <v>832</v>
+      </c>
+      <c r="F76" s="46" t="s">
         <v>833</v>
       </c>
-      <c r="E76" s="46" t="s">
+      <c r="G76" s="47" t="s">
         <v>834</v>
-      </c>
-      <c r="F76" s="46" t="s">
-        <v>835</v>
-      </c>
-      <c r="G76" s="47" t="s">
-        <v>836</v>
       </c>
       <c r="H76" s="46"/>
       <c r="I76" s="48" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="J76" s="46" t="s">
         <v>44</v>
       </c>
       <c r="K76" s="49" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="L76" s="46" t="s">
         <v>38</v>
@@ -25178,7 +25200,7 @@
         <v>26</v>
       </c>
       <c r="R76" s="49" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="S76" s="46"/>
       <c r="T76" s="46"/>
@@ -25190,9 +25212,9 @@
       <c r="Z76" s="46"/>
       <c r="AA76" s="46"/>
     </row>
-    <row r="77" spans="1:27" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B77" s="46" t="s">
         <v>357</v>
@@ -25201,17 +25223,17 @@
         <v>400</v>
       </c>
       <c r="D77" s="46" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E77" s="46" t="s">
         <v>766</v>
       </c>
       <c r="F77" s="47" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G77" s="46"/>
       <c r="H77" s="46" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I77" s="55">
         <v>44963</v>
@@ -25228,7 +25250,7 @@
       <c r="O77" s="46"/>
       <c r="P77" s="46"/>
       <c r="Q77" s="47" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="R77" s="46"/>
       <c r="S77" s="46"/>
@@ -25241,9 +25263,9 @@
       <c r="Z77" s="46"/>
       <c r="AA77" s="46"/>
     </row>
-    <row r="78" spans="1:27" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B78" s="46" t="s">
         <v>357</v>
@@ -25252,17 +25274,17 @@
         <v>400</v>
       </c>
       <c r="D78" s="46" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E78" s="46" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F78" s="46" t="s">
         <v>329</v>
       </c>
       <c r="G78" s="46"/>
       <c r="H78" s="46" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I78" s="55">
         <v>45269</v>
@@ -25272,14 +25294,14 @@
       </c>
       <c r="K78" s="46"/>
       <c r="L78" s="47" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="M78" s="46"/>
       <c r="N78" s="46"/>
       <c r="O78" s="46"/>
       <c r="P78" s="46"/>
       <c r="Q78" s="47" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="R78" s="46"/>
       <c r="S78" s="46"/>
@@ -25292,9 +25314,9 @@
       <c r="Z78" s="46"/>
       <c r="AA78" s="46"/>
     </row>
-    <row r="79" spans="1:27" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B79" s="46" t="s">
         <v>357</v>
@@ -25303,34 +25325,34 @@
         <v>400</v>
       </c>
       <c r="D79" s="46" t="s">
+        <v>865</v>
+      </c>
+      <c r="E79" s="46" t="s">
+        <v>866</v>
+      </c>
+      <c r="F79" s="47" t="s">
         <v>867</v>
-      </c>
-      <c r="E79" s="46" t="s">
-        <v>868</v>
-      </c>
-      <c r="F79" s="47" t="s">
-        <v>869</v>
       </c>
       <c r="G79" s="46"/>
       <c r="H79" s="46" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I79" s="48" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J79" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K79" s="46"/>
       <c r="L79" s="47" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="M79" s="46"/>
       <c r="N79" s="46"/>
       <c r="O79" s="46"/>
       <c r="P79" s="46"/>
       <c r="Q79" s="47" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="R79" s="46"/>
       <c r="S79" s="46"/>
@@ -25343,7 +25365,7 @@
       <c r="Z79" s="46"/>
       <c r="AA79" s="46"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -25369,7 +25391,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -25395,7 +25417,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -25421,7 +25443,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -25447,7 +25469,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -25473,7 +25495,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -25499,7 +25521,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -25525,7 +25547,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -25551,7 +25573,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -25577,7 +25599,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -25603,7 +25625,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -25629,7 +25651,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -25655,7 +25677,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -25681,7 +25703,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -25707,7 +25729,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -25733,7 +25755,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -25759,7 +25781,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -25785,7 +25807,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -25811,7 +25833,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -25837,7 +25859,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -25863,7 +25885,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -25889,7 +25911,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -25915,7 +25937,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -25941,7 +25963,7 @@
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -25967,7 +25989,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -25993,7 +26015,7 @@
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -26019,7 +26041,7 @@
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -26045,7 +26067,7 @@
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -26071,7 +26093,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -26097,7 +26119,7 @@
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -26123,7 +26145,7 @@
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -26149,7 +26171,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -26175,7 +26197,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -26201,7 +26223,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -26227,7 +26249,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -26253,7 +26275,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -26279,7 +26301,7 @@
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -26305,7 +26327,7 @@
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -26331,7 +26353,7 @@
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -26357,7 +26379,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -26383,7 +26405,7 @@
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -26409,7 +26431,7 @@
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -26435,7 +26457,7 @@
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -26461,7 +26483,7 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -26487,7 +26509,7 @@
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -26513,7 +26535,7 @@
       <c r="W124" s="9"/>
       <c r="X124" s="9"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -26539,7 +26561,7 @@
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -26565,7 +26587,7 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -26591,7 +26613,7 @@
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -26617,7 +26639,7 @@
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -26643,7 +26665,7 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -26669,7 +26691,7 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -26695,7 +26717,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -26721,7 +26743,7 @@
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -26747,7 +26769,7 @@
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -26773,7 +26795,7 @@
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -26799,7 +26821,7 @@
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -26825,7 +26847,7 @@
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -26851,7 +26873,7 @@
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -26877,7 +26899,7 @@
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -26903,7 +26925,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -26929,7 +26951,7 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -26955,7 +26977,7 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -26981,7 +27003,7 @@
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -27007,7 +27029,7 @@
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -27033,7 +27055,7 @@
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -27059,7 +27081,7 @@
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -27085,7 +27107,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -27111,7 +27133,7 @@
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -27137,7 +27159,7 @@
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -27163,7 +27185,7 @@
       <c r="W149" s="9"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -27189,7 +27211,7 @@
       <c r="W150" s="9"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -27215,7 +27237,7 @@
       <c r="W151" s="9"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -27241,7 +27263,7 @@
       <c r="W152" s="9"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -27267,7 +27289,7 @@
       <c r="W153" s="9"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -27293,7 +27315,7 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -27319,7 +27341,7 @@
       <c r="W155" s="9"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -27345,7 +27367,7 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -27371,7 +27393,7 @@
       <c r="W157" s="9"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -27397,7 +27419,7 @@
       <c r="W158" s="9"/>
       <c r="X158" s="9"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -27423,7 +27445,7 @@
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -27449,7 +27471,7 @@
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -27475,7 +27497,7 @@
       <c r="W161" s="9"/>
       <c r="X161" s="9"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -27501,7 +27523,7 @@
       <c r="W162" s="9"/>
       <c r="X162" s="9"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>

--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E50D77-552F-4C7C-8E07-DD60EC33917D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3525C240-1476-49BC-8E86-D8FB73703C90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -11230,8 +11230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ125"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33:T34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12607,7 +12607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>45016.456743865703</v>
       </c>
@@ -12660,53 +12660,57 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>44427.963724074099</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="13" t="s">
+    <row r="28" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="50">
+        <v>45235.627743055556</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>675</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>676</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14">
-        <v>44416</v>
-      </c>
-      <c r="J28" s="13" t="s">
+      <c r="D28" s="46" t="s">
+        <v>714</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>715</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>716</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>717</v>
+      </c>
+      <c r="H28" s="46"/>
+      <c r="I28" s="48" t="s">
+        <v>718</v>
+      </c>
+      <c r="J28" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="K28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="R28" s="22">
-        <v>34668356</v>
-      </c>
-      <c r="S28" s="26" t="s">
-        <v>677</v>
+      <c r="K28" s="49" t="s">
+        <v>719</v>
+      </c>
+      <c r="L28" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="M28" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46" t="s">
+        <v>720</v>
+      </c>
+      <c r="Q28" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="R28" s="51">
+        <v>37122862</v>
+      </c>
+      <c r="S28" s="52" t="s">
+        <v>721</v>
       </c>
       <c r="T28" s="24" t="s">
         <v>23</v>
@@ -12718,91 +12722,95 @@
       <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>44427.966733564797</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="13" t="s">
+      <c r="A29" s="54">
+        <v>45265.410578703704</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>678</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>679</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14">
-        <v>44416</v>
-      </c>
-      <c r="J29" s="13" t="s">
+      <c r="D29" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>723</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>724</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>725</v>
+      </c>
+      <c r="H29" s="46"/>
+      <c r="I29" s="48" t="s">
+        <v>726</v>
+      </c>
+      <c r="J29" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="R29" s="22">
-        <v>35330701</v>
-      </c>
-      <c r="S29" s="26" t="s">
-        <v>680</v>
+      <c r="K29" s="49" t="s">
+        <v>727</v>
+      </c>
+      <c r="L29" s="46" t="s">
+        <v>728</v>
+      </c>
+      <c r="M29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="46" t="s">
+        <v>729</v>
+      </c>
+      <c r="O29" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46" t="s">
+        <v>731</v>
+      </c>
+      <c r="R29" s="51">
+        <v>35242441</v>
+      </c>
+      <c r="S29" s="58" t="s">
+        <v>798</v>
       </c>
       <c r="T29" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="36.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50">
-        <v>45235.627743055556</v>
+    <row r="30" spans="1:27" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>791</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>165</v>
+        <v>547</v>
       </c>
       <c r="C30" s="46" t="s">
         <v>105</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>714</v>
+        <v>792</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>715</v>
+        <v>793</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>716</v>
+        <v>794</v>
       </c>
       <c r="G30" s="47" t="s">
-        <v>717</v>
+        <v>795</v>
       </c>
       <c r="H30" s="46"/>
-      <c r="I30" s="48" t="s">
-        <v>718</v>
+      <c r="I30" s="55">
+        <v>45111</v>
       </c>
       <c r="J30" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="K30" s="49" t="s">
-        <v>719</v>
-      </c>
+      <c r="K30" s="57"/>
       <c r="L30" s="46" t="s">
-        <v>171</v>
+        <v>796</v>
       </c>
       <c r="M30" s="46" t="s">
         <v>44</v>
@@ -12810,125 +12818,111 @@
       <c r="N30" s="46"/>
       <c r="O30" s="46"/>
       <c r="P30" s="46" t="s">
-        <v>720</v>
+        <v>797</v>
       </c>
       <c r="Q30" s="46" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="R30" s="51">
-        <v>37122862</v>
-      </c>
-      <c r="S30" s="52" t="s">
-        <v>721</v>
+        <v>37026419</v>
+      </c>
+      <c r="S30" s="58" t="s">
+        <v>799</v>
       </c>
       <c r="T30" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-    </row>
-    <row r="31" spans="1:27" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54">
-        <v>45265.410578703704</v>
+    </row>
+    <row r="31" spans="1:27" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="53">
+        <v>44993.321979166663</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="C31" s="46" t="s">
         <v>105</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>722</v>
+        <v>825</v>
       </c>
       <c r="E31" s="46" t="s">
-        <v>723</v>
+        <v>826</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>724</v>
+        <v>827</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>725</v>
+        <v>828</v>
       </c>
       <c r="H31" s="46"/>
-      <c r="I31" s="48" t="s">
-        <v>726</v>
+      <c r="I31" s="55">
+        <v>44965</v>
       </c>
       <c r="J31" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31" s="49" t="s">
-        <v>727</v>
+        <v>23</v>
+      </c>
+      <c r="K31" s="59" t="s">
+        <v>871</v>
       </c>
       <c r="L31" s="46" t="s">
-        <v>728</v>
+        <v>300</v>
       </c>
       <c r="M31" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="46" t="s">
-        <v>729</v>
+      <c r="N31" s="49" t="s">
+        <v>610</v>
       </c>
       <c r="O31" s="46" t="s">
-        <v>730</v>
+        <v>829</v>
       </c>
       <c r="P31" s="46"/>
       <c r="Q31" s="46" t="s">
-        <v>731</v>
+        <v>26</v>
       </c>
       <c r="R31" s="51">
-        <v>35242441</v>
-      </c>
-      <c r="S31" s="58" t="s">
-        <v>798</v>
+        <v>37600713</v>
+      </c>
+      <c r="S31" s="52" t="s">
+        <v>872</v>
       </c>
       <c r="T31" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="46"/>
     </row>
     <row r="32" spans="1:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>791</v>
+        <v>838</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>547</v>
+        <v>357</v>
       </c>
       <c r="C32" s="46" t="s">
         <v>105</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>792</v>
+        <v>839</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>794</v>
+        <v>841</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>795</v>
+        <v>842</v>
       </c>
       <c r="H32" s="46"/>
-      <c r="I32" s="55">
-        <v>45111</v>
+      <c r="I32" s="48" t="s">
+        <v>843</v>
       </c>
       <c r="J32" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="57"/>
+        <v>23</v>
+      </c>
+      <c r="K32" s="46"/>
       <c r="L32" s="46" t="s">
-        <v>796</v>
+        <v>844</v>
       </c>
       <c r="M32" s="46" t="s">
         <v>44</v>
@@ -12936,16 +12930,16 @@
       <c r="N32" s="46"/>
       <c r="O32" s="46"/>
       <c r="P32" s="46" t="s">
-        <v>797</v>
-      </c>
-      <c r="Q32" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="R32" s="51">
-        <v>37026419</v>
-      </c>
-      <c r="S32" s="58" t="s">
-        <v>799</v>
+        <v>845</v>
+      </c>
+      <c r="Q32" s="47" t="s">
+        <v>781</v>
+      </c>
+      <c r="R32" s="34">
+        <v>37730743</v>
+      </c>
+      <c r="S32" s="52" t="s">
+        <v>870</v>
       </c>
       <c r="T32" s="24" t="s">
         <v>23</v>
@@ -12959,58 +12953,52 @@
       <c r="AA32" s="46"/>
     </row>
     <row r="33" spans="1:27" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53">
-        <v>44993.321979166663</v>
-      </c>
-      <c r="B33" s="46" t="s">
+      <c r="A33" s="12">
+        <v>44427.963724074099</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="46" t="s">
-        <v>825</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>826</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>827</v>
-      </c>
-      <c r="G33" s="47" t="s">
-        <v>828</v>
-      </c>
-      <c r="H33" s="46"/>
-      <c r="I33" s="55">
-        <v>44965</v>
-      </c>
-      <c r="J33" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="59" t="s">
-        <v>871</v>
-      </c>
-      <c r="L33" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="M33" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="49" t="s">
-        <v>610</v>
-      </c>
-      <c r="O33" s="46" t="s">
-        <v>829</v>
-      </c>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46" t="s">
+      <c r="D33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14">
+        <v>44416</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="R33" s="51">
-        <v>37600713</v>
-      </c>
-      <c r="S33" s="52" t="s">
-        <v>872</v>
+      <c r="R33" s="22">
+        <v>34668356</v>
+      </c>
+      <c r="S33" s="26" t="s">
+        <v>677</v>
       </c>
       <c r="T33" s="24" t="s">
         <v>23</v>
@@ -13024,54 +13012,52 @@
       <c r="AA33" s="46"/>
     </row>
     <row r="34" spans="1:27" ht="50.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
-        <v>838</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>357</v>
-      </c>
-      <c r="C34" s="46" t="s">
+      <c r="A34" s="12">
+        <v>44427.966733564797</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="46" t="s">
-        <v>839</v>
-      </c>
-      <c r="E34" s="46" t="s">
-        <v>840</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>841</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>842</v>
-      </c>
-      <c r="H34" s="46"/>
-      <c r="I34" s="48" t="s">
-        <v>843</v>
-      </c>
-      <c r="J34" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46" t="s">
-        <v>844</v>
-      </c>
-      <c r="M34" s="46" t="s">
+      <c r="D34" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14">
+        <v>44416</v>
+      </c>
+      <c r="J34" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46" t="s">
-        <v>845</v>
-      </c>
-      <c r="Q34" s="47" t="s">
-        <v>781</v>
-      </c>
-      <c r="R34" s="34">
-        <v>37730743</v>
-      </c>
-      <c r="S34" s="52" t="s">
-        <v>870</v>
+      <c r="K34" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34" s="22">
+        <v>35330701</v>
+      </c>
+      <c r="S34" s="26" t="s">
+        <v>680</v>
       </c>
       <c r="T34" s="24" t="s">
         <v>23</v>
@@ -13084,113 +13070,37 @@
       <c r="Z34" s="46"/>
       <c r="AA34" s="46"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="9"/>
+    <row r="35" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="9"/>
+    <row r="36" spans="1:27" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
+    <row r="37" spans="1:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+    </row>
+    <row r="38" spans="1:27" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="46"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
@@ -13300,60 +13210,6 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-    </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
@@ -15562,16 +15418,16 @@
     <hyperlink ref="K22" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
     <hyperlink ref="K25" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
     <hyperlink ref="K27" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="K28" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="F29" r:id="rId20" display="Computational simulation experiments increasingly inform modern biological research, and bring with them the need to provide ways to annotate, archive, share and reproduce the experiments performed. These simulations increasingly require extensive collaboration among modelers, experimentalists, and engineers. The Minimum Information About a Simulation Experiment (MIASE) guidelines outline the information needed to share simulation experiments. SED-ML is a computer-readable format for the information outlined by MIASE, created as a community project and supported by many investigators and software tools. The first versions of SED-ML focused on deterministic and stochastic simulations of models. Level 1 Version 4 of SED-ML substantially expands these capabilities to cover additional types of models, model languages, parameter estimations, simulations and analyses of models, and analyses and visualizations of simulation results. To facilitate consistent practices across the community, Level 1 Version 4 also more clearly describes the use of SED-ML constructs, and includes numerous concrete validation rules. SED-ML is supported by a growing ecosystem of investigators, model languages, and software tools, including eight languages for constraint-based, kinetic, qualitative, rule-based, and spatial models, over 20 simulation tools, visual editors, model repositories, and validators. Additional information about SED-ML is available at https://sed-ml.org/. " xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="K29" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="K30" r:id="rId22" xr:uid="{495057DF-2B1C-4385-ADFB-55D6A8A151DF}"/>
-    <hyperlink ref="S30" r:id="rId23" display="https://doi.org/10.3389/fbioe.2023.1179980" xr:uid="{79C24F57-0DBE-48F6-BE5F-139B44D1E7CC}"/>
-    <hyperlink ref="K31" r:id="rId24" xr:uid="{3035AAD5-AD1A-47B4-A065-757BF07E623F}"/>
-    <hyperlink ref="K33" r:id="rId25" display="https://drive.google.com/open?id=1Hunr87XhYvdBH5WDX-J2Pihm132nXPF_" xr:uid="{A5CB2010-9C69-44E0-9E27-A8F5F1D228D2}"/>
-    <hyperlink ref="N33" r:id="rId26" xr:uid="{315C73EA-5D9F-402D-B0CB-C3FB74CDEA78}"/>
-    <hyperlink ref="S34" r:id="rId27" display="https://doi.org/10.1038/s41598-023-42141-x" xr:uid="{FA8ED69B-30B5-43EF-992E-6A57DA843FD9}"/>
-    <hyperlink ref="S33" r:id="rId28" display="https://doi.org/10.3389/fendo.2023.1185656" xr:uid="{B6669FE7-4041-478A-8481-D504C923D35D}"/>
+    <hyperlink ref="K33" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="F34" r:id="rId20" display="Computational simulation experiments increasingly inform modern biological research, and bring with them the need to provide ways to annotate, archive, share and reproduce the experiments performed. These simulations increasingly require extensive collaboration among modelers, experimentalists, and engineers. The Minimum Information About a Simulation Experiment (MIASE) guidelines outline the information needed to share simulation experiments. SED-ML is a computer-readable format for the information outlined by MIASE, created as a community project and supported by many investigators and software tools. The first versions of SED-ML focused on deterministic and stochastic simulations of models. Level 1 Version 4 of SED-ML substantially expands these capabilities to cover additional types of models, model languages, parameter estimations, simulations and analyses of models, and analyses and visualizations of simulation results. To facilitate consistent practices across the community, Level 1 Version 4 also more clearly describes the use of SED-ML constructs, and includes numerous concrete validation rules. SED-ML is supported by a growing ecosystem of investigators, model languages, and software tools, including eight languages for constraint-based, kinetic, qualitative, rule-based, and spatial models, over 20 simulation tools, visual editors, model repositories, and validators. Additional information about SED-ML is available at https://sed-ml.org/. " xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="K34" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="K28" r:id="rId22" xr:uid="{495057DF-2B1C-4385-ADFB-55D6A8A151DF}"/>
+    <hyperlink ref="S28" r:id="rId23" display="https://doi.org/10.3389/fbioe.2023.1179980" xr:uid="{79C24F57-0DBE-48F6-BE5F-139B44D1E7CC}"/>
+    <hyperlink ref="K29" r:id="rId24" xr:uid="{3035AAD5-AD1A-47B4-A065-757BF07E623F}"/>
+    <hyperlink ref="K31" r:id="rId25" display="https://drive.google.com/open?id=1Hunr87XhYvdBH5WDX-J2Pihm132nXPF_" xr:uid="{A5CB2010-9C69-44E0-9E27-A8F5F1D228D2}"/>
+    <hyperlink ref="N31" r:id="rId26" xr:uid="{315C73EA-5D9F-402D-B0CB-C3FB74CDEA78}"/>
+    <hyperlink ref="S32" r:id="rId27" display="https://doi.org/10.1038/s41598-023-42141-x" xr:uid="{FA8ED69B-30B5-43EF-992E-6A57DA843FD9}"/>
+    <hyperlink ref="S31" r:id="rId28" display="https://doi.org/10.3389/fendo.2023.1185656" xr:uid="{B6669FE7-4041-478A-8481-D504C923D35D}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
@@ -21986,8 +21842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>

--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="943">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -2659,9 +2659,6 @@
     <t xml:space="preserve">Front. Bioeng. Biotechnol. 2023 Apr 13;1179980. doi:10.3389/fbioe.2023.1179980</t>
   </si>
   <si>
-    <t xml:space="preserve">4/13/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://drive.google.com/open?id=1hYOyh-OwWziLDuh9OqSNpgGfuCMoZ_Qi</t>
   </si>
   <si>
@@ -2684,9 +2681,6 @@
   </si>
   <si>
     <t xml:space="preserve">Journal of Pathology Informatics 2022 13:100001, doi: 10.1016/j.jpi.2022.100001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/14/2022</t>
   </si>
   <si>
     <t xml:space="preserve">https://drive.google.com/open?id=1qmU_QTNS3-U0odNaQclebHO2u52FOHkS</t>
@@ -2786,9 +2780,6 @@
     <t xml:space="preserve">Mandl, L., Mielke, A., Seyedpour, S.M. et al. Affine transformations accelerate the training of physics-informed neural networks of a one-dimensional consolidation problem. Sci Rep 13, 15566 (2023). https://doi.org/10.1038/s41598-023-42141-x</t>
   </si>
   <si>
-    <t xml:space="preserve">9/20/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">Luis Mandl, Tim Ricken</t>
   </si>
   <si>
@@ -2844,6 +2835,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1101/2021.12.01.470753 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Flux Balance Analysis Models in SBML</t>
   </si>
   <si>
     <t xml:space="preserve">10.1101/245076</t>
@@ -3341,10 +3335,10 @@
     <t xml:space="preserve">Journal Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impact Factor (5 years)</t>
+    <t xml:space="preserve">IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF (5 years)</t>
   </si>
   <si>
     <t xml:space="preserve">Citescore</t>
@@ -3696,7 +3690,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3853,7 +3847,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3871,6 +3865,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -11336,15 +11334,11 @@
   </sheetPr>
   <dimension ref="A1:AA125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="16443" ySplit="930" topLeftCell="A7" activePane="bottomRight" state="split"/>
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
-      <selection pane="bottomRight" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="144" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="50.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.57"/>
@@ -11363,7 +11357,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="26" style="1" width="12.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11432,7 +11426,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="n">
         <v>44510.6069909722</v>
       </c>
@@ -11486,7 +11480,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="n">
         <v>44510.6216716435</v>
       </c>
@@ -11540,7 +11534,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="n">
         <v>44519.3930097222</v>
       </c>
@@ -11594,7 +11588,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="n">
         <v>44536.6893362269</v>
       </c>
@@ -11648,7 +11642,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="n">
         <v>44545.4154672454</v>
       </c>
@@ -11702,7 +11696,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="n">
         <v>44547.4125025463</v>
       </c>
@@ -11756,7 +11750,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="n">
         <v>44571.6552503472</v>
       </c>
@@ -11808,7 +11802,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="n">
         <v>44664.5992327546</v>
       </c>
@@ -11864,7 +11858,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="n">
         <v>44664.6146289352</v>
       </c>
@@ -11912,7 +11906,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="n">
         <v>44664.7641594907</v>
       </c>
@@ -11962,7 +11956,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="n">
         <v>44665.6122815972</v>
       </c>
@@ -12018,7 +12012,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="n">
         <v>44679.8520508102</v>
       </c>
@@ -12074,7 +12068,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="n">
         <v>44690.414530787</v>
       </c>
@@ -12131,7 +12125,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="n">
         <v>44724.9084950232</v>
       </c>
@@ -12182,7 +12176,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="n">
         <v>44724.915100463</v>
       </c>
@@ -12236,7 +12230,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="n">
         <v>44724.9176353009</v>
       </c>
@@ -12265,7 +12259,7 @@
         <v>44714</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>335</v>
+        <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>265</v>
@@ -12295,7 +12289,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="n">
         <v>44748.500684375</v>
       </c>
@@ -12349,7 +12343,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="n">
         <v>44769.6992456019</v>
       </c>
@@ -12403,7 +12397,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="n">
         <v>44837.4629381944</v>
       </c>
@@ -12457,7 +12451,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="n">
         <v>44907.4404780093</v>
       </c>
@@ -12516,7 +12510,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="n">
         <v>44912.9253436343</v>
       </c>
@@ -12575,7 +12569,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="n">
         <v>44929.3543078704</v>
       </c>
@@ -12629,7 +12623,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="n">
         <v>44943.356896875</v>
       </c>
@@ -12683,7 +12677,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="n">
         <v>44972.5718884259</v>
       </c>
@@ -12742,7 +12736,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="n">
         <v>44992.7478018519</v>
       </c>
@@ -12794,7 +12788,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="n">
         <v>45016.4567438657</v>
       </c>
@@ -12850,7 +12844,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="37" t="n">
         <v>45235.6277430556</v>
       </c>
@@ -12873,14 +12867,14 @@
         <v>697</v>
       </c>
       <c r="H28" s="38"/>
-      <c r="I28" s="39" t="s">
-        <v>698</v>
+      <c r="I28" s="39" t="n">
+        <v>45029</v>
       </c>
       <c r="J28" s="38" t="s">
         <v>44</v>
       </c>
       <c r="K28" s="40" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L28" s="38" t="s">
         <v>171</v>
@@ -12891,7 +12885,7 @@
       <c r="N28" s="38"/>
       <c r="O28" s="38"/>
       <c r="P28" s="38" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q28" s="38" t="s">
         <v>172</v>
@@ -12900,20 +12894,20 @@
         <v>37122862</v>
       </c>
       <c r="S28" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="T28" s="24" t="s">
         <v>23</v>
       </c>
       <c r="U28" s="25" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="42" t="n">
         <v>45265.4105787037</v>
       </c>
@@ -12924,59 +12918,59 @@
         <v>105</v>
       </c>
       <c r="D29" s="38" t="s">
+        <v>702</v>
+      </c>
+      <c r="E29" s="38" t="s">
         <v>703</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="F29" s="38" t="s">
         <v>704</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="G29" s="29" t="s">
         <v>705</v>
       </c>
-      <c r="G29" s="29" t="s">
-        <v>706</v>
-      </c>
       <c r="H29" s="38"/>
-      <c r="I29" s="39" t="s">
-        <v>707</v>
+      <c r="I29" s="39" t="n">
+        <v>44606</v>
       </c>
       <c r="J29" s="38" t="s">
         <v>44</v>
       </c>
       <c r="K29" s="40" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M29" s="38" t="s">
         <v>23</v>
       </c>
       <c r="N29" s="38" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="P29" s="38"/>
       <c r="Q29" s="38" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="R29" s="26" t="n">
         <v>35242441</v>
       </c>
       <c r="S29" s="43" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="T29" s="24" t="s">
         <v>23</v>
       </c>
       <c r="U29" s="35" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="39" t="s">
-        <v>715</v>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="44" t="s">
+        <v>713</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>547</v>
@@ -12985,27 +12979,27 @@
         <v>105</v>
       </c>
       <c r="D30" s="38" t="s">
+        <v>714</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>715</v>
+      </c>
+      <c r="F30" s="38" t="s">
         <v>716</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="G30" s="29" t="s">
         <v>717</v>
       </c>
-      <c r="F30" s="38" t="s">
-        <v>718</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>719</v>
-      </c>
       <c r="H30" s="38"/>
-      <c r="I30" s="44" t="n">
+      <c r="I30" s="45" t="n">
         <v>45111</v>
       </c>
       <c r="J30" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="K30" s="45"/>
+      <c r="K30" s="46"/>
       <c r="L30" s="38" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="M30" s="38" t="s">
         <v>44</v>
@@ -13013,7 +13007,7 @@
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
       <c r="P30" s="38" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="Q30" s="38" t="s">
         <v>80</v>
@@ -13022,17 +13016,17 @@
         <v>37026419</v>
       </c>
       <c r="S30" s="43" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="T30" s="24" t="s">
         <v>23</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="46" t="n">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="47" t="n">
         <v>44993.3219791667</v>
       </c>
       <c r="B31" s="38" t="s">
@@ -13042,26 +13036,26 @@
         <v>105</v>
       </c>
       <c r="D31" s="38" t="s">
+        <v>722</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>723</v>
+      </c>
+      <c r="F31" s="38" t="s">
         <v>724</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="G31" s="29" t="s">
         <v>725</v>
       </c>
-      <c r="F31" s="38" t="s">
-        <v>726</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>727</v>
-      </c>
       <c r="H31" s="38"/>
-      <c r="I31" s="44" t="n">
+      <c r="I31" s="45" t="n">
         <v>44965</v>
       </c>
       <c r="J31" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="47" t="s">
-        <v>728</v>
+      <c r="K31" s="48" t="s">
+        <v>726</v>
       </c>
       <c r="L31" s="38" t="s">
         <v>300</v>
@@ -13073,7 +13067,7 @@
         <v>610</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="P31" s="38"/>
       <c r="Q31" s="38" t="s">
@@ -13083,18 +13077,18 @@
         <v>37600713</v>
       </c>
       <c r="S31" s="41" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="T31" s="24" t="s">
         <v>23</v>
       </c>
       <c r="U31" s="25" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39" t="s">
-        <v>732</v>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="44" t="s">
+        <v>730</v>
       </c>
       <c r="B32" s="38" t="s">
         <v>357</v>
@@ -13103,27 +13097,27 @@
         <v>105</v>
       </c>
       <c r="D32" s="38" t="s">
+        <v>731</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>732</v>
+      </c>
+      <c r="F32" s="38" t="s">
         <v>733</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="G32" s="29" t="s">
         <v>734</v>
       </c>
-      <c r="F32" s="38" t="s">
-        <v>735</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>736</v>
-      </c>
       <c r="H32" s="38"/>
-      <c r="I32" s="39" t="s">
-        <v>737</v>
+      <c r="I32" s="39" t="n">
+        <v>45189</v>
       </c>
       <c r="J32" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K32" s="38"/>
       <c r="L32" s="38" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="M32" s="38" t="s">
         <v>44</v>
@@ -13131,16 +13125,16 @@
       <c r="N32" s="38"/>
       <c r="O32" s="38"/>
       <c r="P32" s="38" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="Q32" s="29" t="s">
-        <v>740</v>
-      </c>
-      <c r="R32" s="48" t="n">
+        <v>737</v>
+      </c>
+      <c r="R32" s="49" t="n">
         <v>37730743</v>
       </c>
       <c r="S32" s="41" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="T32" s="24" t="s">
         <v>23</v>
@@ -13155,7 +13149,7 @@
       <c r="Z32" s="38"/>
       <c r="AA32" s="38"/>
     </row>
-    <row r="33" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="n">
         <v>44427.9637240741</v>
       </c>
@@ -13172,10 +13166,10 @@
         <v>41</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="14" t="n">
@@ -13201,7 +13195,7 @@
         <v>34668356</v>
       </c>
       <c r="S33" s="28" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="T33" s="24" t="s">
         <v>23</v>
@@ -13216,7 +13210,7 @@
       <c r="Z33" s="38"/>
       <c r="AA33" s="38"/>
     </row>
-    <row r="34" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="n">
         <v>44427.9667335648</v>
       </c>
@@ -13233,10 +13227,10 @@
         <v>47</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="14" t="n">
@@ -13262,7 +13256,7 @@
         <v>35330701</v>
       </c>
       <c r="S34" s="28" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="T34" s="24" t="s">
         <v>23</v>
@@ -13277,21 +13271,21 @@
       <c r="Z34" s="38"/>
       <c r="AA34" s="38"/>
     </row>
-    <row r="35" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="U37" s="38"/>
       <c r="V37" s="38"/>
       <c r="W37" s="38"/>
@@ -13300,7 +13294,7 @@
       <c r="Z37" s="38"/>
       <c r="AA37" s="38"/>
     </row>
-    <row r="38" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="U38" s="38"/>
       <c r="V38" s="38"/>
       <c r="W38" s="38"/>
@@ -13309,7 +13303,7 @@
       <c r="Z38" s="38"/>
       <c r="AA38" s="38"/>
     </row>
-    <row r="39" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -13327,8 +13321,8 @@
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
@@ -13336,7 +13330,7 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -13354,8 +13348,8 @@
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
-      <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
@@ -13363,7 +13357,7 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -13381,8 +13375,8 @@
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="49"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
@@ -13390,7 +13384,7 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -13408,8 +13402,8 @@
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
@@ -13417,7 +13411,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
     </row>
-    <row r="45" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -13435,8 +13429,8 @@
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
-      <c r="R45" s="49"/>
-      <c r="S45" s="49"/>
+      <c r="R45" s="50"/>
+      <c r="S45" s="50"/>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
@@ -13444,7 +13438,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -13462,8 +13456,8 @@
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
-      <c r="R46" s="49"/>
-      <c r="S46" s="49"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
@@ -13471,7 +13465,7 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -13489,8 +13483,8 @@
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="50"/>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
@@ -13498,7 +13492,7 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -13516,8 +13510,8 @@
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
-      <c r="R48" s="49"/>
-      <c r="S48" s="49"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="50"/>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
@@ -13525,7 +13519,7 @@
       <c r="X48" s="9"/>
       <c r="Y48" s="9"/>
     </row>
-    <row r="49" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -13543,8 +13537,8 @@
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
-      <c r="R49" s="49"/>
-      <c r="S49" s="49"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="50"/>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
@@ -13552,7 +13546,7 @@
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
     </row>
-    <row r="50" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -13570,8 +13564,8 @@
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
-      <c r="R50" s="49"/>
-      <c r="S50" s="49"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
@@ -13579,7 +13573,7 @@
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -13597,8 +13591,8 @@
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
-      <c r="R51" s="49"/>
-      <c r="S51" s="49"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
@@ -13606,7 +13600,7 @@
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -13624,8 +13618,8 @@
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
-      <c r="R52" s="49"/>
-      <c r="S52" s="49"/>
+      <c r="R52" s="50"/>
+      <c r="S52" s="50"/>
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
@@ -13633,7 +13627,7 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
     </row>
-    <row r="53" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -13651,8 +13645,8 @@
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
-      <c r="R53" s="49"/>
-      <c r="S53" s="49"/>
+      <c r="R53" s="50"/>
+      <c r="S53" s="50"/>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
@@ -13660,7 +13654,7 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -13678,8 +13672,8 @@
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
-      <c r="R54" s="49"/>
-      <c r="S54" s="49"/>
+      <c r="R54" s="50"/>
+      <c r="S54" s="50"/>
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
@@ -13687,7 +13681,7 @@
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
     </row>
-    <row r="55" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -13705,8 +13699,8 @@
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
-      <c r="R55" s="49"/>
-      <c r="S55" s="49"/>
+      <c r="R55" s="50"/>
+      <c r="S55" s="50"/>
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
@@ -13714,7 +13708,7 @@
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -13732,8 +13726,8 @@
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
-      <c r="R56" s="49"/>
-      <c r="S56" s="49"/>
+      <c r="R56" s="50"/>
+      <c r="S56" s="50"/>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
       <c r="V56" s="9"/>
@@ -13741,7 +13735,7 @@
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
     </row>
-    <row r="57" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -13759,8 +13753,8 @@
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
-      <c r="R57" s="49"/>
-      <c r="S57" s="49"/>
+      <c r="R57" s="50"/>
+      <c r="S57" s="50"/>
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
@@ -13768,7 +13762,7 @@
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
     </row>
-    <row r="58" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -13786,8 +13780,8 @@
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
-      <c r="R58" s="49"/>
-      <c r="S58" s="49"/>
+      <c r="R58" s="50"/>
+      <c r="S58" s="50"/>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
@@ -13795,7 +13789,7 @@
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
     </row>
-    <row r="59" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -13813,8 +13807,8 @@
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
-      <c r="R59" s="49"/>
-      <c r="S59" s="49"/>
+      <c r="R59" s="50"/>
+      <c r="S59" s="50"/>
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
       <c r="V59" s="9"/>
@@ -13822,7 +13816,7 @@
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
     </row>
-    <row r="60" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -13840,8 +13834,8 @@
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
-      <c r="R60" s="49"/>
-      <c r="S60" s="49"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="50"/>
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
@@ -13849,7 +13843,7 @@
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
     </row>
-    <row r="61" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -13867,8 +13861,8 @@
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
-      <c r="R61" s="49"/>
-      <c r="S61" s="49"/>
+      <c r="R61" s="50"/>
+      <c r="S61" s="50"/>
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
@@ -13876,7 +13870,7 @@
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
     </row>
-    <row r="62" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -13894,8 +13888,8 @@
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
-      <c r="R62" s="49"/>
-      <c r="S62" s="49"/>
+      <c r="R62" s="50"/>
+      <c r="S62" s="50"/>
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
       <c r="V62" s="9"/>
@@ -13903,7 +13897,7 @@
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
     </row>
-    <row r="63" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -13921,8 +13915,8 @@
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="49"/>
+      <c r="R63" s="50"/>
+      <c r="S63" s="50"/>
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
       <c r="V63" s="9"/>
@@ -13930,7 +13924,7 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
     </row>
-    <row r="64" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -13948,8 +13942,8 @@
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
-      <c r="R64" s="49"/>
-      <c r="S64" s="49"/>
+      <c r="R64" s="50"/>
+      <c r="S64" s="50"/>
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
       <c r="V64" s="9"/>
@@ -13957,7 +13951,7 @@
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
     </row>
-    <row r="65" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -13975,8 +13969,8 @@
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
-      <c r="R65" s="49"/>
-      <c r="S65" s="49"/>
+      <c r="R65" s="50"/>
+      <c r="S65" s="50"/>
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
       <c r="V65" s="9"/>
@@ -13984,7 +13978,7 @@
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
     </row>
-    <row r="66" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -14002,8 +13996,8 @@
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
-      <c r="R66" s="49"/>
-      <c r="S66" s="49"/>
+      <c r="R66" s="50"/>
+      <c r="S66" s="50"/>
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
       <c r="V66" s="9"/>
@@ -14011,7 +14005,7 @@
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
     </row>
-    <row r="67" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -14029,8 +14023,8 @@
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
-      <c r="R67" s="49"/>
-      <c r="S67" s="49"/>
+      <c r="R67" s="50"/>
+      <c r="S67" s="50"/>
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
       <c r="V67" s="9"/>
@@ -14038,7 +14032,7 @@
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
     </row>
-    <row r="68" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -14056,8 +14050,8 @@
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
-      <c r="R68" s="49"/>
-      <c r="S68" s="49"/>
+      <c r="R68" s="50"/>
+      <c r="S68" s="50"/>
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
       <c r="V68" s="9"/>
@@ -14065,7 +14059,7 @@
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
     </row>
-    <row r="69" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -14083,8 +14077,8 @@
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
-      <c r="R69" s="49"/>
-      <c r="S69" s="49"/>
+      <c r="R69" s="50"/>
+      <c r="S69" s="50"/>
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="9"/>
@@ -14092,7 +14086,7 @@
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
     </row>
-    <row r="70" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -14110,8 +14104,8 @@
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
-      <c r="R70" s="49"/>
-      <c r="S70" s="49"/>
+      <c r="R70" s="50"/>
+      <c r="S70" s="50"/>
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
       <c r="V70" s="9"/>
@@ -14119,7 +14113,7 @@
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
     </row>
-    <row r="71" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -14137,8 +14131,8 @@
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
-      <c r="R71" s="49"/>
-      <c r="S71" s="49"/>
+      <c r="R71" s="50"/>
+      <c r="S71" s="50"/>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
       <c r="V71" s="9"/>
@@ -14146,7 +14140,7 @@
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
     </row>
-    <row r="72" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -14164,8 +14158,8 @@
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
-      <c r="R72" s="49"/>
-      <c r="S72" s="49"/>
+      <c r="R72" s="50"/>
+      <c r="S72" s="50"/>
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
       <c r="V72" s="9"/>
@@ -14173,7 +14167,7 @@
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
     </row>
-    <row r="73" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -14191,8 +14185,8 @@
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
-      <c r="R73" s="49"/>
-      <c r="S73" s="49"/>
+      <c r="R73" s="50"/>
+      <c r="S73" s="50"/>
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
       <c r="V73" s="9"/>
@@ -14200,7 +14194,7 @@
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
     </row>
-    <row r="74" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -14218,8 +14212,8 @@
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
-      <c r="R74" s="49"/>
-      <c r="S74" s="49"/>
+      <c r="R74" s="50"/>
+      <c r="S74" s="50"/>
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
       <c r="V74" s="9"/>
@@ -14227,7 +14221,7 @@
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
     </row>
-    <row r="75" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -14245,8 +14239,8 @@
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
-      <c r="R75" s="49"/>
-      <c r="S75" s="49"/>
+      <c r="R75" s="50"/>
+      <c r="S75" s="50"/>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
       <c r="V75" s="9"/>
@@ -14254,7 +14248,7 @@
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
     </row>
-    <row r="76" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -14272,8 +14266,8 @@
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
-      <c r="R76" s="49"/>
-      <c r="S76" s="49"/>
+      <c r="R76" s="50"/>
+      <c r="S76" s="50"/>
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
       <c r="V76" s="9"/>
@@ -14281,7 +14275,7 @@
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
     </row>
-    <row r="77" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -14299,8 +14293,8 @@
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
-      <c r="R77" s="49"/>
-      <c r="S77" s="49"/>
+      <c r="R77" s="50"/>
+      <c r="S77" s="50"/>
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
       <c r="V77" s="9"/>
@@ -14308,7 +14302,7 @@
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
     </row>
-    <row r="78" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -14326,8 +14320,8 @@
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
-      <c r="R78" s="49"/>
-      <c r="S78" s="49"/>
+      <c r="R78" s="50"/>
+      <c r="S78" s="50"/>
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
       <c r="V78" s="9"/>
@@ -14335,7 +14329,7 @@
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
     </row>
-    <row r="79" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -14353,8 +14347,8 @@
       <c r="O79" s="8"/>
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
-      <c r="R79" s="49"/>
-      <c r="S79" s="49"/>
+      <c r="R79" s="50"/>
+      <c r="S79" s="50"/>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
       <c r="V79" s="9"/>
@@ -14362,7 +14356,7 @@
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
     </row>
-    <row r="80" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -14380,8 +14374,8 @@
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
-      <c r="R80" s="49"/>
-      <c r="S80" s="49"/>
+      <c r="R80" s="50"/>
+      <c r="S80" s="50"/>
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
       <c r="V80" s="9"/>
@@ -14389,7 +14383,7 @@
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
     </row>
-    <row r="81" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -14407,8 +14401,8 @@
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
-      <c r="R81" s="49"/>
-      <c r="S81" s="49"/>
+      <c r="R81" s="50"/>
+      <c r="S81" s="50"/>
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
       <c r="V81" s="9"/>
@@ -14416,7 +14410,7 @@
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
     </row>
-    <row r="82" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -14434,8 +14428,8 @@
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
-      <c r="R82" s="49"/>
-      <c r="S82" s="49"/>
+      <c r="R82" s="50"/>
+      <c r="S82" s="50"/>
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
       <c r="V82" s="9"/>
@@ -14443,7 +14437,7 @@
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
     </row>
-    <row r="83" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -14461,8 +14455,8 @@
       <c r="O83" s="8"/>
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
-      <c r="R83" s="49"/>
-      <c r="S83" s="49"/>
+      <c r="R83" s="50"/>
+      <c r="S83" s="50"/>
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
       <c r="V83" s="9"/>
@@ -14470,7 +14464,7 @@
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
     </row>
-    <row r="84" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -14488,8 +14482,8 @@
       <c r="O84" s="8"/>
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
-      <c r="R84" s="49"/>
-      <c r="S84" s="49"/>
+      <c r="R84" s="50"/>
+      <c r="S84" s="50"/>
       <c r="T84" s="9"/>
       <c r="U84" s="9"/>
       <c r="V84" s="9"/>
@@ -14497,7 +14491,7 @@
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
     </row>
-    <row r="85" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -14515,8 +14509,8 @@
       <c r="O85" s="8"/>
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
-      <c r="R85" s="49"/>
-      <c r="S85" s="49"/>
+      <c r="R85" s="50"/>
+      <c r="S85" s="50"/>
       <c r="T85" s="9"/>
       <c r="U85" s="9"/>
       <c r="V85" s="9"/>
@@ -14524,7 +14518,7 @@
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
     </row>
-    <row r="86" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -14542,8 +14536,8 @@
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
-      <c r="R86" s="49"/>
-      <c r="S86" s="49"/>
+      <c r="R86" s="50"/>
+      <c r="S86" s="50"/>
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
       <c r="V86" s="9"/>
@@ -14551,7 +14545,7 @@
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
     </row>
-    <row r="87" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -14569,8 +14563,8 @@
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
-      <c r="R87" s="49"/>
-      <c r="S87" s="49"/>
+      <c r="R87" s="50"/>
+      <c r="S87" s="50"/>
       <c r="T87" s="9"/>
       <c r="U87" s="9"/>
       <c r="V87" s="9"/>
@@ -14578,7 +14572,7 @@
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
     </row>
-    <row r="88" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -14596,8 +14590,8 @@
       <c r="O88" s="8"/>
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
-      <c r="R88" s="49"/>
-      <c r="S88" s="49"/>
+      <c r="R88" s="50"/>
+      <c r="S88" s="50"/>
       <c r="T88" s="9"/>
       <c r="U88" s="9"/>
       <c r="V88" s="9"/>
@@ -14605,7 +14599,7 @@
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
     </row>
-    <row r="89" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -14623,8 +14617,8 @@
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
-      <c r="R89" s="49"/>
-      <c r="S89" s="49"/>
+      <c r="R89" s="50"/>
+      <c r="S89" s="50"/>
       <c r="T89" s="9"/>
       <c r="U89" s="9"/>
       <c r="V89" s="9"/>
@@ -14632,7 +14626,7 @@
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
     </row>
-    <row r="90" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -14650,8 +14644,8 @@
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
-      <c r="R90" s="49"/>
-      <c r="S90" s="49"/>
+      <c r="R90" s="50"/>
+      <c r="S90" s="50"/>
       <c r="T90" s="9"/>
       <c r="U90" s="9"/>
       <c r="V90" s="9"/>
@@ -14659,7 +14653,7 @@
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -14677,8 +14671,8 @@
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
-      <c r="R91" s="49"/>
-      <c r="S91" s="49"/>
+      <c r="R91" s="50"/>
+      <c r="S91" s="50"/>
       <c r="T91" s="9"/>
       <c r="U91" s="9"/>
       <c r="V91" s="9"/>
@@ -14686,7 +14680,7 @@
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
     </row>
-    <row r="92" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -14704,8 +14698,8 @@
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
-      <c r="R92" s="49"/>
-      <c r="S92" s="49"/>
+      <c r="R92" s="50"/>
+      <c r="S92" s="50"/>
       <c r="T92" s="9"/>
       <c r="U92" s="9"/>
       <c r="V92" s="9"/>
@@ -14713,7 +14707,7 @@
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
     </row>
-    <row r="93" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -14731,8 +14725,8 @@
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
-      <c r="R93" s="49"/>
-      <c r="S93" s="49"/>
+      <c r="R93" s="50"/>
+      <c r="S93" s="50"/>
       <c r="T93" s="9"/>
       <c r="U93" s="9"/>
       <c r="V93" s="9"/>
@@ -14740,7 +14734,7 @@
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
     </row>
-    <row r="94" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -14758,8 +14752,8 @@
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
-      <c r="R94" s="49"/>
-      <c r="S94" s="49"/>
+      <c r="R94" s="50"/>
+      <c r="S94" s="50"/>
       <c r="T94" s="9"/>
       <c r="U94" s="9"/>
       <c r="V94" s="9"/>
@@ -14767,7 +14761,7 @@
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
     </row>
-    <row r="95" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -14785,8 +14779,8 @@
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
-      <c r="R95" s="49"/>
-      <c r="S95" s="49"/>
+      <c r="R95" s="50"/>
+      <c r="S95" s="50"/>
       <c r="T95" s="9"/>
       <c r="U95" s="9"/>
       <c r="V95" s="9"/>
@@ -14794,7 +14788,7 @@
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
     </row>
-    <row r="96" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -14812,8 +14806,8 @@
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
-      <c r="R96" s="49"/>
-      <c r="S96" s="49"/>
+      <c r="R96" s="50"/>
+      <c r="S96" s="50"/>
       <c r="T96" s="9"/>
       <c r="U96" s="9"/>
       <c r="V96" s="9"/>
@@ -14821,7 +14815,7 @@
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
     </row>
-    <row r="97" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -14839,8 +14833,8 @@
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
-      <c r="R97" s="49"/>
-      <c r="S97" s="49"/>
+      <c r="R97" s="50"/>
+      <c r="S97" s="50"/>
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
       <c r="V97" s="9"/>
@@ -14848,7 +14842,7 @@
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
     </row>
-    <row r="98" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -14866,8 +14860,8 @@
       <c r="O98" s="8"/>
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
-      <c r="R98" s="49"/>
-      <c r="S98" s="49"/>
+      <c r="R98" s="50"/>
+      <c r="S98" s="50"/>
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
       <c r="V98" s="9"/>
@@ -14875,7 +14869,7 @@
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
     </row>
-    <row r="99" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -14893,8 +14887,8 @@
       <c r="O99" s="8"/>
       <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
-      <c r="R99" s="49"/>
-      <c r="S99" s="49"/>
+      <c r="R99" s="50"/>
+      <c r="S99" s="50"/>
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
       <c r="V99" s="9"/>
@@ -14902,7 +14896,7 @@
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
     </row>
-    <row r="100" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -14920,8 +14914,8 @@
       <c r="O100" s="8"/>
       <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
-      <c r="R100" s="49"/>
-      <c r="S100" s="49"/>
+      <c r="R100" s="50"/>
+      <c r="S100" s="50"/>
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
       <c r="V100" s="9"/>
@@ -14929,7 +14923,7 @@
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
     </row>
-    <row r="101" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -14947,8 +14941,8 @@
       <c r="O101" s="8"/>
       <c r="P101" s="8"/>
       <c r="Q101" s="8"/>
-      <c r="R101" s="49"/>
-      <c r="S101" s="49"/>
+      <c r="R101" s="50"/>
+      <c r="S101" s="50"/>
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
       <c r="V101" s="9"/>
@@ -14956,7 +14950,7 @@
       <c r="X101" s="9"/>
       <c r="Y101" s="9"/>
     </row>
-    <row r="102" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -14974,8 +14968,8 @@
       <c r="O102" s="8"/>
       <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
-      <c r="R102" s="49"/>
-      <c r="S102" s="49"/>
+      <c r="R102" s="50"/>
+      <c r="S102" s="50"/>
       <c r="T102" s="9"/>
       <c r="U102" s="9"/>
       <c r="V102" s="9"/>
@@ -14983,7 +14977,7 @@
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
     </row>
-    <row r="103" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -15001,8 +14995,8 @@
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
-      <c r="R103" s="49"/>
-      <c r="S103" s="49"/>
+      <c r="R103" s="50"/>
+      <c r="S103" s="50"/>
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
       <c r="V103" s="9"/>
@@ -15010,7 +15004,7 @@
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
     </row>
-    <row r="104" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -15028,8 +15022,8 @@
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
-      <c r="R104" s="49"/>
-      <c r="S104" s="49"/>
+      <c r="R104" s="50"/>
+      <c r="S104" s="50"/>
       <c r="T104" s="9"/>
       <c r="U104" s="9"/>
       <c r="V104" s="9"/>
@@ -15037,7 +15031,7 @@
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
     </row>
-    <row r="105" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -15055,8 +15049,8 @@
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
-      <c r="R105" s="49"/>
-      <c r="S105" s="49"/>
+      <c r="R105" s="50"/>
+      <c r="S105" s="50"/>
       <c r="T105" s="9"/>
       <c r="U105" s="9"/>
       <c r="V105" s="9"/>
@@ -15064,7 +15058,7 @@
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
     </row>
-    <row r="106" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -15082,8 +15076,8 @@
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
-      <c r="R106" s="49"/>
-      <c r="S106" s="49"/>
+      <c r="R106" s="50"/>
+      <c r="S106" s="50"/>
       <c r="T106" s="9"/>
       <c r="U106" s="9"/>
       <c r="V106" s="9"/>
@@ -15091,7 +15085,7 @@
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
     </row>
-    <row r="107" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -15109,8 +15103,8 @@
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
-      <c r="R107" s="49"/>
-      <c r="S107" s="49"/>
+      <c r="R107" s="50"/>
+      <c r="S107" s="50"/>
       <c r="T107" s="9"/>
       <c r="U107" s="9"/>
       <c r="V107" s="9"/>
@@ -15118,7 +15112,7 @@
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
     </row>
-    <row r="108" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -15136,8 +15130,8 @@
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
-      <c r="R108" s="49"/>
-      <c r="S108" s="49"/>
+      <c r="R108" s="50"/>
+      <c r="S108" s="50"/>
       <c r="T108" s="9"/>
       <c r="U108" s="9"/>
       <c r="V108" s="9"/>
@@ -15145,7 +15139,7 @@
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
     </row>
-    <row r="109" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -15163,8 +15157,8 @@
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
-      <c r="R109" s="49"/>
-      <c r="S109" s="49"/>
+      <c r="R109" s="50"/>
+      <c r="S109" s="50"/>
       <c r="T109" s="9"/>
       <c r="U109" s="9"/>
       <c r="V109" s="9"/>
@@ -15172,7 +15166,7 @@
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
     </row>
-    <row r="110" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -15190,8 +15184,8 @@
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
-      <c r="R110" s="49"/>
-      <c r="S110" s="49"/>
+      <c r="R110" s="50"/>
+      <c r="S110" s="50"/>
       <c r="T110" s="9"/>
       <c r="U110" s="9"/>
       <c r="V110" s="9"/>
@@ -15199,7 +15193,7 @@
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
     </row>
-    <row r="111" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -15217,8 +15211,8 @@
       <c r="O111" s="8"/>
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
-      <c r="R111" s="49"/>
-      <c r="S111" s="49"/>
+      <c r="R111" s="50"/>
+      <c r="S111" s="50"/>
       <c r="T111" s="9"/>
       <c r="U111" s="9"/>
       <c r="V111" s="9"/>
@@ -15226,7 +15220,7 @@
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
     </row>
-    <row r="112" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -15244,8 +15238,8 @@
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
-      <c r="R112" s="49"/>
-      <c r="S112" s="49"/>
+      <c r="R112" s="50"/>
+      <c r="S112" s="50"/>
       <c r="T112" s="9"/>
       <c r="U112" s="9"/>
       <c r="V112" s="9"/>
@@ -15253,7 +15247,7 @@
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
     </row>
-    <row r="113" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -15271,8 +15265,8 @@
       <c r="O113" s="8"/>
       <c r="P113" s="8"/>
       <c r="Q113" s="8"/>
-      <c r="R113" s="49"/>
-      <c r="S113" s="49"/>
+      <c r="R113" s="50"/>
+      <c r="S113" s="50"/>
       <c r="T113" s="9"/>
       <c r="U113" s="9"/>
       <c r="V113" s="9"/>
@@ -15280,7 +15274,7 @@
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
     </row>
-    <row r="114" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -15298,8 +15292,8 @@
       <c r="O114" s="8"/>
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
-      <c r="R114" s="49"/>
-      <c r="S114" s="49"/>
+      <c r="R114" s="50"/>
+      <c r="S114" s="50"/>
       <c r="T114" s="9"/>
       <c r="U114" s="9"/>
       <c r="V114" s="9"/>
@@ -15307,7 +15301,7 @@
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
     </row>
-    <row r="115" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -15325,8 +15319,8 @@
       <c r="O115" s="8"/>
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
-      <c r="R115" s="49"/>
-      <c r="S115" s="49"/>
+      <c r="R115" s="50"/>
+      <c r="S115" s="50"/>
       <c r="T115" s="9"/>
       <c r="U115" s="9"/>
       <c r="V115" s="9"/>
@@ -15334,7 +15328,7 @@
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
     </row>
-    <row r="116" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -15352,8 +15346,8 @@
       <c r="O116" s="8"/>
       <c r="P116" s="8"/>
       <c r="Q116" s="8"/>
-      <c r="R116" s="49"/>
-      <c r="S116" s="49"/>
+      <c r="R116" s="50"/>
+      <c r="S116" s="50"/>
       <c r="T116" s="9"/>
       <c r="U116" s="9"/>
       <c r="V116" s="9"/>
@@ -15361,7 +15355,7 @@
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
     </row>
-    <row r="117" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -15379,8 +15373,8 @@
       <c r="O117" s="8"/>
       <c r="P117" s="8"/>
       <c r="Q117" s="8"/>
-      <c r="R117" s="49"/>
-      <c r="S117" s="49"/>
+      <c r="R117" s="50"/>
+      <c r="S117" s="50"/>
       <c r="T117" s="9"/>
       <c r="U117" s="9"/>
       <c r="V117" s="9"/>
@@ -15388,7 +15382,7 @@
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
     </row>
-    <row r="118" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -15406,8 +15400,8 @@
       <c r="O118" s="8"/>
       <c r="P118" s="8"/>
       <c r="Q118" s="8"/>
-      <c r="R118" s="49"/>
-      <c r="S118" s="49"/>
+      <c r="R118" s="50"/>
+      <c r="S118" s="50"/>
       <c r="T118" s="9"/>
       <c r="U118" s="9"/>
       <c r="V118" s="9"/>
@@ -15415,7 +15409,7 @@
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
     </row>
-    <row r="119" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -15433,8 +15427,8 @@
       <c r="O119" s="8"/>
       <c r="P119" s="8"/>
       <c r="Q119" s="8"/>
-      <c r="R119" s="49"/>
-      <c r="S119" s="49"/>
+      <c r="R119" s="50"/>
+      <c r="S119" s="50"/>
       <c r="T119" s="9"/>
       <c r="U119" s="9"/>
       <c r="V119" s="9"/>
@@ -15442,7 +15436,7 @@
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
     </row>
-    <row r="120" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -15460,8 +15454,8 @@
       <c r="O120" s="8"/>
       <c r="P120" s="8"/>
       <c r="Q120" s="8"/>
-      <c r="R120" s="49"/>
-      <c r="S120" s="49"/>
+      <c r="R120" s="50"/>
+      <c r="S120" s="50"/>
       <c r="T120" s="9"/>
       <c r="U120" s="9"/>
       <c r="V120" s="9"/>
@@ -15469,7 +15463,7 @@
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
     </row>
-    <row r="121" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -15487,8 +15481,8 @@
       <c r="O121" s="8"/>
       <c r="P121" s="8"/>
       <c r="Q121" s="8"/>
-      <c r="R121" s="49"/>
-      <c r="S121" s="49"/>
+      <c r="R121" s="50"/>
+      <c r="S121" s="50"/>
       <c r="T121" s="9"/>
       <c r="U121" s="9"/>
       <c r="V121" s="9"/>
@@ -15496,7 +15490,7 @@
       <c r="X121" s="9"/>
       <c r="Y121" s="9"/>
     </row>
-    <row r="122" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -15514,8 +15508,8 @@
       <c r="O122" s="8"/>
       <c r="P122" s="8"/>
       <c r="Q122" s="8"/>
-      <c r="R122" s="49"/>
-      <c r="S122" s="49"/>
+      <c r="R122" s="50"/>
+      <c r="S122" s="50"/>
       <c r="T122" s="9"/>
       <c r="U122" s="9"/>
       <c r="V122" s="9"/>
@@ -15523,7 +15517,7 @@
       <c r="X122" s="9"/>
       <c r="Y122" s="9"/>
     </row>
-    <row r="123" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -15541,8 +15535,8 @@
       <c r="O123" s="8"/>
       <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
-      <c r="R123" s="49"/>
-      <c r="S123" s="49"/>
+      <c r="R123" s="50"/>
+      <c r="S123" s="50"/>
       <c r="T123" s="9"/>
       <c r="U123" s="9"/>
       <c r="V123" s="9"/>
@@ -15550,7 +15544,7 @@
       <c r="X123" s="9"/>
       <c r="Y123" s="9"/>
     </row>
-    <row r="124" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -15568,8 +15562,8 @@
       <c r="O124" s="8"/>
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
-      <c r="R124" s="49"/>
-      <c r="S124" s="49"/>
+      <c r="R124" s="50"/>
+      <c r="S124" s="50"/>
       <c r="T124" s="9"/>
       <c r="U124" s="9"/>
       <c r="V124" s="9"/>
@@ -15577,7 +15571,7 @@
       <c r="X124" s="9"/>
       <c r="Y124" s="9"/>
     </row>
-    <row r="125" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -15595,8 +15589,8 @@
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
-      <c r="R125" s="49"/>
-      <c r="S125" s="49"/>
+      <c r="R125" s="50"/>
+      <c r="S125" s="50"/>
       <c r="T125" s="9"/>
       <c r="U125" s="9"/>
       <c r="V125" s="9"/>
@@ -15654,8 +15648,8 @@
   </sheetPr>
   <dimension ref="A1:AA115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S28" activeCellId="0" sqref="S28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15731,7 +15725,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="S1" s="21" t="s">
         <v>626</v>
@@ -15791,11 +15785,11 @@
       <c r="R2" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="50" t="s">
         <v>329</v>
       </c>
       <c r="T2" s="28" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="U2" s="24" t="s">
         <v>23</v>
@@ -15853,7 +15847,7 @@
         <v>34880776</v>
       </c>
       <c r="T3" s="28" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="U3" s="24" t="s">
         <v>23</v>
@@ -15907,11 +15901,11 @@
       <c r="R4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="49" t="s">
+      <c r="S4" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="T4" s="50" t="s">
-        <v>751</v>
+      <c r="T4" s="51" t="s">
+        <v>748</v>
       </c>
       <c r="U4" s="24" t="s">
         <v>23</v>
@@ -15969,7 +15963,7 @@
         <v>35280254</v>
       </c>
       <c r="T5" s="28" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="U5" s="24" t="s">
         <v>23</v>
@@ -16024,7 +16018,7 @@
         <v>34554191</v>
       </c>
       <c r="T6" s="28" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="U6" s="24" t="s">
         <v>23</v>
@@ -16079,7 +16073,7 @@
         <v>34880771</v>
       </c>
       <c r="T7" s="28" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="U7" s="24" t="s">
         <v>23</v>
@@ -16134,7 +16128,7 @@
         <v>329</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="U8" s="24" t="s">
         <v>23</v>
@@ -16184,11 +16178,11 @@
       <c r="R9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="48" t="n">
+      <c r="S9" s="49" t="n">
         <v>35916726</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="U9" s="24" t="s">
         <v>23</v>
@@ -16205,7 +16199,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>243</v>
+        <v>754</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>244</v>
@@ -16236,7 +16230,7 @@
         <v>329</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>23</v>
@@ -16295,7 +16289,7 @@
         <v>329</v>
       </c>
       <c r="T11" s="26" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="U11" s="24" t="s">
         <v>23</v>
@@ -16354,7 +16348,7 @@
         <v>36353484</v>
       </c>
       <c r="T12" s="28" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="U12" s="24" t="s">
         <v>23</v>
@@ -16413,7 +16407,7 @@
         <v>329</v>
       </c>
       <c r="T13" s="26" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="U13" s="24" t="s">
         <v>23</v>
@@ -16472,7 +16466,7 @@
         <v>36945414</v>
       </c>
       <c r="T14" s="28" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="U14" s="24" t="s">
         <v>23</v>
@@ -16531,15 +16525,15 @@
         <v>329</v>
       </c>
       <c r="T15" s="26" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="U15" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
-        <v>763</v>
+      <c r="A16" s="44" t="s">
+        <v>761</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>17</v>
@@ -16548,35 +16542,35 @@
         <v>18</v>
       </c>
       <c r="D16" s="38" t="s">
+        <v>762</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>763</v>
+      </c>
+      <c r="F16" s="38" t="s">
         <v>764</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="G16" s="29" t="s">
         <v>765</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="H16" s="38"/>
+      <c r="I16" s="44" t="s">
         <v>766</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>767</v>
-      </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39" t="s">
-        <v>768</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="51" t="s">
-        <v>769</v>
+      <c r="K16" s="52" t="s">
+        <v>767</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="M16" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="51" t="s">
-        <v>771</v>
+      <c r="N16" s="52" t="s">
+        <v>769</v>
       </c>
       <c r="O16" s="38" t="s">
         <v>289</v>
@@ -16586,11 +16580,11 @@
         <v>546</v>
       </c>
       <c r="R16" s="9"/>
-      <c r="S16" s="49" t="s">
+      <c r="S16" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="T16" s="50" t="s">
-        <v>772</v>
+      <c r="T16" s="51" t="s">
+        <v>770</v>
       </c>
       <c r="U16" s="33" t="s">
         <v>44</v>
@@ -16600,36 +16594,36 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="46" t="n">
+      <c r="A17" s="47" t="n">
         <v>44932.9861342593</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="38" t="s">
+        <v>772</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>773</v>
+      </c>
+      <c r="F17" s="38" t="s">
         <v>774</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="G17" s="29" t="s">
         <v>775</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="H17" s="38"/>
+      <c r="I17" s="44" t="s">
         <v>776</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>777</v>
-      </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39" t="s">
-        <v>778</v>
       </c>
       <c r="J17" s="33" t="s">
         <v>44</v>
       </c>
       <c r="K17" s="40" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="L17" s="38" t="s">
         <v>38</v>
@@ -16646,13 +16640,13 @@
         <v>26</v>
       </c>
       <c r="R17" s="40" t="s">
+        <v>778</v>
+      </c>
+      <c r="S17" s="29" t="s">
+        <v>779</v>
+      </c>
+      <c r="T17" s="53" t="s">
         <v>780</v>
-      </c>
-      <c r="S17" s="29" t="s">
-        <v>781</v>
-      </c>
-      <c r="T17" s="52" t="s">
-        <v>782</v>
       </c>
       <c r="U17" s="24" t="s">
         <v>23</v>
@@ -16665,8 +16659,8 @@
       <c r="AA17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="48.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39" t="s">
-        <v>783</v>
+      <c r="A18" s="44" t="s">
+        <v>781</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>139</v>
@@ -16675,29 +16669,29 @@
         <v>18</v>
       </c>
       <c r="D18" s="38" t="s">
+        <v>782</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>783</v>
+      </c>
+      <c r="F18" s="38" t="s">
         <v>784</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="G18" s="38" t="s">
         <v>785</v>
       </c>
-      <c r="F18" s="38" t="s">
-        <v>786</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>787</v>
-      </c>
       <c r="H18" s="38"/>
-      <c r="I18" s="44" t="n">
+      <c r="I18" s="45" t="n">
         <v>45269</v>
       </c>
       <c r="J18" s="24" t="s">
         <v>23</v>
       </c>
       <c r="K18" s="40" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="M18" s="38" t="s">
         <v>44</v>
@@ -16705,7 +16699,7 @@
       <c r="N18" s="38"/>
       <c r="O18" s="38"/>
       <c r="P18" s="38" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="Q18" s="29" t="s">
         <v>489</v>
@@ -16713,7 +16707,7 @@
       <c r="R18" s="38"/>
       <c r="S18" s="38"/>
       <c r="T18" s="20" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="U18" s="24" t="s">
         <v>23</v>
@@ -16744,9 +16738,9 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="9"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
@@ -16770,9 +16764,9 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="9"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
@@ -16796,9 +16790,9 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="9"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
@@ -16822,9 +16816,9 @@
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="9"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
@@ -16848,9 +16842,9 @@
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="9"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
@@ -16874,9 +16868,9 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="9"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
@@ -16900,9 +16894,9 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="9"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
@@ -16926,9 +16920,9 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="9"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
@@ -16952,9 +16946,9 @@
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="9"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
@@ -16978,9 +16972,9 @@
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="9"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
@@ -17004,9 +16998,9 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="9"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
@@ -17030,9 +17024,9 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="9"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
@@ -17056,9 +17050,9 @@
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="9"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
@@ -17082,9 +17076,9 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="9"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
@@ -17108,9 +17102,9 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -17134,9 +17128,9 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="9"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
@@ -17160,9 +17154,9 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="9"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
@@ -17186,9 +17180,9 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="9"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
@@ -17212,9 +17206,9 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="9"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
@@ -17238,9 +17232,9 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="9"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="49"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
@@ -17264,9 +17258,9 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="9"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="49"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
@@ -17290,9 +17284,9 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="9"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="49"/>
-      <c r="U40" s="49"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
@@ -17316,9 +17310,9 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="9"/>
-      <c r="S41" s="49"/>
-      <c r="T41" s="49"/>
-      <c r="U41" s="49"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
@@ -17342,9 +17336,9 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="49"/>
-      <c r="U42" s="49"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
@@ -17368,9 +17362,9 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="9"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="49"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="50"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
@@ -17394,9 +17388,9 @@
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="9"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="49"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
@@ -17420,9 +17414,9 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="9"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="49"/>
-      <c r="U45" s="49"/>
+      <c r="S45" s="50"/>
+      <c r="T45" s="50"/>
+      <c r="U45" s="50"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
@@ -17446,9 +17440,9 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="9"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
-      <c r="U46" s="49"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
@@ -17472,9 +17466,9 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="9"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="49"/>
-      <c r="U47" s="49"/>
+      <c r="S47" s="50"/>
+      <c r="T47" s="50"/>
+      <c r="U47" s="50"/>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
@@ -17498,9 +17492,9 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="9"/>
-      <c r="S48" s="49"/>
-      <c r="T48" s="49"/>
-      <c r="U48" s="49"/>
+      <c r="S48" s="50"/>
+      <c r="T48" s="50"/>
+      <c r="U48" s="50"/>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
@@ -17524,9 +17518,9 @@
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="9"/>
-      <c r="S49" s="49"/>
-      <c r="T49" s="49"/>
-      <c r="U49" s="49"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="50"/>
+      <c r="U49" s="50"/>
       <c r="V49" s="9"/>
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
@@ -17550,9 +17544,9 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="9"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="49"/>
-      <c r="U50" s="49"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="50"/>
       <c r="V50" s="9"/>
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
@@ -17576,9 +17570,9 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="9"/>
-      <c r="S51" s="49"/>
-      <c r="T51" s="49"/>
-      <c r="U51" s="49"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
+      <c r="U51" s="50"/>
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
@@ -17602,9 +17596,9 @@
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="9"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="49"/>
-      <c r="U52" s="49"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="50"/>
+      <c r="U52" s="50"/>
       <c r="V52" s="9"/>
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
@@ -17628,9 +17622,9 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="9"/>
-      <c r="S53" s="49"/>
-      <c r="T53" s="49"/>
-      <c r="U53" s="49"/>
+      <c r="S53" s="50"/>
+      <c r="T53" s="50"/>
+      <c r="U53" s="50"/>
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
@@ -17654,9 +17648,9 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="9"/>
-      <c r="S54" s="49"/>
-      <c r="T54" s="49"/>
-      <c r="U54" s="49"/>
+      <c r="S54" s="50"/>
+      <c r="T54" s="50"/>
+      <c r="U54" s="50"/>
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
@@ -17680,9 +17674,9 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="9"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="49"/>
-      <c r="U55" s="49"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="50"/>
+      <c r="U55" s="50"/>
       <c r="V55" s="9"/>
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
@@ -17706,9 +17700,9 @@
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="9"/>
-      <c r="S56" s="49"/>
-      <c r="T56" s="49"/>
-      <c r="U56" s="49"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="50"/>
+      <c r="U56" s="50"/>
       <c r="V56" s="9"/>
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
@@ -17732,9 +17726,9 @@
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="9"/>
-      <c r="S57" s="49"/>
-      <c r="T57" s="49"/>
-      <c r="U57" s="49"/>
+      <c r="S57" s="50"/>
+      <c r="T57" s="50"/>
+      <c r="U57" s="50"/>
       <c r="V57" s="9"/>
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
@@ -17758,9 +17752,9 @@
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
       <c r="R58" s="9"/>
-      <c r="S58" s="49"/>
-      <c r="T58" s="49"/>
-      <c r="U58" s="49"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="50"/>
+      <c r="U58" s="50"/>
       <c r="V58" s="9"/>
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
@@ -17784,9 +17778,9 @@
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
       <c r="R59" s="9"/>
-      <c r="S59" s="49"/>
-      <c r="T59" s="49"/>
-      <c r="U59" s="49"/>
+      <c r="S59" s="50"/>
+      <c r="T59" s="50"/>
+      <c r="U59" s="50"/>
       <c r="V59" s="9"/>
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
@@ -17810,9 +17804,9 @@
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
       <c r="R60" s="9"/>
-      <c r="S60" s="49"/>
-      <c r="T60" s="49"/>
-      <c r="U60" s="49"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="50"/>
+      <c r="U60" s="50"/>
       <c r="V60" s="9"/>
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
@@ -17836,9 +17830,9 @@
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
       <c r="R61" s="9"/>
-      <c r="S61" s="49"/>
-      <c r="T61" s="49"/>
-      <c r="U61" s="49"/>
+      <c r="S61" s="50"/>
+      <c r="T61" s="50"/>
+      <c r="U61" s="50"/>
       <c r="V61" s="9"/>
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
@@ -17862,9 +17856,9 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="9"/>
-      <c r="S62" s="49"/>
-      <c r="T62" s="49"/>
-      <c r="U62" s="49"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="50"/>
+      <c r="U62" s="50"/>
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
@@ -17888,9 +17882,9 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="9"/>
-      <c r="S63" s="49"/>
-      <c r="T63" s="49"/>
-      <c r="U63" s="49"/>
+      <c r="S63" s="50"/>
+      <c r="T63" s="50"/>
+      <c r="U63" s="50"/>
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
@@ -17914,9 +17908,9 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="R64" s="9"/>
-      <c r="S64" s="49"/>
-      <c r="T64" s="49"/>
-      <c r="U64" s="49"/>
+      <c r="S64" s="50"/>
+      <c r="T64" s="50"/>
+      <c r="U64" s="50"/>
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
@@ -17940,9 +17934,9 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="9"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="49"/>
-      <c r="U65" s="49"/>
+      <c r="S65" s="50"/>
+      <c r="T65" s="50"/>
+      <c r="U65" s="50"/>
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
@@ -17966,9 +17960,9 @@
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="9"/>
-      <c r="S66" s="49"/>
-      <c r="T66" s="49"/>
-      <c r="U66" s="49"/>
+      <c r="S66" s="50"/>
+      <c r="T66" s="50"/>
+      <c r="U66" s="50"/>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
@@ -17992,9 +17986,9 @@
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="R67" s="9"/>
-      <c r="S67" s="49"/>
-      <c r="T67" s="49"/>
-      <c r="U67" s="49"/>
+      <c r="S67" s="50"/>
+      <c r="T67" s="50"/>
+      <c r="U67" s="50"/>
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
@@ -18018,9 +18012,9 @@
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="9"/>
-      <c r="S68" s="49"/>
-      <c r="T68" s="49"/>
-      <c r="U68" s="49"/>
+      <c r="S68" s="50"/>
+      <c r="T68" s="50"/>
+      <c r="U68" s="50"/>
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
@@ -18044,9 +18038,9 @@
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="9"/>
-      <c r="S69" s="49"/>
-      <c r="T69" s="49"/>
-      <c r="U69" s="49"/>
+      <c r="S69" s="50"/>
+      <c r="T69" s="50"/>
+      <c r="U69" s="50"/>
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
@@ -18070,9 +18064,9 @@
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="9"/>
-      <c r="S70" s="49"/>
-      <c r="T70" s="49"/>
-      <c r="U70" s="49"/>
+      <c r="S70" s="50"/>
+      <c r="T70" s="50"/>
+      <c r="U70" s="50"/>
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
@@ -18096,9 +18090,9 @@
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
       <c r="R71" s="9"/>
-      <c r="S71" s="49"/>
-      <c r="T71" s="49"/>
-      <c r="U71" s="49"/>
+      <c r="S71" s="50"/>
+      <c r="T71" s="50"/>
+      <c r="U71" s="50"/>
       <c r="V71" s="9"/>
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
@@ -18122,9 +18116,9 @@
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
       <c r="R72" s="9"/>
-      <c r="S72" s="49"/>
-      <c r="T72" s="49"/>
-      <c r="U72" s="49"/>
+      <c r="S72" s="50"/>
+      <c r="T72" s="50"/>
+      <c r="U72" s="50"/>
       <c r="V72" s="9"/>
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
@@ -18148,9 +18142,9 @@
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
       <c r="R73" s="9"/>
-      <c r="S73" s="49"/>
-      <c r="T73" s="49"/>
-      <c r="U73" s="49"/>
+      <c r="S73" s="50"/>
+      <c r="T73" s="50"/>
+      <c r="U73" s="50"/>
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
@@ -18174,9 +18168,9 @@
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
       <c r="R74" s="9"/>
-      <c r="S74" s="49"/>
-      <c r="T74" s="49"/>
-      <c r="U74" s="49"/>
+      <c r="S74" s="50"/>
+      <c r="T74" s="50"/>
+      <c r="U74" s="50"/>
       <c r="V74" s="9"/>
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
@@ -18200,9 +18194,9 @@
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
       <c r="R75" s="9"/>
-      <c r="S75" s="49"/>
-      <c r="T75" s="49"/>
-      <c r="U75" s="49"/>
+      <c r="S75" s="50"/>
+      <c r="T75" s="50"/>
+      <c r="U75" s="50"/>
       <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
@@ -18226,9 +18220,9 @@
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
       <c r="R76" s="9"/>
-      <c r="S76" s="49"/>
-      <c r="T76" s="49"/>
-      <c r="U76" s="49"/>
+      <c r="S76" s="50"/>
+      <c r="T76" s="50"/>
+      <c r="U76" s="50"/>
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
@@ -18252,9 +18246,9 @@
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
       <c r="R77" s="9"/>
-      <c r="S77" s="49"/>
-      <c r="T77" s="49"/>
-      <c r="U77" s="49"/>
+      <c r="S77" s="50"/>
+      <c r="T77" s="50"/>
+      <c r="U77" s="50"/>
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
@@ -18278,9 +18272,9 @@
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
       <c r="R78" s="9"/>
-      <c r="S78" s="49"/>
-      <c r="T78" s="49"/>
-      <c r="U78" s="49"/>
+      <c r="S78" s="50"/>
+      <c r="T78" s="50"/>
+      <c r="U78" s="50"/>
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
@@ -18304,9 +18298,9 @@
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
       <c r="R79" s="9"/>
-      <c r="S79" s="49"/>
-      <c r="T79" s="49"/>
-      <c r="U79" s="49"/>
+      <c r="S79" s="50"/>
+      <c r="T79" s="50"/>
+      <c r="U79" s="50"/>
       <c r="V79" s="9"/>
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
@@ -18330,9 +18324,9 @@
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
       <c r="R80" s="9"/>
-      <c r="S80" s="49"/>
-      <c r="T80" s="49"/>
-      <c r="U80" s="49"/>
+      <c r="S80" s="50"/>
+      <c r="T80" s="50"/>
+      <c r="U80" s="50"/>
       <c r="V80" s="9"/>
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
@@ -18356,9 +18350,9 @@
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
       <c r="R81" s="9"/>
-      <c r="S81" s="49"/>
-      <c r="T81" s="49"/>
-      <c r="U81" s="49"/>
+      <c r="S81" s="50"/>
+      <c r="T81" s="50"/>
+      <c r="U81" s="50"/>
       <c r="V81" s="9"/>
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
@@ -18382,9 +18376,9 @@
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
       <c r="R82" s="9"/>
-      <c r="S82" s="49"/>
-      <c r="T82" s="49"/>
-      <c r="U82" s="49"/>
+      <c r="S82" s="50"/>
+      <c r="T82" s="50"/>
+      <c r="U82" s="50"/>
       <c r="V82" s="9"/>
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
@@ -18408,9 +18402,9 @@
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
       <c r="R83" s="9"/>
-      <c r="S83" s="49"/>
-      <c r="T83" s="49"/>
-      <c r="U83" s="49"/>
+      <c r="S83" s="50"/>
+      <c r="T83" s="50"/>
+      <c r="U83" s="50"/>
       <c r="V83" s="9"/>
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
@@ -18434,9 +18428,9 @@
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
       <c r="R84" s="9"/>
-      <c r="S84" s="49"/>
-      <c r="T84" s="49"/>
-      <c r="U84" s="49"/>
+      <c r="S84" s="50"/>
+      <c r="T84" s="50"/>
+      <c r="U84" s="50"/>
       <c r="V84" s="9"/>
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
@@ -18460,9 +18454,9 @@
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
       <c r="R85" s="9"/>
-      <c r="S85" s="49"/>
-      <c r="T85" s="49"/>
-      <c r="U85" s="49"/>
+      <c r="S85" s="50"/>
+      <c r="T85" s="50"/>
+      <c r="U85" s="50"/>
       <c r="V85" s="9"/>
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
@@ -18486,9 +18480,9 @@
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
       <c r="R86" s="9"/>
-      <c r="S86" s="49"/>
-      <c r="T86" s="49"/>
-      <c r="U86" s="49"/>
+      <c r="S86" s="50"/>
+      <c r="T86" s="50"/>
+      <c r="U86" s="50"/>
       <c r="V86" s="9"/>
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
@@ -18512,9 +18506,9 @@
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="R87" s="9"/>
-      <c r="S87" s="49"/>
-      <c r="T87" s="49"/>
-      <c r="U87" s="49"/>
+      <c r="S87" s="50"/>
+      <c r="T87" s="50"/>
+      <c r="U87" s="50"/>
       <c r="V87" s="9"/>
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
@@ -18538,9 +18532,9 @@
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
       <c r="R88" s="9"/>
-      <c r="S88" s="49"/>
-      <c r="T88" s="49"/>
-      <c r="U88" s="49"/>
+      <c r="S88" s="50"/>
+      <c r="T88" s="50"/>
+      <c r="U88" s="50"/>
       <c r="V88" s="9"/>
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
@@ -18564,9 +18558,9 @@
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="9"/>
-      <c r="S89" s="49"/>
-      <c r="T89" s="49"/>
-      <c r="U89" s="49"/>
+      <c r="S89" s="50"/>
+      <c r="T89" s="50"/>
+      <c r="U89" s="50"/>
       <c r="V89" s="9"/>
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
@@ -18590,9 +18584,9 @@
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="9"/>
-      <c r="S90" s="49"/>
-      <c r="T90" s="49"/>
-      <c r="U90" s="49"/>
+      <c r="S90" s="50"/>
+      <c r="T90" s="50"/>
+      <c r="U90" s="50"/>
       <c r="V90" s="9"/>
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
@@ -18616,9 +18610,9 @@
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="9"/>
-      <c r="S91" s="49"/>
-      <c r="T91" s="49"/>
-      <c r="U91" s="49"/>
+      <c r="S91" s="50"/>
+      <c r="T91" s="50"/>
+      <c r="U91" s="50"/>
       <c r="V91" s="9"/>
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
@@ -18642,9 +18636,9 @@
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="9"/>
-      <c r="S92" s="49"/>
-      <c r="T92" s="49"/>
-      <c r="U92" s="49"/>
+      <c r="S92" s="50"/>
+      <c r="T92" s="50"/>
+      <c r="U92" s="50"/>
       <c r="V92" s="9"/>
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
@@ -18668,9 +18662,9 @@
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
       <c r="R93" s="9"/>
-      <c r="S93" s="49"/>
-      <c r="T93" s="49"/>
-      <c r="U93" s="49"/>
+      <c r="S93" s="50"/>
+      <c r="T93" s="50"/>
+      <c r="U93" s="50"/>
       <c r="V93" s="9"/>
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
@@ -18694,9 +18688,9 @@
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
       <c r="R94" s="9"/>
-      <c r="S94" s="49"/>
-      <c r="T94" s="49"/>
-      <c r="U94" s="49"/>
+      <c r="S94" s="50"/>
+      <c r="T94" s="50"/>
+      <c r="U94" s="50"/>
       <c r="V94" s="9"/>
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
@@ -18720,9 +18714,9 @@
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
       <c r="R95" s="9"/>
-      <c r="S95" s="49"/>
-      <c r="T95" s="49"/>
-      <c r="U95" s="49"/>
+      <c r="S95" s="50"/>
+      <c r="T95" s="50"/>
+      <c r="U95" s="50"/>
       <c r="V95" s="9"/>
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
@@ -18746,9 +18740,9 @@
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
       <c r="R96" s="9"/>
-      <c r="S96" s="49"/>
-      <c r="T96" s="49"/>
-      <c r="U96" s="49"/>
+      <c r="S96" s="50"/>
+      <c r="T96" s="50"/>
+      <c r="U96" s="50"/>
       <c r="V96" s="9"/>
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
@@ -18772,9 +18766,9 @@
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
       <c r="R97" s="9"/>
-      <c r="S97" s="49"/>
-      <c r="T97" s="49"/>
-      <c r="U97" s="49"/>
+      <c r="S97" s="50"/>
+      <c r="T97" s="50"/>
+      <c r="U97" s="50"/>
       <c r="V97" s="9"/>
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
@@ -18798,9 +18792,9 @@
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
       <c r="R98" s="9"/>
-      <c r="S98" s="49"/>
-      <c r="T98" s="49"/>
-      <c r="U98" s="49"/>
+      <c r="S98" s="50"/>
+      <c r="T98" s="50"/>
+      <c r="U98" s="50"/>
       <c r="V98" s="9"/>
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
@@ -18824,9 +18818,9 @@
       <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
       <c r="R99" s="9"/>
-      <c r="S99" s="49"/>
-      <c r="T99" s="49"/>
-      <c r="U99" s="49"/>
+      <c r="S99" s="50"/>
+      <c r="T99" s="50"/>
+      <c r="U99" s="50"/>
       <c r="V99" s="9"/>
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
@@ -18850,9 +18844,9 @@
       <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
       <c r="R100" s="9"/>
-      <c r="S100" s="49"/>
-      <c r="T100" s="49"/>
-      <c r="U100" s="49"/>
+      <c r="S100" s="50"/>
+      <c r="T100" s="50"/>
+      <c r="U100" s="50"/>
       <c r="V100" s="9"/>
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
@@ -18876,9 +18870,9 @@
       <c r="P101" s="8"/>
       <c r="Q101" s="8"/>
       <c r="R101" s="9"/>
-      <c r="S101" s="49"/>
-      <c r="T101" s="49"/>
-      <c r="U101" s="49"/>
+      <c r="S101" s="50"/>
+      <c r="T101" s="50"/>
+      <c r="U101" s="50"/>
       <c r="V101" s="9"/>
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
@@ -18902,9 +18896,9 @@
       <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
       <c r="R102" s="9"/>
-      <c r="S102" s="49"/>
-      <c r="T102" s="49"/>
-      <c r="U102" s="49"/>
+      <c r="S102" s="50"/>
+      <c r="T102" s="50"/>
+      <c r="U102" s="50"/>
       <c r="V102" s="9"/>
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
@@ -18928,9 +18922,9 @@
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
       <c r="R103" s="9"/>
-      <c r="S103" s="49"/>
-      <c r="T103" s="49"/>
-      <c r="U103" s="49"/>
+      <c r="S103" s="50"/>
+      <c r="T103" s="50"/>
+      <c r="U103" s="50"/>
       <c r="V103" s="9"/>
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
@@ -18954,9 +18948,9 @@
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
       <c r="R104" s="9"/>
-      <c r="S104" s="49"/>
-      <c r="T104" s="49"/>
-      <c r="U104" s="49"/>
+      <c r="S104" s="50"/>
+      <c r="T104" s="50"/>
+      <c r="U104" s="50"/>
       <c r="V104" s="9"/>
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
@@ -18980,9 +18974,9 @@
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
       <c r="R105" s="9"/>
-      <c r="S105" s="49"/>
-      <c r="T105" s="49"/>
-      <c r="U105" s="49"/>
+      <c r="S105" s="50"/>
+      <c r="T105" s="50"/>
+      <c r="U105" s="50"/>
       <c r="V105" s="9"/>
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
@@ -19006,9 +19000,9 @@
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
       <c r="R106" s="9"/>
-      <c r="S106" s="49"/>
-      <c r="T106" s="49"/>
-      <c r="U106" s="49"/>
+      <c r="S106" s="50"/>
+      <c r="T106" s="50"/>
+      <c r="U106" s="50"/>
       <c r="V106" s="9"/>
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
@@ -19032,9 +19026,9 @@
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
       <c r="R107" s="9"/>
-      <c r="S107" s="49"/>
-      <c r="T107" s="49"/>
-      <c r="U107" s="49"/>
+      <c r="S107" s="50"/>
+      <c r="T107" s="50"/>
+      <c r="U107" s="50"/>
       <c r="V107" s="9"/>
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
@@ -19058,9 +19052,9 @@
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
       <c r="R108" s="9"/>
-      <c r="S108" s="49"/>
-      <c r="T108" s="49"/>
-      <c r="U108" s="49"/>
+      <c r="S108" s="50"/>
+      <c r="T108" s="50"/>
+      <c r="U108" s="50"/>
       <c r="V108" s="9"/>
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
@@ -19084,9 +19078,9 @@
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
       <c r="R109" s="9"/>
-      <c r="S109" s="49"/>
-      <c r="T109" s="49"/>
-      <c r="U109" s="49"/>
+      <c r="S109" s="50"/>
+      <c r="T109" s="50"/>
+      <c r="U109" s="50"/>
       <c r="V109" s="9"/>
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
@@ -19110,9 +19104,9 @@
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
       <c r="R110" s="9"/>
-      <c r="S110" s="49"/>
-      <c r="T110" s="49"/>
-      <c r="U110" s="49"/>
+      <c r="S110" s="50"/>
+      <c r="T110" s="50"/>
+      <c r="U110" s="50"/>
       <c r="V110" s="9"/>
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
@@ -19136,9 +19130,9 @@
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
       <c r="R111" s="9"/>
-      <c r="S111" s="49"/>
-      <c r="T111" s="49"/>
-      <c r="U111" s="49"/>
+      <c r="S111" s="50"/>
+      <c r="T111" s="50"/>
+      <c r="U111" s="50"/>
       <c r="V111" s="9"/>
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
@@ -19162,9 +19156,9 @@
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
       <c r="R112" s="9"/>
-      <c r="S112" s="49"/>
-      <c r="T112" s="49"/>
-      <c r="U112" s="49"/>
+      <c r="S112" s="50"/>
+      <c r="T112" s="50"/>
+      <c r="U112" s="50"/>
       <c r="V112" s="9"/>
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
@@ -19188,9 +19182,9 @@
       <c r="P113" s="8"/>
       <c r="Q113" s="8"/>
       <c r="R113" s="9"/>
-      <c r="S113" s="49"/>
-      <c r="T113" s="49"/>
-      <c r="U113" s="49"/>
+      <c r="S113" s="50"/>
+      <c r="T113" s="50"/>
+      <c r="U113" s="50"/>
       <c r="V113" s="9"/>
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
@@ -19214,9 +19208,9 @@
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
       <c r="R114" s="9"/>
-      <c r="S114" s="49"/>
-      <c r="T114" s="49"/>
-      <c r="U114" s="49"/>
+      <c r="S114" s="50"/>
+      <c r="T114" s="50"/>
+      <c r="U114" s="50"/>
       <c r="V114" s="9"/>
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
@@ -19240,9 +19234,9 @@
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
       <c r="R115" s="9"/>
-      <c r="S115" s="49"/>
-      <c r="T115" s="49"/>
-      <c r="U115" s="49"/>
+      <c r="S115" s="50"/>
+      <c r="T115" s="50"/>
+      <c r="U115" s="50"/>
       <c r="V115" s="9"/>
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
@@ -19290,9 +19284,9 @@
   </sheetPr>
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -19423,7 +19417,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="n">
+      <c r="A3" s="47" t="n">
         <v>45265.4239930556</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -19433,19 +19427,19 @@
         <v>39</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>790</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>791</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>792</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>793</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>794</v>
       </c>
       <c r="G3" s="38"/>
       <c r="H3" s="38" t="s">
-        <v>795</v>
-      </c>
-      <c r="I3" s="44" t="n">
+        <v>793</v>
+      </c>
+      <c r="I3" s="45" t="n">
         <v>45081</v>
       </c>
       <c r="J3" s="38" t="s">
@@ -19453,20 +19447,20 @@
       </c>
       <c r="K3" s="38"/>
       <c r="L3" s="38" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M3" s="38" t="s">
         <v>23</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="O3" s="38" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="P3" s="38"/>
       <c r="Q3" s="38" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="R3" s="38"/>
       <c r="S3" s="38"/>
@@ -22077,9 +22071,9 @@
   </sheetPr>
   <dimension ref="A1:AA163"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="C63" activeCellId="0" sqref="C63"/>
     </sheetView>
   </sheetViews>
@@ -22166,7 +22160,7 @@
       <c r="B2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="54" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -22208,7 +22202,7 @@
       <c r="B3" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>82</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -22250,7 +22244,7 @@
       <c r="B4" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -22292,7 +22286,7 @@
       <c r="B5" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -22334,7 +22328,7 @@
       <c r="B6" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="54" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -22376,7 +22370,7 @@
       <c r="B7" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>82</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -22622,7 +22616,7 @@
       <c r="B13" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="54" t="s">
         <v>82</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -22664,7 +22658,7 @@
       <c r="B14" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="54" t="s">
         <v>82</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -22829,7 +22823,7 @@
       <c r="B18" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -22867,7 +22861,7 @@
       <c r="B19" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="56" t="s">
         <v>302</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -22905,7 +22899,7 @@
       <c r="B20" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -22987,7 +22981,7 @@
       <c r="B22" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -23031,7 +23025,7 @@
       <c r="B23" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -23075,7 +23069,7 @@
       <c r="B24" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -23160,7 +23154,7 @@
       <c r="B26" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="54" t="s">
         <v>82</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -23321,7 +23315,7 @@
       <c r="B30" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -23447,7 +23441,7 @@
       <c r="B33" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="56" t="s">
         <v>302</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -23488,11 +23482,11 @@
       <c r="B34" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="56" t="s">
         <v>302</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>160</v>
@@ -23702,7 +23696,7 @@
       <c r="B39" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D39" s="13" t="s">
@@ -23746,7 +23740,7 @@
       <c r="B40" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -23834,7 +23828,7 @@
       <c r="B42" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -23916,7 +23910,7 @@
       <c r="B44" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -24033,7 +24027,7 @@
       <c r="B47" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="56" t="s">
         <v>302</v>
       </c>
       <c r="D47" s="13" t="s">
@@ -24097,7 +24091,7 @@
       <c r="B49" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="56" t="s">
         <v>302</v>
       </c>
       <c r="D49" s="13" t="s">
@@ -24199,7 +24193,7 @@
       <c r="B52" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D52" s="13" t="s">
@@ -24241,7 +24235,7 @@
         <v>147</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>556</v>
@@ -24596,7 +24590,7 @@
       <c r="B63" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="C63" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D63" s="13" t="s">
@@ -24625,8 +24619,8 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="39" t="s">
-        <v>799</v>
+      <c r="A64" s="44" t="s">
+        <v>797</v>
       </c>
       <c r="B64" s="38" t="s">
         <v>17</v>
@@ -24635,34 +24629,34 @@
         <v>181</v>
       </c>
       <c r="D64" s="38" t="s">
+        <v>798</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>799</v>
+      </c>
+      <c r="F64" s="57" t="s">
         <v>800</v>
-      </c>
-      <c r="E64" s="38" t="s">
-        <v>801</v>
-      </c>
-      <c r="F64" s="56" t="s">
-        <v>802</v>
       </c>
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
-      <c r="I64" s="39" t="n">
+      <c r="I64" s="44" t="n">
         <v>45019</v>
       </c>
       <c r="J64" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K64" s="51" t="s">
-        <v>803</v>
-      </c>
-      <c r="L64" s="56" t="s">
+      <c r="K64" s="52" t="s">
         <v>801</v>
+      </c>
+      <c r="L64" s="57" t="s">
+        <v>799</v>
       </c>
       <c r="M64" s="38"/>
       <c r="N64" s="38"/>
       <c r="O64" s="38"/>
       <c r="P64" s="38"/>
-      <c r="Q64" s="56" t="s">
-        <v>804</v>
+      <c r="Q64" s="57" t="s">
+        <v>802</v>
       </c>
       <c r="R64" s="38"/>
       <c r="S64" s="38"/>
@@ -24680,22 +24674,22 @@
         <v>165</v>
       </c>
       <c r="C65" s="38" t="s">
+        <v>803</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>804</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="F65" s="38" t="s">
         <v>805</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="G65" s="29" t="s">
         <v>806</v>
       </c>
-      <c r="E65" s="38" t="s">
-        <v>704</v>
-      </c>
-      <c r="F65" s="38" t="s">
-        <v>807</v>
-      </c>
-      <c r="G65" s="29" t="s">
-        <v>808</v>
-      </c>
       <c r="H65" s="38"/>
-      <c r="I65" s="44" t="n">
+      <c r="I65" s="45" t="n">
         <v>44420</v>
       </c>
       <c r="J65" s="38" t="s">
@@ -24703,14 +24697,14 @@
       </c>
       <c r="K65" s="38"/>
       <c r="L65" s="29" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M65" s="38"/>
       <c r="N65" s="38"/>
       <c r="O65" s="38"/>
       <c r="P65" s="38"/>
       <c r="Q65" s="38" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="R65" s="38"/>
       <c r="S65" s="38"/>
@@ -24724,29 +24718,29 @@
       <c r="AA65" s="38"/>
     </row>
     <row r="66" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="46" t="n">
+      <c r="A66" s="47" t="n">
         <v>45265.4259953704</v>
       </c>
       <c r="B66" s="38" t="s">
         <v>165</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D66" s="38" t="s">
+        <v>807</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>791</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="G66" s="29" t="s">
         <v>809</v>
       </c>
-      <c r="E66" s="38" t="s">
-        <v>793</v>
-      </c>
-      <c r="F66" s="38" t="s">
-        <v>810</v>
-      </c>
-      <c r="G66" s="29" t="s">
-        <v>811</v>
-      </c>
       <c r="H66" s="38"/>
-      <c r="I66" s="44" t="n">
+      <c r="I66" s="45" t="n">
         <v>45050</v>
       </c>
       <c r="J66" s="38" t="s">
@@ -24754,14 +24748,14 @@
       </c>
       <c r="K66" s="38"/>
       <c r="L66" s="29" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M66" s="38"/>
       <c r="N66" s="38"/>
       <c r="O66" s="38"/>
       <c r="P66" s="38"/>
       <c r="Q66" s="38" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="R66" s="38"/>
       <c r="S66" s="38"/>
@@ -24775,30 +24769,30 @@
       <c r="AA66" s="38"/>
     </row>
     <row r="67" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="39" t="s">
-        <v>812</v>
+      <c r="A67" s="44" t="s">
+        <v>810</v>
       </c>
       <c r="B67" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E67" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="F67" s="56" t="s">
-        <v>815</v>
+      <c r="F67" s="57" t="s">
+        <v>813</v>
       </c>
       <c r="G67" s="38"/>
       <c r="H67" s="38" t="s">
-        <v>816</v>
-      </c>
-      <c r="I67" s="39" t="s">
-        <v>817</v>
+        <v>814</v>
+      </c>
+      <c r="I67" s="44" t="s">
+        <v>815</v>
       </c>
       <c r="J67" s="38" t="s">
         <v>23</v>
@@ -24826,11 +24820,11 @@
       <c r="AA67" s="38"/>
     </row>
     <row r="68" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="46" t="n">
+      <c r="A68" s="47" t="n">
         <v>45052.5628935185</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C68" s="38" t="s">
         <v>400</v>
@@ -24842,20 +24836,20 @@
         <v>447</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G68" s="38"/>
       <c r="H68" s="38" t="s">
-        <v>820</v>
-      </c>
-      <c r="I68" s="39" t="s">
-        <v>821</v>
+        <v>818</v>
+      </c>
+      <c r="I68" s="44" t="s">
+        <v>819</v>
       </c>
       <c r="J68" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K68" s="40" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="L68" s="29" t="s">
         <v>447</v>
@@ -24879,7 +24873,7 @@
       <c r="AA68" s="38"/>
     </row>
     <row r="69" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="46" t="n">
+      <c r="A69" s="47" t="n">
         <v>45052.6738541667</v>
       </c>
       <c r="B69" s="38" t="s">
@@ -24889,19 +24883,19 @@
         <v>400</v>
       </c>
       <c r="D69" s="38" t="s">
+        <v>821</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>822</v>
+      </c>
+      <c r="F69" s="57" t="s">
         <v>823</v>
-      </c>
-      <c r="E69" s="38" t="s">
-        <v>824</v>
-      </c>
-      <c r="F69" s="56" t="s">
-        <v>825</v>
       </c>
       <c r="G69" s="38"/>
       <c r="H69" s="38" t="s">
-        <v>826</v>
-      </c>
-      <c r="I69" s="44" t="n">
+        <v>824</v>
+      </c>
+      <c r="I69" s="45" t="n">
         <v>44963</v>
       </c>
       <c r="J69" s="38" t="s">
@@ -24909,7 +24903,7 @@
       </c>
       <c r="K69" s="38"/>
       <c r="L69" s="29" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="M69" s="38"/>
       <c r="N69" s="38"/>
@@ -24930,37 +24924,37 @@
       <c r="AA69" s="38"/>
     </row>
     <row r="70" customFormat="false" ht="36.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="39" t="s">
-        <v>827</v>
+      <c r="A70" s="44" t="s">
+        <v>825</v>
       </c>
       <c r="B70" s="38" t="s">
         <v>139</v>
       </c>
       <c r="C70" s="38" t="s">
+        <v>826</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>827</v>
+      </c>
+      <c r="E70" s="38" t="s">
         <v>828</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>829</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>830</v>
       </c>
       <c r="F70" s="38" t="s">
         <v>430</v>
       </c>
       <c r="G70" s="29" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H70" s="38"/>
-      <c r="I70" s="39" t="s">
-        <v>832</v>
+      <c r="I70" s="44" t="s">
+        <v>830</v>
       </c>
       <c r="J70" s="38" t="s">
         <v>44</v>
       </c>
       <c r="K70" s="38"/>
       <c r="L70" s="38" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M70" s="38"/>
       <c r="N70" s="38"/>
@@ -24981,8 +24975,8 @@
       <c r="AA70" s="38"/>
     </row>
     <row r="71" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="39" t="s">
-        <v>833</v>
+      <c r="A71" s="44" t="s">
+        <v>831</v>
       </c>
       <c r="B71" s="38" t="s">
         <v>139</v>
@@ -24991,34 +24985,34 @@
         <v>400</v>
       </c>
       <c r="D71" s="38" t="s">
+        <v>832</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>833</v>
+      </c>
+      <c r="F71" s="38" t="s">
         <v>834</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>835</v>
-      </c>
-      <c r="F71" s="38" t="s">
-        <v>836</v>
       </c>
       <c r="G71" s="38"/>
       <c r="H71" s="38" t="s">
-        <v>837</v>
-      </c>
-      <c r="I71" s="39" t="s">
-        <v>838</v>
+        <v>835</v>
+      </c>
+      <c r="I71" s="44" t="s">
+        <v>836</v>
       </c>
       <c r="J71" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K71" s="38"/>
       <c r="L71" s="29" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="M71" s="38"/>
       <c r="N71" s="38"/>
       <c r="O71" s="38"/>
       <c r="P71" s="38"/>
       <c r="Q71" s="29" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="R71" s="38"/>
       <c r="S71" s="38"/>
@@ -25032,8 +25026,8 @@
       <c r="AA71" s="38"/>
     </row>
     <row r="72" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="39" t="s">
-        <v>839</v>
+      <c r="A72" s="44" t="s">
+        <v>837</v>
       </c>
       <c r="B72" s="38" t="s">
         <v>17</v>
@@ -25042,26 +25036,26 @@
         <v>400</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E72" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="F72" s="56" t="s">
-        <v>841</v>
+      <c r="F72" s="57" t="s">
+        <v>839</v>
       </c>
       <c r="G72" s="38"/>
       <c r="H72" s="38" t="s">
-        <v>842</v>
-      </c>
-      <c r="I72" s="39" t="s">
-        <v>843</v>
+        <v>840</v>
+      </c>
+      <c r="I72" s="44" t="s">
+        <v>841</v>
       </c>
       <c r="J72" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K72" s="40" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="L72" s="38" t="s">
         <v>38</v>
@@ -25071,13 +25065,13 @@
       <c r="O72" s="38"/>
       <c r="P72" s="38"/>
       <c r="Q72" s="38" t="s">
+        <v>843</v>
+      </c>
+      <c r="R72" s="40" t="s">
+        <v>844</v>
+      </c>
+      <c r="S72" s="29" t="s">
         <v>845</v>
-      </c>
-      <c r="R72" s="40" t="s">
-        <v>846</v>
-      </c>
-      <c r="S72" s="29" t="s">
-        <v>847</v>
       </c>
       <c r="T72" s="38"/>
       <c r="U72" s="38"/>
@@ -25089,48 +25083,48 @@
       <c r="AA72" s="38"/>
     </row>
     <row r="73" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="46" t="n">
+      <c r="A73" s="47" t="n">
         <v>45084.7566898148</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C73" s="38" t="s">
         <v>98</v>
       </c>
       <c r="D73" s="38" t="s">
+        <v>847</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>848</v>
+      </c>
+      <c r="F73" s="38" t="s">
         <v>849</v>
       </c>
-      <c r="E73" s="38" t="s">
+      <c r="G73" s="38" t="s">
         <v>850</v>
       </c>
-      <c r="F73" s="38" t="s">
+      <c r="H73" s="38" t="s">
         <v>851</v>
       </c>
-      <c r="G73" s="38" t="s">
+      <c r="I73" s="44" t="s">
         <v>852</v>
-      </c>
-      <c r="H73" s="38" t="s">
-        <v>853</v>
-      </c>
-      <c r="I73" s="39" t="s">
-        <v>854</v>
       </c>
       <c r="J73" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K73" s="40" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="L73" s="29" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="M73" s="38"/>
       <c r="N73" s="38"/>
       <c r="O73" s="38"/>
       <c r="P73" s="38"/>
       <c r="Q73" s="29" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="R73" s="38"/>
       <c r="S73" s="38"/>
@@ -25144,46 +25138,46 @@
       <c r="AA73" s="38"/>
     </row>
     <row r="74" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="46" t="n">
+      <c r="A74" s="47" t="n">
         <v>45084.7616666667</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C74" s="38" t="s">
         <v>98</v>
       </c>
       <c r="D74" s="38" t="s">
+        <v>857</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>858</v>
+      </c>
+      <c r="F74" s="57" t="s">
         <v>859</v>
-      </c>
-      <c r="E74" s="38" t="s">
-        <v>860</v>
-      </c>
-      <c r="F74" s="56" t="s">
-        <v>861</v>
       </c>
       <c r="G74" s="38"/>
       <c r="H74" s="38" t="s">
-        <v>862</v>
-      </c>
-      <c r="I74" s="39" t="s">
-        <v>863</v>
+        <v>860</v>
+      </c>
+      <c r="I74" s="44" t="s">
+        <v>861</v>
       </c>
       <c r="J74" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K74" s="40" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="L74" s="29" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="M74" s="38"/>
       <c r="N74" s="38"/>
       <c r="O74" s="38"/>
       <c r="P74" s="38"/>
       <c r="Q74" s="29" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="R74" s="38"/>
       <c r="S74" s="38"/>
@@ -25197,7 +25191,7 @@
       <c r="AA74" s="38"/>
     </row>
     <row r="75" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="46" t="n">
+      <c r="A75" s="47" t="n">
         <v>45237.4424074074</v>
       </c>
       <c r="B75" s="38" t="s">
@@ -25207,36 +25201,36 @@
         <v>98</v>
       </c>
       <c r="D75" s="38" t="s">
+        <v>864</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>865</v>
+      </c>
+      <c r="F75" s="57" t="s">
         <v>866</v>
-      </c>
-      <c r="E75" s="38" t="s">
-        <v>867</v>
-      </c>
-      <c r="F75" s="56" t="s">
-        <v>868</v>
       </c>
       <c r="G75" s="38"/>
       <c r="H75" s="38" t="s">
-        <v>842</v>
-      </c>
-      <c r="I75" s="39" t="s">
-        <v>869</v>
+        <v>840</v>
+      </c>
+      <c r="I75" s="44" t="s">
+        <v>867</v>
       </c>
       <c r="J75" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K75" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="L75" s="29" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="M75" s="38"/>
       <c r="N75" s="38"/>
       <c r="O75" s="38"/>
       <c r="P75" s="38"/>
       <c r="Q75" s="29" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="R75" s="38"/>
       <c r="S75" s="38"/>
@@ -25250,8 +25244,8 @@
       <c r="AA75" s="38"/>
     </row>
     <row r="76" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="39" t="s">
-        <v>873</v>
+      <c r="A76" s="44" t="s">
+        <v>871</v>
       </c>
       <c r="B76" s="38" t="s">
         <v>17</v>
@@ -25260,26 +25254,26 @@
         <v>283</v>
       </c>
       <c r="D76" s="38" t="s">
+        <v>872</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>873</v>
+      </c>
+      <c r="F76" s="38" t="s">
         <v>874</v>
       </c>
-      <c r="E76" s="38" t="s">
+      <c r="G76" s="29" t="s">
         <v>875</v>
       </c>
-      <c r="F76" s="38" t="s">
+      <c r="H76" s="38"/>
+      <c r="I76" s="44" t="s">
         <v>876</v>
-      </c>
-      <c r="G76" s="29" t="s">
-        <v>877</v>
-      </c>
-      <c r="H76" s="38"/>
-      <c r="I76" s="39" t="s">
-        <v>878</v>
       </c>
       <c r="J76" s="38" t="s">
         <v>44</v>
       </c>
       <c r="K76" s="40" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="L76" s="38" t="s">
         <v>38</v>
@@ -25292,7 +25286,7 @@
         <v>26</v>
       </c>
       <c r="R76" s="40" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="S76" s="38"/>
       <c r="T76" s="38"/>
@@ -25305,8 +25299,8 @@
       <c r="AA76" s="38"/>
     </row>
     <row r="77" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="39" t="s">
-        <v>881</v>
+      <c r="A77" s="44" t="s">
+        <v>879</v>
       </c>
       <c r="B77" s="38" t="s">
         <v>357</v>
@@ -25315,19 +25309,19 @@
         <v>400</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>824</v>
-      </c>
-      <c r="F77" s="56" t="s">
-        <v>883</v>
+        <v>822</v>
+      </c>
+      <c r="F77" s="57" t="s">
+        <v>881</v>
       </c>
       <c r="G77" s="38"/>
       <c r="H77" s="38" t="s">
-        <v>884</v>
-      </c>
-      <c r="I77" s="44" t="n">
+        <v>882</v>
+      </c>
+      <c r="I77" s="45" t="n">
         <v>44963</v>
       </c>
       <c r="J77" s="38" t="s">
@@ -25335,14 +25329,14 @@
       </c>
       <c r="K77" s="38"/>
       <c r="L77" s="29" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="M77" s="38"/>
       <c r="N77" s="38"/>
       <c r="O77" s="38"/>
       <c r="P77" s="38"/>
       <c r="Q77" s="29" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="R77" s="38"/>
       <c r="S77" s="38"/>
@@ -25356,8 +25350,8 @@
       <c r="AA77" s="38"/>
     </row>
     <row r="78" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="39" t="s">
-        <v>886</v>
+      <c r="A78" s="44" t="s">
+        <v>884</v>
       </c>
       <c r="B78" s="38" t="s">
         <v>357</v>
@@ -25366,19 +25360,19 @@
         <v>400</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F78" s="38" t="s">
         <v>329</v>
       </c>
       <c r="G78" s="38"/>
       <c r="H78" s="38" t="s">
-        <v>889</v>
-      </c>
-      <c r="I78" s="44" t="n">
+        <v>887</v>
+      </c>
+      <c r="I78" s="45" t="n">
         <v>45269</v>
       </c>
       <c r="J78" s="38" t="s">
@@ -25386,14 +25380,14 @@
       </c>
       <c r="K78" s="38"/>
       <c r="L78" s="29" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="M78" s="38"/>
       <c r="N78" s="38"/>
       <c r="O78" s="38"/>
       <c r="P78" s="38"/>
       <c r="Q78" s="29" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="R78" s="38"/>
       <c r="S78" s="38"/>
@@ -25407,8 +25401,8 @@
       <c r="AA78" s="38"/>
     </row>
     <row r="79" customFormat="false" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="39" t="s">
-        <v>891</v>
+      <c r="A79" s="44" t="s">
+        <v>889</v>
       </c>
       <c r="B79" s="38" t="s">
         <v>357</v>
@@ -25417,34 +25411,34 @@
         <v>400</v>
       </c>
       <c r="D79" s="38" t="s">
+        <v>890</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>891</v>
+      </c>
+      <c r="F79" s="57" t="s">
         <v>892</v>
-      </c>
-      <c r="E79" s="38" t="s">
-        <v>893</v>
-      </c>
-      <c r="F79" s="56" t="s">
-        <v>894</v>
       </c>
       <c r="G79" s="38"/>
       <c r="H79" s="38" t="s">
-        <v>895</v>
-      </c>
-      <c r="I79" s="39" t="s">
-        <v>896</v>
+        <v>893</v>
+      </c>
+      <c r="I79" s="44" t="s">
+        <v>894</v>
       </c>
       <c r="J79" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K79" s="38"/>
       <c r="L79" s="29" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="M79" s="38"/>
       <c r="N79" s="38"/>
       <c r="O79" s="38"/>
       <c r="P79" s="38"/>
       <c r="Q79" s="29" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="R79" s="38"/>
       <c r="S79" s="38"/>
@@ -27708,284 +27702,284 @@
   </sheetPr>
   <dimension ref="A1:AMJ53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="57" width="38.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="57" width="48.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="58" width="9.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="58" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="57" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="57" width="61.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="57" width="66.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="58" width="38.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="58" width="48.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="59" width="9.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="59" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="58" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="58" width="61.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="58" width="66.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="59" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="60" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="60" t="s">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="61" t="s">
         <v>629</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="61" t="s">
+        <v>895</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>896</v>
+      </c>
+      <c r="D1" s="62" t="s">
         <v>897</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="E1" s="62" t="s">
         <v>898</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="F1" s="61" t="s">
         <v>899</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="G1" s="61" t="s">
         <v>900</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="H1" s="61" t="s">
         <v>901</v>
       </c>
-      <c r="G1" s="60" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="63" t="s">
+        <v>652</v>
+      </c>
+      <c r="B2" s="63" t="s">
         <v>902</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="C2" s="64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65" t="n">
+        <v>45196</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="62" t="s">
-        <v>652</v>
-      </c>
-      <c r="B2" s="62" t="s">
+      <c r="H2" s="35" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="63" t="s">
+        <v>701</v>
+      </c>
+      <c r="B3" s="66" t="s">
         <v>904</v>
       </c>
-      <c r="C2" s="63" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64" t="n">
+      <c r="C3" s="64" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65" t="n">
         <v>45196</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G3" s="35" t="s">
         <v>905</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H3" s="66" t="s">
         <v>905</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="62" t="s">
-        <v>702</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>906</v>
-      </c>
-      <c r="C3" s="63" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64" t="n">
-        <v>45196</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>907</v>
-      </c>
-      <c r="H3" s="65" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>714</v>
-      </c>
-      <c r="C4" s="63" t="n">
+        <v>712</v>
+      </c>
+      <c r="C4" s="64" t="n">
         <v>4.3</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64" t="n">
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65" t="n">
         <v>45196</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B5" s="35" t="s">
+        <v>907</v>
+      </c>
+      <c r="C5" s="64" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65" t="n">
+        <v>45196</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>908</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="63" t="s">
+        <v>729</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>909</v>
       </c>
-      <c r="C5" s="63" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64" t="n">
+      <c r="C6" s="64" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65" t="n">
         <v>45196</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G6" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H6" s="35" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="62" t="s">
-        <v>731</v>
-      </c>
-      <c r="B6" s="35" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="63" t="s">
+        <v>685</v>
+      </c>
+      <c r="B7" s="63" t="s">
         <v>911</v>
       </c>
-      <c r="C6" s="63" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64" t="n">
+      <c r="C7" s="64" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65" t="n">
         <v>45196</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G7" s="35" t="s">
         <v>912</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H7" s="35" t="s">
         <v>912</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="62" t="s">
-        <v>685</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>913</v>
-      </c>
-      <c r="C7" s="63" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64" t="n">
-        <v>45196</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>914</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
+        <v>913</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>913</v>
+      </c>
+      <c r="C8" s="64" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65" t="n">
+        <v>45196</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>914</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="63" t="s">
+        <v>632</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="59" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="65" t="n">
+        <v>45197</v>
+      </c>
+      <c r="G9" s="58" t="s">
         <v>915</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="H9" s="58" t="s">
         <v>915</v>
       </c>
-      <c r="C8" s="63" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64" t="n">
-        <v>45196</v>
-      </c>
-      <c r="G8" s="35" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="63" t="s">
+        <v>634</v>
+      </c>
+      <c r="B10" s="63" t="s">
         <v>916</v>
       </c>
-      <c r="H8" s="35" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="62" t="s">
-        <v>632</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="58" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" s="64" t="n">
+      <c r="C10" s="59" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D10" s="59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F10" s="65" t="n">
         <v>45197</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G10" s="58" t="s">
         <v>917</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H10" s="58" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="62" t="s">
-        <v>634</v>
-      </c>
-      <c r="B10" s="62" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="63" t="s">
+        <v>639</v>
+      </c>
+      <c r="B11" s="63" t="s">
         <v>918</v>
       </c>
-      <c r="C10" s="58" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D10" s="58" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F10" s="64" t="n">
+      <c r="C11" s="59" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F11" s="65" t="n">
         <v>45197</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G11" s="58" t="s">
         <v>919</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H11" s="58" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="62" t="s">
-        <v>639</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>920</v>
-      </c>
-      <c r="C11" s="58" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F11" s="64" t="n">
-        <v>45197</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>921</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>921</v>
-      </c>
-    </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="63" t="s">
         <v>649</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="C12" s="58" t="n">
+      <c r="C12" s="59" t="n">
         <v>4.1</v>
       </c>
-      <c r="F12" s="64" t="n">
+      <c r="F12" s="65" t="n">
         <v>45197</v>
       </c>
-      <c r="G12" s="57" t="s">
-        <v>922</v>
-      </c>
-      <c r="H12" s="57" t="s">
-        <v>922</v>
+      <c r="G12" s="58" t="s">
+        <v>920</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>920</v>
       </c>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
@@ -29004,293 +28998,293 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="67" t="s">
         <v>660</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>923</v>
-      </c>
-      <c r="C13" s="58" t="n">
+      <c r="B13" s="63" t="s">
+        <v>921</v>
+      </c>
+      <c r="C13" s="59" t="n">
         <v>14.9</v>
       </c>
-      <c r="D13" s="58" t="n">
+      <c r="D13" s="59" t="n">
         <v>16.4</v>
       </c>
-      <c r="F13" s="64" t="n">
+      <c r="F13" s="65" t="n">
         <v>45197</v>
       </c>
-      <c r="G13" s="57" t="s">
-        <v>924</v>
-      </c>
-      <c r="H13" s="57" t="s">
-        <v>924</v>
+      <c r="G13" s="58" t="s">
+        <v>922</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="63" t="s">
         <v>663</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="C14" s="58" t="n">
+      <c r="C14" s="59" t="n">
         <v>6</v>
       </c>
-      <c r="F14" s="64" t="n">
+      <c r="F14" s="65" t="n">
         <v>45197</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="58" t="s">
+        <v>923</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="63" t="s">
+        <v>657</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="C15" s="68" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F15" s="65" t="n">
+        <v>45197</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>925</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H15" s="58" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="62" t="s">
-        <v>657</v>
-      </c>
-      <c r="B15" s="0" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="63" t="s">
+        <v>678</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>678</v>
+      </c>
+      <c r="C16" s="59" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F16" s="65" t="n">
+        <v>45197</v>
+      </c>
+      <c r="G16" s="58" t="s">
         <v>926</v>
       </c>
-      <c r="C15" s="67" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F15" s="64" t="n">
+      <c r="H16" s="58" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="63" t="s">
+        <v>675</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>927</v>
+      </c>
+      <c r="C17" s="59" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D17" s="59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="65" t="n">
         <v>45197</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>927</v>
-      </c>
-      <c r="H15" s="57" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="62" t="s">
-        <v>678</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>678</v>
-      </c>
-      <c r="C16" s="58" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="F16" s="64" t="n">
-        <v>45197</v>
-      </c>
-      <c r="G16" s="57" t="s">
+      <c r="G17" s="58" t="s">
         <v>928</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="H17" s="58" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="62" t="s">
-        <v>675</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>929</v>
-      </c>
-      <c r="C17" s="58" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D17" s="58" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F17" s="64" t="n">
-        <v>45197</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>930</v>
-      </c>
-      <c r="H17" s="57" t="s">
-        <v>930</v>
-      </c>
-    </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="69" t="s">
         <v>687</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>687</v>
       </c>
-      <c r="C18" s="58" t="n">
+      <c r="C18" s="59" t="n">
         <v>3.4</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="58" t="n">
+      <c r="D18" s="68"/>
+      <c r="E18" s="59" t="n">
         <v>5.5</v>
       </c>
-      <c r="F18" s="64" t="n">
+      <c r="F18" s="65" t="n">
         <v>45197</v>
       </c>
       <c r="G18" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="63" t="s">
+        <v>667</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>930</v>
+      </c>
+      <c r="C19" s="59" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E19" s="59" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="F19" s="65" t="n">
+        <v>45197</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>931</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H19" s="58" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="62" t="s">
-        <v>667</v>
-      </c>
-      <c r="B19" s="29" t="s">
+    <row r="20" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="63" t="s">
+        <v>641</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>932</v>
       </c>
-      <c r="C19" s="58" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E19" s="58" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="F19" s="64" t="n">
+      <c r="C20" s="70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F20" s="65" t="n">
         <v>45197</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>933</v>
       </c>
-      <c r="H19" s="57" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="62" t="s">
-        <v>641</v>
-      </c>
-      <c r="B20" s="29" t="s">
+      <c r="H20" s="58" t="s">
         <v>934</v>
       </c>
-      <c r="C20" s="69" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F20" s="64" t="n">
+    </row>
+    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="71" t="s">
+        <v>643</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>643</v>
+      </c>
+      <c r="C21" s="59" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D21" s="59" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="F21" s="65" t="n">
         <v>45197</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G21" s="13" t="s">
         <v>935</v>
       </c>
-      <c r="H20" s="57" t="s">
+      <c r="H21" s="58" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="59" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E22" s="59" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F22" s="65" t="n">
+        <v>45197</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="70" t="s">
-        <v>643</v>
-      </c>
-      <c r="B21" s="70" t="s">
-        <v>643</v>
-      </c>
-      <c r="C21" s="58" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D21" s="58" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="F21" s="64" t="n">
+      <c r="H22" s="58" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="63" t="s">
+        <v>681</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>681</v>
+      </c>
+      <c r="C23" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="65" t="n">
         <v>45197</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G23" s="58" t="s">
         <v>937</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="H23" s="58" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="58" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="E22" s="58" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F22" s="64" t="n">
+    <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="63" t="s">
+        <v>691</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>938</v>
+      </c>
+      <c r="C24" s="59" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F24" s="65" t="n">
         <v>45197</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>938</v>
-      </c>
-      <c r="H22" s="57" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="62" t="s">
-        <v>681</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>681</v>
-      </c>
-      <c r="C23" s="69" t="n">
+      <c r="G24" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>940</v>
+      </c>
+      <c r="C25" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="64" t="n">
+      <c r="F25" s="65" t="n">
         <v>45197</v>
       </c>
-      <c r="G23" s="57" t="s">
-        <v>939</v>
-      </c>
-      <c r="H23" s="57" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="62" t="s">
-        <v>691</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>940</v>
-      </c>
-      <c r="C24" s="58" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F24" s="64" t="n">
-        <v>45197</v>
-      </c>
-      <c r="G24" s="13" t="s">
+      <c r="G25" s="13" t="s">
         <v>941</v>
       </c>
-      <c r="H24" s="57" t="s">
+      <c r="H25" s="58" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="62" t="s">
-        <v>272</v>
-      </c>
-      <c r="B25" s="62" t="s">
-        <v>942</v>
-      </c>
-      <c r="C25" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="64" t="n">
-        <v>45197</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>943</v>
-      </c>
-      <c r="H25" s="57" t="s">
-        <v>943</v>
-      </c>
-    </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="63" t="s">
         <v>671</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="63" t="s">
         <v>671</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -29300,14 +29294,14 @@
       <c r="E26" s="0" t="n">
         <v>1.8</v>
       </c>
-      <c r="F26" s="64" t="n">
+      <c r="F26" s="65" t="n">
         <v>45197</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>

--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7079AC40-C1AE-4837-9580-F33A94391285}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55335904-7C62-476B-897D-9958358D2791}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="947">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3514,6 +3514,15 @@
   </si>
   <si>
     <t>TODO: Order alphabetically</t>
+  </si>
+  <si>
+    <t>Digital Liver Twin - Data- and Model-Driven Multiscale Liver Modeling</t>
+  </si>
+  <si>
+    <t>Tim Ricken, Steffen Gerhäusser, Lena Lambers, Luis Mandl</t>
+  </si>
+  <si>
+    <t>International Conference on Data-Integrated Simulation Science (SimTech2023), https://www.simtech2023.uni-stuttgart.de/, 04. - 06. Oktober 2023, Sutttgart</t>
   </si>
 </sst>
 </file>
@@ -3704,7 +3713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3932,6 +3941,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4323,23 +4341,23 @@
       <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4399,7 +4417,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44427.932484722201</v>
       </c>
@@ -4449,7 +4467,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
     </row>
-    <row r="3" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44427.939851157404</v>
       </c>
@@ -4499,7 +4517,7 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44427.947995254603</v>
       </c>
@@ -4549,7 +4567,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44427.963724074099</v>
       </c>
@@ -4592,7 +4610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44427.966733564797</v>
       </c>
@@ -4635,7 +4653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44427.969025810198</v>
       </c>
@@ -4678,7 +4696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="375" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44427.971651504602</v>
       </c>
@@ -4721,7 +4739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="375" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44427.977659027798</v>
       </c>
@@ -4764,7 +4782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="408" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="375" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44427.979484606498</v>
       </c>
@@ -4807,7 +4825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="162.5" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>44502.680754861103</v>
       </c>
@@ -4849,7 +4867,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>44503.444289930601</v>
       </c>
@@ -4891,7 +4909,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>44504.433192939803</v>
       </c>
@@ -4933,7 +4951,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>44508.576334143501</v>
       </c>
@@ -4975,7 +4993,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="400" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>44510.606990972199</v>
       </c>
@@ -5017,7 +5035,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="344.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="325" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>44510.621671643501</v>
       </c>
@@ -5059,7 +5077,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>44510.635692708303</v>
       </c>
@@ -5101,7 +5119,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>44515.604827430601</v>
       </c>
@@ -5143,7 +5161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>44515.605781597202</v>
       </c>
@@ -5182,7 +5200,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>44519.393009722196</v>
       </c>
@@ -5224,7 +5242,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>44519.396759837997</v>
       </c>
@@ -5266,7 +5284,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="331.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>44521.415261921298</v>
       </c>
@@ -5308,7 +5326,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="306" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="300" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>44521.417680324099</v>
       </c>
@@ -5350,7 +5368,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>44531.422715046298</v>
       </c>
@@ -5392,7 +5410,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="400" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>44536.689336226897</v>
       </c>
@@ -5434,7 +5452,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>44537.460719444498</v>
       </c>
@@ -5473,7 +5491,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="250" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>44545.415467245402</v>
       </c>
@@ -5515,7 +5533,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="100" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>44547.4125025463</v>
       </c>
@@ -5557,7 +5575,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>44571.655250347198</v>
       </c>
@@ -5596,7 +5614,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>44583.738363078701</v>
       </c>
@@ -5638,7 +5656,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>44583.740276504599</v>
       </c>
@@ -5680,7 +5698,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="362.5" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>44645.469280208301</v>
       </c>
@@ -5721,7 +5739,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="50" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>44658.465437268504</v>
       </c>
@@ -5762,7 +5780,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>44664.599232754597</v>
       </c>
@@ -5806,7 +5824,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>44664.614628935196</v>
       </c>
@@ -5841,7 +5859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>44664.623678935197</v>
       </c>
@@ -5882,7 +5900,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="408" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="387.5" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>44664.629289467601</v>
       </c>
@@ -5917,7 +5935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>44664.634484722199</v>
       </c>
@@ -5949,7 +5967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>44664.764159490704</v>
       </c>
@@ -5986,7 +6004,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>44664.7695739583</v>
       </c>
@@ -6024,7 +6042,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>44665.383020370398</v>
       </c>
@@ -6074,7 +6092,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>44665.612281597198</v>
       </c>
@@ -6118,7 +6136,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>44679.852050810201</v>
       </c>
@@ -6162,7 +6180,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>44684.589149305597</v>
       </c>
@@ -6206,7 +6224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>44687.332683333298</v>
       </c>
@@ -6244,7 +6262,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="300" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>44690.414530786999</v>
       </c>
@@ -6288,7 +6306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>44714.613704513897</v>
       </c>
@@ -6326,7 +6344,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>44714.631931828699</v>
       </c>
@@ -6370,7 +6388,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="408" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="387.5" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>44721.479891666699</v>
       </c>
@@ -6417,7 +6435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="300" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>44724.908495023199</v>
       </c>
@@ -6455,7 +6473,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>44724.915100462997</v>
       </c>
@@ -6496,7 +6514,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>44724.917635300902</v>
       </c>
@@ -6537,7 +6555,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>44737.343279629597</v>
       </c>
@@ -6575,7 +6593,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="175" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>44743.461584375</v>
       </c>
@@ -6619,7 +6637,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>44743.470339120402</v>
       </c>
@@ -6663,7 +6681,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="125" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>44743.522404282397</v>
       </c>
@@ -6707,7 +6725,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>44747.804503819403</v>
       </c>
@@ -6748,7 +6766,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>44748.500684375002</v>
       </c>
@@ -6789,7 +6807,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>44748.502863773203</v>
       </c>
@@ -6830,7 +6848,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>44748.505962499999</v>
       </c>
@@ -6871,7 +6889,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>44748.507295949101</v>
       </c>
@@ -6912,7 +6930,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>44748.508126967601</v>
       </c>
@@ -6950,7 +6968,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>44763.373567361101</v>
       </c>
@@ -6994,7 +7012,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>44763.382295023199</v>
       </c>
@@ -7035,7 +7053,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="250" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>44769.6992456019</v>
       </c>
@@ -7076,7 +7094,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>44769.701641435197</v>
       </c>
@@ -7117,7 +7135,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>44774.632290162001</v>
       </c>
@@ -7158,7 +7176,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>44774.633085995403</v>
       </c>
@@ -7199,7 +7217,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>44774.633985648099</v>
       </c>
@@ -7240,7 +7258,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>44799.3730923611</v>
       </c>
@@ -7287,7 +7305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="50" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <v>44831.785569097199</v>
       </c>
@@ -7331,7 +7349,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
         <v>44831.788137962998</v>
       </c>
@@ -7375,7 +7393,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <v>44831.969735532402</v>
       </c>
@@ -7419,7 +7437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <v>44837.462938194403</v>
       </c>
@@ -7457,7 +7475,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="100" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
         <v>44838.598316782402</v>
       </c>
@@ -7501,7 +7519,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>44838.604422453704</v>
       </c>
@@ -7545,7 +7563,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="350" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>44838.767622685198</v>
       </c>
@@ -7589,7 +7607,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>44844.515792939797</v>
       </c>
@@ -7630,7 +7648,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="50" x14ac:dyDescent="0.25">
       <c r="A79" s="16">
         <v>44845.4522701389</v>
       </c>
@@ -7671,7 +7689,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>44858.360405555599</v>
       </c>
@@ -7715,7 +7733,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="250" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>44858.786968055603</v>
       </c>
@@ -7753,7 +7771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>44875.428184837998</v>
       </c>
@@ -7788,7 +7806,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <v>44875.434203009303</v>
       </c>
@@ -7820,7 +7838,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="362.5" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>44875.441085763901</v>
       </c>
@@ -7852,7 +7870,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>44875.443288541697</v>
       </c>
@@ -7884,7 +7902,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>44875.453703819403</v>
       </c>
@@ -7919,7 +7937,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A87" s="16">
         <v>44875.454279166697</v>
       </c>
@@ -7954,7 +7972,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>44907.440478009303</v>
       </c>
@@ -8001,7 +8019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="400" x14ac:dyDescent="0.25">
       <c r="A89" s="16">
         <v>44912.925343634299</v>
       </c>
@@ -8048,7 +8066,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="400" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>44914.371327893503</v>
       </c>
@@ -8092,7 +8110,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="382.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="375" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <v>44929.354307870402</v>
       </c>
@@ -8133,7 +8151,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="212.5" x14ac:dyDescent="0.25">
       <c r="A92" s="16">
         <v>44943.356896874997</v>
       </c>
@@ -8174,7 +8192,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A93" s="16">
         <v>44960.467609143503</v>
       </c>
@@ -8221,7 +8239,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A94" s="16">
         <v>44962.636147222198</v>
       </c>
@@ -8259,7 +8277,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <v>44969.706999305599</v>
       </c>
@@ -8294,7 +8312,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="337.5" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>44972.571888425897</v>
       </c>
@@ -8341,7 +8359,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A97" s="16">
         <v>44984.705640509303</v>
       </c>
@@ -8379,7 +8397,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A98" s="16">
         <v>44984.707487500003</v>
       </c>
@@ -8417,7 +8435,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A99" s="16">
         <v>44984.709653124999</v>
       </c>
@@ -8455,7 +8473,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" ht="375" x14ac:dyDescent="0.25">
       <c r="A100" s="16">
         <v>44984.711797338001</v>
       </c>
@@ -8493,7 +8511,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A101" s="16">
         <v>44984.713593634297</v>
       </c>
@@ -8531,7 +8549,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A102" s="16">
         <v>44984.918457754597</v>
       </c>
@@ -8563,7 +8581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A103" s="16">
         <v>44984.920112500004</v>
       </c>
@@ -8595,7 +8613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" ht="50" x14ac:dyDescent="0.25">
       <c r="A104" s="16">
         <v>44987.654823495403</v>
       </c>
@@ -8630,7 +8648,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" ht="50" x14ac:dyDescent="0.25">
       <c r="A105" s="16">
         <v>44987.656404050897</v>
       </c>
@@ -8665,7 +8683,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" ht="50" x14ac:dyDescent="0.25">
       <c r="A106" s="16">
         <v>44987.657589930597</v>
       </c>
@@ -8700,7 +8718,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107" s="16">
         <v>44992.747801851903</v>
       </c>
@@ -8739,7 +8757,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A108" s="16">
         <v>44998.039198495397</v>
       </c>
@@ -8786,7 +8804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" ht="250" x14ac:dyDescent="0.25">
       <c r="A109" s="16">
         <v>45012.448258796299</v>
       </c>
@@ -8833,7 +8851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="16">
         <v>45016.456743865703</v>
       </c>
@@ -8877,7 +8895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -8903,7 +8921,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -8929,7 +8947,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -8955,7 +8973,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -8981,7 +8999,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -9007,7 +9025,7 @@
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -9033,7 +9051,7 @@
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -9059,7 +9077,7 @@
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -9085,7 +9103,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -9111,7 +9129,7 @@
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -9137,7 +9155,7 @@
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -9163,7 +9181,7 @@
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -9189,7 +9207,7 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -9215,7 +9233,7 @@
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -9241,7 +9259,7 @@
       <c r="W124" s="9"/>
       <c r="X124" s="9"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -9267,7 +9285,7 @@
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -9293,7 +9311,7 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -9319,7 +9337,7 @@
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -9345,7 +9363,7 @@
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -9371,7 +9389,7 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -9397,7 +9415,7 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -9423,7 +9441,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -9449,7 +9467,7 @@
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -9475,7 +9493,7 @@
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -9501,7 +9519,7 @@
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -9527,7 +9545,7 @@
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -9553,7 +9571,7 @@
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -9579,7 +9597,7 @@
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -9605,7 +9623,7 @@
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -9631,7 +9649,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -9657,7 +9675,7 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -9683,7 +9701,7 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -9709,7 +9727,7 @@
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -9735,7 +9753,7 @@
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -9761,7 +9779,7 @@
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -9787,7 +9805,7 @@
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -9813,7 +9831,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -9839,7 +9857,7 @@
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -9865,7 +9883,7 @@
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -9891,7 +9909,7 @@
       <c r="W149" s="9"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -9917,7 +9935,7 @@
       <c r="W150" s="9"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -9943,7 +9961,7 @@
       <c r="W151" s="9"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -9969,7 +9987,7 @@
       <c r="W152" s="9"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -9995,7 +10013,7 @@
       <c r="W153" s="9"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -10021,7 +10039,7 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -10047,7 +10065,7 @@
       <c r="W155" s="9"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -10073,7 +10091,7 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -10099,7 +10117,7 @@
       <c r="W157" s="9"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -10125,7 +10143,7 @@
       <c r="W158" s="9"/>
       <c r="X158" s="9"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -10151,7 +10169,7 @@
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -10177,7 +10195,7 @@
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -10203,7 +10221,7 @@
       <c r="W161" s="9"/>
       <c r="X161" s="9"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -10229,7 +10247,7 @@
       <c r="W162" s="9"/>
       <c r="X162" s="9"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -10255,7 +10273,7 @@
       <c r="W163" s="9"/>
       <c r="X163" s="9"/>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -10281,7 +10299,7 @@
       <c r="W164" s="9"/>
       <c r="X164" s="9"/>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -10307,7 +10325,7 @@
       <c r="W165" s="9"/>
       <c r="X165" s="9"/>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -10333,7 +10351,7 @@
       <c r="W166" s="9"/>
       <c r="X166" s="9"/>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -10359,7 +10377,7 @@
       <c r="W167" s="9"/>
       <c r="X167" s="9"/>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -10385,7 +10403,7 @@
       <c r="W168" s="9"/>
       <c r="X168" s="9"/>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -10411,7 +10429,7 @@
       <c r="W169" s="9"/>
       <c r="X169" s="9"/>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -10437,7 +10455,7 @@
       <c r="W170" s="9"/>
       <c r="X170" s="9"/>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -10463,7 +10481,7 @@
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -10489,7 +10507,7 @@
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -10515,7 +10533,7 @@
       <c r="W173" s="9"/>
       <c r="X173" s="9"/>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -10541,7 +10559,7 @@
       <c r="W174" s="9"/>
       <c r="X174" s="9"/>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -10567,7 +10585,7 @@
       <c r="W175" s="9"/>
       <c r="X175" s="9"/>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -10593,7 +10611,7 @@
       <c r="W176" s="9"/>
       <c r="X176" s="9"/>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -10619,7 +10637,7 @@
       <c r="W177" s="9"/>
       <c r="X177" s="9"/>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -10645,7 +10663,7 @@
       <c r="W178" s="9"/>
       <c r="X178" s="9"/>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -10671,7 +10689,7 @@
       <c r="W179" s="9"/>
       <c r="X179" s="9"/>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -10697,7 +10715,7 @@
       <c r="W180" s="9"/>
       <c r="X180" s="9"/>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -10723,7 +10741,7 @@
       <c r="W181" s="9"/>
       <c r="X181" s="9"/>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -10749,7 +10767,7 @@
       <c r="W182" s="9"/>
       <c r="X182" s="9"/>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -10775,7 +10793,7 @@
       <c r="W183" s="9"/>
       <c r="X183" s="9"/>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -10801,7 +10819,7 @@
       <c r="W184" s="9"/>
       <c r="X184" s="9"/>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -10827,7 +10845,7 @@
       <c r="W185" s="9"/>
       <c r="X185" s="9"/>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -10853,7 +10871,7 @@
       <c r="W186" s="9"/>
       <c r="X186" s="9"/>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -10879,7 +10897,7 @@
       <c r="W187" s="9"/>
       <c r="X187" s="9"/>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -10905,7 +10923,7 @@
       <c r="W188" s="9"/>
       <c r="X188" s="9"/>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -10931,7 +10949,7 @@
       <c r="W189" s="9"/>
       <c r="X189" s="9"/>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -10957,7 +10975,7 @@
       <c r="W190" s="9"/>
       <c r="X190" s="9"/>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -10983,7 +11001,7 @@
       <c r="W191" s="9"/>
       <c r="X191" s="9"/>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -11009,7 +11027,7 @@
       <c r="W192" s="9"/>
       <c r="X192" s="9"/>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -11035,7 +11053,7 @@
       <c r="W193" s="9"/>
       <c r="X193" s="9"/>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -11061,7 +11079,7 @@
       <c r="W194" s="9"/>
       <c r="X194" s="9"/>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -11087,7 +11105,7 @@
       <c r="W195" s="9"/>
       <c r="X195" s="9"/>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -11113,7 +11131,7 @@
       <c r="W196" s="9"/>
       <c r="X196" s="9"/>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -11139,7 +11157,7 @@
       <c r="W197" s="9"/>
       <c r="X197" s="9"/>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -11165,7 +11183,7 @@
       <c r="W198" s="9"/>
       <c r="X198" s="9"/>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -11191,7 +11209,7 @@
       <c r="W199" s="9"/>
       <c r="X199" s="9"/>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -11217,7 +11235,7 @@
       <c r="W200" s="9"/>
       <c r="X200" s="9"/>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -11243,7 +11261,7 @@
       <c r="W201" s="9"/>
       <c r="X201" s="9"/>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -11269,7 +11287,7 @@
       <c r="W202" s="9"/>
       <c r="X202" s="9"/>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -11295,7 +11313,7 @@
       <c r="W203" s="9"/>
       <c r="X203" s="9"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -11321,7 +11339,7 @@
       <c r="W204" s="9"/>
       <c r="X204" s="9"/>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -11347,7 +11365,7 @@
       <c r="W205" s="9"/>
       <c r="X205" s="9"/>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -11373,7 +11391,7 @@
       <c r="W206" s="9"/>
       <c r="X206" s="9"/>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -11399,7 +11417,7 @@
       <c r="W207" s="9"/>
       <c r="X207" s="9"/>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -11425,7 +11443,7 @@
       <c r="W208" s="9"/>
       <c r="X208" s="9"/>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -11451,7 +11469,7 @@
       <c r="W209" s="9"/>
       <c r="X209" s="9"/>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -11559,18 +11577,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328DE83F-A933-42BB-B02D-2197ABDCBB32}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" customWidth="1"/>
-    <col min="11" max="11" width="74.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.81640625" customWidth="1"/>
+    <col min="11" max="11" width="74.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="78" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11623,7 +11641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>44503.444289930601</v>
       </c>
@@ -11666,7 +11684,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>44504.433192939803</v>
       </c>
@@ -11709,7 +11727,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>44515.604827430601</v>
       </c>
@@ -11752,7 +11770,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>44515.605781597202</v>
       </c>
@@ -11793,7 +11811,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>44583.738363078701</v>
       </c>
@@ -11836,7 +11854,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>44583.740276504599</v>
       </c>
@@ -11879,7 +11897,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>44748.502863773203</v>
       </c>
@@ -11924,7 +11942,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>44763.382295023199</v>
       </c>
@@ -11969,7 +11987,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>44831.785569097199</v>
       </c>
@@ -12016,7 +12034,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>44831.788137962998</v>
       </c>
@@ -12063,7 +12081,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>44831.969735532402</v>
       </c>
@@ -12110,7 +12128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>44875.428184837998</v>
       </c>
@@ -12151,7 +12169,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>44875.453703819403</v>
       </c>
@@ -12192,7 +12210,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>44875.454279166697</v>
       </c>
@@ -12233,7 +12251,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>44984.705640509303</v>
       </c>
@@ -12276,7 +12294,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>44984.707487500003</v>
       </c>
@@ -12319,7 +12337,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>44984.709653124999</v>
       </c>
@@ -12362,7 +12380,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>44984.711797338001</v>
       </c>
@@ -12405,7 +12423,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>44984.713593634297</v>
       </c>
@@ -12448,7 +12466,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>44987.654823495403</v>
       </c>
@@ -12489,7 +12507,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>44987.656404050897</v>
       </c>
@@ -12530,7 +12548,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>810</v>
       </c>
@@ -12575,7 +12593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47">
         <v>45052.562893518501</v>
       </c>
@@ -12618,7 +12636,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>45052.6738541667</v>
       </c>
@@ -12659,7 +12677,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
         <v>831</v>
       </c>
@@ -12700,7 +12718,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>837</v>
       </c>
@@ -12743,7 +12761,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
         <v>878</v>
       </c>
@@ -12785,7 +12803,7 @@
       </c>
       <c r="R28" s="38"/>
     </row>
-    <row r="29" spans="1:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>883</v>
       </c>
@@ -12827,7 +12845,7 @@
       </c>
       <c r="R29" s="38"/>
     </row>
-    <row r="30" spans="1:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
         <v>888</v>
       </c>
@@ -12901,26 +12919,26 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
     <col min="7" max="7" width="33" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="17" width="18.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" style="20" customWidth="1"/>
-    <col min="19" max="19" width="28.140625" style="20" customWidth="1"/>
-    <col min="20" max="25" width="18.85546875" style="1" customWidth="1"/>
-    <col min="26" max="1024" width="12.5703125" style="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="17" width="18.81640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.81640625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="28.1796875" style="20" customWidth="1"/>
+    <col min="20" max="25" width="18.81640625" style="1" customWidth="1"/>
+    <col min="26" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12989,7 +13007,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
     </row>
-    <row r="2" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>44510.606990972199</v>
       </c>
@@ -13043,7 +13061,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>44510.621671643501</v>
       </c>
@@ -13097,7 +13115,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>44519.393009722196</v>
       </c>
@@ -13151,7 +13169,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>44536.689336226897</v>
       </c>
@@ -13205,7 +13223,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>44545.415467245402</v>
       </c>
@@ -13259,7 +13277,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>44547.4125025463</v>
       </c>
@@ -13313,7 +13331,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>44571.655250347198</v>
       </c>
@@ -13365,7 +13383,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>44664.599232754597</v>
       </c>
@@ -13421,7 +13439,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>44664.614628935196</v>
       </c>
@@ -13469,7 +13487,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>44664.764159490704</v>
       </c>
@@ -13519,7 +13537,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>44665.612281597198</v>
       </c>
@@ -13575,7 +13593,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>44679.852050810201</v>
       </c>
@@ -13631,7 +13649,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>44690.414530786999</v>
       </c>
@@ -13688,7 +13706,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>44724.908495023199</v>
       </c>
@@ -13739,7 +13757,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>44724.915100462997</v>
       </c>
@@ -13793,7 +13811,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>44724.917635300902</v>
       </c>
@@ -13852,7 +13870,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>44748.500684375002</v>
       </c>
@@ -13906,7 +13924,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>44769.6992456019</v>
       </c>
@@ -13960,7 +13978,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>44837.462938194403</v>
       </c>
@@ -14014,7 +14032,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>44907.440478009303</v>
       </c>
@@ -14073,7 +14091,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>44912.925343634299</v>
       </c>
@@ -14132,7 +14150,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>44929.354307870402</v>
       </c>
@@ -14186,7 +14204,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>44943.356896874997</v>
       </c>
@@ -14240,7 +14258,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>44972.571888425897</v>
       </c>
@@ -14299,7 +14317,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>44992.747801851903</v>
       </c>
@@ -14351,7 +14369,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>45016.456743865703</v>
       </c>
@@ -14407,7 +14425,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37">
         <v>45235.6277430556</v>
       </c>
@@ -14470,7 +14488,7 @@
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
     </row>
-    <row r="29" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42">
         <v>45265.410578703697</v>
       </c>
@@ -14531,7 +14549,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
         <v>713</v>
       </c>
@@ -14588,7 +14606,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47">
         <v>44993.3219791667</v>
       </c>
@@ -14649,7 +14667,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>730</v>
       </c>
@@ -14712,7 +14730,7 @@
       <c r="Z32" s="38"/>
       <c r="AA32" s="38"/>
     </row>
-    <row r="33" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>44427.963724074099</v>
       </c>
@@ -14773,7 +14791,7 @@
       <c r="Z33" s="38"/>
       <c r="AA33" s="38"/>
     </row>
-    <row r="34" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>44427.966733564797</v>
       </c>
@@ -14834,21 +14852,21 @@
       <c r="Z34" s="38"/>
       <c r="AA34" s="38"/>
     </row>
-    <row r="35" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U37" s="38"/>
       <c r="V37" s="38"/>
       <c r="W37" s="38"/>
@@ -14857,7 +14875,7 @@
       <c r="Z37" s="38"/>
       <c r="AA37" s="38"/>
     </row>
-    <row r="38" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U38" s="38"/>
       <c r="V38" s="38"/>
       <c r="W38" s="38"/>
@@ -14866,7 +14884,7 @@
       <c r="Z38" s="38"/>
       <c r="AA38" s="38"/>
     </row>
-    <row r="39" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -14893,7 +14911,7 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
     </row>
-    <row r="40" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -14920,7 +14938,7 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
     </row>
-    <row r="41" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -14947,7 +14965,7 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
     </row>
-    <row r="42" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -14974,7 +14992,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
     </row>
-    <row r="45" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -15001,7 +15019,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -15028,7 +15046,7 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -15055,7 +15073,7 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -15082,7 +15100,7 @@
       <c r="X48" s="9"/>
       <c r="Y48" s="9"/>
     </row>
-    <row r="49" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -15109,7 +15127,7 @@
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
     </row>
-    <row r="50" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -15136,7 +15154,7 @@
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -15163,7 +15181,7 @@
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -15190,7 +15208,7 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
     </row>
-    <row r="53" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -15217,7 +15235,7 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="54" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -15244,7 +15262,7 @@
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
     </row>
-    <row r="55" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -15271,7 +15289,7 @@
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
     </row>
-    <row r="56" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -15298,7 +15316,7 @@
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
     </row>
-    <row r="57" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -15325,7 +15343,7 @@
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
     </row>
-    <row r="58" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -15352,7 +15370,7 @@
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
     </row>
-    <row r="59" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -15379,7 +15397,7 @@
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
     </row>
-    <row r="60" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -15406,7 +15424,7 @@
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
     </row>
-    <row r="61" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -15433,7 +15451,7 @@
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
     </row>
-    <row r="62" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -15460,7 +15478,7 @@
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
     </row>
-    <row r="63" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -15487,7 +15505,7 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
     </row>
-    <row r="64" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -15514,7 +15532,7 @@
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
     </row>
-    <row r="65" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -15541,7 +15559,7 @@
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
     </row>
-    <row r="66" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -15568,7 +15586,7 @@
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
     </row>
-    <row r="67" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -15595,7 +15613,7 @@
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
     </row>
-    <row r="68" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -15622,7 +15640,7 @@
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
     </row>
-    <row r="69" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -15649,7 +15667,7 @@
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
     </row>
-    <row r="70" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -15676,7 +15694,7 @@
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
     </row>
-    <row r="71" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -15703,7 +15721,7 @@
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
     </row>
-    <row r="72" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -15730,7 +15748,7 @@
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
     </row>
-    <row r="73" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -15757,7 +15775,7 @@
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
     </row>
-    <row r="74" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -15784,7 +15802,7 @@
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
     </row>
-    <row r="75" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -15811,7 +15829,7 @@
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
     </row>
-    <row r="76" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -15838,7 +15856,7 @@
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
     </row>
-    <row r="77" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -15865,7 +15883,7 @@
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
     </row>
-    <row r="78" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -15892,7 +15910,7 @@
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
     </row>
-    <row r="79" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -15919,7 +15937,7 @@
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
     </row>
-    <row r="80" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -15946,7 +15964,7 @@
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
     </row>
-    <row r="81" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -15973,7 +15991,7 @@
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
     </row>
-    <row r="82" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -16000,7 +16018,7 @@
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
     </row>
-    <row r="83" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -16027,7 +16045,7 @@
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
     </row>
-    <row r="84" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -16054,7 +16072,7 @@
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
     </row>
-    <row r="85" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -16081,7 +16099,7 @@
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
     </row>
-    <row r="86" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -16108,7 +16126,7 @@
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
     </row>
-    <row r="87" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -16135,7 +16153,7 @@
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
     </row>
-    <row r="88" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -16162,7 +16180,7 @@
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
     </row>
-    <row r="89" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -16189,7 +16207,7 @@
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
     </row>
-    <row r="90" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -16216,7 +16234,7 @@
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -16243,7 +16261,7 @@
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
     </row>
-    <row r="92" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -16270,7 +16288,7 @@
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
     </row>
-    <row r="93" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -16297,7 +16315,7 @@
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
     </row>
-    <row r="94" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -16324,7 +16342,7 @@
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
     </row>
-    <row r="95" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -16351,7 +16369,7 @@
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
     </row>
-    <row r="96" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -16378,7 +16396,7 @@
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
     </row>
-    <row r="97" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -16405,7 +16423,7 @@
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
     </row>
-    <row r="98" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -16432,7 +16450,7 @@
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
     </row>
-    <row r="99" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -16459,7 +16477,7 @@
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
     </row>
-    <row r="100" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -16486,7 +16504,7 @@
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
     </row>
-    <row r="101" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -16513,7 +16531,7 @@
       <c r="X101" s="9"/>
       <c r="Y101" s="9"/>
     </row>
-    <row r="102" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -16540,7 +16558,7 @@
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
     </row>
-    <row r="103" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -16567,7 +16585,7 @@
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
     </row>
-    <row r="104" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -16594,7 +16612,7 @@
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
     </row>
-    <row r="105" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -16621,7 +16639,7 @@
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
     </row>
-    <row r="106" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -16648,7 +16666,7 @@
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
     </row>
-    <row r="107" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -16675,7 +16693,7 @@
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
     </row>
-    <row r="108" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -16702,7 +16720,7 @@
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
     </row>
-    <row r="109" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -16729,7 +16747,7 @@
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
     </row>
-    <row r="110" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -16756,7 +16774,7 @@
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
     </row>
-    <row r="111" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -16783,7 +16801,7 @@
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
     </row>
-    <row r="112" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -16810,7 +16828,7 @@
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
     </row>
-    <row r="113" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -16837,7 +16855,7 @@
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
     </row>
-    <row r="114" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -16864,7 +16882,7 @@
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
     </row>
-    <row r="115" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -16891,7 +16909,7 @@
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
     </row>
-    <row r="116" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -16918,7 +16936,7 @@
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
     </row>
-    <row r="117" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -16945,7 +16963,7 @@
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
     </row>
-    <row r="118" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -16972,7 +16990,7 @@
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
     </row>
-    <row r="119" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -16999,7 +17017,7 @@
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
     </row>
-    <row r="120" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -17026,7 +17044,7 @@
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
     </row>
-    <row r="121" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -17053,7 +17071,7 @@
       <c r="X121" s="9"/>
       <c r="Y121" s="9"/>
     </row>
-    <row r="122" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -17080,7 +17098,7 @@
       <c r="X122" s="9"/>
       <c r="Y122" s="9"/>
     </row>
-    <row r="123" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -17107,7 +17125,7 @@
       <c r="X123" s="9"/>
       <c r="Y123" s="9"/>
     </row>
-    <row r="124" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -17134,7 +17152,7 @@
       <c r="X124" s="9"/>
       <c r="Y124" s="9"/>
     </row>
-    <row r="125" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -17206,27 +17224,27 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="18" width="18.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="37.28515625" style="20" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" style="20" customWidth="1"/>
-    <col min="22" max="24" width="18.85546875" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="18" width="18.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.81640625" style="20" customWidth="1"/>
+    <col min="20" max="20" width="37.26953125" style="20" customWidth="1"/>
+    <col min="21" max="21" width="18.81640625" style="20" customWidth="1"/>
+    <col min="22" max="24" width="18.81640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -17294,7 +17312,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44427.932484722201</v>
       </c>
@@ -17352,7 +17370,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
     </row>
-    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44427.939851157404</v>
       </c>
@@ -17410,7 +17428,7 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44427.947995254603</v>
       </c>
@@ -17468,7 +17486,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>44427.969025810198</v>
       </c>
@@ -17523,7 +17541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44427.971651504602</v>
       </c>
@@ -17578,7 +17596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>44427.977659027798</v>
       </c>
@@ -17633,7 +17651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>44427.979484606498</v>
       </c>
@@ -17688,7 +17706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>44664.623678935197</v>
       </c>
@@ -17742,7 +17760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>44664.629289467601</v>
       </c>
@@ -17790,7 +17808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="36.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>44721.479891666699</v>
       </c>
@@ -17849,7 +17867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>44799.3730923611</v>
       </c>
@@ -17908,7 +17926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>44960.467609143503</v>
       </c>
@@ -17967,7 +17985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>44998.039198495397</v>
       </c>
@@ -18026,7 +18044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>45012.448258796299</v>
       </c>
@@ -18085,7 +18103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>761</v>
       </c>
@@ -18147,7 +18165,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47">
         <v>44932.986134259299</v>
       </c>
@@ -18212,7 +18230,7 @@
       <c r="Z17" s="38"/>
       <c r="AA17" s="38"/>
     </row>
-    <row r="18" spans="1:27" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="48.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>781</v>
       </c>
@@ -18273,7 +18291,7 @@
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -18299,7 +18317,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -18325,7 +18343,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -18351,7 +18369,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -18377,7 +18395,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -18403,7 +18421,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -18429,7 +18447,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -18455,7 +18473,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -18481,7 +18499,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -18507,7 +18525,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -18533,7 +18551,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -18559,7 +18577,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -18585,7 +18603,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -18611,7 +18629,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -18637,7 +18655,7 @@
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -18663,7 +18681,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -18689,7 +18707,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -18715,7 +18733,7 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -18741,7 +18759,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -18767,7 +18785,7 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -18793,7 +18811,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -18819,7 +18837,7 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -18845,7 +18863,7 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -18871,7 +18889,7 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -18897,7 +18915,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -18923,7 +18941,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -18949,7 +18967,7 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -18975,7 +18993,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -19001,7 +19019,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -19027,7 +19045,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -19053,7 +19071,7 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -19079,7 +19097,7 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -19105,7 +19123,7 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -19131,7 +19149,7 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -19157,7 +19175,7 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -19183,7 +19201,7 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -19209,7 +19227,7 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -19235,7 +19253,7 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -19261,7 +19279,7 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -19287,7 +19305,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -19313,7 +19331,7 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -19339,7 +19357,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -19365,7 +19383,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -19391,7 +19409,7 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -19417,7 +19435,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -19443,7 +19461,7 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -19469,7 +19487,7 @@
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -19495,7 +19513,7 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -19521,7 +19539,7 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -19547,7 +19565,7 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -19573,7 +19591,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -19599,7 +19617,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -19625,7 +19643,7 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -19651,7 +19669,7 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -19677,7 +19695,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -19703,7 +19721,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -19729,7 +19747,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -19755,7 +19773,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -19781,7 +19799,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -19807,7 +19825,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -19833,7 +19851,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -19859,7 +19877,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -19885,7 +19903,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -19911,7 +19929,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -19937,7 +19955,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -19963,7 +19981,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -19989,7 +20007,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -20015,7 +20033,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -20041,7 +20059,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -20067,7 +20085,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -20093,7 +20111,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -20119,7 +20137,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -20145,7 +20163,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -20171,7 +20189,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -20197,7 +20215,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -20223,7 +20241,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -20249,7 +20267,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -20275,7 +20293,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -20301,7 +20319,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -20327,7 +20345,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -20353,7 +20371,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -20379,7 +20397,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -20405,7 +20423,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -20431,7 +20449,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -20457,7 +20475,7 @@
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -20483,7 +20501,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -20509,7 +20527,7 @@
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -20535,7 +20553,7 @@
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -20561,7 +20579,7 @@
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -20587,7 +20605,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -20613,7 +20631,7 @@
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -20639,7 +20657,7 @@
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -20665,7 +20683,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -20691,7 +20709,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -20717,7 +20735,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -20743,7 +20761,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -20769,7 +20787,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -20835,23 +20853,23 @@
       <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="77.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="77.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -20911,7 +20929,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>44665.383020370398</v>
       </c>
@@ -20961,7 +20979,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="47">
         <v>45265.4239930556</v>
       </c>
@@ -21018,7 +21036,7 @@
       <c r="Z3" s="38"/>
       <c r="AA3" s="38"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -21044,7 +21062,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -21070,7 +21088,7 @@
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -21096,7 +21114,7 @@
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -21122,7 +21140,7 @@
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -21148,7 +21166,7 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -21174,7 +21192,7 @@
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -21200,7 +21218,7 @@
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -21226,7 +21244,7 @@
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -21252,7 +21270,7 @@
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -21278,7 +21296,7 @@
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -21304,7 +21322,7 @@
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -21330,7 +21348,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -21356,7 +21374,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -21382,7 +21400,7 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -21408,7 +21426,7 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -21434,7 +21452,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -21460,7 +21478,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -21486,7 +21504,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -21512,7 +21530,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -21538,7 +21556,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -21564,7 +21582,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -21590,7 +21608,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -21616,7 +21634,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -21642,7 +21660,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -21668,7 +21686,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -21694,7 +21712,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -21720,7 +21738,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -21746,7 +21764,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -21772,7 +21790,7 @@
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -21798,7 +21816,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -21824,7 +21842,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -21850,7 +21868,7 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -21876,7 +21894,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -21902,7 +21920,7 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -21928,7 +21946,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -21954,7 +21972,7 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -21980,7 +21998,7 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -22006,7 +22024,7 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -22032,7 +22050,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -22058,7 +22076,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -22084,7 +22102,7 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -22110,7 +22128,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -22136,7 +22154,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -22162,7 +22180,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -22188,7 +22206,7 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -22214,7 +22232,7 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -22240,7 +22258,7 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -22266,7 +22284,7 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -22292,7 +22310,7 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -22318,7 +22336,7 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -22344,7 +22362,7 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -22370,7 +22388,7 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -22396,7 +22414,7 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -22422,7 +22440,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -22448,7 +22466,7 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -22474,7 +22492,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -22500,7 +22518,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -22526,7 +22544,7 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -22552,7 +22570,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -22578,7 +22596,7 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -22604,7 +22622,7 @@
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -22630,7 +22648,7 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -22656,7 +22674,7 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -22682,7 +22700,7 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -22708,7 +22726,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -22734,7 +22752,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -22760,7 +22778,7 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -22786,7 +22804,7 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -22812,7 +22830,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -22838,7 +22856,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -22864,7 +22882,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -22890,7 +22908,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -22916,7 +22934,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -22942,7 +22960,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -22968,7 +22986,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -22994,7 +23012,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -23020,7 +23038,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -23046,7 +23064,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -23072,7 +23090,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -23098,7 +23116,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -23124,7 +23142,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -23150,7 +23168,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -23176,7 +23194,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -23202,7 +23220,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -23228,7 +23246,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -23254,7 +23272,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -23280,7 +23298,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -23306,7 +23324,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -23332,7 +23350,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -23358,7 +23376,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -23384,7 +23402,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -23410,7 +23428,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -23436,7 +23454,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -23462,7 +23480,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -23488,7 +23506,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -23514,7 +23532,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -23540,7 +23558,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -23566,7 +23584,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -23613,25 +23631,25 @@
       <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="17" width="18.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="82.28515625" style="1" customWidth="1"/>
-    <col min="19" max="24" width="18.85546875" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="17" width="18.81640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="82.26953125" style="1" customWidth="1"/>
+    <col min="19" max="24" width="18.81640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -23691,7 +23709,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="13"/>
       <c r="C2" s="77"/>
@@ -23709,7 +23727,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="13"/>
       <c r="C3" s="77"/>
@@ -23727,7 +23745,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
     </row>
-    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="13"/>
       <c r="C4" s="77"/>
@@ -23745,7 +23763,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="13"/>
       <c r="C5" s="77"/>
@@ -23763,7 +23781,7 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="13"/>
       <c r="C6" s="77"/>
@@ -23781,7 +23799,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="13"/>
       <c r="C7" s="77"/>
@@ -23798,7 +23816,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>44519.396759837997</v>
       </c>
@@ -23840,7 +23858,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>44521.415261921298</v>
       </c>
@@ -23882,7 +23900,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>44521.417680324099</v>
       </c>
@@ -23924,7 +23942,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>44531.422715046298</v>
       </c>
@@ -23966,7 +23984,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>44645.469280208301</v>
       </c>
@@ -24007,7 +24025,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>44664.7695739583</v>
       </c>
@@ -24045,7 +24063,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>44714.613704513897</v>
       </c>
@@ -24083,7 +24101,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>44737.343279629597</v>
       </c>
@@ -24121,7 +24139,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="13"/>
       <c r="C16" s="54"/>
@@ -24136,7 +24154,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>44748.505962499999</v>
       </c>
@@ -24177,7 +24195,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>44748.507295949101</v>
       </c>
@@ -24218,7 +24236,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>44748.508126967601</v>
       </c>
@@ -24256,7 +24274,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="13"/>
       <c r="C20" s="55"/>
@@ -24272,7 +24290,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -24287,7 +24305,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>44769.701641435197</v>
       </c>
@@ -24328,7 +24346,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>44774.632290162001</v>
       </c>
@@ -24369,7 +24387,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>44774.633085995403</v>
       </c>
@@ -24410,7 +24428,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>44774.633985648099</v>
       </c>
@@ -24451,7 +24469,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="13"/>
       <c r="C26" s="77"/>
@@ -24467,7 +24485,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="13"/>
       <c r="C27" s="77"/>
@@ -24483,7 +24501,7 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="13"/>
       <c r="C28" s="77"/>
@@ -24499,7 +24517,7 @@
       <c r="O28" s="13"/>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="13"/>
       <c r="C29" s="77"/>
@@ -24515,7 +24533,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="13"/>
       <c r="C30" s="77"/>
@@ -24531,7 +24549,7 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
     </row>
-    <row r="31" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="13"/>
       <c r="C31" s="77"/>
@@ -24547,7 +24565,7 @@
       <c r="O31" s="13"/>
       <c r="Q31" s="13"/>
     </row>
-    <row r="32" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>44858.786968055603</v>
       </c>
@@ -24585,7 +24603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>44875.434203009303</v>
       </c>
@@ -24617,7 +24635,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>44875.443288541697</v>
       </c>
@@ -24649,7 +24667,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>44969.706999305599</v>
       </c>
@@ -24684,7 +24702,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>44984.918457754597</v>
       </c>
@@ -24716,7 +24734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>44984.920112500004</v>
       </c>
@@ -24748,7 +24766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42">
         <v>45265.412118055603</v>
       </c>
@@ -24789,7 +24807,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47">
         <v>45265.425995370402</v>
       </c>
@@ -24830,7 +24848,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="13"/>
       <c r="C40" s="77"/>
@@ -24843,7 +24861,7 @@
       <c r="L40" s="13"/>
       <c r="Q40" s="13"/>
     </row>
-    <row r="41" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" s="38"/>
       <c r="C41" s="85"/>
@@ -24862,22 +24880,22 @@
       <c r="P41" s="38"/>
       <c r="Q41" s="57"/>
     </row>
-    <row r="42" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:24" ht="36.6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:24" ht="36.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:24" ht="37.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="44"/>
       <c r="B57" s="38"/>
       <c r="C57" s="85"/>
@@ -24896,7 +24914,7 @@
       <c r="P57" s="38"/>
       <c r="Q57" s="38"/>
     </row>
-    <row r="58" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="47"/>
       <c r="B58" s="38"/>
       <c r="C58" s="38"/>
@@ -24915,7 +24933,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="38"/>
     </row>
-    <row r="59" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
@@ -24934,7 +24952,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="29"/>
     </row>
-    <row r="60" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="44"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38"/>
@@ -24953,7 +24971,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="38"/>
     </row>
-    <row r="61" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="44"/>
       <c r="B61" s="38"/>
       <c r="C61" s="38"/>
@@ -24972,7 +24990,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="29"/>
     </row>
-    <row r="62" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="44"/>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
@@ -24991,7 +25009,7 @@
       <c r="P62" s="38"/>
       <c r="Q62" s="38"/>
     </row>
-    <row r="63" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="47"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
@@ -25010,7 +25028,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="29"/>
     </row>
-    <row r="64" spans="1:24" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="47"/>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
@@ -25036,7 +25054,7 @@
       <c r="W64" s="38"/>
       <c r="X64" s="38"/>
     </row>
-    <row r="65" spans="1:27" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R65" s="38"/>
       <c r="S65" s="38"/>
       <c r="T65" s="38"/>
@@ -25048,7 +25066,7 @@
       <c r="Z65" s="38"/>
       <c r="AA65" s="38"/>
     </row>
-    <row r="66" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R66" s="38"/>
       <c r="S66" s="38"/>
       <c r="T66" s="38"/>
@@ -25060,7 +25078,7 @@
       <c r="Z66" s="38"/>
       <c r="AA66" s="38"/>
     </row>
-    <row r="67" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R67" s="38"/>
       <c r="S67" s="38"/>
       <c r="T67" s="38"/>
@@ -25072,7 +25090,7 @@
       <c r="Z67" s="38"/>
       <c r="AA67" s="38"/>
     </row>
-    <row r="68" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R68" s="38"/>
       <c r="S68" s="38"/>
       <c r="T68" s="38"/>
@@ -25084,7 +25102,7 @@
       <c r="Z68" s="38"/>
       <c r="AA68" s="38"/>
     </row>
-    <row r="69" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R69" s="38"/>
       <c r="S69" s="38"/>
       <c r="T69" s="38"/>
@@ -25096,7 +25114,7 @@
       <c r="Z69" s="38"/>
       <c r="AA69" s="38"/>
     </row>
-    <row r="70" spans="1:27" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R70" s="38"/>
       <c r="S70" s="38"/>
       <c r="T70" s="38"/>
@@ -25108,7 +25126,7 @@
       <c r="Z70" s="38"/>
       <c r="AA70" s="38"/>
     </row>
-    <row r="71" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R71" s="38"/>
       <c r="S71" s="38"/>
       <c r="T71" s="38"/>
@@ -25120,7 +25138,7 @@
       <c r="Z71" s="38"/>
       <c r="AA71" s="38"/>
     </row>
-    <row r="72" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R72" s="40"/>
       <c r="S72" s="29"/>
       <c r="T72" s="38"/>
@@ -25132,7 +25150,7 @@
       <c r="Z72" s="38"/>
       <c r="AA72" s="38"/>
     </row>
-    <row r="73" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R73" s="38"/>
       <c r="S73" s="38"/>
       <c r="T73" s="38"/>
@@ -25144,7 +25162,7 @@
       <c r="Z73" s="38"/>
       <c r="AA73" s="38"/>
     </row>
-    <row r="74" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R74" s="38"/>
       <c r="S74" s="38"/>
       <c r="T74" s="38"/>
@@ -25156,7 +25174,7 @@
       <c r="Z74" s="38"/>
       <c r="AA74" s="38"/>
     </row>
-    <row r="75" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="47"/>
       <c r="B75" s="38"/>
       <c r="C75" s="38"/>
@@ -25185,7 +25203,7 @@
       <c r="Z75" s="38"/>
       <c r="AA75" s="38"/>
     </row>
-    <row r="76" spans="1:27" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" ht="39.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44"/>
       <c r="B76" s="38"/>
       <c r="C76" s="38"/>
@@ -25214,7 +25232,7 @@
       <c r="Z76" s="38"/>
       <c r="AA76" s="38"/>
     </row>
-    <row r="77" spans="1:27" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="44"/>
       <c r="B77" s="38"/>
       <c r="C77" s="38"/>
@@ -25243,7 +25261,7 @@
       <c r="Z77" s="38"/>
       <c r="AA77" s="38"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="44"/>
       <c r="B78" s="38"/>
       <c r="C78" s="38"/>
@@ -25272,7 +25290,7 @@
       <c r="Z78" s="38"/>
       <c r="AA78" s="38"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="44"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38"/>
@@ -25301,7 +25319,7 @@
       <c r="Z79" s="38"/>
       <c r="AA79" s="38"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -25327,7 +25345,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -25353,7 +25371,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -25379,7 +25397,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -25405,7 +25423,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -25431,7 +25449,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -25457,7 +25475,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -25483,7 +25501,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -25509,7 +25527,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -25535,7 +25553,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -25561,7 +25579,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -25587,7 +25605,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -25613,7 +25631,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -25639,7 +25657,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -25665,7 +25683,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -25691,7 +25709,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -25717,7 +25735,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -25743,7 +25761,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -25769,7 +25787,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -25795,7 +25813,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -25821,7 +25839,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -25847,7 +25865,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -25873,7 +25891,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -25899,7 +25917,7 @@
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -25925,7 +25943,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -25951,7 +25969,7 @@
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -25977,7 +25995,7 @@
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -26003,7 +26021,7 @@
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -26029,7 +26047,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -26055,7 +26073,7 @@
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -26081,7 +26099,7 @@
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -26107,7 +26125,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -26133,7 +26151,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -26159,7 +26177,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -26185,7 +26203,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -26211,7 +26229,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -26237,7 +26255,7 @@
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -26263,7 +26281,7 @@
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -26289,7 +26307,7 @@
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -26315,7 +26333,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -26341,7 +26359,7 @@
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -26367,7 +26385,7 @@
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -26393,7 +26411,7 @@
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -26419,7 +26437,7 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -26445,7 +26463,7 @@
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -26471,7 +26489,7 @@
       <c r="W124" s="9"/>
       <c r="X124" s="9"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -26497,7 +26515,7 @@
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -26523,7 +26541,7 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -26549,7 +26567,7 @@
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -26575,7 +26593,7 @@
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -26601,7 +26619,7 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -26627,7 +26645,7 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -26653,7 +26671,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -26679,7 +26697,7 @@
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -26705,7 +26723,7 @@
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -26731,7 +26749,7 @@
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -26757,7 +26775,7 @@
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -26783,7 +26801,7 @@
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -26809,7 +26827,7 @@
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -26835,7 +26853,7 @@
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -26861,7 +26879,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -26887,7 +26905,7 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -26913,7 +26931,7 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -26939,7 +26957,7 @@
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -26965,7 +26983,7 @@
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -26991,7 +27009,7 @@
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -27017,7 +27035,7 @@
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -27043,7 +27061,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -27069,7 +27087,7 @@
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -27095,7 +27113,7 @@
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -27121,7 +27139,7 @@
       <c r="W149" s="9"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -27147,7 +27165,7 @@
       <c r="W150" s="9"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -27173,7 +27191,7 @@
       <c r="W151" s="9"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -27199,7 +27217,7 @@
       <c r="W152" s="9"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -27225,7 +27243,7 @@
       <c r="W153" s="9"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -27251,7 +27269,7 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -27277,7 +27295,7 @@
       <c r="W155" s="9"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -27303,7 +27321,7 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -27329,7 +27347,7 @@
       <c r="W157" s="9"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -27355,7 +27373,7 @@
       <c r="W158" s="9"/>
       <c r="X158" s="9"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -27381,7 +27399,7 @@
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -27407,7 +27425,7 @@
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -27433,7 +27451,7 @@
       <c r="W161" s="9"/>
       <c r="X161" s="9"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -27459,7 +27477,7 @@
       <c r="W162" s="9"/>
       <c r="X162" s="9"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -27509,20 +27527,20 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="59" customWidth="1"/>
-    <col min="4" max="5" width="11.140625" style="59" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="58" customWidth="1"/>
-    <col min="7" max="7" width="61.7109375" style="58" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" style="58" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" customWidth="1"/>
-    <col min="10" max="1024" width="11.5703125" style="60"/>
+    <col min="1" max="1" width="38.81640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="48.453125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="59" customWidth="1"/>
+    <col min="4" max="5" width="11.1796875" style="59" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" style="58" customWidth="1"/>
+    <col min="7" max="7" width="61.7265625" style="58" customWidth="1"/>
+    <col min="8" max="8" width="66.7265625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="25.54296875" customWidth="1"/>
+    <col min="10" max="1024" width="11.54296875" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1024" ht="26" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>629</v>
       </c>
@@ -27548,7 +27566,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>652</v>
       </c>
@@ -27570,7 +27588,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>701</v>
       </c>
@@ -27592,7 +27610,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>712</v>
       </c>
@@ -27614,7 +27632,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>721</v>
       </c>
@@ -27636,7 +27654,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
         <v>729</v>
       </c>
@@ -27658,7 +27676,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
         <v>685</v>
       </c>
@@ -27680,7 +27698,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>912</v>
       </c>
@@ -27702,7 +27720,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
         <v>632</v>
       </c>
@@ -27722,7 +27740,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
         <v>634</v>
       </c>
@@ -27745,7 +27763,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>639</v>
       </c>
@@ -27765,7 +27783,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>649</v>
       </c>
@@ -28800,7 +28818,7 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
         <v>660</v>
       </c>
@@ -28823,7 +28841,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>663</v>
       </c>
@@ -28843,7 +28861,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>657</v>
       </c>
@@ -28867,7 +28885,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
         <v>678</v>
       </c>
@@ -28887,7 +28905,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="17" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>675</v>
       </c>
@@ -28910,7 +28928,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="18" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
         <v>687</v>
       </c>
@@ -28934,7 +28952,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="19" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>667</v>
       </c>
@@ -28957,7 +28975,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="20" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1024" ht="25" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>641</v>
       </c>
@@ -28977,7 +28995,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="21" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A21" s="71" t="s">
         <v>643</v>
       </c>
@@ -29000,7 +29018,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="22" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1024" ht="25" x14ac:dyDescent="0.25">
       <c r="A22" s="63" t="s">
         <v>203</v>
       </c>
@@ -29023,7 +29041,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="23" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>681</v>
       </c>
@@ -29043,7 +29061,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="24" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
         <v>691</v>
       </c>
@@ -29063,7 +29081,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="25" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
         <v>272</v>
       </c>
@@ -29083,7 +29101,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="26" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
         <v>671</v>
       </c>
@@ -30122,7 +30140,7 @@
       <c r="AMI26"/>
       <c r="AMJ26"/>
     </row>
-    <row r="27" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -30132,86 +30150,86 @@
       <c r="G27"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>943</v>
       </c>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="31" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="G31" s="77"/>
     </row>
-    <row r="32" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="G32" s="77"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="78"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="77"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" s="77"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" s="77"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" s="77"/>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G38" s="77"/>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G40" s="13"/>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G41"/>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G42"/>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G43"/>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G44"/>
     </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G45"/>
     </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G46"/>
     </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G47"/>
     </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G48"/>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G49"/>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G50"/>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G51"/>
     </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G52"/>
     </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G53"/>
     </row>
   </sheetData>
@@ -30226,18 +30244,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3524DD-6BC8-4279-8A6A-13C51479D53D}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="78" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -30290,7 +30308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>44508.576334143501</v>
       </c>
@@ -30333,7 +30351,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>44510.635692708303</v>
       </c>
@@ -30376,7 +30394,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>44687.332683333298</v>
       </c>
@@ -30419,7 +30437,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>44714.631931828699</v>
       </c>
@@ -30466,7 +30484,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>44743.461584375</v>
       </c>
@@ -30513,7 +30531,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>44743.470339120402</v>
       </c>
@@ -30560,7 +30578,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>44743.522404282397</v>
       </c>
@@ -30607,7 +30625,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>44763.373567361101</v>
       </c>
@@ -30654,7 +30672,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>44838.598316782402</v>
       </c>
@@ -30701,7 +30719,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>44838.604422453704</v>
       </c>
@@ -30748,7 +30766,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>44844.515792939797</v>
       </c>
@@ -30793,7 +30811,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>44858.360405555599</v>
       </c>
@@ -30840,7 +30858,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>44962.636147222198</v>
       </c>
@@ -30883,7 +30901,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>44987.657589930597</v>
       </c>
@@ -30924,7 +30942,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47">
         <v>45084.7566898148</v>
       </c>
@@ -30969,7 +30987,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47">
         <v>45084.761666666702</v>
       </c>
@@ -31012,7 +31030,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47">
         <v>45237.442407407398</v>
       </c>
@@ -31054,6 +31072,57 @@
       <c r="Q18" s="29" t="s">
         <v>870</v>
       </c>
+    </row>
+    <row r="19" spans="1:27" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="86">
+        <v>45056.647337962961</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>944</v>
+      </c>
+      <c r="E19" s="87" t="s">
+        <v>945</v>
+      </c>
+      <c r="F19" s="87" t="s">
+        <v>696</v>
+      </c>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87" t="s">
+        <v>946</v>
+      </c>
+      <c r="I19" s="88">
+        <v>45056</v>
+      </c>
+      <c r="J19" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="87"/>
+      <c r="L19" s="71" t="s">
+        <v>945</v>
+      </c>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -31075,6 +31144,7 @@
     <hyperlink ref="K18" r:id="rId16" xr:uid="{F65C9789-3F21-45FD-9CB4-39E9850DD48A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -31086,12 +31156,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="78" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -31144,7 +31214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>44684.589149305597</v>
       </c>
@@ -31191,7 +31261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>44875.441085763901</v>
       </c>
@@ -31230,7 +31300,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>825</v>
       </c>
@@ -31271,7 +31341,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>871</v>
       </c>
@@ -31314,7 +31384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>942</v>
       </c>
@@ -31336,12 +31406,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="78" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -31398,7 +31468,7 @@
       <c r="T1" s="75"/>
       <c r="U1" s="76"/>
     </row>
-    <row r="2" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>44537.460719444498</v>
       </c>
@@ -31439,7 +31509,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>44747.804503819403</v>
       </c>
@@ -31484,7 +31554,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>44845.4522701389</v>
       </c>
@@ -31529,7 +31599,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>797</v>
       </c>

--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55335904-7C62-476B-897D-9958358D2791}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B6A524-CE85-4694-8301-312D88177F9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="968">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3523,6 +3523,103 @@
   </si>
   <si>
     <t>International Conference on Data-Integrated Simulation Science (SimTech2023), https://www.simtech2023.uni-stuttgart.de/, 04. - 06. Oktober 2023, Sutttgart</t>
+  </si>
+  <si>
+    <t>GlucoCEST MRI to Assess Alterations in the Corticomedullary Glucose Gradient in a Rat Model of S-AKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wan-Ting Zhao, Karl-Heinz Herrmann, Jürgen R. Reichenbach and Verena Hoerr
+</t>
+  </si>
+  <si>
+    <t>The renal cortex and medulla exhibit distinct responses to glucose stimuli, highlighting their differential metabolic roles. This leads to variations in glucose concentrations between cortex and medulla, which are further influenced by different pathophysiologies. Therefore, in our study we could show, that investigating the distribution of glucose allows for the elucidation of disrupted nutritional utilization and inflammatory processes in sepsis-associated acute kidney injury (S-AKI).</t>
+  </si>
+  <si>
+    <t>25th DS-ISMRM (Germany chapter International Society for Magnetic Resonance in Medicine), Berlin, 6-7 September, 2023, Poster#20, https://www.ds-ismrm2023.ptb.de/en/home</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1c4zMFbWCFPNyYP_ZzZnhe7k7rJ9sIyIh</t>
+  </si>
+  <si>
+    <t>Wan-Ting Zhao, Karl-Heinz Herrmann, Jürgen R. Reichenbach</t>
+  </si>
+  <si>
+    <t>Adaptive Response of Liver Perfusion in Preclinical Portal Vein Ligation</t>
+  </si>
+  <si>
+    <t>Wan-Ting Zhao, Weiwei Wei, Karl-Heinz Herrmann, Martin Krämer, Uta Dahmen, Jürgen R. Reichenbach</t>
+  </si>
+  <si>
+    <t>Introduction
+In clinical practice, portal vein ligation (PVL, Fig.1-A) is a prelude of standard two-step hepatectomy to induce hypertrophy-atrophy complex. However, the regenerated liver volume often exhibits marked heterogeneity [1]. One theory of the liver’s response to PVL-induced blood supply restriction is that increased shear stress in the non-ligated lobes triggers liver regeneration to counterbalance functional decline. Yet, the intricate dynamics between non-ligated lobes and ligated lobes remains elusive [2]. To date, identification of liver function loss has relied on either invasive liver biopsy and/or systemic biochemical data (such as ASAT, ALAT, bilirubin), which provide limited insight into individual lobes [2]. Arterial spin labeling (ASL) MRI is a non-contrast, non-invasive technique that allows quantitative assessment of perfusion and can resolve the intralobar perfusion changes after PVL. The aim of our study was to delineate the changes in perfusion over time at days 1, 2, 3, and 5 after portal vein ligation in a cross-sectional study (Fig.1-B).
+Methods
+MRI data were collected on a Bruker BioSpec 94/20USR AVIII scanner using an 86 mm quadrature transceiver coil. A total of 23 animals were studied. PVL was performed by surgical ligation of portal branches of left lateral, left median and right lobes representing 65% PVL. After PVL (s. Fig 1A), animals were intubated for mechanical ventilation (tidal volume Vt = 5.5 ml, constant respiratory rate in the range of 45-55 bpm). To quantify the “kinetics” and re-distribution of the blood supply, respiratory-triggered MRI measurements and liver tissue harvesting were performed 1, 2, 3, or 5 days after surgery (POD1,2,3,5). Anatomic T2W images were acquired with a 3D VFA-RARE sequence. TR/TE = 1000/1.97 ms, RARE factor = 100, isotropic Resl = 350μm3, BW = 250 kHz, TA ~7m30 s with trigger. Multiple single-slice perfusion images were acquired using a FAIR-EPI sequence with TR/TE = 12000/12.87 ms, 14 TIs ranging from 100 – 5150 ms, Resl = (625 x 625 x 2000) μm3, TA ~ 10m 5s with trigger. Manual segmentation of ROIs on Bruker perfusion maps was performed with MATLAB (R2019a, MathWorks), followed by plotting and statistics (Python v.3.8, Seaborn v. 0.12.2, SciPy v.1.7.1). The Mann-Whitney test was applied, and p &lt; 0.05 was considered significant.
+Results
+Starting from POD1, the ligated lobes (LML, LLL and RL, Fig.2-A, blue dashed line) showed a darker contrast compared with the non-ligated lobes (RML, CL, Fig.2-A, red dashed line), and this contrast persisted in the anatomical images. In control animals (Ctrl), the average tissue perfusion across all lobes was 307±50 ml/min/100g tissue. For the operated animals, both non-ligated lobes exhibited hyperperfusion at POD1 (Fig.2-C, RML: 440 ± 84 ml/min/100g tissue; CL: 390 ± 37ml/ min/100g tissue), which was decreased at POD2 (insignificant compared to Ctrl) and reached equilibrium at POD5. In contrast, perfusion of ligated lobes remained minimal at approximately 150±50 ml/min/100g tissue. Notably, RML demonstrated the highest heterogeneity at POD1.
+Discussion
+The liver has a unique dual blood supply: it is supplied 25% by the hepatic artery and 75% by the portal vein [2]. When the portal vein of a lobe is ligated, the latter is supplied exclusively by the hepatic artery, which delivers oxygenated blood from the heart. Conversely, the non-ligated lobe is supplied with nutrient-rich, oxygen-poor blood from the intestine, resulting in a brighter contrast than the ligated lobes. The time course of the perfusion shows that the key time point is POD1-2. All ligated lobes exhibited an overshoot trend at POD1 and a re-elevated perfusion from POD2 on, suggesting a buffering response of the hepatic artery [3]. Our results demonstrate the dynamics of rapid perfusion changes after PVL in multiple lobes. Further studies are needed to refine and confirm our findings, preferably in a longitudinal study design.
+Conclusion
+ASL perfusion is a sensitive method to detect perfusion adaptation after PVL in the liver.</t>
+  </si>
+  <si>
+    <t>39th European Society for Magnetic Resonance in Medicine and Biology, Basel, Switzerland. Poster#LB280</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1hhDEEvNj9xy7pBXNrH6jwPZBsSvmDu8y</t>
+  </si>
+  <si>
+    <t>Wan-Ting Zhao, Weiwei Wei, Karl-Heinz Herrmann, Uta Dahmen, Jürgen R. Reichenbach</t>
+  </si>
+  <si>
+    <t>sebastianhoepfl@gmx.de</t>
+  </si>
+  <si>
+    <t>Hosting and organization of COMBINE 2024</t>
+  </si>
+  <si>
+    <t>Hosting and organiztion of the Computational Modeling in Biology” Network (COMBINE) meeting 2024 in Stuttgart</t>
+  </si>
+  <si>
+    <t>Radde Nicole, Waltemath Dagmar, Höpfl Sebastian</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Radde Nicole, Höpfl Sebastian</t>
+  </si>
+  <si>
+    <t>Höpfl Sebastian, Wagner Vincent, Guizeni Eya, Pleiss Jürgen, Range Jan, Radde Nicole</t>
+  </si>
+  <si>
+    <t>The acquisition of experimental data in Systems Biology is time-consuming
+and costly. On the one hand, this is due to expensive chemicals, such as antibodies,
+on the other hand, due to the need for extensive preparation, incubation,
+and purification procedures of experiments. Finding the best experiment design
+helps to get the maximum possible information out of limited experimental data,
+thereby minimizing cost and time. Here, we present first results of Bayesian Optimal
+Experiment Design (BOED) in a Findable, Accessible, Interoperable, and
+Reusable (FAIR) fashion. In particular, our approach makes use of the Systems
+Biology Markup Language (SBML), the de facto modeling standard in Systems
+Biology, and is set up in an easily applicable and reusable way. Models, data,
+and code will be stored on Fairdomhub.
+BOED was applied to Michaelis-Menten enzyme kinetics with different initial
+substrate concentrations cinit (Figure 1). In the first attempt, three different
+experimental designs were investigated with artificial data. The first design includes
+three measurements with initial substrate concentrations larger than KM,
+the second design includes three measurements with initial substrate concentrations
+lower than KM, and the third design includes only two measurements but
+with lower and higher initial substrate concentrations than KM. Our results
+show that in the first design only kkat but not KM can be identified. In the
+second design, kkat and KM are correlated. Only in the third design with only
+two experiments, both parameters can be identified and the IG was highest.
+These results demonstrate that proper planning of the experimental design can
+improve the estimation of the parameters and at the same time reduce the number
+of experiments needed. Now, the next step is to predict the optimal starting
+concentrations via BOED.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Vy89z1GwjfkOrDuKTUE1we06nRZsKWQc</t>
   </si>
 </sst>
 </file>
@@ -3713,7 +3810,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3951,6 +4048,7 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -23628,7 +23726,7 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -24603,7 +24701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>44875.434203009303</v>
       </c>
@@ -24635,7 +24733,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>44875.443288541697</v>
       </c>
@@ -24667,7 +24765,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>44969.706999305599</v>
       </c>
@@ -24702,7 +24800,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>44984.918457754597</v>
       </c>
@@ -24734,7 +24832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>44984.920112500004</v>
       </c>
@@ -24766,7 +24864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42">
         <v>45265.412118055603</v>
       </c>
@@ -24807,7 +24905,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47">
         <v>45265.425995370402</v>
       </c>
@@ -24848,20 +24946,56 @@
         <v>710</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="86">
+        <v>45087.540486111109</v>
+      </c>
+      <c r="B40" s="87" t="s">
+        <v>959</v>
+      </c>
+      <c r="C40" s="87" t="s">
+        <v>960</v>
+      </c>
+      <c r="D40" s="87" t="s">
+        <v>961</v>
+      </c>
+      <c r="E40" s="87" t="s">
+        <v>962</v>
+      </c>
+      <c r="F40" s="87" t="s">
+        <v>963</v>
+      </c>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="88">
+        <v>45300</v>
+      </c>
+      <c r="J40" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="87"/>
+      <c r="L40" s="71" t="s">
+        <v>964</v>
+      </c>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="R40" s="87"/>
+      <c r="S40" s="87"/>
+      <c r="T40" s="87"/>
+      <c r="U40" s="87"/>
+      <c r="V40" s="87"/>
+      <c r="W40" s="87"/>
+      <c r="X40" s="87"/>
+      <c r="Y40" s="87"/>
+      <c r="Z40" s="87"/>
+      <c r="AA40" s="87"/>
+    </row>
+    <row r="41" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" s="38"/>
       <c r="C41" s="85"/>
@@ -24880,13 +25014,13 @@
       <c r="P41" s="38"/>
       <c r="Q41" s="57"/>
     </row>
-    <row r="42" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:27" ht="34" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:24" ht="36.65" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30244,10 +30378,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3524DD-6BC8-4279-8A6A-13C51479D53D}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -31123,6 +31257,163 @@
       <c r="Y19" s="87"/>
       <c r="Z19" s="87"/>
       <c r="AA19" s="87"/>
+    </row>
+    <row r="20" spans="1:27" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="86">
+        <v>45087.503437500003</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>547</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>947</v>
+      </c>
+      <c r="E20" s="87" t="s">
+        <v>948</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>949</v>
+      </c>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87" t="s">
+        <v>950</v>
+      </c>
+      <c r="I20" s="88">
+        <v>45086</v>
+      </c>
+      <c r="J20" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="89" t="s">
+        <v>951</v>
+      </c>
+      <c r="L20" s="71" t="s">
+        <v>952</v>
+      </c>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="87"/>
+    </row>
+    <row r="21" spans="1:27" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="86">
+        <v>45087.507650462961</v>
+      </c>
+      <c r="B21" s="87" t="s">
+        <v>547</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="87" t="s">
+        <v>953</v>
+      </c>
+      <c r="E21" s="87" t="s">
+        <v>954</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>955</v>
+      </c>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87" t="s">
+        <v>956</v>
+      </c>
+      <c r="I21" s="88">
+        <v>45056</v>
+      </c>
+      <c r="J21" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="89" t="s">
+        <v>957</v>
+      </c>
+      <c r="L21" s="71" t="s">
+        <v>958</v>
+      </c>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="71" t="s">
+        <v>554</v>
+      </c>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="87"/>
+    </row>
+    <row r="22" spans="1:27" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="86">
+        <v>45087.544710648152</v>
+      </c>
+      <c r="B22" s="87" t="s">
+        <v>816</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>584</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>965</v>
+      </c>
+      <c r="F22" s="87" t="s">
+        <v>966</v>
+      </c>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87" t="s">
+        <v>587</v>
+      </c>
+      <c r="I22" s="88">
+        <v>45087</v>
+      </c>
+      <c r="J22" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="89" t="s">
+        <v>967</v>
+      </c>
+      <c r="L22" s="71" t="s">
+        <v>447</v>
+      </c>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="87"/>
+      <c r="AA22" s="87"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -31142,9 +31433,12 @@
     <hyperlink ref="K16" r:id="rId14" xr:uid="{4C5BE07B-4A6F-46D0-ADC6-469ED86C8ABF}"/>
     <hyperlink ref="K17" r:id="rId15" xr:uid="{58667F92-F31C-495A-9A0B-5E20159688CB}"/>
     <hyperlink ref="K18" r:id="rId16" xr:uid="{F65C9789-3F21-45FD-9CB4-39E9850DD48A}"/>
+    <hyperlink ref="K20" r:id="rId17" xr:uid="{BE3667E1-B9F5-47D7-8E08-4B7D48406B7C}"/>
+    <hyperlink ref="K21" r:id="rId18" xr:uid="{AE6A2053-F654-4215-8696-4EE503DE2C69}"/>
+    <hyperlink ref="K22" r:id="rId19" xr:uid="{ED7109A1-9482-4A7A-BB9B-971271A99507}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5B3388-A880-4B92-9C5C-3A810A7A62C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF79EA02-5965-4D7F-AD9C-3B8890A26EE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="975">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3593,6 +3593,18 @@
   </si>
   <si>
     <t>4.13.2023</t>
+  </si>
+  <si>
+    <t>In-silico Models of Coupled Biological Systems</t>
+  </si>
+  <si>
+    <t>Radde Nicole</t>
+  </si>
+  <si>
+    <t>The overarching goal of our project network is the development of detailed in silico models for complex biological systems that couple different scales and heterogeneous data. We concentrate our research on the neuromuscular system and on proliferative and degenerative diseases. We aim to support personalized healthcare and the development of tailor-made biomedical products by using predictive computational models that advance our understanding about the biological system via simulations and model analysis. A particular focus is thereby on models that capture heterogeneity on the cellular level which is related to differences in phenotypes on higher scales, and on building individualized models which allow to derive predictions and hypotheses for the individual patient. This becomes feasible by integrating system-specific data from various sources.</t>
+  </si>
+  <si>
+    <t>International Conference on Data-Integrated Simulation Science (SimTech2023)</t>
   </si>
 </sst>
 </file>
@@ -23698,10 +23710,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ163"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24389,7 +24401,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>44858.786968055603</v>
       </c>
@@ -24427,7 +24439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>44875.434203009303</v>
       </c>
@@ -24459,7 +24471,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>44875.443288541697</v>
       </c>
@@ -24491,7 +24503,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>44969.706999305599</v>
       </c>
@@ -24526,7 +24538,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>44984.918457754597</v>
       </c>
@@ -24558,7 +24570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>44984.920112500004</v>
       </c>
@@ -24590,7 +24602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>45265.412118055603</v>
       </c>
@@ -24631,7 +24643,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47">
         <v>45265.425995370402</v>
       </c>
@@ -24672,7 +24684,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="86">
         <v>45087.540486111109</v>
       </c>
@@ -24711,10 +24723,60 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="86">
+        <v>45087.593599537038</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>816</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="87" t="s">
+        <v>971</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>972</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>973</v>
+      </c>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87" t="s">
+        <v>974</v>
+      </c>
+      <c r="I26" s="88">
+        <v>45056</v>
+      </c>
+      <c r="J26" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87" t="s">
+        <v>972</v>
+      </c>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
+    </row>
+    <row r="27" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="13"/>
       <c r="C29" s="77"/>
@@ -24730,7 +24792,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="13"/>
       <c r="C30" s="77"/>
@@ -24746,7 +24808,7 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
     </row>
-    <row r="31" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="13"/>
       <c r="C31" s="77"/>
@@ -24762,7 +24824,7 @@
       <c r="O31" s="13"/>
       <c r="Q31" s="13"/>
     </row>
-    <row r="32" spans="1:17" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27435,7 +27497,7 @@
     <hyperlink ref="G20" r:id="rId6" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -31478,7 +31540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E573A6-EA7A-4198-A6DB-BD48C1D0C1F5}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>

--- a/assets/news/qualiperf_news.xlsx
+++ b/assets/news/qualiperf_news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Github\Qualiperf.github.io\qualiperf.github.io\assets\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF79EA02-5965-4D7F-AD9C-3B8890A26EE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD30CAA-4DF3-461C-8B3C-E75CF38A54B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="991">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3605,6 +3605,74 @@
   </si>
   <si>
     <t>International Conference on Data-Integrated Simulation Science (SimTech2023)</t>
+  </si>
+  <si>
+    <t>10/15/2023 15:08:01</t>
+  </si>
+  <si>
+    <t>Digital twins for liver function &amp; metabolic phenotyping</t>
+  </si>
+  <si>
+    <t>Physiologically-based pharmacokinetic (PBPK) models are powerful tools for studying drug metabolism and its effect on the human body. Here, we present our work on applying PBPK models as digital twins for metabolic phenotyping and liver function evaluation [1-6]. To develop and validate our models, we established the first open pharmacokinetics database, PK-DB, which contains curated data from over 600 clinical studies. Our models can be individualized and stratified, allowing us to simulate the effect of lifestyle factors and co-administration on drug metabolism.
+We have applied our models to various clinical questions, such as simulating individual outcomes after hepatectomy using an indocyanine green model and studying the effect of CYP2D6 gene variants using a model of dextromethorphan coupled with drug-gene interactions. These models are constructed hierarchically, describing metabolism and other biological processes of organs such as liver and kidney coupled to whole-body physiology. All models and data are available for reuse in a reproducible manner encoded in the Systems Biology Markup Language (SBML).
+Here we will give an overview of our PBPK models and how SBML can facilitate model development, coupling and reuse.
+PK-DB: pharmacokinetics database for individualized and stratified computational modeling. Grzegorzewski J, Brandhorst J, Green K, Eleftheriadou D, Duport Y, Barthorscht F, Köller A, Ke DYJ, De Angelis S, König M. Nucleic Acids Res. 2021 Jan 8;49(D1):D1358-D1364. doi:10.1093/nar/gkaa990. pmid:33151297
+Pharmacokinetics of caffeine: A systematic analysis of reported data for application in metabolic phenotyping and liver function testing. Jan Grzegorzewski, Florian Bartsch, Adrian Köller, and Matthias König. Frontiers in Pharmacology 2022, Vol12. doi:10.3389/fphar.2021.752826. pmid:35280254
+Prediction of survival after hepatectomy using a physiologically based pharmacokinetic model of indocyanine green liver function tests. Adrian Köller, Jan Grzegorzewski, Michael Tautenhahn, Matthias König. Front. Physiol., 22 November 2021. doi:10.3389/fphys.2021.730418. pmid:34880771
+Physiologically based modeling of the effect of physiological and anthropometric variability on indocyanine green based liver function tests. Adrian Köller, Jan Grzegorzewski and Matthias König. Front Physiol. 2021 Nov 22;12:757293. doi:10.3389/fphys.2021.757293. pmid:34880776
+Physiologically based pharmacokinetic (PBPK) modeling of the role of CYP2D6 polymorphism for metabolic phenotyping with dextromethorphan. Grzegorzewski, J., Brandhorst, J., König, M. Front Pharmacol. 2022 Oct 24;13:1029073. doi:10.3389/fphar.2022.1029073. pmid:36353484
+A physiologically based pharmacokinetic model for CYP2E1 phenotyping via chlorzoxazone. J. Küttner, J. Grzegorzewski, HM. Tautenhahn, M. König. bioRxiv 2023.04.12.536571 (preprint). doi:10.1101/2023.04.12.536571</t>
+  </si>
+  <si>
+    <t>AstraZeneca Seminar</t>
+  </si>
+  <si>
+    <t>10/15/2023 15:09:50</t>
+  </si>
+  <si>
+    <t>Studying the impact of drug metabolism on the liver tissue: An integrated biomechanical modeling approach</t>
+  </si>
+  <si>
+    <t>Matthias König, Steffen Gerhäusser, Luis Mandl, Lena Lambers, Uta Dahmen, Hans-Michael Tautenhahn, Tim Ricken</t>
+  </si>
+  <si>
+    <t>Physiologically-based pharmacokinetic (PBPK) models are powerful tools for studying drug metabolism and its effect on the human body. Here, we present our work on PBPK models for metabolic phenotyping and liver function evaluation [1-5]. To develop and validate our models, we established the first open pharmacokinetics database, PK-DB, which contains curated data from over 600 clinical studies. Our models can be individualized and stratified, allowing us to simulate the effect of lifestyle factors and co-administration on drug metabolism.
+We have applied our models to various clinical questions, such as simulating individual outcomes after hepatectomy using an indocyanine green model and studying the effect of CYP2D6 gene variants using a model of dextromethorphan coupled with drug-gene interactions. These models are constructed hierarchically, describing metabolism and other biological processes of organs such as liver and kidney coupled to whole-body physiology. All models and data are available for reuse in a reproducible manner encoded in the Systems Biology Markup Language (SBML).
+One of the major challenges in PBPK modeling is the integration of these models with cellular and continuum-biomechanical models. By coupling PBPK models with these models, it becomes possible to provide drug concentrations at the site of action as boundary conditions and time-varying inputs to continuum-biomechanical models. This approach enables us to study the impact of systemic chemotherapy on tumor growth or to investigate changes in perfusion and pressure at the whole-body level on transport and biomechanical properties at the tissue scale.
+To demonstrate the effectiveness of this approach, we present an example of PBPK modeling coupled with a multiscale and multiphase continuum-biomechanical model for the liver. Our model integrates partial differential equations (PDE) on the lobular scale with ordinary differential equations (ODE) on the cellular and whole-body scale, resulting in a PDE-ODE coupling. In our showcase, we investigate the drug metabolization process in the liver, considering the possible damage to the liver tissue due to necrosis caused by a toxic side product. The substrates and products of this process can be transported via the systemic circulation and be removed by the kidneys. By coupling PBPK models with continuum-biomechanical models, we can study the transport and biomechanical properties of these substances at both the tissue and whole-body levels. This coupling approach provides a promising method for studying drug metabolism and its effect on the human body at multiple scales, ranging from cellular to whole-body.
+Our approach allows us to investigate the impact of this drug metabolization process on the liver tissue and how it affects the overall functioning of the body. Additionally, we can study the impact of various factors, such as different drug dosages, on this process and determine the optimal drug dosage for a given patient. This integrated approach provides a comprehensive understanding of the drug metabolization process and its impact on the human body, paving the way for more effective drug development and personalized medicine.
+[1] https://doi.org/10.1093/nar/gkaa990
+[2] https://doi.org/10.3389/fphar.2021.752826
+[3] https://doi.org/10.3389/fphys.2021.730418
+[4] https://doi.org/10.3389/fphys.2021.757293
+[5] https://doi.org/10.1101/2022.08.23.504981</t>
+  </si>
+  <si>
+    <t>ICCB2023 - X International Conference on Computational Bioengineering</t>
+  </si>
+  <si>
+    <t>P2 - Dahmen, P3 - König, P7 - Ricken, P9 - Tautenhahn, SimLivA, ATLAS</t>
+  </si>
+  <si>
+    <t>10/15/2023 15:11:37</t>
+  </si>
+  <si>
+    <t>Reproducible digital twins for personalized liver function assessment</t>
+  </si>
+  <si>
+    <t>Essential prerequisites for the practical application and translation of computational models include: i) reproducibility of results; ii) model reusability and extensibility; iii) data availability; and iv) strategies for model stratification and individualization. Here, we present a modeling workflow built around these foundational prerequisites, with a focus on liver function tests.
+Despite the paramount significance of liver function assessment in hepatology, reliable quantification remains a clinical challenge. Dynamic liver function tests offer a promising method for non-invasive in vivo assessment of liver function and metabolic phenotyping. 
+By leveraging whole-body physiologically-based pharmacokinetic (PBPK) models, we're simulating these tests and positioning PBPK models as digital twins for metabolic phenotyping and liver function assessment. To develop and validate our models, we established the open pharmacokinetics database, PK-DB, containing curated data from 600+ clinical studies. Our models are individualizable and stratifiable, enabling simulation of lifestyle factors and co-administration effects on drug metabolism. Our models have been instrumental in clinical scenarios: from predicting individual outcomes post-hepatectomy to discerning the impact of CYP2D6 gene variants on liver function tests. These models are constructed hierarchically, describing metabolic and other biological processes in organs like the liver and kidneys, seamlessly integrated with whole-body physiology. 
+Notably, all models and data are readily available and reproducible for reuse, encoded in the Systems Biology Markup Language (SBML). We will provide an overview of these PBPK models and demonstrate how SBML and FAIR principles can facilitate model development, coupling, and reuse.</t>
+  </si>
+  <si>
+    <t>ITB - Institute for Theoretical Biology, Humboldt-University Berlin</t>
+  </si>
+  <si>
+    <t>10/15/2023 15:12:50</t>
+  </si>
+  <si>
+    <t>e:Med Meeting 2023 on Systems Medicine</t>
   </si>
 </sst>
 </file>
@@ -3795,7 +3863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4036,6 +4104,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -4426,23 +4497,23 @@
       <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4502,7 +4573,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44427.932484722201</v>
       </c>
@@ -4552,7 +4623,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
     </row>
-    <row r="3" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44427.939851157404</v>
       </c>
@@ -4602,7 +4673,7 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44427.947995254603</v>
       </c>
@@ -4652,7 +4723,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44427.963724074099</v>
       </c>
@@ -4695,7 +4766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44427.966733564797</v>
       </c>
@@ -4738,7 +4809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44427.969025810198</v>
       </c>
@@ -4781,7 +4852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="375" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44427.971651504602</v>
       </c>
@@ -4824,7 +4895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="375" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44427.977659027798</v>
       </c>
@@ -4867,7 +4938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="408" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="375" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44427.979484606498</v>
       </c>
@@ -4910,7 +4981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="162.5" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>44502.680754861103</v>
       </c>
@@ -4952,7 +5023,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>44503.444289930601</v>
       </c>
@@ -4994,7 +5065,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>44504.433192939803</v>
       </c>
@@ -5036,7 +5107,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>44508.576334143501</v>
       </c>
@@ -5078,7 +5149,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="400" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>44510.606990972199</v>
       </c>
@@ -5120,7 +5191,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="344.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="325" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>44510.621671643501</v>
       </c>
@@ -5162,7 +5233,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>44510.635692708303</v>
       </c>
@@ -5204,7 +5275,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>44515.604827430601</v>
       </c>
@@ -5246,7 +5317,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>44515.605781597202</v>
       </c>
@@ -5285,7 +5356,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>44519.393009722196</v>
       </c>
@@ -5327,7 +5398,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>44519.396759837997</v>
       </c>
@@ -5369,7 +5440,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="331.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>44521.415261921298</v>
       </c>
@@ -5411,7 +5482,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="306" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="300" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>44521.417680324099</v>
       </c>
@@ -5453,7 +5524,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>44531.422715046298</v>
       </c>
@@ -5495,7 +5566,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="400" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>44536.689336226897</v>
       </c>
@@ -5537,7 +5608,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>44537.460719444498</v>
       </c>
@@ -5576,7 +5647,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="250" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>44545.415467245402</v>
       </c>
@@ -5618,7 +5689,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="100" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>44547.4125025463</v>
       </c>
@@ -5660,7 +5731,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>44571.655250347198</v>
       </c>
@@ -5699,7 +5770,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>44583.738363078701</v>
       </c>
@@ -5741,7 +5812,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>44583.740276504599</v>
       </c>
@@ -5783,7 +5854,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="362.5" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>44645.469280208301</v>
       </c>
@@ -5824,7 +5895,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="50" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>44658.465437268504</v>
       </c>
@@ -5865,7 +5936,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>44664.599232754597</v>
       </c>
@@ -5909,7 +5980,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>44664.614628935196</v>
       </c>
@@ -5944,7 +6015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>44664.623678935197</v>
       </c>
@@ -5985,7 +6056,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="408" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="387.5" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>44664.629289467601</v>
       </c>
@@ -6020,7 +6091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>44664.634484722199</v>
       </c>
@@ -6052,7 +6123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>44664.764159490704</v>
       </c>
@@ -6089,7 +6160,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>44664.7695739583</v>
       </c>
@@ -6127,7 +6198,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>44665.383020370398</v>
       </c>
@@ -6177,7 +6248,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>44665.612281597198</v>
       </c>
@@ -6221,7 +6292,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>44679.852050810201</v>
       </c>
@@ -6265,7 +6336,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>44684.589149305597</v>
       </c>
@@ -6309,7 +6380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>44687.332683333298</v>
       </c>
@@ -6347,7 +6418,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="300" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>44690.414530786999</v>
       </c>
@@ -6391,7 +6462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>44714.613704513897</v>
       </c>
@@ -6429,7 +6500,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>44714.631931828699</v>
       </c>
@@ -6473,7 +6544,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="408" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="387.5" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>44721.479891666699</v>
       </c>
@@ -6520,7 +6591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="331.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="300" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>44724.908495023199</v>
       </c>
@@ -6558,7 +6629,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>44724.915100462997</v>
       </c>
@@ -6599,7 +6670,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>44724.917635300902</v>
       </c>
@@ -6640,7 +6711,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>44737.343279629597</v>
       </c>
@@ -6678,7 +6749,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="175" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>44743.461584375</v>
       </c>
@@ -6722,7 +6793,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>44743.470339120402</v>
       </c>
@@ -6766,7 +6837,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="125" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>44743.522404282397</v>
       </c>
@@ -6810,7 +6881,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>44747.804503819403</v>
       </c>
@@ -6851,7 +6922,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="344.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="312.5" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>44748.500684375002</v>
       </c>
@@ -6892,7 +6963,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>44748.502863773203</v>
       </c>
@@ -6933,7 +7004,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>44748.505962499999</v>
       </c>
@@ -6974,7 +7045,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>44748.507295949101</v>
       </c>
@@ -7015,7 +7086,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>44748.508126967601</v>
       </c>
@@ -7053,7 +7124,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>44763.373567361101</v>
       </c>
@@ -7097,7 +7168,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>44763.382295023199</v>
       </c>
@@ -7138,7 +7209,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="250" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>44769.6992456019</v>
       </c>
@@ -7179,7 +7250,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>44769.701641435197</v>
       </c>
@@ -7220,7 +7291,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>44774.632290162001</v>
       </c>
@@ -7261,7 +7332,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>44774.633085995403</v>
       </c>
@@ -7302,7 +7373,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>44774.633985648099</v>
       </c>
@@ -7343,7 +7414,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>44799.3730923611</v>
       </c>
@@ -7390,7 +7461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="50" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <v>44831.785569097199</v>
       </c>
@@ -7434,7 +7505,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
         <v>44831.788137962998</v>
       </c>
@@ -7478,7 +7549,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <v>44831.969735532402</v>
       </c>
@@ -7522,7 +7593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <v>44837.462938194403</v>
       </c>
@@ -7560,7 +7631,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="100" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
         <v>44838.598316782402</v>
       </c>
@@ -7604,7 +7675,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>44838.604422453704</v>
       </c>
@@ -7648,7 +7719,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="350" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>44838.767622685198</v>
       </c>
@@ -7692,7 +7763,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>44844.515792939797</v>
       </c>
@@ -7733,7 +7804,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="50" x14ac:dyDescent="0.25">
       <c r="A79" s="16">
         <v>44845.4522701389</v>
       </c>
@@ -7774,7 +7845,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>44858.360405555599</v>
       </c>
@@ -7818,7 +7889,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="250" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>44858.786968055603</v>
       </c>
@@ -7856,7 +7927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>44875.428184837998</v>
       </c>
@@ -7891,7 +7962,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <v>44875.434203009303</v>
       </c>
@@ -7923,7 +7994,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="362.5" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>44875.441085763901</v>
       </c>
@@ -7955,7 +8026,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>44875.443288541697</v>
       </c>
@@ -7987,7 +8058,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>44875.453703819403</v>
       </c>
@@ -8022,7 +8093,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A87" s="16">
         <v>44875.454279166697</v>
       </c>
@@ -8057,7 +8128,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>44907.440478009303</v>
       </c>
@@ -8104,7 +8175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="400" x14ac:dyDescent="0.25">
       <c r="A89" s="16">
         <v>44912.925343634299</v>
       </c>
@@ -8151,7 +8222,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="400" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>44914.371327893503</v>
       </c>
@@ -8195,7 +8266,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="375" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <v>44929.354307870402</v>
       </c>
@@ -8236,7 +8307,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="212.5" x14ac:dyDescent="0.25">
       <c r="A92" s="16">
         <v>44943.356896874997</v>
       </c>
@@ -8277,7 +8348,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A93" s="16">
         <v>44960.467609143503</v>
       </c>
@@ -8324,7 +8395,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A94" s="16">
         <v>44962.636147222198</v>
       </c>
@@ -8362,7 +8433,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <v>44969.706999305599</v>
       </c>
@@ -8397,7 +8468,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="337.5" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>44972.571888425897</v>
       </c>
@@ -8444,7 +8515,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A97" s="16">
         <v>44984.705640509303</v>
       </c>
@@ -8482,7 +8553,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A98" s="16">
         <v>44984.707487500003</v>
       </c>
@@ -8520,7 +8591,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A99" s="16">
         <v>44984.709653124999</v>
       </c>
@@ -8558,7 +8629,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" ht="375" x14ac:dyDescent="0.25">
       <c r="A100" s="16">
         <v>44984.711797338001</v>
       </c>
@@ -8596,7 +8667,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A101" s="16">
         <v>44984.713593634297</v>
       </c>
@@ -8634,7 +8705,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A102" s="16">
         <v>44984.918457754597</v>
       </c>
@@ -8666,7 +8737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A103" s="16">
         <v>44984.920112500004</v>
       </c>
@@ -8698,7 +8769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" ht="50" x14ac:dyDescent="0.25">
       <c r="A104" s="16">
         <v>44987.654823495403</v>
       </c>
@@ -8733,7 +8804,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" ht="50" x14ac:dyDescent="0.25">
       <c r="A105" s="16">
         <v>44987.656404050897</v>
       </c>
@@ -8768,7 +8839,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" ht="50" x14ac:dyDescent="0.25">
       <c r="A106" s="16">
         <v>44987.657589930597</v>
       </c>
@@ -8803,7 +8874,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107" s="16">
         <v>44992.747801851903</v>
       </c>
@@ -8842,7 +8913,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A108" s="16">
         <v>44998.039198495397</v>
       </c>
@@ -8889,7 +8960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" ht="250" x14ac:dyDescent="0.25">
       <c r="A109" s="16">
         <v>45012.448258796299</v>
       </c>
@@ -8936,7 +9007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="16">
         <v>45016.456743865703</v>
       </c>
@@ -8980,7 +9051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -9006,7 +9077,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -9032,7 +9103,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -9058,7 +9129,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -9084,7 +9155,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -9110,7 +9181,7 @@
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -9136,7 +9207,7 @@
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -9162,7 +9233,7 @@
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -9188,7 +9259,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -9214,7 +9285,7 @@
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -9240,7 +9311,7 @@
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -9266,7 +9337,7 @@
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -9292,7 +9363,7 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -9318,7 +9389,7 @@
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -9344,7 +9415,7 @@
       <c r="W124" s="9"/>
       <c r="X124" s="9"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -9370,7 +9441,7 @@
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -9396,7 +9467,7 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -9422,7 +9493,7 @@
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -9448,7 +9519,7 @@
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -9474,7 +9545,7 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -9500,7 +9571,7 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -9526,7 +9597,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -9552,7 +9623,7 @@
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -9578,7 +9649,7 @@
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -9604,7 +9675,7 @@
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -9630,7 +9701,7 @@
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -9656,7 +9727,7 @@
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -9682,7 +9753,7 @@
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -9708,7 +9779,7 @@
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -9734,7 +9805,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -9760,7 +9831,7 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -9786,7 +9857,7 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -9812,7 +9883,7 @@
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -9838,7 +9909,7 @@
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -9864,7 +9935,7 @@
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -9890,7 +9961,7 @@
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -9916,7 +9987,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -9942,7 +10013,7 @@
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -9968,7 +10039,7 @@
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -9994,7 +10065,7 @@
       <c r="W149" s="9"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -10020,7 +10091,7 @@
       <c r="W150" s="9"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -10046,7 +10117,7 @@
       <c r="W151" s="9"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -10072,7 +10143,7 @@
       <c r="W152" s="9"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -10098,7 +10169,7 @@
       <c r="W153" s="9"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -10124,7 +10195,7 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -10150,7 +10221,7 @@
       <c r="W155" s="9"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -10176,7 +10247,7 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -10202,7 +10273,7 @@
       <c r="W157" s="9"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -10228,7 +10299,7 @@
       <c r="W158" s="9"/>
       <c r="X158" s="9"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -10254,7 +10325,7 @@
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -10280,7 +10351,7 @@
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -10306,7 +10377,7 @@
       <c r="W161" s="9"/>
       <c r="X161" s="9"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -10332,7 +10403,7 @@
       <c r="W162" s="9"/>
       <c r="X162" s="9"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -10358,7 +10429,7 @@
       <c r="W163" s="9"/>
       <c r="X163" s="9"/>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -10384,7 +10455,7 @@
       <c r="W164" s="9"/>
       <c r="X164" s="9"/>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -10410,7 +10481,7 @@
       <c r="W165" s="9"/>
       <c r="X165" s="9"/>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -10436,7 +10507,7 @@
       <c r="W166" s="9"/>
       <c r="X166" s="9"/>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -10462,7 +10533,7 @@
       <c r="W167" s="9"/>
       <c r="X167" s="9"/>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -10488,7 +10559,7 @@
       <c r="W168" s="9"/>
       <c r="X168" s="9"/>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -10514,7 +10585,7 @@
       <c r="W169" s="9"/>
       <c r="X169" s="9"/>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -10540,7 +10611,7 @@
       <c r="W170" s="9"/>
       <c r="X170" s="9"/>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -10566,7 +10637,7 @@
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -10592,7 +10663,7 @@
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -10618,7 +10689,7 @@
       <c r="W173" s="9"/>
       <c r="X173" s="9"/>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -10644,7 +10715,7 @@
       <c r="W174" s="9"/>
       <c r="X174" s="9"/>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -10670,7 +10741,7 @@
       <c r="W175" s="9"/>
       <c r="X175" s="9"/>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -10696,7 +10767,7 @@
       <c r="W176" s="9"/>
       <c r="X176" s="9"/>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -10722,7 +10793,7 @@
       <c r="W177" s="9"/>
       <c r="X177" s="9"/>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -10748,7 +10819,7 @@
       <c r="W178" s="9"/>
       <c r="X178" s="9"/>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -10774,7 +10845,7 @@
       <c r="W179" s="9"/>
       <c r="X179" s="9"/>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -10800,7 +10871,7 @@
       <c r="W180" s="9"/>
       <c r="X180" s="9"/>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -10826,7 +10897,7 @@
       <c r="W181" s="9"/>
       <c r="X181" s="9"/>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -10852,7 +10923,7 @@
       <c r="W182" s="9"/>
       <c r="X182" s="9"/>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -10878,7 +10949,7 @@
       <c r="W183" s="9"/>
       <c r="X183" s="9"/>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -10904,7 +10975,7 @@
       <c r="W184" s="9"/>
       <c r="X184" s="9"/>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -10930,7 +11001,7 @@
       <c r="W185" s="9"/>
       <c r="X185" s="9"/>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -10956,7 +11027,7 @@
       <c r="W186" s="9"/>
       <c r="X186" s="9"/>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -10982,7 +11053,7 @@
       <c r="W187" s="9"/>
       <c r="X187" s="9"/>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -11008,7 +11079,7 @@
       <c r="W188" s="9"/>
       <c r="X188" s="9"/>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -11034,7 +11105,7 @@
       <c r="W189" s="9"/>
       <c r="X189" s="9"/>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -11060,7 +11131,7 @@
       <c r="W190" s="9"/>
       <c r="X190" s="9"/>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -11086,7 +11157,7 @@
       <c r="W191" s="9"/>
       <c r="X191" s="9"/>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -11112,7 +11183,7 @@
       <c r="W192" s="9"/>
       <c r="X192" s="9"/>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -11138,7 +11209,7 @@
       <c r="W193" s="9"/>
       <c r="X193" s="9"/>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -11164,7 +11235,7 @@
       <c r="W194" s="9"/>
       <c r="X194" s="9"/>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -11190,7 +11261,7 @@
       <c r="W195" s="9"/>
       <c r="X195" s="9"/>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -11216,7 +11287,7 @@
       <c r="W196" s="9"/>
       <c r="X196" s="9"/>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -11242,7 +11313,7 @@
       <c r="W197" s="9"/>
       <c r="X197" s="9"/>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -11268,7 +11339,7 @@
       <c r="W198" s="9"/>
       <c r="X198" s="9"/>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -11294,7 +11365,7 @@
       <c r="W199" s="9"/>
       <c r="X199" s="9"/>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -11320,7 +11391,7 @@
       <c r="W200" s="9"/>
       <c r="X200" s="9"/>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -11346,7 +11417,7 @@
       <c r="W201" s="9"/>
       <c r="X201" s="9"/>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -11372,7 +11443,7 @@
       <c r="W202" s="9"/>
       <c r="X202" s="9"/>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -11398,7 +11469,7 @@
       <c r="W203" s="9"/>
       <c r="X203" s="9"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -11424,7 +11495,7 @@
       <c r="W204" s="9"/>
       <c r="X204" s="9"/>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -11450,7 +11521,7 @@
       <c r="W205" s="9"/>
       <c r="X205" s="9"/>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -11476,7 +11547,7 @@
       <c r="W206" s="9"/>
       <c r="X206" s="9"/>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -11502,7 +11573,7 @@
       <c r="W207" s="9"/>
       <c r="X207" s="9"/>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -11528,7 +11599,7 @@
       <c r="W208" s="9"/>
       <c r="X208" s="9"/>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -11554,7 +11625,7 @@
       <c r="W209" s="9"/>
       <c r="X209" s="9"/>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -11660,20 +11731,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328DE83F-A933-42BB-B02D-2197ABDCBB32}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" customWidth="1"/>
-    <col min="11" max="11" width="74.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.81640625" customWidth="1"/>
+    <col min="11" max="11" width="74.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="78" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11726,7 +11797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>44503.444289930601</v>
       </c>
@@ -11769,7 +11840,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>44504.433192939803</v>
       </c>
@@ -11812,7 +11883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>44515.604827430601</v>
       </c>
@@ -11855,7 +11926,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>44515.605781597202</v>
       </c>
@@ -11896,7 +11967,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>44583.738363078701</v>
       </c>
@@ -11939,7 +12010,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>44583.740276504599</v>
       </c>
@@ -11982,7 +12053,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>44748.502863773203</v>
       </c>
@@ -12027,7 +12098,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>44763.382295023199</v>
       </c>
@@ -12072,7 +12143,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>44831.785569097199</v>
       </c>
@@ -12119,7 +12190,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>44831.788137962998</v>
       </c>
@@ -12166,7 +12237,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>44831.969735532402</v>
       </c>
@@ -12213,7 +12284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>44875.428184837998</v>
       </c>
@@ -12254,7 +12325,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>44875.453703819403</v>
       </c>
@@ -12295,7 +12366,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>44875.454279166697</v>
       </c>
@@ -12336,7 +12407,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>44984.705640509303</v>
       </c>
@@ -12379,7 +12450,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>44984.707487500003</v>
       </c>
@@ -12422,7 +12493,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>44984.709653124999</v>
       </c>
@@ -12465,7 +12536,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>44984.711797338001</v>
       </c>
@@ -12508,7 +12579,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>44984.713593634297</v>
       </c>
@@ -12551,7 +12622,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>44987.654823495403</v>
       </c>
@@ -12592,7 +12663,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>44987.656404050897</v>
       </c>
@@ -12633,7 +12704,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>810</v>
       </c>
@@ -12678,7 +12749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47">
         <v>45052.562893518501</v>
       </c>
@@ -12721,7 +12792,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>45052.6738541667</v>
       </c>
@@ -12762,7 +12833,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
         <v>831</v>
       </c>
@@ -12803,7 +12874,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>837</v>
       </c>
@@ -12846,7 +12917,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
         <v>878</v>
       </c>
@@ -12888,7 +12959,7 @@
       </c>
       <c r="R28" s="38"/>
     </row>
-    <row r="29" spans="1:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>883</v>
       </c>
@@ -12930,7 +13001,7 @@
       </c>
       <c r="R29" s="38"/>
     </row>
-    <row r="30" spans="1:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
         <v>888</v>
       </c>
@@ -12971,6 +13042,210 @@
         <v>882</v>
       </c>
       <c r="R30" s="38"/>
+    </row>
+    <row r="31" spans="1:27" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="92" t="s">
+        <v>975</v>
+      </c>
+      <c r="B31" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="83" t="s">
+        <v>400</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>976</v>
+      </c>
+      <c r="E31" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="71" t="s">
+        <v>977</v>
+      </c>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87" t="s">
+        <v>978</v>
+      </c>
+      <c r="I31" s="88">
+        <v>44935</v>
+      </c>
+      <c r="J31" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="71" t="s">
+        <v>843</v>
+      </c>
+      <c r="R31" s="87"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="87"/>
+      <c r="Z31" s="87"/>
+      <c r="AA31" s="87"/>
+    </row>
+    <row r="32" spans="1:27" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="92" t="s">
+        <v>979</v>
+      </c>
+      <c r="B32" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="83" t="s">
+        <v>400</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>980</v>
+      </c>
+      <c r="E32" s="87" t="s">
+        <v>981</v>
+      </c>
+      <c r="F32" s="71" t="s">
+        <v>982</v>
+      </c>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87" t="s">
+        <v>983</v>
+      </c>
+      <c r="I32" s="92" t="s">
+        <v>893</v>
+      </c>
+      <c r="J32" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="87"/>
+      <c r="L32" s="71" t="s">
+        <v>981</v>
+      </c>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="71" t="s">
+        <v>984</v>
+      </c>
+      <c r="R32" s="87"/>
+      <c r="S32" s="87"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="87"/>
+      <c r="Z32" s="87"/>
+      <c r="AA32" s="87"/>
+    </row>
+    <row r="33" spans="1:27" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="92" t="s">
+        <v>985</v>
+      </c>
+      <c r="B33" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>400</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>986</v>
+      </c>
+      <c r="E33" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="71" t="s">
+        <v>987</v>
+      </c>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87" t="s">
+        <v>988</v>
+      </c>
+      <c r="I33" s="88">
+        <v>45209</v>
+      </c>
+      <c r="J33" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="71" t="s">
+        <v>843</v>
+      </c>
+      <c r="R33" s="87"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="87"/>
+      <c r="Y33" s="87"/>
+      <c r="Z33" s="87"/>
+      <c r="AA33" s="87"/>
+    </row>
+    <row r="34" spans="1:27" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="92" t="s">
+        <v>989</v>
+      </c>
+      <c r="B34" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="83" t="s">
+        <v>400</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>986</v>
+      </c>
+      <c r="E34" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="71" t="s">
+        <v>987</v>
+      </c>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87" t="s">
+        <v>990</v>
+      </c>
+      <c r="I34" s="88">
+        <v>45209</v>
+      </c>
+      <c r="J34" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="71" t="s">
+        <v>843</v>
+      </c>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="87"/>
+      <c r="Z34" s="87"/>
+      <c r="AA34" s="87"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12992,7 +13267,8 @@
     <hyperlink ref="K23" r:id="rId16" xr:uid="{B2968474-EFA6-43D4-B974-54F500C4AC0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <legacyDrawing r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -13004,26 +13280,26 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
     <col min="7" max="7" width="33" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="17" width="18.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" style="20" customWidth="1"/>
-    <col min="19" max="19" width="28.140625" style="20" customWidth="1"/>
-    <col min="20" max="25" width="18.85546875" style="1" customWidth="1"/>
-    <col min="26" max="1024" width="12.5703125" style="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="17" width="18.81640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.81640625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="28.1796875" style="20" customWidth="1"/>
+    <col min="20" max="25" width="18.81640625" style="1" customWidth="1"/>
+    <col min="26" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13092,7 +13368,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
     </row>
-    <row r="2" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>44510.606990972199</v>
       </c>
@@ -13146,7 +13422,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>44510.621671643501</v>
       </c>
@@ -13200,7 +13476,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>44519.393009722196</v>
       </c>
@@ -13254,7 +13530,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>44536.689336226897</v>
       </c>
@@ -13308,7 +13584,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>44545.415467245402</v>
       </c>
@@ -13362,7 +13638,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>44547.4125025463</v>
       </c>
@@ -13416,7 +13692,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>44571.655250347198</v>
       </c>
@@ -13468,7 +13744,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>44664.599232754597</v>
       </c>
@@ -13524,7 +13800,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>44664.614628935196</v>
       </c>
@@ -13572,7 +13848,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>44664.764159490704</v>
       </c>
@@ -13622,7 +13898,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>44665.612281597198</v>
       </c>
@@ -13678,7 +13954,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>44679.852050810201</v>
       </c>
@@ -13734,7 +14010,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>44690.414530786999</v>
       </c>
@@ -13791,7 +14067,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>44724.908495023199</v>
       </c>
@@ -13842,7 +14118,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>44724.915100462997</v>
       </c>
@@ -13896,7 +14172,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>44724.917635300902</v>
       </c>
@@ -13955,7 +14231,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>44748.500684375002</v>
       </c>
@@ -14009,7 +14285,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>44769.6992456019</v>
       </c>
@@ -14063,7 +14339,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>44837.462938194403</v>
       </c>
@@ -14117,7 +14393,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>44907.440478009303</v>
       </c>
@@ -14176,7 +14452,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>44912.925343634299</v>
       </c>
@@ -14235,7 +14511,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>44929.354307870402</v>
       </c>
@@ -14289,7 +14565,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>44943.356896874997</v>
       </c>
@@ -14343,7 +14619,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>44972.571888425897</v>
       </c>
@@ -14402,7 +14678,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>44992.747801851903</v>
       </c>
@@ -14454,7 +14730,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>45016.456743865703</v>
       </c>
@@ -14510,7 +14786,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37">
         <v>45235.6277430556</v>
       </c>
@@ -14573,7 +14849,7 @@
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
     </row>
-    <row r="29" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42">
         <v>45265.410578703697</v>
       </c>
@@ -14634,7 +14910,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
         <v>713</v>
       </c>
@@ -14691,7 +14967,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47">
         <v>44993.3219791667</v>
       </c>
@@ -14752,7 +15028,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>730</v>
       </c>
@@ -14815,7 +15091,7 @@
       <c r="Z32" s="38"/>
       <c r="AA32" s="38"/>
     </row>
-    <row r="33" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>44427.963724074099</v>
       </c>
@@ -14876,7 +15152,7 @@
       <c r="Z33" s="38"/>
       <c r="AA33" s="38"/>
     </row>
-    <row r="34" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>44427.966733564797</v>
       </c>
@@ -14937,21 +15213,21 @@
       <c r="Z34" s="38"/>
       <c r="AA34" s="38"/>
     </row>
-    <row r="35" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U37" s="38"/>
       <c r="V37" s="38"/>
       <c r="W37" s="38"/>
@@ -14960,7 +15236,7 @@
       <c r="Z37" s="38"/>
       <c r="AA37" s="38"/>
     </row>
-    <row r="38" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U38" s="38"/>
       <c r="V38" s="38"/>
       <c r="W38" s="38"/>
@@ -14969,7 +15245,7 @@
       <c r="Z38" s="38"/>
       <c r="AA38" s="38"/>
     </row>
-    <row r="39" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -14996,7 +15272,7 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
     </row>
-    <row r="40" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -15023,7 +15299,7 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
     </row>
-    <row r="41" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -15050,7 +15326,7 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
     </row>
-    <row r="42" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -15077,7 +15353,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
     </row>
-    <row r="45" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -15104,7 +15380,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -15131,7 +15407,7 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -15158,7 +15434,7 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="1:27" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -15185,7 +15461,7 @@
       <c r="X48" s="9"/>
       <c r="Y48" s="9"/>
     </row>
-    <row r="49" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -15212,7 +15488,7 @@
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
     </row>
-    <row r="50" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -15239,7 +15515,7 @@
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -15266,7 +15542,7 @@
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -15293,7 +15569,7 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
     </row>
-    <row r="53" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -15320,7 +15596,7 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="54" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -15347,7 +15623,7 @@
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
     </row>
-    <row r="55" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -15374,7 +15650,7 @@
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
     </row>
-    <row r="56" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -15401,7 +15677,7 @@
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
     </row>
-    <row r="57" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -15428,7 +15704,7 @@
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
     </row>
-    <row r="58" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -15455,7 +15731,7 @@
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
     </row>
-    <row r="59" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -15482,7 +15758,7 @@
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
     </row>
-    <row r="60" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -15509,7 +15785,7 @@
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
     </row>
-    <row r="61" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -15536,7 +15812,7 @@
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
     </row>
-    <row r="62" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -15563,7 +15839,7 @@
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
     </row>
-    <row r="63" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -15590,7 +15866,7 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
     </row>
-    <row r="64" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -15617,7 +15893,7 @@
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
     </row>
-    <row r="65" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -15644,7 +15920,7 @@
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
     </row>
-    <row r="66" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -15671,7 +15947,7 @@
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
     </row>
-    <row r="67" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -15698,7 +15974,7 @@
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
     </row>
-    <row r="68" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -15725,7 +16001,7 @@
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
     </row>
-    <row r="69" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -15752,7 +16028,7 @@
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
     </row>
-    <row r="70" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -15779,7 +16055,7 @@
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
     </row>
-    <row r="71" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -15806,7 +16082,7 @@
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
     </row>
-    <row r="72" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -15833,7 +16109,7 @@
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
     </row>
-    <row r="73" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -15860,7 +16136,7 @@
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
     </row>
-    <row r="74" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -15887,7 +16163,7 @@
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
     </row>
-    <row r="75" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -15914,7 +16190,7 @@
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
     </row>
-    <row r="76" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -15941,7 +16217,7 @@
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
     </row>
-    <row r="77" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -15968,7 +16244,7 @@
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
     </row>
-    <row r="78" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -15995,7 +16271,7 @@
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
     </row>
-    <row r="79" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -16022,7 +16298,7 @@
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
     </row>
-    <row r="80" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -16049,7 +16325,7 @@
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
     </row>
-    <row r="81" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -16076,7 +16352,7 @@
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
     </row>
-    <row r="82" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -16103,7 +16379,7 @@
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
     </row>
-    <row r="83" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -16130,7 +16406,7 @@
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
     </row>
-    <row r="84" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -16157,7 +16433,7 @@
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
     </row>
-    <row r="85" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -16184,7 +16460,7 @@
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
     </row>
-    <row r="86" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -16211,7 +16487,7 @@
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
     </row>
-    <row r="87" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -16238,7 +16514,7 @@
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
     </row>
-    <row r="88" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -16265,7 +16541,7 @@
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
     </row>
-    <row r="89" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -16292,7 +16568,7 @@
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
     </row>
-    <row r="90" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -16319,7 +16595,7 @@
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -16346,7 +16622,7 @@
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
     </row>
-    <row r="92" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -16373,7 +16649,7 @@
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
     </row>
-    <row r="93" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -16400,7 +16676,7 @@
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
     </row>
-    <row r="94" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -16427,7 +16703,7 @@
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
     </row>
-    <row r="95" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -16454,7 +16730,7 @@
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
     </row>
-    <row r="96" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -16481,7 +16757,7 @@
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
     </row>
-    <row r="97" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -16508,7 +16784,7 @@
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
     </row>
-    <row r="98" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -16535,7 +16811,7 @@
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
     </row>
-    <row r="99" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -16562,7 +16838,7 @@
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
     </row>
-    <row r="100" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -16589,7 +16865,7 @@
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
     </row>
-    <row r="101" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -16616,7 +16892,7 @@
       <c r="X101" s="9"/>
       <c r="Y101" s="9"/>
     </row>
-    <row r="102" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -16643,7 +16919,7 @@
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
     </row>
-    <row r="103" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -16670,7 +16946,7 @@
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
     </row>
-    <row r="104" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -16697,7 +16973,7 @@
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
     </row>
-    <row r="105" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -16724,7 +17000,7 @@
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
     </row>
-    <row r="106" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -16751,7 +17027,7 @@
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
     </row>
-    <row r="107" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -16778,7 +17054,7 @@
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
     </row>
-    <row r="108" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -16805,7 +17081,7 @@
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
     </row>
-    <row r="109" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -16832,7 +17108,7 @@
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
     </row>
-    <row r="110" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -16859,7 +17135,7 @@
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
     </row>
-    <row r="111" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -16886,7 +17162,7 @@
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
     </row>
-    <row r="112" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -16913,7 +17189,7 @@
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
     </row>
-    <row r="113" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -16940,7 +17216,7 @@
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
     </row>
-    <row r="114" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -16967,7 +17243,7 @@
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
     </row>
-    <row r="115" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -16994,7 +17270,7 @@
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
     </row>
-    <row r="116" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -17021,7 +17297,7 @@
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
     </row>
-    <row r="117" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -17048,7 +17324,7 @@
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
     </row>
-    <row r="118" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -17075,7 +17351,7 @@
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
     </row>
-    <row r="119" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -17102,7 +17378,7 @@
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
     </row>
-    <row r="120" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -17129,7 +17405,7 @@
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
     </row>
-    <row r="121" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -17156,7 +17432,7 @@
       <c r="X121" s="9"/>
       <c r="Y121" s="9"/>
     </row>
-    <row r="122" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -17183,7 +17459,7 @@
       <c r="X122" s="9"/>
       <c r="Y122" s="9"/>
     </row>
-    <row r="123" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -17210,7 +17486,7 @@
       <c r="X123" s="9"/>
       <c r="Y123" s="9"/>
     </row>
-    <row r="124" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -17237,7 +17513,7 @@
       <c r="X124" s="9"/>
       <c r="Y124" s="9"/>
     </row>
-    <row r="125" spans="1:25" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -17309,27 +17585,27 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="18" width="18.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="37.28515625" style="20" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" style="20" customWidth="1"/>
-    <col min="22" max="24" width="18.85546875" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="18" width="18.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.81640625" style="20" customWidth="1"/>
+    <col min="20" max="20" width="37.26953125" style="20" customWidth="1"/>
+    <col min="21" max="21" width="18.81640625" style="20" customWidth="1"/>
+    <col min="22" max="24" width="18.81640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -17397,7 +17673,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44427.932484722201</v>
       </c>
@@ -17455,7 +17731,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
     </row>
-    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44427.939851157404</v>
       </c>
@@ -17513,7 +17789,7 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44427.947995254603</v>
       </c>
@@ -17571,7 +17847,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>44427.969025810198</v>
       </c>
@@ -17626,7 +17902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44427.971651504602</v>
       </c>
@@ -17681,7 +17957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>44427.977659027798</v>
       </c>
@@ -17736,7 +18012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>44427.979484606498</v>
       </c>
@@ -17791,7 +18067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>44664.623678935197</v>
       </c>
@@ -17845,7 +18121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>44664.629289467601</v>
       </c>
@@ -17893,7 +18169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="36.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>44721.479891666699</v>
       </c>
@@ -17952,7 +18228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>44799.3730923611</v>
       </c>
@@ -18011,7 +18287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>44960.467609143503</v>
       </c>
@@ -18070,7 +18346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>44998.039198495397</v>
       </c>
@@ -18129,7 +18405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>45012.448258796299</v>
       </c>
@@ -18188,7 +18464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>761</v>
       </c>
@@ -18250,7 +18526,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47">
         <v>44932.986134259299</v>
       </c>
@@ -18315,7 +18591,7 @@
       <c r="Z17" s="38"/>
       <c r="AA17" s="38"/>
     </row>
-    <row r="18" spans="1:27" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="48.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>781</v>
       </c>
@@ -18376,7 +18652,7 @@
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -18402,7 +18678,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -18428,7 +18704,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -18454,7 +18730,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -18480,7 +18756,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -18506,7 +18782,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -18532,7 +18808,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -18558,7 +18834,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -18584,7 +18860,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -18610,7 +18886,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -18636,7 +18912,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -18662,7 +18938,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -18688,7 +18964,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -18714,7 +18990,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -18740,7 +19016,7 @@
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -18766,7 +19042,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -18792,7 +19068,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -18818,7 +19094,7 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -18844,7 +19120,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -18870,7 +19146,7 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -18896,7 +19172,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -18922,7 +19198,7 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -18948,7 +19224,7 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -18974,7 +19250,7 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -19000,7 +19276,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -19026,7 +19302,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -19052,7 +19328,7 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -19078,7 +19354,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -19104,7 +19380,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -19130,7 +19406,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -19156,7 +19432,7 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -19182,7 +19458,7 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -19208,7 +19484,7 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -19234,7 +19510,7 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -19260,7 +19536,7 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -19286,7 +19562,7 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -19312,7 +19588,7 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -19338,7 +19614,7 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -19364,7 +19640,7 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -19390,7 +19666,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -19416,7 +19692,7 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -19442,7 +19718,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -19468,7 +19744,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -19494,7 +19770,7 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -19520,7 +19796,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -19546,7 +19822,7 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -19572,7 +19848,7 @@
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -19598,7 +19874,7 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -19624,7 +19900,7 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -19650,7 +19926,7 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -19676,7 +19952,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -19702,7 +19978,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -19728,7 +20004,7 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -19754,7 +20030,7 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -19780,7 +20056,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -19806,7 +20082,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -19832,7 +20108,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -19858,7 +20134,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -19884,7 +20160,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -19910,7 +20186,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -19936,7 +20212,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -19962,7 +20238,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -19988,7 +20264,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -20014,7 +20290,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -20040,7 +20316,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -20066,7 +20342,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -20092,7 +20368,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -20118,7 +20394,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -20144,7 +20420,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -20170,7 +20446,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -20196,7 +20472,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -20222,7 +20498,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -20248,7 +20524,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -20274,7 +20550,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -20300,7 +20576,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -20326,7 +20602,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -20352,7 +20628,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -20378,7 +20654,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -20404,7 +20680,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -20430,7 +20706,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -20456,7 +20732,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -20482,7 +20758,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -20508,7 +20784,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -20534,7 +20810,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -20560,7 +20836,7 @@
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -20586,7 +20862,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -20612,7 +20888,7 @@
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -20638,7 +20914,7 @@
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -20664,7 +20940,7 @@
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -20690,7 +20966,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -20716,7 +20992,7 @@
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -20742,7 +21018,7 @@
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -20768,7 +21044,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -20794,7 +21070,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -20820,7 +21096,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -20846,7 +21122,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -20872,7 +21148,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -20938,23 +21214,23 @@
       <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="77.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="24" width="18.85546875" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="77.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="24" width="18.81640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -21014,7 +21290,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>44665.383020370398</v>
       </c>
@@ -21064,7 +21340,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="47">
         <v>45265.4239930556</v>
       </c>
@@ -21121,7 +21397,7 @@
       <c r="Z3" s="38"/>
       <c r="AA3" s="38"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -21147,7 +21423,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -21173,7 +21449,7 @@
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -21199,7 +21475,7 @@
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -21225,7 +21501,7 @@
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -21251,7 +21527,7 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -21277,7 +21553,7 @@
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -21303,7 +21579,7 @@
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -21329,7 +21605,7 @@
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -21355,7 +21631,7 @@
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -21381,7 +21657,7 @@
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -21407,7 +21683,7 @@
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -21433,7 +21709,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -21459,7 +21735,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -21485,7 +21761,7 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -21511,7 +21787,7 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -21537,7 +21813,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -21563,7 +21839,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -21589,7 +21865,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -21615,7 +21891,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -21641,7 +21917,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -21667,7 +21943,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -21693,7 +21969,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -21719,7 +21995,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -21745,7 +22021,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -21771,7 +22047,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -21797,7 +22073,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -21823,7 +22099,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -21849,7 +22125,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -21875,7 +22151,7 @@
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -21901,7 +22177,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -21927,7 +22203,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -21953,7 +22229,7 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -21979,7 +22255,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -22005,7 +22281,7 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -22031,7 +22307,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -22057,7 +22333,7 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -22083,7 +22359,7 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -22109,7 +22385,7 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -22135,7 +22411,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -22161,7 +22437,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -22187,7 +22463,7 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -22213,7 +22489,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -22239,7 +22515,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -22265,7 +22541,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -22291,7 +22567,7 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -22317,7 +22593,7 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -22343,7 +22619,7 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -22369,7 +22645,7 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -22395,7 +22671,7 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -22421,7 +22697,7 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -22447,7 +22723,7 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -22473,7 +22749,7 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -22499,7 +22775,7 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -22525,7 +22801,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -22551,7 +22827,7 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -22577,7 +22853,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -22603,7 +22879,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -22629,7 +22905,7 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -22655,7 +22931,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -22681,7 +22957,7 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -22707,7 +22983,7 @@
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -22733,7 +23009,7 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -22759,7 +23035,7 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -22785,7 +23061,7 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -22811,7 +23087,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -22837,7 +23113,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -22863,7 +23139,7 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -22889,7 +23165,7 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -22915,7 +23191,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -22941,7 +23217,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -22967,7 +23243,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -22993,7 +23269,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -23019,7 +23295,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -23045,7 +23321,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -23071,7 +23347,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -23097,7 +23373,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -23123,7 +23399,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -23149,7 +23425,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -23175,7 +23451,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -23201,7 +23477,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -23227,7 +23503,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -23253,7 +23529,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -23279,7 +23555,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -23305,7 +23581,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -23331,7 +23607,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -23357,7 +23633,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -23383,7 +23659,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -23409,7 +23685,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -23435,7 +23711,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -23461,7 +23737,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -23487,7 +23763,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -23513,7 +23789,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -23539,7 +23815,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -23565,7 +23841,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -23591,7 +23867,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -23617,7 +23893,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -23643,7 +23919,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -23669,7 +23945,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -23710,31 +23986,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="17" width="18.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="82.28515625" style="1" customWidth="1"/>
-    <col min="19" max="24" width="18.85546875" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="51.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="17" width="18.81640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="82.26953125" style="1" customWidth="1"/>
+    <col min="19" max="24" width="18.81640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -23794,7 +24070,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>44519.396759837997</v>
       </c>
@@ -23836,7 +24112,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>44521.415261921298</v>
       </c>
@@ -23878,7 +24154,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>44521.417680324099</v>
       </c>
@@ -23920,7 +24196,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>44531.422715046298</v>
       </c>
@@ -23962,7 +24238,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>44645.469280208301</v>
       </c>
@@ -24003,7 +24279,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>44664.7695739583</v>
       </c>
@@ -24041,7 +24317,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>44714.613704513897</v>
       </c>
@@ -24079,7 +24355,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>44737.343279629597</v>
       </c>
@@ -24117,7 +24393,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>44748.505962499999</v>
       </c>
@@ -24158,7 +24434,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>44748.507295949101</v>
       </c>
@@ -24199,7 +24475,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>44748.508126967601</v>
       </c>
@@ -24237,7 +24513,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>44769.701641435197</v>
       </c>
@@ -24278,7 +24554,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>44774.632290162001</v>
       </c>
@@ -24319,7 +24595,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>44774.633085995403</v>
       </c>
@@ -24360,7 +24636,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>44774.633985648099</v>
       </c>
@@ -24401,7 +24677,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>44858.786968055603</v>
       </c>
@@ -24439,7 +24715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>44875.434203009303</v>
       </c>
@@ -24471,7 +24747,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>44875.443288541697</v>
       </c>
@@ -24503,7 +24779,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>44969.706999305599</v>
       </c>
@@ -24538,7 +24814,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>44984.918457754597</v>
       </c>
@@ -24570,7 +24846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>44984.920112500004</v>
       </c>
@@ -24602,7 +24878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42">
         <v>45265.412118055603</v>
       </c>
@@ -24643,7 +24919,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47">
         <v>45265.425995370402</v>
       </c>
@@ -24684,7 +24960,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="86">
         <v>45087.540486111109</v>
       </c>
@@ -24723,7 +24999,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="86">
         <v>45087.593599537038</v>
       </c>
@@ -24774,9 +25050,9 @@
       <c r="Z26" s="87"/>
       <c r="AA26" s="87"/>
     </row>
-    <row r="27" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="13"/>
       <c r="C29" s="77"/>
@@ -24792,7 +25068,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="13"/>
       <c r="C30" s="77"/>
@@ -24808,7 +25084,7 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
     </row>
-    <row r="31" spans="1:27" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="13"/>
       <c r="C31" s="77"/>
@@ -24824,15 +25100,15 @@
       <c r="O31" s="13"/>
       <c r="Q31" s="13"/>
     </row>
-    <row r="32" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R40" s="87"/>
       <c r="S40" s="87"/>
       <c r="T40" s="87"/>
@@ -24844,7 +25120,7 @@
       <c r="Z40" s="87"/>
       <c r="AA40" s="87"/>
     </row>
-    <row r="41" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" s="38"/>
       <c r="C41" s="85"/>
@@ -24863,22 +25139,22 @@
       <c r="P41" s="38"/>
       <c r="Q41" s="57"/>
     </row>
-    <row r="42" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:27" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:24" ht="36.6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:27" ht="34" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:27" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:24" ht="36.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:24" ht="37.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:24" ht="35.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="44"/>
       <c r="B57" s="38"/>
       <c r="C57" s="85"/>
@@ -24897,7 +25173,7 @@
       <c r="P57" s="38"/>
       <c r="Q57" s="38"/>
     </row>
-    <row r="58" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="47"/>
       <c r="B58" s="38"/>
       <c r="C58" s="38"/>
@@ -24916,7 +25192,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="38"/>
     </row>
-    <row r="59" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
@@ -24935,7 +25211,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="29"/>
     </row>
-    <row r="60" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="44"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38"/>
@@ -24954,7 +25230,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="38"/>
     </row>
-    <row r="61" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="44"/>
       <c r="B61" s="38"/>
       <c r="C61" s="38"/>
@@ -24973,7 +25249,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="29"/>
     </row>
-    <row r="62" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="44"/>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
@@ -24992,7 +25268,7 @@
       <c r="P62" s="38"/>
       <c r="Q62" s="38"/>
     </row>
-    <row r="63" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="35.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="47"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
@@ -25011,7 +25287,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="29"/>
     </row>
-    <row r="64" spans="1:24" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="47"/>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
@@ -25037,7 +25313,7 @@
       <c r="W64" s="38"/>
       <c r="X64" s="38"/>
     </row>
-    <row r="65" spans="1:27" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R65" s="38"/>
       <c r="S65" s="38"/>
       <c r="T65" s="38"/>
@@ -25049,7 +25325,7 @@
       <c r="Z65" s="38"/>
       <c r="AA65" s="38"/>
     </row>
-    <row r="66" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R66" s="38"/>
       <c r="S66" s="38"/>
       <c r="T66" s="38"/>
@@ -25061,7 +25337,7 @@
       <c r="Z66" s="38"/>
       <c r="AA66" s="38"/>
     </row>
-    <row r="67" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R67" s="38"/>
       <c r="S67" s="38"/>
       <c r="T67" s="38"/>
@@ -25073,7 +25349,7 @@
       <c r="Z67" s="38"/>
       <c r="AA67" s="38"/>
     </row>
-    <row r="68" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R68" s="38"/>
       <c r="S68" s="38"/>
       <c r="T68" s="38"/>
@@ -25085,7 +25361,7 @@
       <c r="Z68" s="38"/>
       <c r="AA68" s="38"/>
     </row>
-    <row r="69" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R69" s="38"/>
       <c r="S69" s="38"/>
       <c r="T69" s="38"/>
@@ -25097,7 +25373,7 @@
       <c r="Z69" s="38"/>
       <c r="AA69" s="38"/>
     </row>
-    <row r="70" spans="1:27" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R70" s="38"/>
       <c r="S70" s="38"/>
       <c r="T70" s="38"/>
@@ -25109,7 +25385,7 @@
       <c r="Z70" s="38"/>
       <c r="AA70" s="38"/>
     </row>
-    <row r="71" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R71" s="38"/>
       <c r="S71" s="38"/>
       <c r="T71" s="38"/>
@@ -25121,7 +25397,7 @@
       <c r="Z71" s="38"/>
       <c r="AA71" s="38"/>
     </row>
-    <row r="72" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R72" s="40"/>
       <c r="S72" s="29"/>
       <c r="T72" s="38"/>
@@ -25133,7 +25409,7 @@
       <c r="Z72" s="38"/>
       <c r="AA72" s="38"/>
     </row>
-    <row r="73" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R73" s="38"/>
       <c r="S73" s="38"/>
       <c r="T73" s="38"/>
@@ -25145,7 +25421,7 @@
       <c r="Z73" s="38"/>
       <c r="AA73" s="38"/>
     </row>
-    <row r="74" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R74" s="38"/>
       <c r="S74" s="38"/>
       <c r="T74" s="38"/>
@@ -25157,7 +25433,7 @@
       <c r="Z74" s="38"/>
       <c r="AA74" s="38"/>
     </row>
-    <row r="75" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="47"/>
       <c r="B75" s="38"/>
       <c r="C75" s="38"/>
@@ -25186,7 +25462,7 @@
       <c r="Z75" s="38"/>
       <c r="AA75" s="38"/>
     </row>
-    <row r="76" spans="1:27" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" ht="39.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44"/>
       <c r="B76" s="38"/>
       <c r="C76" s="38"/>
@@ -25215,7 +25491,7 @@
       <c r="Z76" s="38"/>
       <c r="AA76" s="38"/>
     </row>
-    <row r="77" spans="1:27" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="44"/>
       <c r="B77" s="38"/>
       <c r="C77" s="38"/>
@@ -25244,7 +25520,7 @@
       <c r="Z77" s="38"/>
       <c r="AA77" s="38"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="44"/>
       <c r="B78" s="38"/>
       <c r="C78" s="38"/>
@@ -25273,7 +25549,7 @@
       <c r="Z78" s="38"/>
       <c r="AA78" s="38"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="44"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38"/>
@@ -25302,7 +25578,7 @@
       <c r="Z79" s="38"/>
       <c r="AA79" s="38"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -25328,7 +25604,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -25354,7 +25630,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -25380,7 +25656,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -25406,7 +25682,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -25432,7 +25708,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -25458,7 +25734,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -25484,7 +25760,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -25510,7 +25786,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -25536,7 +25812,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -25562,7 +25838,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -25588,7 +25864,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -25614,7 +25890,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -25640,7 +25916,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -25666,7 +25942,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -25692,7 +25968,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -25718,7 +25994,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -25744,7 +26020,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -25770,7 +26046,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -25796,7 +26072,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -25822,7 +26098,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -25848,7 +26124,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -25874,7 +26150,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -25900,7 +26176,7 @@
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -25926,7 +26202,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -25952,7 +26228,7 @@
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -25978,7 +26254,7 @@
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -26004,7 +26280,7 @@
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -26030,7 +26306,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -26056,7 +26332,7 @@
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -26082,7 +26358,7 @@
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -26108,7 +26384,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -26134,7 +26410,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -26160,7 +26436,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -26186,7 +26462,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -26212,7 +26488,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -26238,7 +26514,7 @@
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -26264,7 +26540,7 @@
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -26290,7 +26566,7 @@
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -26316,7 +26592,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -26342,7 +26618,7 @@
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -26368,7 +26644,7 @@
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -26394,7 +26670,7 @@
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -26420,7 +26696,7 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -26446,7 +26722,7 @@
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -26472,7 +26748,7 @@
       <c r="W124" s="9"/>
       <c r="X124" s="9"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -26498,7 +26774,7 @@
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -26524,7 +26800,7 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -26550,7 +26826,7 @@
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -26576,7 +26852,7 @@
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -26602,7 +26878,7 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -26628,7 +26904,7 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -26654,7 +26930,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -26680,7 +26956,7 @@
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -26706,7 +26982,7 @@
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -26732,7 +27008,7 @@
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -26758,7 +27034,7 @@
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -26784,7 +27060,7 @@
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -26810,7 +27086,7 @@
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -26836,7 +27112,7 @@
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -26862,7 +27138,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -26888,7 +27164,7 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -26914,7 +27190,7 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -26940,7 +27216,7 @@
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -26966,7 +27242,7 @@
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -26992,7 +27268,7 @@
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -27018,7 +27294,7 @@
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -27044,7 +27320,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -27070,7 +27346,7 @@
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -27096,7 +27372,7 @@
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -27122,7 +27398,7 @@
       <c r="W149" s="9"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -27148,7 +27424,7 @@
       <c r="W150" s="9"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -27174,7 +27450,7 @@
       <c r="W151" s="9"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -27200,7 +27476,7 @@
       <c r="W152" s="9"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -27226,7 +27502,7 @@
       <c r="W153" s="9"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -27252,7 +27528,7 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -27278,7 +27554,7 @@
       <c r="W155" s="9"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -27304,7 +27580,7 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -27330,7 +27606,7 @@
       <c r="W157" s="9"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -27356,7 +27632,7 @@
       <c r="W158" s="9"/>
       <c r="X158" s="9"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -27382,7 +27658,7 @@
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -27408,7 +27684,7 @@
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -27434,7 +27710,7 @@
       <c r="W161" s="9"/>
       <c r="X161" s="9"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -27460,7 +27736,7 @@
       <c r="W162" s="9"/>
       <c r="X162" s="9"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -27509,20 +27785,20 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="59" customWidth="1"/>
-    <col min="4" max="5" width="11.140625" style="59" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="58" customWidth="1"/>
-    <col min="7" max="7" width="61.7109375" style="58" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" style="58" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" customWidth="1"/>
-    <col min="10" max="1024" width="11.5703125" style="60"/>
+    <col min="1" max="1" width="38.81640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="48.453125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="59" customWidth="1"/>
+    <col min="4" max="5" width="11.1796875" style="59" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" style="58" customWidth="1"/>
+    <col min="7" max="7" width="61.7265625" style="58" customWidth="1"/>
+    <col min="8" max="8" width="66.7265625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="25.54296875" customWidth="1"/>
+    <col min="10" max="1024" width="11.54296875" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1024" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>629</v>
       </c>
@@ -27548,7 +27824,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
         <v>667</v>
       </c>
@@ -27571,7 +27847,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>691</v>
       </c>
@@ -27591,7 +27867,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
         <v>634</v>
       </c>
@@ -27614,7 +27890,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
         <v>678</v>
       </c>
@@ -27634,7 +27910,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="s">
         <v>663</v>
       </c>
@@ -27654,7 +27930,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1024" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
         <v>675</v>
       </c>
@@ -27677,7 +27953,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>681</v>
       </c>
@@ -27697,7 +27973,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
         <v>701</v>
       </c>
@@ -27719,7 +27995,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
         <v>729</v>
       </c>
@@ -27741,7 +28017,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>632</v>
       </c>
@@ -27761,7 +28037,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>272</v>
       </c>
@@ -28796,7 +29072,7 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>671</v>
       </c>
@@ -28820,7 +29096,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>657</v>
       </c>
@@ -28844,7 +29120,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>203</v>
       </c>
@@ -28867,7 +29143,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>912</v>
       </c>
@@ -28889,7 +29165,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="17" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>652</v>
       </c>
@@ -28911,7 +29187,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="18" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>721</v>
       </c>
@@ -28933,7 +29209,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="19" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>712</v>
       </c>
@@ -28955,7 +29231,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="20" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>649</v>
       </c>
@@ -28975,7 +29251,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="21" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
         <v>639</v>
       </c>
@@ -28995,7 +29271,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="22" spans="1:1024" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1024" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
         <v>660</v>
       </c>
@@ -29018,7 +29294,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="23" spans="1:1024" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1024" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="63" t="s">
         <v>641</v>
       </c>
@@ -29038,7 +29314,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="24" spans="1:1024" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1024" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="63" t="s">
         <v>685</v>
       </c>
@@ -29060,7 +29336,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="25" spans="1:1024" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1024" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="71" t="s">
         <v>643</v>
       </c>
@@ -29083,7 +29359,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="26" spans="1:1024" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1024" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="69" t="s">
         <v>687</v>
       </c>
@@ -30122,7 +30398,7 @@
       <c r="AMI26"/>
       <c r="AMJ26"/>
     </row>
-    <row r="27" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -30132,51 +30408,51 @@
       <c r="G27"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="31" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="G31" s="77"/>
     </row>
-    <row r="32" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="G32" s="77"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="78"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="77"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" s="77"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" s="77"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" s="77"/>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="38" sp